--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\IdeaProjects\Alex\curso_aws_cp_essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF852281-1655-4473-B584-25C8CD797FAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A4CCD-C1A8-4E05-889B-0AB5223CCEC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8284D5B2-EACA-4708-BA44-3A8A22C79AAA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="289">
   <si>
     <t>EC2</t>
   </si>
@@ -760,6 +760,138 @@
   </si>
   <si>
     <t>Make Auditor-friendly reports</t>
+  </si>
+  <si>
+    <t>OpenSearch</t>
+  </si>
+  <si>
+    <t>Connect &amp; Search &amp; Analyze data</t>
+  </si>
+  <si>
+    <t>Parameter Store</t>
+  </si>
+  <si>
+    <t>Service Catalog</t>
+  </si>
+  <si>
+    <t>Proton</t>
+  </si>
+  <si>
+    <t>Standard service templates to avoid multiple users creating diff solutions</t>
+  </si>
+  <si>
+    <t>Standard template for serverless applications (Lambda, ECS, etc...)</t>
+  </si>
+  <si>
+    <t>Launch Wizard</t>
+  </si>
+  <si>
+    <t>Launches pre-defined applications, such as SAP</t>
+  </si>
+  <si>
+    <t>CloudHSM</t>
+  </si>
+  <si>
+    <t>Custom key store</t>
+  </si>
+  <si>
+    <t>AWS Managed</t>
+  </si>
+  <si>
+    <t>KMS vs Cloud HSM</t>
+  </si>
+  <si>
+    <t>Cloud HSM x KMS</t>
+  </si>
+  <si>
+    <t>Secrets Manager</t>
+  </si>
+  <si>
+    <t>Store secret values</t>
+  </si>
+  <si>
+    <t>Amazon Macie</t>
+  </si>
+  <si>
+    <t>Detects possibly unprotected data</t>
+  </si>
+  <si>
+    <t>Define what is sensitive data and what is not</t>
+  </si>
+  <si>
+    <t>Detects unencrypted data, for ex.</t>
+  </si>
+  <si>
+    <t>Security Hub</t>
+  </si>
+  <si>
+    <t>Centralize security services administration</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>AWS's browser-based IDE</t>
+  </si>
+  <si>
+    <t>CodeCommit</t>
+  </si>
+  <si>
+    <t>CodeBuild</t>
+  </si>
+  <si>
+    <t>CodeDeploy</t>
+  </si>
+  <si>
+    <t>CodePipeline</t>
+  </si>
+  <si>
+    <t>CodeStar</t>
+  </si>
+  <si>
+    <t>AWS's github-like repository</t>
+  </si>
+  <si>
+    <t>Build and test applications</t>
+  </si>
+  <si>
+    <t>Artifact (build's output)</t>
+  </si>
+  <si>
+    <t>Buildspec file</t>
+  </si>
+  <si>
+    <t>CodeArtifact</t>
+  </si>
+  <si>
+    <t>Stores code "packages" or libs publicly or privately</t>
+  </si>
+  <si>
+    <t>Deploys codes to selected AWS service (EC2, ECS, Lambda)</t>
+  </si>
+  <si>
+    <t>CI/CD tool that can integrate CodeCommit, CodeBuild and CodeDeploy.</t>
+  </si>
+  <si>
+    <t>Defines steps to deliver an application</t>
+  </si>
+  <si>
+    <t>Simplified CodePipeline</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Compute Optimizer</t>
+  </si>
+  <si>
+    <t>AWS service to run batch jobs</t>
+  </si>
+  <si>
+    <t>Uses ML to analyze CloudWatch metrics</t>
+  </si>
+  <si>
+    <t>Recommends improvements (ex: using a different instance type, change instance settings)</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,7 +1147,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,23 +1180,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1066,29 +1207,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,32 +1535,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D45794-FD09-4E12-A411-520C13E469B2}">
-  <dimension ref="A1:C318"/>
+  <dimension ref="A1:C379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C304" sqref="C304"/>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1442,36 +1568,36 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1479,35 +1605,35 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -1516,49 +1642,49 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="31"/>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="31"/>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="31"/>
       <c r="C15" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="31"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="31"/>
       <c r="C17" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1566,16 +1692,16 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="33"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1586,10 +1712,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1598,10 +1724,10 @@
       <c r="B28" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1612,10 +1738,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="13"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1624,13 +1750,13 @@
       <c r="B34" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1638,31 +1764,31 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1670,16 +1796,16 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="11"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -1688,10 +1814,10 @@
       <c r="B47" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -1702,10 +1828,10 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1716,10 +1842,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="13"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -1730,16 +1856,16 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="34" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="13"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -1750,13 +1876,13 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -1764,19 +1890,19 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="13"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -1784,61 +1910,61 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="13"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -1846,37 +1972,37 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B84" s="11"/>
+      <c r="B84" s="13"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -1884,82 +2010,82 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -1970,13 +2096,13 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B102" s="11"/>
+      <c r="B102" s="13"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -1984,19 +2110,19 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
+      <c r="A104" s="19"/>
       <c r="B104" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B106" s="11"/>
+      <c r="B106" s="13"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -2004,28 +2130,28 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="17"/>
       <c r="B110" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B112" s="11"/>
+      <c r="B112" s="13"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
@@ -2036,13 +2162,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="11"/>
+      <c r="B115" s="13"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -2050,19 +2176,19 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B119" s="11"/>
+      <c r="B119" s="13"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -2070,55 +2196,55 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
+      <c r="A123" s="19"/>
       <c r="B123" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
+      <c r="A124" s="19"/>
       <c r="B124" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
+      <c r="A125" s="19"/>
       <c r="B125" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
+      <c r="A126" s="19"/>
       <c r="B126" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
+      <c r="A127" s="19"/>
       <c r="B127" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B129" s="11"/>
+      <c r="B129" s="13"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -2126,962 +2252,1261 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
+      <c r="A131" s="19"/>
       <c r="B131" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
+      <c r="A132" s="19"/>
       <c r="B132" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
+      <c r="A133" s="19"/>
       <c r="B133" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
+      <c r="A134" s="19"/>
       <c r="B134" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
+      <c r="A135" s="19"/>
       <c r="B135" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
+      <c r="A136" s="19"/>
       <c r="B136" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="34" t="s">
+      <c r="A137" s="7"/>
+      <c r="B137" s="12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B139" s="11"/>
+      <c r="B139" s="13"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>92</v>
       </c>
     </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="16"/>
+      <c r="B142" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B142" s="11"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" s="3" t="s">
+      <c r="B144" s="13"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
-      <c r="B144" s="3" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="19"/>
+      <c r="B146" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
-      <c r="B145" s="5" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="19"/>
+      <c r="B147" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
-      <c r="B146" s="3" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="19"/>
+      <c r="B148" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B148" s="11"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="4" t="s">
+      <c r="B150" s="13"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="5" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="17"/>
+      <c r="B152" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B152" s="11"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="B154" s="13"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="3" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="17"/>
+      <c r="B156" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="5" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="17"/>
+      <c r="B157" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="3" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="17"/>
+      <c r="B158" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="3" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="17"/>
+      <c r="B159" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="3" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="17"/>
+      <c r="B160" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="5" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="17"/>
+      <c r="B161" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="5" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="17"/>
+      <c r="B162" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B162" s="11"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="3" t="s">
+      <c r="B164" s="13"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
-      <c r="B164" s="4" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="19"/>
+      <c r="B166" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
-      <c r="B165" s="4" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="19"/>
+      <c r="B167" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B167" s="11"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="3" t="s">
+      <c r="B169" s="13"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="5" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="17"/>
+      <c r="B171" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="11" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B171" s="11"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="3" t="s">
+      <c r="B173" s="13"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="5" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="17"/>
+      <c r="B175" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B175" s="11"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="4" t="s">
+      <c r="B177" s="13"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="3" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="17"/>
+      <c r="B179" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="3" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="17"/>
+      <c r="B180" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
-      <c r="B179" s="3" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="17"/>
+      <c r="B181" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="3" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="17"/>
+      <c r="B182" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="11" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B182" s="11"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="3" t="s">
+      <c r="B184" s="13"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="5" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="17"/>
+      <c r="B186" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="11" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B186" s="11"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B187" s="4" t="s">
+      <c r="B188" s="13"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="4" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="17"/>
+      <c r="B190" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-      <c r="B189" s="3" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="17"/>
+      <c r="B191" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
-      <c r="B190" s="3" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="17"/>
+      <c r="B192" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="11" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B192" s="11"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="3" t="s">
+      <c r="B194" s="13"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="11" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B195" s="11"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B196" s="3" t="s">
+      <c r="B197" s="13"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-      <c r="B197" s="3" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="17"/>
+      <c r="B199" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B199" s="11"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" s="5" t="s">
+      <c r="B201" s="13"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="11" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B202" s="11"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="3" t="s">
+      <c r="B204" s="13"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
-      <c r="B204" s="5" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="17"/>
+      <c r="B206" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="11" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B206" s="11"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="3" t="s">
+      <c r="B208" s="13"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
-      <c r="B208" s="4" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="17"/>
+      <c r="B210" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="10"/>
-      <c r="B209" s="3" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="17"/>
+      <c r="B211" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="5" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="17"/>
+      <c r="B212" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="11" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B212" s="11"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B213" s="3" t="s">
+      <c r="B214" s="13"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="11" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B215" s="11"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B216" s="3" t="s">
+      <c r="B217" s="13"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="11" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B218" s="11"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B219" s="3" t="s">
+      <c r="B220" s="13"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
-      <c r="B220" s="3" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="17"/>
+      <c r="B222" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="10"/>
-      <c r="B221" s="3" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="17"/>
+      <c r="B223" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="11" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B223" s="11"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="3" t="s">
+      <c r="B225" s="13"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="11" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B226" s="11"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B227" s="4" t="s">
+      <c r="B228" s="13"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="11" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B229" s="11"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B230" s="4" t="s">
+      <c r="B231" s="13"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
-      <c r="B231" s="3" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="17"/>
+      <c r="B233" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="11" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B233" s="11"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" s="3" t="s">
+      <c r="B235" s="13"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="13"/>
-      <c r="B235" s="3" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="19"/>
+      <c r="B237" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="13"/>
-      <c r="B236" s="3" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="19"/>
+      <c r="B238" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="11" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B238" s="11"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B239" s="9" t="s">
+      <c r="B240" s="13"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
-      <c r="B240" s="9" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="17"/>
+      <c r="B242" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="11" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B242" s="11"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B243" s="4" t="s">
+      <c r="B244" s="13"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="13"/>
-      <c r="B244" s="4" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="19"/>
+      <c r="B246" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="13"/>
-      <c r="B245" s="4" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="19"/>
+      <c r="B247" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="13"/>
-      <c r="B246" s="4" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="19"/>
+      <c r="B248" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="13"/>
-      <c r="B247" s="4" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="19"/>
+      <c r="B249" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="11" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B249" s="11"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B250" s="4" t="s">
+      <c r="B251" s="13"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="11" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B252" s="11"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B253" s="4" t="s">
+      <c r="B254" s="13"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="11" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B255" s="11"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B256" s="4" t="s">
+      <c r="B257" s="13"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="11" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B258" s="11"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B259" s="4" t="s">
+      <c r="B260" s="13"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="11" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B261" s="11"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B262" s="3" t="s">
+      <c r="B263" s="13"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="11" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B264" s="11"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B265" s="4" t="s">
+      <c r="B266" s="13"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
-      <c r="B266" s="4" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="17"/>
+      <c r="B268" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="11" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B268" s="11"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B269" s="4" t="s">
+      <c r="B270" s="13"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="17"/>
-      <c r="B270" s="4" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="15"/>
+      <c r="B272" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="18"/>
-      <c r="B271" s="4" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="16"/>
+      <c r="B273" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="11" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B273" s="11"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B274" s="4" t="s">
+      <c r="B275" s="13"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="15"/>
-      <c r="B275" s="5" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="21"/>
+      <c r="B277" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="11" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B277" s="11"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B278" s="4" t="s">
+      <c r="B279" s="13"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="11" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B280" s="11"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B281" s="3" t="s">
+      <c r="B282" s="13"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="10"/>
-      <c r="B282" s="3" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="17"/>
+      <c r="B284" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="11" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B284" s="11"/>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B285" s="3" t="s">
+      <c r="B286" s="13"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="11" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B287" s="11"/>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B288" s="3" t="s">
+      <c r="B289" s="13"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="11" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B290" s="11"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B291" s="3" t="s">
+      <c r="B292" s="13"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="11" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B293" s="11"/>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B294" s="3" t="s">
+      <c r="B295" s="13"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="11" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B296" s="11"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B297" s="3" t="s">
+      <c r="B298" s="13"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="11" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B299" s="11"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B300" s="3" t="s">
+      <c r="B301" s="13"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="11" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B302" s="11"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B303" s="3" t="s">
+      <c r="B304" s="13"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="11" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+      <c r="B306" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B305" s="11"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B306" s="3" t="s">
+      <c r="B308" s="13"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="10"/>
-      <c r="B307" s="3" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="17"/>
+      <c r="B310" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="11" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B309" s="11"/>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B310" s="3" t="s">
+      <c r="B312" s="13"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="11" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B312" s="11"/>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B313" s="3" t="s">
+      <c r="B315" s="13"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="13"/>
-      <c r="B314" s="3" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="19"/>
+      <c r="B317" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="11" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B319" s="13"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B316" s="11"/>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B317" s="3" t="s">
+      <c r="B322" s="13"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="10"/>
-      <c r="B318" s="3" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="17"/>
+      <c r="B324" s="3" t="s">
         <v>211</v>
       </c>
     </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B326" s="13"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B329" s="13"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B332" s="13"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B335" s="13"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="17"/>
+      <c r="B337" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B339" s="13"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B342" s="13"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="15"/>
+      <c r="B344" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="16"/>
+      <c r="B345" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B347" s="13"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B350" s="13"/>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B353" s="13"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B356" s="13"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="15"/>
+      <c r="B358" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="16"/>
+      <c r="B359" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B361" s="13"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B364" s="13"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="17"/>
+      <c r="B366" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B368" s="13"/>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B371" s="13"/>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B374" s="13"/>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B377" s="13"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="16"/>
+      <c r="B379" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="132">
+    <mergeCell ref="A378:A379"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A153:A160"/>
+    <mergeCell ref="A155:A162"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A42:B42"/>
@@ -3110,80 +3535,102 @@
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A154:B154"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A120:A127"/>
     <mergeCell ref="A129:B129"/>
     <mergeCell ref="A130:A136"/>
     <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:A180"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A187:A190"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:A210"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:A182"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A283:A284"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A269:A271"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:A273"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A245:A249"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A343:A345"/>
+    <mergeCell ref="A323:A324"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:A310"/>
     <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="A374:B374"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="A361:B361"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A357:A359"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="A365:A366"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="362">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -982,6 +982,12 @@
     <t xml:space="preserve">Software as a Service (Everything is set up, ready softwares, such as gmail, drive, dropbox, etc…)</t>
   </si>
   <si>
+    <t xml:space="preserve">IaC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure as Code (Terraform, CloudFormation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multitenancy</t>
   </si>
   <si>
@@ -1000,52 +1006,106 @@
     <t xml:space="preserve">AWS Budgets</t>
   </si>
   <si>
+    <t xml:space="preserve">Set cost limits and get notificated when it gets surpassed (ex: 75% of 1000)</t>
+  </si>
+  <si>
     <t xml:space="preserve">AWS Cost Explorer</t>
   </si>
   <si>
+    <t xml:space="preserve">Check your monthly sprends and expected monthly bill based on your usage</t>
+  </si>
+  <si>
     <t xml:space="preserve">AWS Health Dashboard</t>
   </si>
   <si>
+    <t xml:space="preserve">Check your services health</t>
+  </si>
+  <si>
     <t xml:space="preserve">AWS Service Quotas</t>
   </si>
   <si>
+    <t xml:space="preserve">Check for the limits of certain services (ex: it’s only allowed 5 Elastic IPs per account)</t>
+  </si>
+  <si>
     <t xml:space="preserve">VPC Flow log</t>
   </si>
   <si>
+    <t xml:space="preserve">Monitor everything that happens inside of a VPC</t>
+  </si>
+  <si>
     <t xml:space="preserve">AWS Acceptable Use Policy</t>
   </si>
   <si>
+    <t xml:space="preserve">Rules of what is and is not allowed to host on AWS</t>
+  </si>
+  <si>
     <t xml:space="preserve">AppRunner</t>
   </si>
   <si>
+    <t xml:space="preserve">Runs containerized apps</t>
+  </si>
+  <si>
     <t xml:space="preserve">CIDR IP Ranges</t>
   </si>
   <si>
+    <t xml:space="preserve">Defines how many bits of an IP address are locked (ex: 0.0.0.0/0 means that 0 bits are locked)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elastic Ips</t>
   </si>
   <si>
+    <t xml:space="preserve">Max of 5 per account. Fixed Ips to use on other services, so restarting them won’t change the IP.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VPC Peering</t>
   </si>
   <si>
+    <t xml:space="preserve">Used to connect 2 VPCs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transit Gateways</t>
   </si>
   <si>
+    <t xml:space="preserve">Used to connect more than 2 VPCs</t>
+  </si>
+  <si>
     <t xml:space="preserve">VPC Endpoints</t>
   </si>
   <si>
+    <t xml:space="preserve">AWS PrivateLink uses VPC endpoints to establish a connection between a VPC and other AWS services without internet</t>
+  </si>
+  <si>
     <t xml:space="preserve">AWS Privatelink</t>
   </si>
   <si>
+    <t xml:space="preserve">Used to connect VPCs to AWS Services without establishing an internet connection with Internet Gateways os NAT Gateways</t>
+  </si>
+  <si>
     <t xml:space="preserve">Local Zones</t>
   </si>
   <si>
+    <t xml:space="preserve">Smaller AWS Region close to big metropolitan areas. Achieves very low latency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Delivery of on-premises server to access AWS services from on-premises. Limited services.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wavelength Zones</t>
   </si>
   <si>
+    <t xml:space="preserve">AWS Services into 5G networks. Very low latency. Limited set of services available.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global Accelerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Improves user-traffic performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">S3 Transfer Acceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improves data transfer speed through edge network</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1321,10 +1381,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,14 +1460,14 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A296" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C307" activeCellId="0" sqref="C307"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="19.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="92.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="102.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="9.14"/>
   </cols>
@@ -3385,35 +3441,35 @@
       <c r="B383" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C383" s="9" t="s">
+      <c r="C383" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="11"/>
       <c r="B384" s="18"/>
-      <c r="C384" s="9" t="s">
+      <c r="C384" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="11"/>
       <c r="B385" s="18"/>
-      <c r="C385" s="9" t="s">
+      <c r="C385" s="5" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="11"/>
       <c r="B386" s="18"/>
-      <c r="C386" s="9" t="s">
+      <c r="C386" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="11"/>
       <c r="B387" s="18"/>
-      <c r="C387" s="9" t="s">
+      <c r="C387" s="5" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3422,42 +3478,42 @@
       <c r="B388" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="C388" s="9" t="s">
+      <c r="C388" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="11"/>
       <c r="B389" s="19"/>
-      <c r="C389" s="9" t="s">
+      <c r="C389" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="11"/>
       <c r="B390" s="19"/>
-      <c r="C390" s="9" t="s">
+      <c r="C390" s="5" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="11"/>
       <c r="B391" s="19"/>
-      <c r="C391" s="9" t="s">
+      <c r="C391" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="11"/>
       <c r="B392" s="19"/>
-      <c r="C392" s="9" t="s">
+      <c r="C392" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="11"/>
       <c r="B393" s="19"/>
-      <c r="C393" s="9" t="s">
+      <c r="C393" s="5" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3561,7 +3617,7 @@
       <c r="H410" s="0"/>
     </row>
     <row r="411" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="9" t="s">
+      <c r="A411" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B411" s="22" t="s">
@@ -3571,7 +3627,7 @@
       <c r="H411" s="0"/>
     </row>
     <row r="412" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="9" t="s">
+      <c r="A412" s="5" t="s">
         <v>314</v>
       </c>
       <c r="B412" s="22" t="s">
@@ -3581,7 +3637,7 @@
       <c r="H412" s="0"/>
     </row>
     <row r="413" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="9" t="s">
+      <c r="A413" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B413" s="22" t="s">
@@ -3591,7 +3647,7 @@
       <c r="H413" s="0"/>
     </row>
     <row r="414" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="9" t="s">
+      <c r="A414" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B414" s="22" t="s">
@@ -3601,7 +3657,7 @@
       <c r="H414" s="0"/>
     </row>
     <row r="415" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="6" t="s">
+      <c r="A415" s="5" t="s">
         <v>320</v>
       </c>
       <c r="B415" s="22" t="s">
@@ -3621,156 +3677,201 @@
       <c r="H416" s="0"/>
     </row>
     <row r="417" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="9" t="s">
+      <c r="A417" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B417" s="22"/>
+      <c r="B417" s="22" t="s">
+        <v>325</v>
+      </c>
       <c r="G417" s="0"/>
       <c r="H417" s="0"/>
     </row>
     <row r="418" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B418" s="22"/>
       <c r="G418" s="0"/>
       <c r="H418" s="0"/>
     </row>
     <row r="419" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A419" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B419" s="22"/>
+      <c r="A419" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B419" s="22" t="s">
+        <v>328</v>
+      </c>
       <c r="G419" s="0"/>
       <c r="H419" s="0"/>
     </row>
     <row r="420" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B420" s="22"/>
+      <c r="A420" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B420" s="22" t="s">
+        <v>330</v>
+      </c>
       <c r="G420" s="0"/>
       <c r="H420" s="0"/>
     </row>
     <row r="421" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B421" s="22"/>
+        <v>331</v>
+      </c>
+      <c r="B421" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="G421" s="0"/>
       <c r="H421" s="0"/>
     </row>
     <row r="422" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B422" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="B422" s="22" t="s">
+        <v>334</v>
+      </c>
       <c r="G422" s="0"/>
       <c r="H422" s="0"/>
     </row>
     <row r="423" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B423" s="22"/>
+      <c r="A423" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B423" s="22" t="s">
+        <v>336</v>
+      </c>
       <c r="G423" s="0"/>
       <c r="H423" s="0"/>
     </row>
     <row r="424" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B424" s="22"/>
+        <v>337</v>
+      </c>
+      <c r="B424" s="22" t="s">
+        <v>338</v>
+      </c>
       <c r="G424" s="0"/>
       <c r="H424" s="0"/>
     </row>
     <row r="425" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B425" s="22"/>
+        <v>339</v>
+      </c>
+      <c r="B425" s="22" t="s">
+        <v>340</v>
+      </c>
       <c r="G425" s="0"/>
       <c r="H425" s="0"/>
     </row>
     <row r="426" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A426" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B426" s="22"/>
+      <c r="A426" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B426" s="22" t="s">
+        <v>342</v>
+      </c>
       <c r="G426" s="0"/>
       <c r="H426" s="0"/>
     </row>
     <row r="427" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A427" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B427" s="22"/>
+      <c r="A427" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B427" s="22" t="s">
+        <v>344</v>
+      </c>
       <c r="G427" s="0"/>
       <c r="H427" s="0"/>
     </row>
     <row r="428" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A428" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B428" s="22"/>
+      <c r="A428" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B428" s="22" t="s">
+        <v>346</v>
+      </c>
       <c r="G428" s="0"/>
       <c r="H428" s="0"/>
     </row>
     <row r="429" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B429" s="22"/>
+      <c r="A429" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B429" s="22" t="s">
+        <v>348</v>
+      </c>
       <c r="G429" s="0"/>
       <c r="H429" s="0"/>
     </row>
     <row r="430" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B430" s="22"/>
+      <c r="A430" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B430" s="22" t="s">
+        <v>350</v>
+      </c>
       <c r="G430" s="0"/>
       <c r="H430" s="0"/>
     </row>
     <row r="431" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B431" s="23"/>
+      <c r="A431" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B431" s="22" t="s">
+        <v>352</v>
+      </c>
       <c r="G431" s="0"/>
       <c r="H431" s="0"/>
     </row>
     <row r="432" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B432" s="23"/>
+      <c r="A432" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B432" s="22" t="s">
+        <v>354</v>
+      </c>
       <c r="G432" s="0"/>
       <c r="H432" s="0"/>
     </row>
     <row r="433" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A433" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B433" s="23"/>
+      <c r="A433" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B433" s="22" t="s">
+        <v>355</v>
+      </c>
       <c r="G433" s="0"/>
       <c r="H433" s="0"/>
     </row>
     <row r="434" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A434" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B434" s="23"/>
+      <c r="A434" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B434" s="22" t="s">
+        <v>357</v>
+      </c>
       <c r="G434" s="0"/>
       <c r="H434" s="0"/>
     </row>
     <row r="435" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B435" s="23"/>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>358</v>
+      </c>
+      <c r="B435" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="G435" s="0"/>
+      <c r="H435" s="0"/>
+    </row>
+    <row r="436" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A436" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B436" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="393">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Memory optimized</t>
   </si>
   <si>
-    <t xml:space="preserve">Accelerated computing</t>
+    <t xml:space="preserve">Accelerated computing (machine learning, floating points!)</t>
   </si>
   <si>
     <t xml:space="preserve">Storage optimized</t>
@@ -70,10 +70,10 @@
     <t xml:space="preserve">On-demand</t>
   </si>
   <si>
-    <t xml:space="preserve">Savings plans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reserved instances</t>
+    <t xml:space="preserve">Savings plans (commitment on usage, regardless of PC specs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved instances (specific PC specs)</t>
   </si>
   <si>
     <t xml:space="preserve">Spot instances </t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">Route 53</t>
   </si>
   <si>
-    <t xml:space="preserve">Hosted zone (config for domains, or rules)</t>
+    <t xml:space="preserve">Hosted zone (configurations for domains)</t>
   </si>
   <si>
     <t xml:space="preserve">DNS records (forwarding of requests)</t>
@@ -220,6 +220,9 @@
     <t xml:space="preserve">Regional-level service</t>
   </si>
   <si>
+    <t xml:space="preserve">Extensibleness? Scalability?</t>
+  </si>
+  <si>
     <t xml:space="preserve">S3</t>
   </si>
   <si>
@@ -286,10 +289,10 @@
     <t xml:space="preserve">Scalable</t>
   </si>
   <si>
-    <t xml:space="preserve">Global tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAX</t>
+    <t xml:space="preserve">Global tables (replication to diff regions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAX (in memory cache query accelerator)</t>
   </si>
   <si>
     <t xml:space="preserve">ElastiCache</t>
@@ -352,10 +355,10 @@
     <t xml:space="preserve">Principle of least privilege</t>
   </si>
   <si>
-    <t xml:space="preserve">Access advisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access analyzer</t>
+    <t xml:space="preserve">Access advisor (info on permissions of a certain user)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access analyzer (analyzes if users are receiving more permissions than they should)</t>
   </si>
   <si>
     <t xml:space="preserve">Identity federation</t>
@@ -373,6 +376,9 @@
     <t xml:space="preserve">KMS vs Cloud HSM</t>
   </si>
   <si>
+    <t xml:space="preserve">Multi-tenant</t>
+  </si>
+  <si>
     <t xml:space="preserve">CloudWatch</t>
   </si>
   <si>
@@ -496,7 +502,7 @@
     <t xml:space="preserve">Standard service configuration and notifications if it changes</t>
   </si>
   <si>
-    <t xml:space="preserve">Partnet Network</t>
+    <t xml:space="preserve">Partner Network</t>
   </si>
   <si>
     <t xml:space="preserve">3rd parties seeking AWS Approval for benefits, such as selling on AWS Marketplace</t>
@@ -802,6 +808,9 @@
     <t xml:space="preserve">Cloud HSM x KMS</t>
   </si>
   <si>
+    <t xml:space="preserve">DOESN’T USE multi-tenancy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Secrets Manager</t>
   </si>
   <si>
@@ -943,6 +952,9 @@
     <t xml:space="preserve">Performance efficiency</t>
   </si>
   <si>
+    <t xml:space="preserve">Sustainability</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAM</t>
   </si>
   <si>
@@ -1106,6 +1118,87 @@
   </si>
   <si>
     <t xml:space="preserve">Improves data transfer speed through edge network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erros do simulado 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost and usage report (exports data do S3, reports from more time ago) x Cost Explorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are snowfamily transfers done offline? YES!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read THE WHOLE QUESTION!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance connect, session manager and SSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud concepts on their PDF that I hadn’t studied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agility (Refers to the possibility of using cloud resources within seconds or minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global reach (Benefit from the global reach that AWS offers with its many regions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economy of scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost of Ownership (TCO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Knowledge Center (AWS’s overall info about services, videos, etc…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-in with cloud/Cloud native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS VPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Global Accelerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Whitepapers (guides, information related to a certain feature)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved instances on AWS Organizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Cost and usage report x AWS Cost explorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The role of the Concierge for AWS Enterprise Support Plan customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Simple Monthly Calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify how tags are used in cost allocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMI’s (Amazon Machine Images)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Professional Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Support tiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon WorkSpaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS License Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop guessing capacity</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1239,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,19 +1261,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2E75B6"/>
-        <bgColor rgb="FF0066CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF2A6099"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF00A933"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
     <fill>
@@ -1192,19 +1285,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFEC9BA4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFA7074B"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE6E905"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E905"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1223,6 +1328,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA7074B"/>
         <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9211E"/>
+        <bgColor rgb="FFA7074B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF611729"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF2E75B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC9BA4"/>
+        <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
   </fills>
@@ -1288,7 +1417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1337,11 +1466,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1349,7 +1474,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1357,11 +1490,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1369,16 +1498,52 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1401,7 +1566,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF548235"/>
       <rgbColor rgb="FFA7074B"/>
@@ -1412,13 +1577,13 @@
       <rgbColor rgb="FFA1467E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FF611729"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFE6E905"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1429,7 +1594,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF4B183"/>
       <rgbColor rgb="FF2E75B6"/>
@@ -1444,7 +1609,7 @@
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1458,17 +1623,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A441" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C459" activeCellId="0" sqref="C459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="19.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="102.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="9.14"/>
   </cols>
   <sheetData>
@@ -1493,28 +1658,28 @@
     <row r="3" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1523,35 +1688,35 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1560,14 +1725,14 @@
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1581,14 +1746,14 @@
     <row r="15" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1610,13 +1775,13 @@
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1630,653 +1795,659 @@
       <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="26" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
     <row r="27" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5"/>
+      <c r="A27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
     <row r="33" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="A33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="2"/>
+      <c r="A36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="A37" s="11"/>
       <c r="B37" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11"/>
-      <c r="B38" s="6" t="s">
-        <v>32</v>
+      <c r="B38" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11"/>
       <c r="B39" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11"/>
-      <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="41" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
     <row r="42" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="2"/>
+      <c r="A42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11"/>
-      <c r="B44" s="6" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="5" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="45" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
     <row r="46" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="51" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
     <row r="52" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
     <row r="55" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="2"/>
+      <c r="A55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
     <row r="59" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="61" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="2"/>
+    </row>
     <row r="62" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="2"/>
+      <c r="A62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11"/>
-      <c r="B64" s="5" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="9" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="65" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="2"/>
+    </row>
     <row r="66" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="2"/>
+      <c r="A66" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A67" s="13"/>
       <c r="B67" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14"/>
-      <c r="B68" s="5" t="s">
-        <v>53</v>
+      <c r="A68" s="13"/>
+      <c r="B68" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14"/>
-      <c r="B69" s="5" t="s">
-        <v>54</v>
+      <c r="A69" s="13"/>
+      <c r="B69" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14"/>
-      <c r="B70" s="5" t="s">
-        <v>55</v>
+      <c r="A70" s="13"/>
+      <c r="B70" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14"/>
-      <c r="B71" s="9" t="s">
-        <v>56</v>
+      <c r="A71" s="13"/>
+      <c r="B71" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15" t="s">
-        <v>57</v>
+      <c r="A72" s="13"/>
+      <c r="B72" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14"/>
-      <c r="B73" s="5" t="s">
-        <v>58</v>
+      <c r="A73" s="13"/>
+      <c r="B73" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="14"/>
-      <c r="B74" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12"/>
-      <c r="B75" s="15" t="s">
+      <c r="B74" s="15" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="76" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="2"/>
+    </row>
     <row r="77" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" s="2"/>
+      <c r="A77" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A78" s="13"/>
       <c r="B78" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14"/>
-      <c r="B79" s="6" t="s">
-        <v>63</v>
+      <c r="A79" s="13"/>
+      <c r="B79" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14"/>
-      <c r="B81" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14"/>
-      <c r="B82" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A81" s="13"/>
+      <c r="B81" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="2"/>
+      <c r="A84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>67</v>
+      <c r="A85" s="11"/>
+      <c r="B85" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="11"/>
       <c r="B86" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="11"/>
-      <c r="B87" s="6" t="s">
-        <v>69</v>
+      <c r="B87" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="11"/>
       <c r="B88" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="11"/>
-      <c r="B89" s="5" t="s">
-        <v>71</v>
+      <c r="B89" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="11"/>
-      <c r="B90" s="5" t="s">
-        <v>72</v>
+      <c r="B90" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="11"/>
-      <c r="B91" s="5" t="s">
-        <v>73</v>
+      <c r="B91" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="11"/>
-      <c r="B92" s="5" t="s">
-        <v>74</v>
+      <c r="B92" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="11"/>
-      <c r="B93" s="5" t="s">
-        <v>75</v>
+      <c r="B93" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="11"/>
       <c r="B94" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="11"/>
-      <c r="B95" s="6" t="s">
-        <v>77</v>
+      <c r="B95" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="11"/>
       <c r="B96" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11"/>
-      <c r="B97" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="A99" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B102" s="2"/>
+      <c r="A102" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16"/>
-      <c r="B104" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="A103" s="17"/>
+      <c r="B103" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B106" s="2"/>
+      <c r="A106" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>86</v>
+      <c r="A107" s="11"/>
+      <c r="B107" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="11"/>
-      <c r="B108" s="5" t="s">
-        <v>87</v>
+      <c r="B108" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="11"/>
-      <c r="B109" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="11"/>
-      <c r="B110" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="B109" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A112" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B115" s="2"/>
+      <c r="A115" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="14"/>
-      <c r="B117" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="A116" s="13"/>
+      <c r="B116" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B119" s="2"/>
+      <c r="A119" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="A120" s="17"/>
       <c r="B120" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="16"/>
-      <c r="B121" s="5" t="s">
-        <v>97</v>
+      <c r="A121" s="17"/>
+      <c r="B121" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="16"/>
-      <c r="B122" s="5" t="s">
-        <v>98</v>
+      <c r="A122" s="17"/>
+      <c r="B122" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="16"/>
-      <c r="B123" s="5" t="s">
-        <v>99</v>
+      <c r="A123" s="17"/>
+      <c r="B123" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="16"/>
+      <c r="A124" s="17"/>
       <c r="B124" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="16"/>
-      <c r="B125" s="6" t="s">
-        <v>101</v>
+      <c r="A125" s="17"/>
+      <c r="B125" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="16"/>
+      <c r="A126" s="17"/>
       <c r="B126" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="16"/>
-      <c r="B127" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B129" s="2"/>
+      <c r="A129" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>105</v>
+      <c r="A130" s="17"/>
+      <c r="B130" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="16"/>
-      <c r="B131" s="6" t="s">
-        <v>106</v>
+      <c r="A131" s="17"/>
+      <c r="B131" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="16"/>
+      <c r="A132" s="17"/>
       <c r="B132" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="16"/>
+      <c r="A133" s="17"/>
       <c r="B133" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="16"/>
-      <c r="B134" s="6" t="s">
-        <v>109</v>
+      <c r="A134" s="17"/>
+      <c r="B134" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="16"/>
-      <c r="B135" s="9" t="s">
-        <v>110</v>
+      <c r="A135" s="17"/>
+      <c r="B135" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="16"/>
-      <c r="B136" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12"/>
-      <c r="B137" s="13" t="s">
-        <v>112</v>
-      </c>
+      <c r="A136" s="14"/>
+      <c r="B136" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B139" s="2"/>
+      <c r="A139" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="A140" s="11"/>
       <c r="B140" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="11"/>
-      <c r="B141" s="9" t="s">
-        <v>115</v>
+      <c r="B141" s="19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="11"/>
-      <c r="B142" s="9" t="s">
-        <v>116</v>
+      <c r="B142" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>118</v>
+      <c r="A145" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="16"/>
-      <c r="B146" s="5" t="s">
-        <v>119</v>
+      <c r="A146" s="17"/>
+      <c r="B146" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="16"/>
-      <c r="B147" s="9" t="s">
-        <v>120</v>
+      <c r="A147" s="17"/>
+      <c r="B147" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="16"/>
-      <c r="B148" s="5" t="s">
-        <v>121</v>
+      <c r="A148" s="17"/>
+      <c r="B148" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B150" s="2"/>
     </row>
@@ -2284,19 +2455,19 @@
       <c r="A151" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>123</v>
+      <c r="B151" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="11"/>
       <c r="B152" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B154" s="2"/>
     </row>
@@ -2304,81 +2475,81 @@
       <c r="A155" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>126</v>
+      <c r="B155" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="11"/>
-      <c r="B156" s="5" t="s">
-        <v>127</v>
+      <c r="B156" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="11"/>
-      <c r="B157" s="9" t="s">
-        <v>128</v>
+      <c r="B157" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="11"/>
-      <c r="B158" s="5" t="s">
-        <v>129</v>
+      <c r="B158" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="11"/>
-      <c r="B159" s="5" t="s">
-        <v>130</v>
+      <c r="B159" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="11"/>
-      <c r="B160" s="5" t="s">
-        <v>131</v>
+      <c r="B160" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="11"/>
-      <c r="B161" s="9" t="s">
-        <v>132</v>
+      <c r="B161" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="11"/>
-      <c r="B162" s="9" t="s">
-        <v>133</v>
+      <c r="B162" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>135</v>
+      <c r="A165" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="16"/>
-      <c r="B166" s="6" t="s">
-        <v>136</v>
+      <c r="A166" s="17"/>
+      <c r="B166" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="16"/>
-      <c r="B167" s="6" t="s">
-        <v>137</v>
+      <c r="A167" s="17"/>
+      <c r="B167" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2"/>
     </row>
@@ -2386,19 +2557,19 @@
       <c r="A170" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>139</v>
+      <c r="B170" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="11"/>
-      <c r="B171" s="9" t="s">
-        <v>140</v>
+      <c r="B171" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B173" s="2"/>
     </row>
@@ -2406,19 +2577,19 @@
       <c r="A174" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>142</v>
+      <c r="B174" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="11"/>
-      <c r="B175" s="9" t="s">
-        <v>140</v>
+      <c r="B175" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B177" s="2"/>
     </row>
@@ -2426,37 +2597,37 @@
       <c r="A178" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>144</v>
+      <c r="B178" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="11"/>
-      <c r="B179" s="5" t="s">
-        <v>145</v>
+      <c r="B179" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="11"/>
-      <c r="B180" s="5" t="s">
-        <v>146</v>
+      <c r="B180" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="11"/>
-      <c r="B181" s="5" t="s">
-        <v>147</v>
+      <c r="B181" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="11"/>
-      <c r="B182" s="5" t="s">
-        <v>148</v>
+      <c r="B182" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B184" s="2"/>
     </row>
@@ -2464,19 +2635,19 @@
       <c r="A185" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>150</v>
+      <c r="B185" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="11"/>
-      <c r="B186" s="9" t="s">
-        <v>140</v>
+      <c r="B186" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B188" s="2"/>
     </row>
@@ -2484,31 +2655,31 @@
       <c r="A189" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>152</v>
+      <c r="B189" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="11"/>
-      <c r="B190" s="6" t="s">
-        <v>153</v>
+      <c r="B190" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="11"/>
-      <c r="B191" s="5" t="s">
-        <v>154</v>
+      <c r="B191" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="11"/>
-      <c r="B192" s="5" t="s">
-        <v>155</v>
+      <c r="B192" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B194" s="2"/>
     </row>
@@ -2516,13 +2687,13 @@
       <c r="A195" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="5" t="s">
-        <v>157</v>
+      <c r="B195" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B197" s="2"/>
     </row>
@@ -2530,19 +2701,19 @@
       <c r="A198" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B198" s="5" t="s">
-        <v>159</v>
+      <c r="B198" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="11"/>
-      <c r="B199" s="5" t="s">
-        <v>160</v>
+      <c r="B199" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B201" s="2"/>
     </row>
@@ -2550,13 +2721,13 @@
       <c r="A202" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B202" s="9" t="s">
-        <v>162</v>
+      <c r="B202" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B204" s="2"/>
     </row>
@@ -2564,19 +2735,19 @@
       <c r="A205" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>164</v>
+      <c r="B205" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="11"/>
-      <c r="B206" s="9" t="s">
-        <v>140</v>
+      <c r="B206" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2"/>
     </row>
@@ -2584,31 +2755,31 @@
       <c r="A209" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="5" t="s">
-        <v>166</v>
+      <c r="B209" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="11"/>
-      <c r="B210" s="6" t="s">
-        <v>167</v>
+      <c r="B210" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="11"/>
-      <c r="B211" s="5" t="s">
-        <v>168</v>
+      <c r="B211" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="11"/>
-      <c r="B212" s="9" t="s">
-        <v>169</v>
+      <c r="B212" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B214" s="2"/>
     </row>
@@ -2616,13 +2787,13 @@
       <c r="A215" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B215" s="5" t="s">
-        <v>171</v>
+      <c r="B215" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B217" s="2"/>
     </row>
@@ -2630,13 +2801,13 @@
       <c r="A218" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B218" s="5" t="s">
-        <v>173</v>
+      <c r="B218" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B220" s="2"/>
     </row>
@@ -2644,25 +2815,25 @@
       <c r="A221" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B221" s="5" t="s">
-        <v>175</v>
+      <c r="B221" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="11"/>
-      <c r="B222" s="5" t="s">
-        <v>176</v>
+      <c r="B222" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="11"/>
-      <c r="B223" s="5" t="s">
-        <v>177</v>
+      <c r="B223" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B225" s="2"/>
     </row>
@@ -2670,13 +2841,13 @@
       <c r="A226" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B226" s="5" t="s">
-        <v>179</v>
+      <c r="B226" s="16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B228" s="2"/>
     </row>
@@ -2684,13 +2855,13 @@
       <c r="A229" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>181</v>
+      <c r="B229" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B231" s="2"/>
     </row>
@@ -2698,45 +2869,45 @@
       <c r="A232" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>183</v>
+      <c r="B232" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="11"/>
-      <c r="B233" s="5" t="s">
-        <v>184</v>
+      <c r="B233" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>186</v>
+      <c r="A236" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="16"/>
-      <c r="B237" s="5" t="s">
-        <v>187</v>
+      <c r="A237" s="17"/>
+      <c r="B237" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="16"/>
-      <c r="B238" s="5" t="s">
-        <v>188</v>
+      <c r="A238" s="17"/>
+      <c r="B238" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B240" s="2"/>
     </row>
@@ -2744,57 +2915,57 @@
       <c r="A241" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B241" s="5" t="s">
-        <v>190</v>
+      <c r="B241" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="11"/>
-      <c r="B242" s="5" t="s">
-        <v>191</v>
+      <c r="B242" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>193</v>
+      <c r="A245" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="16"/>
-      <c r="B246" s="6" t="s">
-        <v>194</v>
+      <c r="A246" s="17"/>
+      <c r="B246" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="16"/>
-      <c r="B247" s="6" t="s">
-        <v>195</v>
+      <c r="A247" s="17"/>
+      <c r="B247" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="16"/>
-      <c r="B248" s="6" t="s">
-        <v>196</v>
+      <c r="A248" s="17"/>
+      <c r="B248" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="16"/>
-      <c r="B249" s="6" t="s">
-        <v>197</v>
+      <c r="A249" s="17"/>
+      <c r="B249" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B251" s="2"/>
     </row>
@@ -2802,13 +2973,13 @@
       <c r="A252" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>199</v>
+      <c r="B252" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B254" s="2"/>
     </row>
@@ -2816,13 +2987,13 @@
       <c r="A255" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>199</v>
+      <c r="B255" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B257" s="2"/>
     </row>
@@ -2830,13 +3001,13 @@
       <c r="A258" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B258" s="6" t="s">
-        <v>202</v>
+      <c r="B258" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B260" s="2"/>
     </row>
@@ -2844,13 +3015,13 @@
       <c r="A261" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>204</v>
+      <c r="B261" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B263" s="2"/>
     </row>
@@ -2858,13 +3029,13 @@
       <c r="A264" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B264" s="5" t="s">
-        <v>206</v>
+      <c r="B264" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B266" s="2"/>
     </row>
@@ -2872,19 +3043,19 @@
       <c r="A267" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>208</v>
+      <c r="B267" s="5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="11"/>
-      <c r="B268" s="6" t="s">
-        <v>209</v>
+      <c r="B268" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B270" s="2"/>
     </row>
@@ -2892,45 +3063,45 @@
       <c r="A271" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>211</v>
+      <c r="B271" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="11"/>
-      <c r="B272" s="6" t="s">
-        <v>212</v>
+      <c r="B272" s="5" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="11"/>
-      <c r="B273" s="6" t="s">
-        <v>213</v>
+      <c r="B273" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>215</v>
+      <c r="A276" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="17"/>
-      <c r="B277" s="9" t="s">
-        <v>216</v>
+      <c r="A277" s="20"/>
+      <c r="B277" s="16" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B279" s="2"/>
     </row>
@@ -2938,13 +3109,13 @@
       <c r="A280" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B280" s="6" t="s">
-        <v>218</v>
+      <c r="B280" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B282" s="2"/>
     </row>
@@ -2952,19 +3123,19 @@
       <c r="A283" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B283" s="5" t="s">
-        <v>220</v>
+      <c r="B283" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="11"/>
-      <c r="B284" s="5" t="s">
-        <v>221</v>
+      <c r="B284" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B286" s="2"/>
     </row>
@@ -2972,13 +3143,13 @@
       <c r="A287" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B287" s="5" t="s">
-        <v>223</v>
+      <c r="B287" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B289" s="2"/>
     </row>
@@ -2986,13 +3157,13 @@
       <c r="A290" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B290" s="5" t="s">
-        <v>225</v>
+      <c r="B290" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B292" s="2"/>
     </row>
@@ -3000,13 +3171,13 @@
       <c r="A293" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B293" s="5" t="s">
-        <v>227</v>
+      <c r="B293" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B295" s="2"/>
     </row>
@@ -3014,13 +3185,13 @@
       <c r="A296" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B296" s="5" t="s">
-        <v>229</v>
+      <c r="B296" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B298" s="2"/>
     </row>
@@ -3028,13 +3199,13 @@
       <c r="A299" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B299" s="5" t="s">
-        <v>231</v>
+      <c r="B299" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B301" s="2"/>
     </row>
@@ -3042,13 +3213,13 @@
       <c r="A302" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B302" s="5" t="s">
-        <v>233</v>
+      <c r="B302" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B304" s="2"/>
     </row>
@@ -3056,26 +3227,25 @@
       <c r="A305" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B305" s="5" t="s">
-        <v>235</v>
+      <c r="B305" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="11"/>
-      <c r="B306" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B306" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="11"/>
-      <c r="B307" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B307" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
     <row r="309" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B309" s="2"/>
     </row>
@@ -3083,19 +3253,19 @@
       <c r="A310" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B310" s="5" t="s">
-        <v>239</v>
+      <c r="B310" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="11"/>
-      <c r="B311" s="5" t="s">
-        <v>240</v>
+      <c r="B311" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B313" s="2"/>
     </row>
@@ -3103,33 +3273,33 @@
       <c r="A314" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B314" s="5" t="s">
-        <v>242</v>
+      <c r="B314" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>244</v>
+      <c r="A317" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="16"/>
-      <c r="B318" s="5" t="s">
-        <v>245</v>
+      <c r="A318" s="17"/>
+      <c r="B318" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B320" s="2"/>
     </row>
@@ -3137,13 +3307,13 @@
       <c r="A321" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B321" s="9" t="s">
-        <v>247</v>
+      <c r="B321" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B323" s="2"/>
     </row>
@@ -3151,19 +3321,19 @@
       <c r="A324" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B324" s="5" t="s">
-        <v>249</v>
+      <c r="B324" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="11"/>
-      <c r="B325" s="5" t="s">
-        <v>250</v>
+      <c r="B325" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B327" s="2"/>
     </row>
@@ -3171,13 +3341,13 @@
       <c r="A328" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B328" s="9" t="s">
-        <v>252</v>
+      <c r="B328" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B330" s="2"/>
     </row>
@@ -3185,13 +3355,13 @@
       <c r="A331" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B331" s="9" t="s">
-        <v>254</v>
+      <c r="B331" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B333" s="2"/>
     </row>
@@ -3199,13 +3369,13 @@
       <c r="A334" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B334" s="9" t="s">
-        <v>256</v>
+      <c r="B334" s="16" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B336" s="2"/>
     </row>
@@ -3213,327 +3383,327 @@
       <c r="A337" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B337" s="9" t="s">
-        <v>258</v>
+      <c r="B337" s="6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="11"/>
-      <c r="B338" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B340" s="2"/>
+      <c r="B338" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A339" s="11"/>
+      <c r="B339" s="9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B341" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B343" s="2"/>
+      <c r="A341" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A342" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B344" s="9" t="s">
-        <v>263</v>
-      </c>
+      <c r="A344" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="11"/>
-      <c r="B345" s="9" t="s">
-        <v>264</v>
+      <c r="A345" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="11"/>
-      <c r="B346" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B348" s="2"/>
+      <c r="B346" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A347" s="11"/>
+      <c r="B347" s="6" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B351" s="2"/>
+      <c r="A349" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A350" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B354" s="2"/>
+      <c r="A352" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A353" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B357" s="2"/>
+      <c r="A355" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A356" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>273</v>
-      </c>
+      <c r="A358" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="11"/>
-      <c r="B359" s="9" t="s">
-        <v>274</v>
+      <c r="A359" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="11"/>
-      <c r="B360" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B362" s="2"/>
+      <c r="B360" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A361" s="11"/>
+      <c r="B361" s="16" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B365" s="2"/>
+      <c r="A363" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B366" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A366" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="11"/>
-      <c r="B367" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B369" s="2"/>
+      <c r="A367" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="11"/>
+      <c r="B368" s="6" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B370" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B372" s="2"/>
+      <c r="A370" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B373" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B375" s="2"/>
+      <c r="A373" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B376" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B378" s="2"/>
+      <c r="A376" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B379" s="5" t="s">
-        <v>288</v>
-      </c>
+      <c r="A379" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="11"/>
-      <c r="B380" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
+      <c r="A380" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B380" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="11"/>
+      <c r="B381" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B383" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>292</v>
-      </c>
+      <c r="A383" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="11"/>
-      <c r="B384" s="18"/>
-      <c r="C384" s="5" t="s">
-        <v>293</v>
+      <c r="A384" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B384" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="11"/>
-      <c r="B385" s="18"/>
-      <c r="C385" s="5" t="s">
-        <v>294</v>
+      <c r="B385" s="21"/>
+      <c r="C385" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="11"/>
-      <c r="B386" s="18"/>
-      <c r="C386" s="5" t="s">
-        <v>131</v>
+      <c r="B386" s="21"/>
+      <c r="C386" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="11"/>
-      <c r="B387" s="18"/>
-      <c r="C387" s="5" t="s">
-        <v>295</v>
+      <c r="B387" s="21"/>
+      <c r="C387" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="11"/>
-      <c r="B388" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>297</v>
+      <c r="B388" s="21"/>
+      <c r="C388" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="11"/>
-      <c r="B389" s="19"/>
-      <c r="C389" s="5" t="s">
-        <v>298</v>
+      <c r="B389" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="11"/>
-      <c r="B390" s="19"/>
-      <c r="C390" s="5" t="s">
-        <v>299</v>
+      <c r="B390" s="22"/>
+      <c r="C390" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="11"/>
-      <c r="B391" s="19"/>
-      <c r="C391" s="5" t="s">
-        <v>300</v>
+      <c r="B391" s="22"/>
+      <c r="C391" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="11"/>
-      <c r="B392" s="19"/>
-      <c r="C392" s="5" t="s">
-        <v>301</v>
+      <c r="B392" s="22"/>
+      <c r="C392" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="11"/>
-      <c r="B393" s="19"/>
-      <c r="C393" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B395" s="2"/>
-      <c r="C395" s="20"/>
+      <c r="B393" s="22"/>
+      <c r="C393" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="11"/>
+      <c r="B394" s="22"/>
+      <c r="C394" s="6" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B396" s="9" t="s">
-        <v>304</v>
-      </c>
+      <c r="A396" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B396" s="2"/>
+      <c r="C396" s="23"/>
     </row>
     <row r="397" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A397" s="11"/>
+      <c r="A397" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="B397" s="9" t="s">
         <v>131</v>
       </c>
@@ -3541,342 +3711,457 @@
     <row r="398" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="11"/>
       <c r="B398" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="11"/>
       <c r="B399" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="11"/>
       <c r="B400" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="11"/>
       <c r="B401" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="11"/>
-      <c r="B402" s="9" t="s">
-        <v>308</v>
+      <c r="B402" s="16" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="20"/>
+      <c r="A403" s="11"/>
+      <c r="B403" s="16" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B404" s="2"/>
+      <c r="A404" s="11"/>
+      <c r="B404" s="16" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B405" s="9" t="s">
-        <v>310</v>
-      </c>
+      <c r="A405" s="23"/>
     </row>
     <row r="406" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="20"/>
-      <c r="G406" s="0"/>
-      <c r="H406" s="0"/>
+      <c r="A406" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B406" s="2"/>
     </row>
     <row r="407" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B407" s="21"/>
-      <c r="G407" s="0"/>
-      <c r="H407" s="0"/>
+      <c r="A407" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B407" s="16" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="21"/>
-      <c r="B408" s="21"/>
-      <c r="G408" s="0"/>
-      <c r="H408" s="0"/>
+      <c r="A408" s="23"/>
     </row>
     <row r="409" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="21"/>
-      <c r="B409" s="21"/>
-      <c r="G409" s="0"/>
-      <c r="H409" s="0"/>
+      <c r="A409" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B409" s="24"/>
     </row>
     <row r="410" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="21"/>
-      <c r="B410" s="21"/>
-      <c r="G410" s="0"/>
-      <c r="H410" s="0"/>
+      <c r="A410" s="24"/>
+      <c r="B410" s="24"/>
     </row>
     <row r="411" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B411" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="G411" s="0"/>
-      <c r="H411" s="0"/>
+      <c r="A411" s="24"/>
+      <c r="B411" s="24"/>
     </row>
     <row r="412" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B412" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="G412" s="0"/>
-      <c r="H412" s="0"/>
+      <c r="A412" s="24"/>
+      <c r="B412" s="24"/>
     </row>
     <row r="413" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B413" s="22" t="s">
+      <c r="B413" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="G413" s="0"/>
-      <c r="H413" s="0"/>
     </row>
     <row r="414" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="5" t="s">
+      <c r="A414" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B414" s="22" t="s">
+      <c r="B414" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="G414" s="0"/>
-      <c r="H414" s="0"/>
     </row>
     <row r="415" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B415" s="22" t="s">
+      <c r="B415" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="G415" s="0"/>
-      <c r="H415" s="0"/>
     </row>
     <row r="416" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B416" s="22" t="s">
+      <c r="B416" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="G416" s="0"/>
-      <c r="H416" s="0"/>
     </row>
     <row r="417" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B417" s="22" t="s">
+      <c r="B417" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G417" s="0"/>
-      <c r="H417" s="0"/>
     </row>
     <row r="418" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="9" t="s">
+      <c r="A418" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B418" s="22"/>
-      <c r="G418" s="0"/>
-      <c r="H418" s="0"/>
+      <c r="B418" s="6" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="419" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B419" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="G419" s="0"/>
-      <c r="H419" s="0"/>
+      <c r="B419" s="6" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="420" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B420" s="22" t="s">
+      <c r="A420" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="G420" s="0"/>
-      <c r="H420" s="0"/>
+      <c r="B420" s="25"/>
     </row>
     <row r="421" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="5" t="s">
+      <c r="A421" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B421" s="22" t="s">
+      <c r="B421" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G421" s="0"/>
-      <c r="H421" s="0"/>
     </row>
     <row r="422" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="5" t="s">
+      <c r="A422" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B422" s="22" t="s">
+      <c r="B422" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="G422" s="0"/>
-      <c r="H422" s="0"/>
     </row>
     <row r="423" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="5" t="s">
+      <c r="A423" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B423" s="22" t="s">
+      <c r="B423" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G423" s="0"/>
-      <c r="H423" s="0"/>
     </row>
     <row r="424" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A424" s="5" t="s">
+      <c r="A424" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B424" s="22" t="s">
+      <c r="B424" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G424" s="0"/>
-      <c r="H424" s="0"/>
     </row>
     <row r="425" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A425" s="5" t="s">
+      <c r="A425" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B425" s="22" t="s">
+      <c r="B425" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="G425" s="0"/>
-      <c r="H425" s="0"/>
     </row>
     <row r="426" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A426" s="5" t="s">
+      <c r="A426" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B426" s="22" t="s">
+      <c r="B426" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="G426" s="0"/>
-      <c r="H426" s="0"/>
     </row>
     <row r="427" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B427" s="22" t="s">
+      <c r="B427" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="G427" s="0"/>
-      <c r="H427" s="0"/>
     </row>
     <row r="428" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A428" s="5" t="s">
+      <c r="A428" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B428" s="22" t="s">
+      <c r="B428" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G428" s="0"/>
-      <c r="H428" s="0"/>
     </row>
     <row r="429" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B429" s="22" t="s">
+      <c r="B429" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="G429" s="0"/>
-      <c r="H429" s="0"/>
     </row>
     <row r="430" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="5" t="s">
+      <c r="A430" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B430" s="22" t="s">
+      <c r="B430" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G430" s="0"/>
-      <c r="H430" s="0"/>
     </row>
     <row r="431" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="5" t="s">
+      <c r="A431" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B431" s="22" t="s">
+      <c r="B431" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G431" s="0"/>
-      <c r="H431" s="0"/>
     </row>
     <row r="432" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="5" t="s">
+      <c r="A432" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B432" s="22" t="s">
+      <c r="B432" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="G432" s="0"/>
-      <c r="H432" s="0"/>
     </row>
     <row r="433" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A433" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B433" s="22" t="s">
+      <c r="A433" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="G433" s="0"/>
-      <c r="H433" s="0"/>
+      <c r="B433" s="6" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="434" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A434" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B434" s="22" t="s">
+      <c r="A434" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="G434" s="0"/>
-      <c r="H434" s="0"/>
+      <c r="B434" s="6" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="435" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A435" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B435" s="22" t="s">
+      <c r="A435" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B435" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="G435" s="0"/>
-      <c r="H435" s="0"/>
     </row>
     <row r="436" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A436" s="9" t="s">
+      <c r="A436" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B436" s="22" t="s">
+      <c r="B436" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A437" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B437" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A438" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B438" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A440" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B440" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A441" s="26"/>
+      <c r="B441" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A442" s="26"/>
+      <c r="B442" s="27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A443" s="26"/>
+      <c r="B443" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A444" s="23"/>
+      <c r="B444" s="23"/>
+    </row>
+    <row r="445" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A445" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="B445" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A446" s="28"/>
+      <c r="B446" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A447" s="28"/>
+      <c r="B447" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A448" s="28"/>
+      <c r="B448" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A449" s="28"/>
+      <c r="B449" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A450" s="28"/>
+      <c r="B450" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A451" s="28"/>
+      <c r="B451" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A452" s="28"/>
+      <c r="B452" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A453" s="28"/>
+      <c r="B453" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A454" s="28"/>
+      <c r="B454" s="29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A455" s="28"/>
+      <c r="B455" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A456" s="28"/>
+      <c r="B456" s="30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A457" s="28"/>
+      <c r="B457" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A458" s="28"/>
+      <c r="B458" s="31" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A459" s="28"/>
+      <c r="B459" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A460" s="28"/>
+      <c r="B460" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A461" s="28"/>
+      <c r="B461" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A462" s="28"/>
+      <c r="B462" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A463" s="28"/>
+      <c r="B463" s="29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A464" s="28"/>
+      <c r="B464" s="29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A465" s="28"/>
+      <c r="B465" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="141">
+  <mergeCells count="144">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B6"/>
@@ -3885,40 +4170,41 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:A136"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:A96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:A126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:A135"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:A142"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="A145:A148"/>
     <mergeCell ref="A150:B150"/>
@@ -3994,30 +4280,32 @@
     <mergeCell ref="A333:B333"/>
     <mergeCell ref="A336:B336"/>
     <mergeCell ref="A337:A338"/>
-    <mergeCell ref="A340:B340"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="A348:B348"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A354:B354"/>
-    <mergeCell ref="A357:B357"/>
-    <mergeCell ref="A358:A360"/>
-    <mergeCell ref="A362:B362"/>
-    <mergeCell ref="A365:B365"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A372:B372"/>
-    <mergeCell ref="A375:B375"/>
-    <mergeCell ref="A378:B378"/>
-    <mergeCell ref="A379:A380"/>
-    <mergeCell ref="A382:C382"/>
-    <mergeCell ref="A383:A393"/>
-    <mergeCell ref="B383:B387"/>
-    <mergeCell ref="B388:B393"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A396:A402"/>
-    <mergeCell ref="A404:B404"/>
-    <mergeCell ref="A407:B410"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="A345:A347"/>
+    <mergeCell ref="A349:B349"/>
+    <mergeCell ref="A352:B352"/>
+    <mergeCell ref="A355:B355"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:A361"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="A366:B366"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="A370:B370"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:B376"/>
+    <mergeCell ref="A379:B379"/>
+    <mergeCell ref="A380:A381"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A384:A394"/>
+    <mergeCell ref="B384:B388"/>
+    <mergeCell ref="B389:B394"/>
+    <mergeCell ref="A396:B396"/>
+    <mergeCell ref="A397:A404"/>
+    <mergeCell ref="A406:B406"/>
+    <mergeCell ref="A409:B412"/>
+    <mergeCell ref="A440:A443"/>
+    <mergeCell ref="A445:A465"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="408">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -1189,13 +1189,58 @@
     <t xml:space="preserve">AWS Support tiers</t>
   </si>
   <si>
+    <t xml:space="preserve">Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing and account support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 trusted advisor checks (basic and developer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ tech email support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ general guidance (&lt; 24h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ systems impaired (&lt; 12h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ chat/phone tech support 24/7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ production systems impaired (&lt; 4h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ production systems down (&lt; 1h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ ALL trusted advisor checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ business critical system down (&lt; 15min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal concierge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amazon WorkSpaces</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon Connect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS License Manager</t>
+    <t xml:space="preserve">Amazon Connect (Service used to create customer support centers. Voice, text and bot-chats that use Amazon Lex available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS License Manager (Used to control software licenses)</t>
   </si>
   <si>
     <t xml:space="preserve">Stop guessing capacity</t>
@@ -1205,8 +1250,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1417,7 +1463,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1538,12 +1584,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1623,18 +1677,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A441" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C459" activeCellId="0" sqref="C459"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B136" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="19.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4100,68 +4155,195 @@
     </row>
     <row r="457" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="28"/>
-      <c r="B457" s="30" t="s">
+      <c r="B457" s="31" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="28"/>
-      <c r="B458" s="31" t="s">
+      <c r="B458" s="32" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="28"/>
-      <c r="B459" s="29" t="s">
+      <c r="B459" s="9" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="28"/>
-      <c r="B460" s="29" t="s">
+      <c r="B460" s="9" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="28"/>
-      <c r="B461" s="29" t="s">
+      <c r="B461" s="19" t="s">
         <v>388</v>
+      </c>
+      <c r="C461" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D461" s="19" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="28"/>
-      <c r="B462" s="29" t="s">
-        <v>389</v>
+      <c r="B462" s="19"/>
+      <c r="C462" s="19"/>
+      <c r="D462" s="9" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="28"/>
-      <c r="B463" s="29" t="s">
-        <v>390</v>
+      <c r="B463" s="19"/>
+      <c r="C463" s="19"/>
+      <c r="D463" s="6" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="28"/>
-      <c r="B464" s="29" t="s">
-        <v>391</v>
+      <c r="B464" s="19"/>
+      <c r="C464" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D464" s="16" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="28"/>
-      <c r="B465" s="29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B465" s="19"/>
+      <c r="C465" s="19"/>
+      <c r="D465" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A466" s="28"/>
+      <c r="B466" s="19"/>
+      <c r="C466" s="19"/>
+      <c r="D466" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A467" s="28"/>
+      <c r="B467" s="19"/>
+      <c r="C467" s="19"/>
+      <c r="D467" s="33" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A468" s="28"/>
+      <c r="B468" s="19"/>
+      <c r="C468" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D468" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A469" s="28"/>
+      <c r="B469" s="19"/>
+      <c r="C469" s="19"/>
+      <c r="D469" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A470" s="28"/>
+      <c r="B470" s="19"/>
+      <c r="C470" s="19"/>
+      <c r="D470" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A471" s="28"/>
+      <c r="B471" s="19"/>
+      <c r="C471" s="19"/>
+      <c r="D471" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A472" s="28"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="19"/>
+      <c r="D472" s="33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A473" s="28"/>
+      <c r="B473" s="19"/>
+      <c r="C473" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D473" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A474" s="28"/>
+      <c r="B474" s="19"/>
+      <c r="C474" s="19"/>
+      <c r="D474" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A475" s="28"/>
+      <c r="B475" s="19"/>
+      <c r="C475" s="19"/>
+      <c r="D475" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A476" s="28"/>
+      <c r="B476" s="19"/>
+      <c r="C476" s="19"/>
+      <c r="D476" s="33" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A477" s="28"/>
+      <c r="B477" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C477" s="0"/>
+    </row>
+    <row r="478" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A478" s="28"/>
+      <c r="B478" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C478" s="0"/>
+    </row>
+    <row r="479" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A479" s="28"/>
+      <c r="B479" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C479" s="0"/>
+    </row>
+    <row r="480" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A480" s="28"/>
+      <c r="B480" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="149">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B6"/>
@@ -4305,7 +4487,12 @@
     <mergeCell ref="A406:B406"/>
     <mergeCell ref="A409:B412"/>
     <mergeCell ref="A440:A443"/>
-    <mergeCell ref="A445:A465"/>
+    <mergeCell ref="A445:A480"/>
+    <mergeCell ref="B461:B476"/>
+    <mergeCell ref="C461:C463"/>
+    <mergeCell ref="C464:C467"/>
+    <mergeCell ref="C468:C472"/>
+    <mergeCell ref="C473:C476"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="409">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">EC2 use only</t>
   </si>
   <si>
-    <t xml:space="preserve">Extensibleness?</t>
+    <t xml:space="preserve">Locked in the AZ</t>
   </si>
   <si>
     <t xml:space="preserve">Availability-zone level resource</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Do not automatically scale</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case?</t>
+    <t xml:space="preserve">Can only be attached to one instance</t>
   </si>
   <si>
     <t xml:space="preserve">EFS/FSx</t>
@@ -220,7 +220,10 @@
     <t xml:space="preserve">Regional-level service</t>
   </si>
   <si>
-    <t xml:space="preserve">Extensibleness? Scalability?</t>
+    <t xml:space="preserve">Highly scalable, more expensive than EBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFS x EBS</t>
   </si>
   <si>
     <t xml:space="preserve">S3</t>
@@ -1285,7 +1288,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,12 +1321,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF00B050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF8497B0"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
@@ -1336,14 +1333,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFE6E905"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF38B4ED"/>
+        <bgColor rgb="FF00CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE6E905"/>
       </patternFill>
     </fill>
     <fill>
@@ -1463,7 +1472,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1496,7 +1505,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1504,19 +1521,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1528,15 +1545,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1544,15 +1553,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1560,15 +1573,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1576,7 +1585,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,7 +1597,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1592,11 +1605,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1652,7 +1665,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF4B183"/>
       <rgbColor rgb="FF2E75B6"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF38B4ED"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -1677,10 +1690,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B136" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="19.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1734,13 +1747,13 @@
     <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1749,35 +1762,35 @@
     </row>
     <row r="8" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1786,36 +1799,36 @@
     </row>
     <row r="13" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1824,19 +1837,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1847,10 +1860,10 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1861,10 +1874,10 @@
       <c r="B26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6"/>
+      <c r="A27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
@@ -1873,7 +1886,7 @@
       <c r="B29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1887,7 +1900,7 @@
       <c r="B32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="5"/>
@@ -1899,28 +1912,28 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1931,7 +1944,7 @@
       <c r="B41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1939,7 +1952,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
         <v>37</v>
       </c>
@@ -1951,7 +1964,7 @@
       <c r="B45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="5"/>
@@ -1963,10 +1976,10 @@
       <c r="B48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1977,7 +1990,7 @@
       <c r="B51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -1991,16 +2004,16 @@
       <c r="B54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2011,10 +2024,10 @@
       <c r="B58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2025,16 +2038,16 @@
       <c r="B61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11"/>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="9"/>
+      <c r="B63" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2045,58 +2058,58 @@
       <c r="B65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13"/>
-      <c r="B67" s="6" t="s">
+      <c r="A67" s="12"/>
+      <c r="B67" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13"/>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13"/>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="12"/>
+      <c r="B70" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13"/>
-      <c r="B71" s="12" t="s">
+      <c r="A71" s="12"/>
+      <c r="B71" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13"/>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="12"/>
+      <c r="B73" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2107,2239 +2120,2245 @@
       <c r="B76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13"/>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13"/>
-      <c r="B80" s="6" t="s">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13"/>
-      <c r="B81" s="16" t="s">
+      <c r="A81" s="12"/>
+      <c r="B81" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+    <row r="82" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12"/>
+      <c r="B82" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="6" t="s">
+      <c r="A84" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11"/>
-      <c r="B85" s="6" t="s">
+      <c r="A85" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11"/>
-      <c r="B86" s="5" t="s">
+      <c r="A86" s="9"/>
+      <c r="B86" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11"/>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="9"/>
+      <c r="B87" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11"/>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="9"/>
+      <c r="B88" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11"/>
-      <c r="B89" s="6" t="s">
+      <c r="A89" s="9"/>
+      <c r="B89" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11"/>
-      <c r="B90" s="6" t="s">
+      <c r="A90" s="9"/>
+      <c r="B90" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11"/>
-      <c r="B91" s="6" t="s">
+      <c r="A91" s="9"/>
+      <c r="B91" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11"/>
-      <c r="B92" s="6" t="s">
+      <c r="A92" s="9"/>
+      <c r="B92" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11"/>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="9"/>
+      <c r="B93" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11"/>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="9"/>
+      <c r="B94" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11"/>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="9"/>
+      <c r="B95" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11"/>
-      <c r="B96" s="6" t="s">
+      <c r="A96" s="9"/>
+      <c r="B96" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+    <row r="97" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9"/>
+      <c r="B97" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="A99" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="6" t="s">
+      <c r="A102" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17"/>
-      <c r="B103" s="9" t="s">
+      <c r="A103" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+    <row r="104" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="18"/>
+      <c r="B104" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="6" t="s">
+      <c r="A106" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="11"/>
-      <c r="B107" s="6" t="s">
+      <c r="A107" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="11"/>
-      <c r="B108" s="6" t="s">
+      <c r="A108" s="9"/>
+      <c r="B108" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="11"/>
-      <c r="B109" s="6" t="s">
+      <c r="A109" s="9"/>
+      <c r="B109" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+    <row r="110" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9"/>
+      <c r="B110" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="6" t="s">
+      <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13"/>
-      <c r="B116" s="18" t="s">
+      <c r="A116" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+    <row r="117" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="12"/>
+      <c r="B117" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="17"/>
-      <c r="B120" s="6" t="s">
+      <c r="A120" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="17"/>
-      <c r="B121" s="6" t="s">
+      <c r="A121" s="18"/>
+      <c r="B121" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="17"/>
-      <c r="B122" s="6" t="s">
+      <c r="A122" s="18"/>
+      <c r="B122" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="17"/>
-      <c r="B123" s="9" t="s">
+      <c r="A123" s="18"/>
+      <c r="B123" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="17"/>
-      <c r="B124" s="5" t="s">
+      <c r="A124" s="18"/>
+      <c r="B124" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="17"/>
-      <c r="B125" s="5" t="s">
+      <c r="A125" s="18"/>
+      <c r="B125" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="17"/>
-      <c r="B126" s="6" t="s">
+      <c r="A126" s="18"/>
+      <c r="B126" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
+    <row r="127" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="18"/>
+      <c r="B127" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="17"/>
-      <c r="B130" s="5" t="s">
+      <c r="A130" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="17"/>
-      <c r="B131" s="5" t="s">
+      <c r="A131" s="18"/>
+      <c r="B131" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="17"/>
-      <c r="B132" s="6" t="s">
+      <c r="A132" s="18"/>
+      <c r="B132" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="17"/>
-      <c r="B133" s="5" t="s">
+      <c r="A133" s="18"/>
+      <c r="B133" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="17"/>
-      <c r="B134" s="16" t="s">
+      <c r="A134" s="18"/>
+      <c r="B134" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="17"/>
-      <c r="B135" s="16" t="s">
+      <c r="A135" s="18"/>
+      <c r="B135" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14"/>
-      <c r="B136" s="12" t="s">
+      <c r="A136" s="18"/>
+      <c r="B136" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
+    <row r="137" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="16"/>
+      <c r="B137" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B139" s="5" t="s">
+      <c r="A139" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="11"/>
-      <c r="B140" s="6" t="s">
+      <c r="A140" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="11"/>
-      <c r="B141" s="19" t="s">
+      <c r="A141" s="9"/>
+      <c r="B141" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="11"/>
-      <c r="B142" s="16" t="s">
+      <c r="A142" s="9"/>
+      <c r="B142" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
+    <row r="143" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9"/>
+      <c r="B143" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="6" t="s">
+      <c r="A145" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="17"/>
-      <c r="B146" s="9" t="s">
+      <c r="A146" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="17"/>
-      <c r="B147" s="19" t="s">
+      <c r="A147" s="18"/>
+      <c r="B147" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="17"/>
-      <c r="B148" s="6" t="s">
+      <c r="A148" s="18"/>
+      <c r="B148" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
+    <row r="149" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="18"/>
+      <c r="B149" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="11"/>
-      <c r="B152" s="9" t="s">
+      <c r="A152" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
+    <row r="153" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="9"/>
+      <c r="B153" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="6" t="s">
+      <c r="A155" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="11"/>
-      <c r="B156" s="6" t="s">
+      <c r="A156" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="11"/>
-      <c r="B157" s="16" t="s">
+      <c r="A157" s="9"/>
+      <c r="B157" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="11"/>
-      <c r="B158" s="9" t="s">
+      <c r="A158" s="9"/>
+      <c r="B158" s="19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="11"/>
-      <c r="B159" s="9" t="s">
+      <c r="A159" s="9"/>
+      <c r="B159" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="11"/>
-      <c r="B160" s="9" t="s">
+      <c r="A160" s="9"/>
+      <c r="B160" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="11"/>
-      <c r="B161" s="16" t="s">
+      <c r="A161" s="9"/>
+      <c r="B161" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="11"/>
-      <c r="B162" s="16" t="s">
+      <c r="A162" s="9"/>
+      <c r="B162" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
+    <row r="163" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9"/>
+      <c r="B163" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="6" t="s">
+      <c r="A165" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="17"/>
-      <c r="B166" s="5" t="s">
+      <c r="A166" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="17"/>
+      <c r="A167" s="18"/>
       <c r="B167" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
+    <row r="168" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="18"/>
+      <c r="B168" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B170" s="6" t="s">
+      <c r="A170" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="11"/>
-      <c r="B171" s="16" t="s">
+      <c r="A171" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
+    <row r="172" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9"/>
+      <c r="B172" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="6" t="s">
+      <c r="A174" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="11"/>
-      <c r="B175" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
+      <c r="A175" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B177" s="2"/>
+    </row>
+    <row r="176" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9"/>
+      <c r="B176" s="19" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="5" t="s">
+      <c r="A178" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="11"/>
-      <c r="B179" s="6" t="s">
+      <c r="A179" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="11"/>
-      <c r="B180" s="9" t="s">
+      <c r="A180" s="9"/>
+      <c r="B180" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="11"/>
-      <c r="B181" s="9" t="s">
+      <c r="A181" s="9"/>
+      <c r="B181" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="11"/>
-      <c r="B182" s="6" t="s">
+      <c r="A182" s="9"/>
+      <c r="B182" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
+    <row r="183" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9"/>
+      <c r="B183" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B185" s="6" t="s">
+      <c r="A185" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="11"/>
-      <c r="B186" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
+      <c r="A186" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B188" s="2"/>
+    </row>
+    <row r="187" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="9"/>
+      <c r="B187" s="19" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="B189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="11"/>
+      <c r="A190" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B190" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="11"/>
-      <c r="B191" s="6" t="s">
+      <c r="A191" s="9"/>
+      <c r="B191" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="11"/>
-      <c r="B192" s="6" t="s">
+      <c r="A192" s="9"/>
+      <c r="B192" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
+    <row r="193" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="9"/>
+      <c r="B193" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B195" s="6" t="s">
+      <c r="A195" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B198" s="6" t="s">
+      <c r="A198" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="B198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="11"/>
-      <c r="B199" s="6" t="s">
+      <c r="A199" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
+    <row r="200" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9"/>
+      <c r="B200" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B202" s="6" t="s">
+      <c r="A202" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="204" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B205" s="6" t="s">
+      <c r="A205" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="11"/>
-      <c r="B206" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
+      <c r="A206" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B208" s="2"/>
+    </row>
+    <row r="207" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="9"/>
+      <c r="B207" s="19" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B209" s="6" t="s">
+      <c r="A209" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="11"/>
-      <c r="B210" s="5" t="s">
+      <c r="A210" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="11"/>
-      <c r="B211" s="6" t="s">
+      <c r="A211" s="9"/>
+      <c r="B211" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="11"/>
-      <c r="B212" s="6" t="s">
+      <c r="A212" s="9"/>
+      <c r="B212" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
+    <row r="213" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="9"/>
+      <c r="B213" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B215" s="6" t="s">
+      <c r="A215" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="217" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B218" s="6" t="s">
+      <c r="A218" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="220" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B221" s="6" t="s">
+      <c r="A221" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="11"/>
-      <c r="B222" s="6" t="s">
+      <c r="A222" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="13" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="11"/>
-      <c r="B223" s="6" t="s">
+      <c r="A223" s="9"/>
+      <c r="B223" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="s">
+    <row r="224" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="9"/>
+      <c r="B224" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B226" s="16" t="s">
+      <c r="A226" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="228" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="s">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B229" s="5" t="s">
+      <c r="A229" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="231" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="s">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B232" s="5" t="s">
+      <c r="A232" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="11"/>
-      <c r="B233" s="6" t="s">
+      <c r="A233" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="s">
+    <row r="234" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="9"/>
+      <c r="B234" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B236" s="6" t="s">
+      <c r="A236" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="17"/>
-      <c r="B237" s="6" t="s">
+      <c r="A237" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="17"/>
-      <c r="B238" s="6" t="s">
+      <c r="A238" s="18"/>
+      <c r="B238" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="s">
+    <row r="239" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="18"/>
+      <c r="B239" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B241" s="6" t="s">
+      <c r="A241" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="B241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="11"/>
-      <c r="B242" s="9" t="s">
+      <c r="A242" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
+    <row r="243" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A243" s="9"/>
+      <c r="B243" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B245" s="5" t="s">
+      <c r="A245" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="B245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="17"/>
+      <c r="A246" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B246" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="17"/>
+      <c r="A247" s="18"/>
       <c r="B247" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="17"/>
+      <c r="A248" s="18"/>
       <c r="B248" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="17"/>
+      <c r="A249" s="18"/>
       <c r="B249" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="s">
+    <row r="250" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="18"/>
+      <c r="B250" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B252" s="5" t="s">
+      <c r="A252" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="254" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="s">
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="s">
+      <c r="A255" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B257" s="2"/>
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A256" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B258" s="5" t="s">
+      <c r="A258" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="260" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="s">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A259" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B261" s="5" t="s">
+      <c r="A261" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="263" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="s">
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A262" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B264" s="6" t="s">
+      <c r="A264" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="s">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A265" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B267" s="5" t="s">
+      <c r="A267" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="B267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="11"/>
+      <c r="A268" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B268" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="s">
+    <row r="269" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="9"/>
+      <c r="B269" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B271" s="5" t="s">
+      <c r="A271" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="B271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="11"/>
+      <c r="A272" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B272" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="11"/>
+      <c r="A273" s="9"/>
       <c r="B273" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="s">
+    <row r="274" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="9"/>
+      <c r="B274" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B276" s="5" t="s">
+      <c r="A276" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="B276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="20"/>
-      <c r="B277" s="16" t="s">
+      <c r="A277" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="s">
+    <row r="278" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A278" s="21"/>
+      <c r="B278" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B280" s="5" t="s">
+      <c r="A280" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="282" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="s">
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A281" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B283" s="9" t="s">
+      <c r="A283" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="B283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="11"/>
-      <c r="B284" s="6" t="s">
+      <c r="A284" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="s">
+    <row r="285" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A285" s="9"/>
+      <c r="B285" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B287" s="6" t="s">
+      <c r="A287" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="289" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="s">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A288" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B290" s="6" t="s">
+      <c r="A290" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="292" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="s">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A291" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B293" s="6" t="s">
+      <c r="A293" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="295" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="s">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A294" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B296" s="6" t="s">
+      <c r="A296" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="298" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="s">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A297" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B297" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B299" s="6" t="s">
+      <c r="A299" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="301" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="s">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A300" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B302" s="6" t="s">
+      <c r="A302" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="304" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="s">
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B303" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B305" s="6" t="s">
+      <c r="A305" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="B305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="11"/>
-      <c r="B306" s="6" t="s">
+      <c r="A306" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B306" s="13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="11"/>
-      <c r="B307" s="6" t="s">
+      <c r="A307" s="9"/>
+      <c r="B307" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="s">
+    <row r="308" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="9"/>
+      <c r="B308" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B310" s="6" t="s">
+      <c r="A310" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="B310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="11"/>
-      <c r="B311" s="6" t="s">
+      <c r="A311" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B311" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="s">
+    <row r="312" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A312" s="9"/>
+      <c r="B312" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B314" s="6" t="s">
+      <c r="A314" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="316" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="s">
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A315" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B317" s="6" t="s">
+      <c r="A317" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="B317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="17"/>
-      <c r="B318" s="6" t="s">
+      <c r="A318" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
+    <row r="319" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A319" s="18"/>
+      <c r="B319" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B321" s="16" t="s">
+      <c r="A321" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="323" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="s">
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A322" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B324" s="6" t="s">
+      <c r="A324" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="B324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="11"/>
-      <c r="B325" s="6" t="s">
+      <c r="A325" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
+    <row r="326" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A326" s="9"/>
+      <c r="B326" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B328" s="6" t="s">
+      <c r="A328" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="330" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="s">
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B329" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B330" s="2"/>
     </row>
     <row r="331" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B331" s="6" t="s">
+      <c r="A331" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="333" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="2" t="s">
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A332" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B333" s="2"/>
     </row>
     <row r="334" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B334" s="16" t="s">
+      <c r="A334" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="336" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="s">
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A335" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B335" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B336" s="2"/>
     </row>
     <row r="337" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B337" s="6" t="s">
+      <c r="A337" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="B337" s="2"/>
     </row>
     <row r="338" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="11"/>
-      <c r="B338" s="6" t="s">
+      <c r="A338" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B338" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="11"/>
-      <c r="B339" s="9" t="s">
+      <c r="A339" s="9"/>
+      <c r="B339" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2" t="s">
+    <row r="340" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A340" s="9"/>
+      <c r="B340" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B341" s="2"/>
     </row>
     <row r="342" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B342" s="6" t="s">
+      <c r="A342" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="344" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2" t="s">
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A343" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B345" s="6" t="s">
+      <c r="A345" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="B345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="11"/>
-      <c r="B346" s="16" t="s">
+      <c r="A346" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B346" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A347" s="11"/>
-      <c r="B347" s="6" t="s">
+      <c r="A347" s="9"/>
+      <c r="B347" s="19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="s">
+    <row r="348" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A348" s="9"/>
+      <c r="B348" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B350" s="6" t="s">
+      <c r="A350" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="352" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="s">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A351" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B353" s="6" t="s">
+      <c r="A353" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="355" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="2" t="s">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A354" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B355" s="2"/>
     </row>
     <row r="356" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A356" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B356" s="6" t="s">
+      <c r="A356" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="358" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="2" t="s">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B359" s="6" t="s">
+      <c r="A359" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="B359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="11"/>
-      <c r="B360" s="16" t="s">
+      <c r="A360" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360" s="13" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="11"/>
-      <c r="B361" s="16" t="s">
+      <c r="A361" s="9"/>
+      <c r="B361" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="2" t="s">
+    <row r="362" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A362" s="9"/>
+      <c r="B362" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="B363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B364" s="6" t="s">
+      <c r="A364" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="366" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="2" t="s">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B367" s="6" t="s">
+      <c r="A367" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="B367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="11"/>
-      <c r="B368" s="6" t="s">
+      <c r="A368" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B368" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="2" t="s">
+    <row r="369" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="9"/>
+      <c r="B369" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B371" s="6" t="s">
+      <c r="A371" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="373" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="2" t="s">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B372" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B374" s="6" t="s">
+      <c r="A374" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="376" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="2" t="s">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B375" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B377" s="5" t="s">
+      <c r="A377" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="379" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="2" t="s">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B378" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B380" s="9" t="s">
+      <c r="A380" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="B380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="11"/>
-      <c r="B381" s="9" t="s">
+      <c r="A381" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" s="14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="2" t="s">
+    <row r="382" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="9"/>
+      <c r="B382" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B384" s="21" t="s">
+      <c r="A384" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C384" s="6" t="s">
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+    </row>
+    <row r="385" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B385" s="22" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="385" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="11"/>
-      <c r="B385" s="21"/>
-      <c r="C385" s="6" t="s">
+      <c r="C385" s="13" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="11"/>
-      <c r="B386" s="21"/>
-      <c r="C386" s="6" t="s">
+      <c r="A386" s="9"/>
+      <c r="B386" s="22"/>
+      <c r="C386" s="13" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="11"/>
-      <c r="B387" s="21"/>
-      <c r="C387" s="6" t="s">
-        <v>133</v>
+      <c r="A387" s="9"/>
+      <c r="B387" s="22"/>
+      <c r="C387" s="13" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="11"/>
-      <c r="B388" s="21"/>
-      <c r="C388" s="6" t="s">
-        <v>298</v>
+      <c r="A388" s="9"/>
+      <c r="B388" s="22"/>
+      <c r="C388" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="11"/>
-      <c r="B389" s="22" t="s">
+      <c r="A389" s="9"/>
+      <c r="B389" s="22"/>
+      <c r="C389" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C389" s="6" t="s">
+    </row>
+    <row r="390" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="9"/>
+      <c r="B390" s="23" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="390" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="11"/>
-      <c r="B390" s="22"/>
-      <c r="C390" s="6" t="s">
+      <c r="C390" s="13" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A391" s="11"/>
-      <c r="B391" s="22"/>
-      <c r="C391" s="6" t="s">
+      <c r="A391" s="9"/>
+      <c r="B391" s="23"/>
+      <c r="C391" s="13" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A392" s="11"/>
-      <c r="B392" s="22"/>
-      <c r="C392" s="6" t="s">
+      <c r="A392" s="9"/>
+      <c r="B392" s="23"/>
+      <c r="C392" s="13" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="11"/>
-      <c r="B393" s="22"/>
-      <c r="C393" s="6" t="s">
+      <c r="A393" s="9"/>
+      <c r="B393" s="23"/>
+      <c r="C393" s="13" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A394" s="11"/>
-      <c r="B394" s="22"/>
-      <c r="C394" s="6" t="s">
+      <c r="A394" s="9"/>
+      <c r="B394" s="23"/>
+      <c r="C394" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="2" t="s">
+    <row r="395" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="9"/>
+      <c r="B395" s="23"/>
+      <c r="C395" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="B396" s="2"/>
-      <c r="C396" s="23"/>
     </row>
     <row r="397" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A397" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B397" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="A397" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B397" s="2"/>
+      <c r="C397" s="24"/>
     </row>
     <row r="398" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="11"/>
-      <c r="B398" s="9" t="s">
-        <v>307</v>
+      <c r="A398" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="11"/>
-      <c r="B399" s="9" t="s">
+      <c r="A399" s="9"/>
+      <c r="B399" s="14" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="11"/>
-      <c r="B400" s="9" t="s">
-        <v>133</v>
+      <c r="A400" s="9"/>
+      <c r="B400" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A401" s="11"/>
-      <c r="B401" s="9" t="s">
-        <v>309</v>
+      <c r="A401" s="9"/>
+      <c r="B401" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="11"/>
-      <c r="B402" s="16" t="s">
+      <c r="A402" s="9"/>
+      <c r="B402" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="11"/>
-      <c r="B403" s="16" t="s">
+      <c r="A403" s="9"/>
+      <c r="B403" s="19" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="11"/>
-      <c r="B404" s="16" t="s">
+      <c r="A404" s="9"/>
+      <c r="B404" s="19" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="23"/>
+      <c r="A405" s="9"/>
+      <c r="B405" s="19" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B406" s="2"/>
+      <c r="A406" s="24"/>
     </row>
     <row r="407" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B407" s="16" t="s">
+      <c r="A407" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="B407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="23"/>
+      <c r="A408" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B408" s="19" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="B409" s="24"/>
+      <c r="A409" s="24"/>
     </row>
     <row r="410" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="24"/>
-      <c r="B410" s="24"/>
+      <c r="A410" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B410" s="25"/>
     </row>
     <row r="411" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="24"/>
-      <c r="B411" s="24"/>
+      <c r="A411" s="25"/>
+      <c r="B411" s="25"/>
     </row>
     <row r="412" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="24"/>
-      <c r="B412" s="24"/>
+      <c r="A412" s="25"/>
+      <c r="B412" s="25"/>
     </row>
     <row r="413" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B413" s="6" t="s">
+      <c r="A413" s="25"/>
+      <c r="B413" s="25"/>
+    </row>
+    <row r="414" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="13" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="414" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="9" t="s">
+      <c r="B414" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="B414" s="9" t="s">
+    </row>
+    <row r="415" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="14" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="415" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="6" t="s">
+      <c r="B415" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B415" s="6" t="s">
+    </row>
+    <row r="416" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="13" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="416" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A416" s="6" t="s">
+      <c r="B416" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B416" s="6" t="s">
+    </row>
+    <row r="417" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="13" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="417" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="6" t="s">
+      <c r="B417" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B417" s="6" t="s">
+    </row>
+    <row r="418" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="13" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="418" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="5" t="s">
+      <c r="B418" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="B418" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B419" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B419" s="6" t="s">
+    </row>
+    <row r="420" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="420" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="16" t="s">
+      <c r="B420" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="B420" s="25"/>
     </row>
     <row r="421" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="6" t="s">
+      <c r="A421" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="B421" s="6" t="s">
+      <c r="B421" s="26"/>
+    </row>
+    <row r="422" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A422" s="13" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="422" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="6" t="s">
+      <c r="B422" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="B422" s="6" t="s">
+    </row>
+    <row r="423" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A423" s="13" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="423" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="6" t="s">
+      <c r="B423" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B423" s="6" t="s">
+    </row>
+    <row r="424" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="13" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="424" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A424" s="6" t="s">
+      <c r="B424" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B424" s="6" t="s">
+    </row>
+    <row r="425" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A425" s="13" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="425" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A425" s="6" t="s">
+      <c r="B425" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B425" s="6" t="s">
+    </row>
+    <row r="426" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A426" s="13" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="426" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A426" s="6" t="s">
+      <c r="B426" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="B426" s="6" t="s">
+    </row>
+    <row r="427" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A427" s="13" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="427" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A427" s="6" t="s">
+      <c r="B427" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B427" s="6" t="s">
+    </row>
+    <row r="428" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A428" s="13" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="428" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A428" s="6" t="s">
+      <c r="B428" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B428" s="6" t="s">
+    </row>
+    <row r="429" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A429" s="13" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="429" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="5" t="s">
+      <c r="B429" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="B429" s="6" t="s">
+    </row>
+    <row r="430" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A430" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="430" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="6" t="s">
+      <c r="B430" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="B430" s="6" t="s">
+    </row>
+    <row r="431" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A431" s="13" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="431" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="6" t="s">
+      <c r="B431" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="B431" s="6" t="s">
+    </row>
+    <row r="432" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A432" s="13" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="432" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="6" t="s">
+      <c r="B432" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="B432" s="6" t="s">
+    </row>
+    <row r="433" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A433" s="13" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="433" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A433" s="6" t="s">
+      <c r="B433" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="B433" s="6" t="s">
+    </row>
+    <row r="434" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A434" s="13" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="434" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A434" s="6" t="s">
+      <c r="B434" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="B434" s="6" t="s">
+    </row>
+    <row r="435" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A435" s="13" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="435" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A435" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B435" s="6" t="s">
+      <c r="B435" s="13" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A436" s="6" t="s">
+      <c r="A436" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B436" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="B436" s="6" t="s">
+    </row>
+    <row r="437" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A437" s="13" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="437" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A437" s="16" t="s">
+      <c r="B437" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="B437" s="25" t="s">
+    </row>
+    <row r="438" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A438" s="19" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="438" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A438" s="16" t="s">
+      <c r="B438" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="B438" s="25" t="s">
+    </row>
+    <row r="439" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A439" s="19" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="440" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A440" s="26" t="s">
+      <c r="B439" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="B440" s="9" t="s">
+    </row>
+    <row r="441" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A441" s="27" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="441" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A441" s="26"/>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="14" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="26"/>
-      <c r="B442" s="27" t="s">
+      <c r="A442" s="27"/>
+      <c r="B442" s="14" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A443" s="26"/>
-      <c r="B443" s="16" t="s">
+      <c r="A443" s="27"/>
+      <c r="B443" s="28" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="23"/>
-      <c r="B444" s="23"/>
+      <c r="A444" s="27"/>
+      <c r="B444" s="19" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="445" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A445" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="B445" s="16" t="s">
+      <c r="A445" s="24"/>
+      <c r="B445" s="24"/>
+    </row>
+    <row r="446" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A446" s="29" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="446" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A446" s="28"/>
-      <c r="B446" s="16" t="s">
+      <c r="B446" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="28"/>
-      <c r="B447" s="16" t="s">
+      <c r="A447" s="29"/>
+      <c r="B447" s="19" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="28"/>
-      <c r="B448" s="16" t="s">
+      <c r="A448" s="29"/>
+      <c r="B448" s="19" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="28"/>
-      <c r="B449" s="16" t="s">
+      <c r="A449" s="29"/>
+      <c r="B449" s="19" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="28"/>
-      <c r="B450" s="16" t="s">
+      <c r="A450" s="29"/>
+      <c r="B450" s="19" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A451" s="28"/>
-      <c r="B451" s="16" t="s">
+      <c r="A451" s="29"/>
+      <c r="B451" s="19" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A452" s="28"/>
-      <c r="B452" s="16" t="s">
+      <c r="A452" s="29"/>
+      <c r="B452" s="19" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="28"/>
-      <c r="B453" s="16" t="s">
+      <c r="A453" s="29"/>
+      <c r="B453" s="19" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="28"/>
-      <c r="B454" s="29" t="s">
+      <c r="A454" s="29"/>
+      <c r="B454" s="19" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="28"/>
-      <c r="B455" s="9" t="s">
+      <c r="A455" s="29"/>
+      <c r="B455" s="30" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="28"/>
-      <c r="B456" s="30" t="s">
+      <c r="A456" s="29"/>
+      <c r="B456" s="14" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="28"/>
+      <c r="A457" s="29"/>
       <c r="B457" s="31" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A458" s="28"/>
+      <c r="A458" s="29"/>
       <c r="B458" s="32" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A459" s="28"/>
-      <c r="B459" s="9" t="s">
+      <c r="A459" s="29"/>
+      <c r="B459" s="33" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A460" s="28"/>
-      <c r="B460" s="9" t="s">
+      <c r="A460" s="29"/>
+      <c r="B460" s="14" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="28"/>
-      <c r="B461" s="19" t="s">
+      <c r="A461" s="29"/>
+      <c r="B461" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C461" s="19" t="s">
+    </row>
+    <row r="462" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A462" s="29"/>
+      <c r="B462" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="D461" s="19" t="s">
+      <c r="C462" s="20" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="462" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="28"/>
-      <c r="B462" s="19"/>
-      <c r="C462" s="19"/>
-      <c r="D462" s="9" t="s">
+      <c r="D462" s="20" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="28"/>
-      <c r="B463" s="19"/>
-      <c r="C463" s="19"/>
-      <c r="D463" s="6" t="s">
+      <c r="A463" s="29"/>
+      <c r="B463" s="20"/>
+      <c r="C463" s="20"/>
+      <c r="D463" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A464" s="28"/>
-      <c r="B464" s="19"/>
-      <c r="C464" s="19" t="s">
+      <c r="A464" s="29"/>
+      <c r="B464" s="20"/>
+      <c r="C464" s="20"/>
+      <c r="D464" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="D464" s="16" t="s">
+    </row>
+    <row r="465" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A465" s="29"/>
+      <c r="B465" s="20"/>
+      <c r="C465" s="20" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="465" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="28"/>
-      <c r="B465" s="19"/>
-      <c r="C465" s="19"/>
-      <c r="D465" s="16" t="s">
+      <c r="D465" s="19" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A466" s="28"/>
-      <c r="B466" s="19"/>
-      <c r="C466" s="19"/>
-      <c r="D466" s="16" t="s">
+      <c r="A466" s="29"/>
+      <c r="B466" s="20"/>
+      <c r="C466" s="20"/>
+      <c r="D466" s="19" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A467" s="28"/>
-      <c r="B467" s="19"/>
-      <c r="C467" s="19"/>
-      <c r="D467" s="33" t="n">
+      <c r="A467" s="29"/>
+      <c r="B467" s="20"/>
+      <c r="C467" s="20"/>
+      <c r="D467" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A468" s="29"/>
+      <c r="B468" s="20"/>
+      <c r="C468" s="20"/>
+      <c r="D468" s="34" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A468" s="28"/>
-      <c r="B468" s="19"/>
-      <c r="C468" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D468" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
     <row r="469" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A469" s="28"/>
-      <c r="B469" s="19"/>
-      <c r="C469" s="19"/>
-      <c r="D469" s="16" t="s">
+      <c r="A469" s="29"/>
+      <c r="B469" s="20"/>
+      <c r="C469" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D469" s="20" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A470" s="28"/>
-      <c r="B470" s="19"/>
-      <c r="C470" s="19"/>
-      <c r="D470" s="16" t="s">
+      <c r="A470" s="29"/>
+      <c r="B470" s="20"/>
+      <c r="C470" s="20"/>
+      <c r="D470" s="19" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A471" s="28"/>
-      <c r="B471" s="19"/>
-      <c r="C471" s="19"/>
-      <c r="D471" s="9" t="s">
+      <c r="A471" s="29"/>
+      <c r="B471" s="20"/>
+      <c r="C471" s="20"/>
+      <c r="D471" s="19" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A472" s="28"/>
-      <c r="B472" s="19"/>
-      <c r="C472" s="19"/>
-      <c r="D472" s="33" t="n">
+      <c r="A472" s="29"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
+      <c r="D472" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A473" s="29"/>
+      <c r="B473" s="20"/>
+      <c r="C473" s="20"/>
+      <c r="D473" s="34" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A473" s="28"/>
-      <c r="B473" s="19"/>
-      <c r="C473" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D473" s="16" t="s">
+    <row r="474" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A474" s="29"/>
+      <c r="B474" s="20"/>
+      <c r="C474" s="20" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="474" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A474" s="28"/>
-      <c r="B474" s="19"/>
-      <c r="C474" s="19"/>
-      <c r="D474" s="6" t="s">
+      <c r="D474" s="19" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A475" s="28"/>
-      <c r="B475" s="19"/>
-      <c r="C475" s="19"/>
-      <c r="D475" s="6" t="s">
-        <v>311</v>
+      <c r="A475" s="29"/>
+      <c r="B475" s="20"/>
+      <c r="C475" s="20"/>
+      <c r="D475" s="13" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A476" s="28"/>
-      <c r="B476" s="19"/>
-      <c r="C476" s="19"/>
-      <c r="D476" s="33" t="n">
+      <c r="A476" s="29"/>
+      <c r="B476" s="20"/>
+      <c r="C476" s="20"/>
+      <c r="D476" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A477" s="29"/>
+      <c r="B477" s="20"/>
+      <c r="C477" s="20"/>
+      <c r="D477" s="34" t="n">
         <v>15000</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A477" s="28"/>
-      <c r="B477" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="C477" s="0"/>
-    </row>
     <row r="478" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="28"/>
-      <c r="B478" s="16" t="s">
+      <c r="A478" s="29"/>
+      <c r="B478" s="19" t="s">
         <v>405</v>
       </c>
       <c r="C478" s="0"/>
     </row>
     <row r="479" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A479" s="28"/>
-      <c r="B479" s="16" t="s">
+      <c r="A479" s="29"/>
+      <c r="B479" s="19" t="s">
         <v>406</v>
       </c>
       <c r="C479" s="0"/>
     </row>
     <row r="480" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A480" s="28"/>
-      <c r="B480" s="16" t="s">
+      <c r="A480" s="29"/>
+      <c r="B480" s="19" t="s">
         <v>407</v>
+      </c>
+      <c r="C480" s="0"/>
+    </row>
+    <row r="481" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A481" s="29"/>
+      <c r="B481" s="19" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4370,129 +4389,129 @@
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:A73"/>
     <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:A96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:A126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:A135"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:A182"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A245:A249"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:A273"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A305:A307"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="A324:A325"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="A345:A347"/>
-    <mergeCell ref="A349:B349"/>
-    <mergeCell ref="A352:B352"/>
-    <mergeCell ref="A355:B355"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:A361"/>
-    <mergeCell ref="A363:B363"/>
-    <mergeCell ref="A366:B366"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="A370:B370"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A376:B376"/>
-    <mergeCell ref="A379:B379"/>
-    <mergeCell ref="A380:A381"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A384:A394"/>
-    <mergeCell ref="B384:B388"/>
-    <mergeCell ref="B389:B394"/>
-    <mergeCell ref="A396:B396"/>
-    <mergeCell ref="A397:A404"/>
-    <mergeCell ref="A406:B406"/>
-    <mergeCell ref="A409:B412"/>
-    <mergeCell ref="A440:A443"/>
-    <mergeCell ref="A445:A480"/>
-    <mergeCell ref="B461:B476"/>
-    <mergeCell ref="C461:C463"/>
-    <mergeCell ref="C464:C467"/>
-    <mergeCell ref="C468:C472"/>
-    <mergeCell ref="C473:C476"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:A136"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:A163"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A311:A312"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A346:A348"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A360:A362"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A367:B367"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="A374:B374"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A385:A395"/>
+    <mergeCell ref="B385:B389"/>
+    <mergeCell ref="B390:B395"/>
+    <mergeCell ref="A397:B397"/>
+    <mergeCell ref="A398:A405"/>
+    <mergeCell ref="A407:B407"/>
+    <mergeCell ref="A410:B413"/>
+    <mergeCell ref="A441:A444"/>
+    <mergeCell ref="A446:A481"/>
+    <mergeCell ref="B462:B477"/>
+    <mergeCell ref="C462:C464"/>
+    <mergeCell ref="C465:C468"/>
+    <mergeCell ref="C469:C473"/>
+    <mergeCell ref="C474:C477"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\Projetos\aws-cloud-practitioner-essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587DADE3-6364-4982-9C36-74D4B2572F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66931962-A4A0-4BD4-BA26-67A17D1630FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="444">
   <si>
     <t>EC2</t>
   </si>
@@ -1239,9 +1239,6 @@
     <t>+ business critical system down (&lt; 15min)</t>
   </si>
   <si>
-    <t>personal concierge</t>
-  </si>
-  <si>
     <t>Amazon WorkSpaces</t>
   </si>
   <si>
@@ -1297,6 +1294,69 @@
   </si>
   <si>
     <t>Concierge Support Team</t>
+  </si>
+  <si>
+    <t>Billing and Account support</t>
+  </si>
+  <si>
+    <t>E-mail tech support</t>
+  </si>
+  <si>
+    <t>24/7 tech support through phone, web and chat</t>
+  </si>
+  <si>
+    <t>7 Trusted advisor checks</t>
+  </si>
+  <si>
+    <t>ALL Trusted advisor checks</t>
+  </si>
+  <si>
+    <t>General guidance</t>
+  </si>
+  <si>
+    <t>Systems impaired</t>
+  </si>
+  <si>
+    <t>Tech support for unlimited cases (1 contact)</t>
+  </si>
+  <si>
+    <t>Production systems impaired</t>
+  </si>
+  <si>
+    <t>Architetural guidance: GENERAL</t>
+  </si>
+  <si>
+    <t>Production systems down</t>
+  </si>
+  <si>
+    <t>Access to SUPPORT AUTOMATION WORKFLOWS</t>
+  </si>
+  <si>
+    <t>Tech support for unlimited cases (UNLIMITED)</t>
+  </si>
+  <si>
+    <t>Architetural guidance:  CONTEXTUAL TO YOUR USE-CASE</t>
+  </si>
+  <si>
+    <t>Architetural guidance: CONSULTATIVE REVIEW AND GUIDANCE BASED ON YOUR APPLICATIONS</t>
+  </si>
+  <si>
+    <t>Access to AWS Support API</t>
+  </si>
+  <si>
+    <t>Troubleshooting for 3rd party apps</t>
+  </si>
+  <si>
+    <t>Access to INFRASTRUCTURE EVENT MANAGEMENT included "FREE"</t>
+  </si>
+  <si>
+    <t>Access to AWS MANAGED SERVICES (AMS) for an additional fee</t>
+  </si>
+  <si>
+    <t>Concierge Support</t>
+  </si>
+  <si>
+    <t>Access to online labs</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1382,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1455,8 +1515,62 @@
         <bgColor rgb="FFE6E905"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1510,15 +1624,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1531,28 +1655,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1562,9 +1671,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1577,6 +1683,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,29 +1739,50 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2000,2788 +2166,2966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ496"/>
+  <dimension ref="A1:AMJ514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C477" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F485" sqref="F485"/>
+    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B511" sqref="B511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="7" customWidth="1"/>
-    <col min="2" max="2" width="110.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="116" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="1024" width="9.140625" style="7"/>
-    <col min="1025" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="45" style="5" customWidth="1"/>
+    <col min="2" max="2" width="110.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="120.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="1024" width="9.140625" style="5"/>
+    <col min="1025" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="11"/>
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="11"/>
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
     <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="21"/>
     </row>
     <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="21"/>
     </row>
     <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="21"/>
     </row>
     <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="11"/>
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="21"/>
     </row>
     <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="21"/>
     </row>
     <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="21"/>
     </row>
     <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="16" t="s">
+      <c r="A62" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="16" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="6"/>
+      <c r="B65" s="21"/>
     </row>
     <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18" t="s">
+      <c r="A69" s="27"/>
+      <c r="B69" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="27"/>
+      <c r="B70" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="19" t="s">
+      <c r="A71" s="27"/>
+      <c r="B71" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18" t="s">
+      <c r="A72" s="27"/>
+      <c r="B72" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="5" t="s">
+      <c r="A73" s="27"/>
+      <c r="B73" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="6"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18" t="s">
+      <c r="A78" s="27"/>
+      <c r="B78" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18" t="s">
+      <c r="A79" s="27"/>
+      <c r="B79" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18" t="s">
+      <c r="A80" s="27"/>
+      <c r="B80" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="27"/>
+      <c r="B81" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="5" t="s">
+      <c r="A82" s="27"/>
+      <c r="B82" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="6"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="18" t="s">
+      <c r="A85" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="18" t="s">
+      <c r="A86" s="26"/>
+      <c r="B86" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="18" t="s">
+      <c r="A87" s="26"/>
+      <c r="B87" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="18" t="s">
+      <c r="A88" s="26"/>
+      <c r="B88" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="18" t="s">
+      <c r="A89" s="26"/>
+      <c r="B89" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="18" t="s">
+      <c r="A90" s="26"/>
+      <c r="B90" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="18" t="s">
+      <c r="A91" s="26"/>
+      <c r="B91" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="18" t="s">
+      <c r="A92" s="26"/>
+      <c r="B92" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="18" t="s">
+      <c r="A93" s="26"/>
+      <c r="B93" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="18" t="s">
+      <c r="A94" s="26"/>
+      <c r="B94" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="18" t="s">
+      <c r="A95" s="26"/>
+      <c r="B95" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="18" t="s">
+      <c r="A96" s="26"/>
+      <c r="B96" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="18" t="s">
+      <c r="A97" s="26"/>
+      <c r="B97" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="6"/>
+      <c r="B99" s="21"/>
     </row>
     <row r="100" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="18" t="s">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B102" s="6"/>
+      <c r="B102" s="21"/>
     </row>
     <row r="103" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="18" t="s">
+      <c r="A103" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="18" t="s">
+      <c r="A104" s="28"/>
+      <c r="B104" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B106" s="6"/>
+      <c r="B106" s="21"/>
     </row>
     <row r="107" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="18" t="s">
+      <c r="A107" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="18" t="s">
+      <c r="A108" s="26"/>
+      <c r="B108" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="18" t="s">
+      <c r="A109" s="26"/>
+      <c r="B109" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="18" t="s">
+      <c r="A110" s="26"/>
+      <c r="B110" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B112" s="6"/>
+      <c r="B112" s="21"/>
     </row>
     <row r="113" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="18" t="s">
+      <c r="A113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="6"/>
+      <c r="B115" s="21"/>
     </row>
     <row r="116" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="18" t="s">
+      <c r="A116" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
-      <c r="B117" s="19" t="s">
+      <c r="A117" s="27"/>
+      <c r="B117" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="6"/>
+      <c r="B119" s="21"/>
     </row>
     <row r="120" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" s="18" t="s">
+      <c r="A120" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
-      <c r="B121" s="18" t="s">
+      <c r="A121" s="28"/>
+      <c r="B121" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="22"/>
-      <c r="B122" s="18" t="s">
+      <c r="A122" s="28"/>
+      <c r="B122" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="22"/>
-      <c r="B123" s="18" t="s">
+      <c r="A123" s="28"/>
+      <c r="B123" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="22"/>
-      <c r="B124" s="18" t="s">
+      <c r="A124" s="28"/>
+      <c r="B124" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="22"/>
-      <c r="B125" s="18" t="s">
+      <c r="A125" s="28"/>
+      <c r="B125" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="22"/>
-      <c r="B126" s="18" t="s">
+      <c r="A126" s="28"/>
+      <c r="B126" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22"/>
-      <c r="B127" s="18" t="s">
+      <c r="A127" s="28"/>
+      <c r="B127" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="6"/>
+      <c r="B129" s="21"/>
     </row>
     <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="18" t="s">
+      <c r="A130" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="18" t="s">
+      <c r="A131" s="28"/>
+      <c r="B131" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="18" t="s">
+      <c r="A132" s="28"/>
+      <c r="B132" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="22"/>
-      <c r="B133" s="18" t="s">
+      <c r="A133" s="28"/>
+      <c r="B133" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="22"/>
-      <c r="B134" s="18" t="s">
+      <c r="A134" s="28"/>
+      <c r="B134" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="22"/>
-      <c r="B135" s="3" t="s">
+      <c r="A135" s="28"/>
+      <c r="B135" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="22"/>
-      <c r="B136" s="3" t="s">
+      <c r="A136" s="28"/>
+      <c r="B136" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
-      <c r="B137" s="19" t="s">
+      <c r="A137" s="13"/>
+      <c r="B137" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="21"/>
     </row>
     <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="11" t="s">
+      <c r="A140" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="18" t="s">
+      <c r="A141" s="26"/>
+      <c r="B141" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="23" t="s">
+      <c r="A142" s="26"/>
+      <c r="B142" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="5" t="s">
+      <c r="A143" s="26"/>
+      <c r="B143" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B145" s="6"/>
+      <c r="B145" s="21"/>
     </row>
     <row r="146" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" s="18" t="s">
+      <c r="A146" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="22"/>
-      <c r="B147" s="11" t="s">
+      <c r="A147" s="28"/>
+      <c r="B147" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="22"/>
-      <c r="B148" s="11" t="s">
+      <c r="A148" s="28"/>
+      <c r="B148" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="22"/>
-      <c r="B149" s="18" t="s">
+      <c r="A149" s="28"/>
+      <c r="B149" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B151" s="6"/>
+      <c r="B151" s="21"/>
     </row>
     <row r="152" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="11" t="s">
+      <c r="A152" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="11" t="s">
+      <c r="A153" s="26"/>
+      <c r="B153" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B155" s="6"/>
+      <c r="B155" s="21"/>
     </row>
     <row r="156" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="18" t="s">
+      <c r="A156" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="18" t="s">
+      <c r="A157" s="26"/>
+      <c r="B157" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="3" t="s">
+      <c r="A158" s="26"/>
+      <c r="B158" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="5" t="s">
+      <c r="A159" s="26"/>
+      <c r="B159" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="5" t="s">
+      <c r="A160" s="26"/>
+      <c r="B160" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="5" t="s">
+      <c r="A161" s="26"/>
+      <c r="B161" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="3" t="s">
+      <c r="A162" s="26"/>
+      <c r="B162" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="3" t="s">
+      <c r="A163" s="26"/>
+      <c r="B163" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="6"/>
+      <c r="B165" s="21"/>
     </row>
     <row r="166" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B166" s="18" t="s">
+      <c r="A166" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="22"/>
-      <c r="B167" s="11" t="s">
+      <c r="A167" s="28"/>
+      <c r="B167" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="22"/>
-      <c r="B168" s="11" t="s">
+      <c r="A168" s="28"/>
+      <c r="B168" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B170" s="6"/>
+      <c r="B170" s="21"/>
     </row>
     <row r="171" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" s="18" t="s">
+      <c r="A171" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="3" t="s">
+      <c r="A172" s="26"/>
+      <c r="B172" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B174" s="6"/>
+      <c r="B174" s="21"/>
     </row>
     <row r="175" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B175" s="18" t="s">
+      <c r="A175" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="3" t="s">
+      <c r="A176" s="26"/>
+      <c r="B176" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
+      <c r="A178" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B178" s="6"/>
+      <c r="B178" s="21"/>
     </row>
     <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="11" t="s">
+      <c r="A179" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="18" t="s">
+      <c r="A180" s="26"/>
+      <c r="B180" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="5" t="s">
+      <c r="A181" s="26"/>
+      <c r="B181" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="5" t="s">
+      <c r="A182" s="26"/>
+      <c r="B182" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="18" t="s">
+      <c r="A183" s="26"/>
+      <c r="B183" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B185" s="6"/>
+      <c r="B185" s="21"/>
     </row>
     <row r="186" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" s="18" t="s">
+      <c r="A186" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="3" t="s">
+      <c r="A187" s="26"/>
+      <c r="B187" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B189" s="6"/>
+      <c r="B189" s="21"/>
     </row>
     <row r="190" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190" s="11" t="s">
+      <c r="A190" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="11" t="s">
+      <c r="A191" s="26"/>
+      <c r="B191" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="18" t="s">
+      <c r="A192" s="26"/>
+      <c r="B192" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="18" t="s">
+      <c r="A193" s="26"/>
+      <c r="B193" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B195" s="6"/>
+      <c r="B195" s="21"/>
     </row>
     <row r="196" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="18" t="s">
+      <c r="A196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B198" s="6"/>
+      <c r="B198" s="21"/>
     </row>
     <row r="199" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B199" s="18" t="s">
+      <c r="A199" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="18" t="s">
+      <c r="A200" s="26"/>
+      <c r="B200" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B202" s="6"/>
+      <c r="B202" s="21"/>
     </row>
     <row r="203" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B203" s="18" t="s">
+      <c r="A203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B205" s="6"/>
+      <c r="B205" s="21"/>
     </row>
     <row r="206" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B206" s="18" t="s">
+      <c r="A206" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="3" t="s">
+      <c r="A207" s="26"/>
+      <c r="B207" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B209" s="6"/>
+      <c r="B209" s="21"/>
     </row>
     <row r="210" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B210" s="18" t="s">
+      <c r="A210" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="11" t="s">
+      <c r="A211" s="26"/>
+      <c r="B211" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="18" t="s">
+      <c r="A212" s="26"/>
+      <c r="B212" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="18" t="s">
+      <c r="A213" s="26"/>
+      <c r="B213" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B215" s="6"/>
+      <c r="B215" s="21"/>
     </row>
     <row r="216" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B216" s="18" t="s">
+      <c r="A216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B218" s="6"/>
+      <c r="B218" s="21"/>
     </row>
     <row r="219" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="18" t="s">
+      <c r="A219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B221" s="6"/>
+      <c r="B221" s="21"/>
     </row>
     <row r="222" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="18" t="s">
+      <c r="A222" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="18" t="s">
+      <c r="A223" s="26"/>
+      <c r="B223" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="18" t="s">
+      <c r="A224" s="26"/>
+      <c r="B224" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B226" s="6"/>
+      <c r="B226" s="21"/>
     </row>
     <row r="227" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B227" s="3" t="s">
+      <c r="A227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B229" s="6"/>
+      <c r="B229" s="21"/>
     </row>
     <row r="230" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B230" s="11" t="s">
+      <c r="A230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B232" s="6"/>
+      <c r="B232" s="21"/>
     </row>
     <row r="233" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B233" s="11" t="s">
+      <c r="A233" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="18" t="s">
+      <c r="A234" s="26"/>
+      <c r="B234" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="s">
+      <c r="A236" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B236" s="6"/>
+      <c r="B236" s="21"/>
     </row>
     <row r="237" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B237" s="18" t="s">
+      <c r="A237" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="22"/>
-      <c r="B238" s="18" t="s">
+      <c r="A238" s="28"/>
+      <c r="B238" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="22"/>
-      <c r="B239" s="18" t="s">
+      <c r="A239" s="28"/>
+      <c r="B239" s="11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B241" s="6"/>
+      <c r="B241" s="21"/>
     </row>
     <row r="242" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B242" s="18" t="s">
+      <c r="A242" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="5" t="s">
+      <c r="A243" s="26"/>
+      <c r="B243" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
+      <c r="A245" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="B245" s="6"/>
+      <c r="B245" s="21"/>
     </row>
     <row r="246" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B246" s="11" t="s">
+      <c r="A246" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="22"/>
-      <c r="B247" s="11" t="s">
+      <c r="A247" s="28"/>
+      <c r="B247" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="22"/>
-      <c r="B248" s="11" t="s">
+      <c r="A248" s="28"/>
+      <c r="B248" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="22"/>
-      <c r="B249" s="11" t="s">
+      <c r="A249" s="28"/>
+      <c r="B249" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="22"/>
-      <c r="B250" s="11" t="s">
+      <c r="A250" s="28"/>
+      <c r="B250" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
+      <c r="A252" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B252" s="6"/>
+      <c r="B252" s="21"/>
     </row>
     <row r="253" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B253" s="11" t="s">
+      <c r="A253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B255" s="6"/>
+      <c r="B255" s="21"/>
     </row>
     <row r="256" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B256" s="11" t="s">
+      <c r="A256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
+      <c r="A258" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B258" s="6"/>
+      <c r="B258" s="21"/>
     </row>
     <row r="259" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B259" s="11" t="s">
+      <c r="A259" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="s">
+      <c r="A261" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B261" s="6"/>
+      <c r="B261" s="21"/>
     </row>
     <row r="262" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B262" s="11" t="s">
+      <c r="A262" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="6" t="s">
+      <c r="A264" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="B264" s="6"/>
+      <c r="B264" s="21"/>
     </row>
     <row r="265" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B265" s="18" t="s">
+      <c r="A265" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265" s="11" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
+      <c r="A267" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B267" s="6"/>
+      <c r="B267" s="21"/>
     </row>
     <row r="268" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B268" s="11" t="s">
+      <c r="A268" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="B269" s="11" t="s">
+      <c r="A269" s="26"/>
+      <c r="B269" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="6" t="s">
+      <c r="A271" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="B271" s="6"/>
+      <c r="B271" s="21"/>
     </row>
     <row r="272" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B272" s="11" t="s">
+      <c r="A272" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="11" t="s">
+      <c r="A273" s="26"/>
+      <c r="B273" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="11" t="s">
+      <c r="A274" s="26"/>
+      <c r="B274" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="s">
+      <c r="A276" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B276" s="6"/>
+      <c r="B276" s="21"/>
     </row>
     <row r="277" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B277" s="11" t="s">
+      <c r="A277" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="3" t="s">
+      <c r="A278" s="26"/>
+      <c r="B278" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B280" s="6"/>
+      <c r="B280" s="21"/>
     </row>
     <row r="281" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B281" s="11" t="s">
+      <c r="A281" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="s">
+      <c r="A283" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B283" s="6"/>
+      <c r="B283" s="21"/>
     </row>
     <row r="284" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B284" s="5" t="s">
+      <c r="A284" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="18" t="s">
+      <c r="A285" s="26"/>
+      <c r="B285" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="6" t="s">
+      <c r="A287" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B287" s="6"/>
+      <c r="B287" s="21"/>
     </row>
     <row r="288" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B288" s="18" t="s">
+      <c r="A288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
+      <c r="A290" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B290" s="6"/>
+      <c r="B290" s="21"/>
     </row>
     <row r="291" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B291" s="18" t="s">
+      <c r="A291" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="s">
+      <c r="A293" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B293" s="6"/>
+      <c r="B293" s="21"/>
     </row>
     <row r="294" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B294" s="18" t="s">
+      <c r="A294" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294" s="11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="s">
+      <c r="A296" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B296" s="6"/>
+      <c r="B296" s="21"/>
     </row>
     <row r="297" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B297" s="18" t="s">
+      <c r="A297" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B297" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
+      <c r="A299" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B299" s="6"/>
+      <c r="B299" s="21"/>
     </row>
     <row r="300" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B300" s="18" t="s">
+      <c r="A300" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B302" s="6"/>
+      <c r="B302" s="21"/>
     </row>
     <row r="303" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B303" s="18" t="s">
+      <c r="A303" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B303" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="6" t="s">
+      <c r="A305" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="B305" s="6"/>
+      <c r="B305" s="21"/>
     </row>
     <row r="306" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B306" s="18" t="s">
+      <c r="A306" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B306" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-      <c r="B307" s="18" t="s">
+      <c r="A307" s="26"/>
+      <c r="B307" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
-      <c r="B308" s="18" t="s">
+      <c r="A308" s="26"/>
+      <c r="B308" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
+      <c r="A310" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="B310" s="6"/>
+      <c r="B310" s="21"/>
     </row>
     <row r="311" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B311" s="18" t="s">
+      <c r="A311" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B311" s="11" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
-      <c r="B312" s="18" t="s">
+      <c r="A312" s="26"/>
+      <c r="B312" s="11" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
+      <c r="A314" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="B314" s="6"/>
+      <c r="B314" s="21"/>
     </row>
     <row r="315" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B315" s="18" t="s">
+      <c r="A315" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" s="11" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
+      <c r="A317" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B317" s="6"/>
+      <c r="B317" s="21"/>
     </row>
     <row r="318" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B318" s="18" t="s">
+      <c r="A318" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" s="11" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="22"/>
-      <c r="B319" s="18" t="s">
+      <c r="A319" s="28"/>
+      <c r="B319" s="11" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="6" t="s">
+      <c r="A321" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="B321" s="6"/>
+      <c r="B321" s="21"/>
     </row>
     <row r="322" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B322" s="3" t="s">
+      <c r="A322" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
+      <c r="A324" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B324" s="6"/>
+      <c r="B324" s="21"/>
     </row>
     <row r="325" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B325" s="18" t="s">
+      <c r="A325" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" s="11" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
-      <c r="B326" s="18" t="s">
+      <c r="A326" s="26"/>
+      <c r="B326" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="6" t="s">
+      <c r="A328" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B328" s="6"/>
+      <c r="B328" s="21"/>
     </row>
     <row r="329" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B329" s="18" t="s">
+      <c r="A329" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B329" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="6" t="s">
+      <c r="A331" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B331" s="6"/>
+      <c r="B331" s="21"/>
     </row>
     <row r="332" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B332" s="18" t="s">
+      <c r="A332" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="6" t="s">
+      <c r="A334" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B334" s="6"/>
+      <c r="B334" s="21"/>
     </row>
     <row r="335" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B335" s="3" t="s">
+      <c r="A335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="6" t="s">
+      <c r="A337" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="B337" s="6"/>
+      <c r="B337" s="21"/>
     </row>
     <row r="338" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B338" s="18" t="s">
+      <c r="A338" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B338" s="11" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1"/>
-      <c r="B339" s="18" t="s">
+      <c r="A339" s="26"/>
+      <c r="B339" s="11" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
-      <c r="B340" s="5" t="s">
+      <c r="A340" s="1"/>
+      <c r="B340" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
+      <c r="A342" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B342" s="6"/>
+      <c r="B342" s="21"/>
     </row>
     <row r="343" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B343" s="18" t="s">
+      <c r="A343" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343" s="11" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
+      <c r="A345" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B345" s="6"/>
+      <c r="B345" s="21"/>
     </row>
     <row r="346" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B346" s="18" t="s">
+      <c r="A346" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B346" s="11" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
-      <c r="B347" s="3" t="s">
+      <c r="A347" s="26"/>
+      <c r="B347" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
-      <c r="B348" s="18" t="s">
+      <c r="A348" s="26"/>
+      <c r="B348" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="6" t="s">
+      <c r="A350" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B350" s="6"/>
+      <c r="B350" s="21"/>
     </row>
     <row r="351" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B351" s="18" t="s">
+      <c r="A351" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="6" t="s">
+      <c r="A353" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B353" s="6"/>
+      <c r="B353" s="21"/>
     </row>
     <row r="354" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B354" s="18" t="s">
+      <c r="A354" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" s="11" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="6" t="s">
+      <c r="A356" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="B356" s="6"/>
+      <c r="B356" s="21"/>
     </row>
     <row r="357" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B357" s="18" t="s">
+      <c r="A357" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" s="11" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="6" t="s">
+      <c r="A359" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B359" s="6"/>
+      <c r="B359" s="21"/>
     </row>
     <row r="360" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B360" s="18" t="s">
+      <c r="A360" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360" s="11" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
-      <c r="B361" s="3" t="s">
+      <c r="A361" s="26"/>
+      <c r="B361" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1"/>
-      <c r="B362" s="3" t="s">
+      <c r="A362" s="26"/>
+      <c r="B362" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="6" t="s">
+      <c r="A364" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B364" s="6"/>
+      <c r="B364" s="21"/>
     </row>
     <row r="365" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B365" s="18" t="s">
+      <c r="A365" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" s="11" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="6" t="s">
+      <c r="A367" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B367" s="6"/>
+      <c r="B367" s="21"/>
     </row>
     <row r="368" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B368" s="18" t="s">
+      <c r="A368" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B368" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1"/>
-      <c r="B369" s="18" t="s">
+      <c r="A369" s="26"/>
+      <c r="B369" s="11" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="6" t="s">
+      <c r="A371" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="B371" s="6"/>
+      <c r="B371" s="21"/>
     </row>
     <row r="372" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B372" s="18" t="s">
+      <c r="A372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B372" s="11" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="6" t="s">
+      <c r="A374" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="B374" s="6"/>
+      <c r="B374" s="21"/>
     </row>
     <row r="375" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B375" s="18" t="s">
+      <c r="A375" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B375" s="11" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="6" t="s">
+      <c r="A377" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B377" s="6"/>
+      <c r="B377" s="21"/>
     </row>
     <row r="378" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B378" s="11" t="s">
+      <c r="A378" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B378" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="6" t="s">
+      <c r="A380" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="B380" s="6"/>
+      <c r="B380" s="21"/>
     </row>
     <row r="381" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B381" s="5" t="s">
+      <c r="A381" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="1"/>
-      <c r="B382" s="5" t="s">
+      <c r="A382" s="26"/>
+      <c r="B382" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="6" t="s">
+      <c r="A384" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
+      <c r="B384" s="21"/>
+      <c r="C384" s="21"/>
     </row>
     <row r="385" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B385" s="24" t="s">
+      <c r="A385" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B385" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="C385" s="18" t="s">
+      <c r="C385" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
-      <c r="B386" s="24"/>
-      <c r="C386" s="18" t="s">
+      <c r="A386" s="26"/>
+      <c r="B386" s="30"/>
+      <c r="C386" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
-      <c r="B387" s="24"/>
-      <c r="C387" s="18" t="s">
+      <c r="A387" s="26"/>
+      <c r="B387" s="30"/>
+      <c r="C387" s="11" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="1"/>
-      <c r="B388" s="24"/>
-      <c r="C388" s="18" t="s">
+      <c r="A388" s="26"/>
+      <c r="B388" s="30"/>
+      <c r="C388" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1"/>
-      <c r="B389" s="24"/>
-      <c r="C389" s="18" t="s">
+      <c r="A389" s="26"/>
+      <c r="B389" s="30"/>
+      <c r="C389" s="11" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="1"/>
-      <c r="B390" s="25" t="s">
+      <c r="A390" s="26"/>
+      <c r="B390" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="C390" s="18" t="s">
+      <c r="C390" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="1"/>
-      <c r="B391" s="25"/>
-      <c r="C391" s="18" t="s">
+      <c r="A391" s="26"/>
+      <c r="B391" s="31"/>
+      <c r="C391" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="1"/>
-      <c r="B392" s="25"/>
-      <c r="C392" s="18" t="s">
+      <c r="A392" s="26"/>
+      <c r="B392" s="31"/>
+      <c r="C392" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
-      <c r="B393" s="25"/>
-      <c r="C393" s="18" t="s">
+      <c r="A393" s="26"/>
+      <c r="B393" s="31"/>
+      <c r="C393" s="11" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
-      <c r="B394" s="25"/>
-      <c r="C394" s="18" t="s">
+      <c r="A394" s="26"/>
+      <c r="B394" s="31"/>
+      <c r="C394" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
-      <c r="B395" s="25"/>
-      <c r="C395" s="18" t="s">
+      <c r="A395" s="26"/>
+      <c r="B395" s="31"/>
+      <c r="C395" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="6" t="s">
+      <c r="A397" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B397" s="6"/>
+      <c r="B397" s="21"/>
     </row>
     <row r="398" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B398" s="5" t="s">
+      <c r="A398" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B398" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
-      <c r="B399" s="5" t="s">
+      <c r="A399" s="26"/>
+      <c r="B399" s="4" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
-      <c r="B400" s="5" t="s">
+      <c r="A400" s="26"/>
+      <c r="B400" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
-      <c r="B401" s="5" t="s">
+      <c r="A401" s="26"/>
+      <c r="B401" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
-      <c r="B402" s="5" t="s">
+      <c r="A402" s="26"/>
+      <c r="B402" s="4" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1"/>
-      <c r="B403" s="3" t="s">
+      <c r="A403" s="26"/>
+      <c r="B403" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
-      <c r="B404" s="3" t="s">
+      <c r="A404" s="26"/>
+      <c r="B404" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
-      <c r="B405" s="3" t="s">
+      <c r="A405" s="26"/>
+      <c r="B405" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="407" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="6" t="s">
+      <c r="A407" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B407" s="6"/>
+      <c r="B407" s="21"/>
     </row>
     <row r="408" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B408" s="3" t="s">
+      <c r="A408" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="410" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="26" t="s">
+      <c r="A410" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="B410" s="26"/>
+      <c r="B410" s="32"/>
     </row>
     <row r="411" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="26"/>
-      <c r="B411" s="26"/>
+      <c r="A411" s="32"/>
+      <c r="B411" s="32"/>
     </row>
     <row r="412" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="26"/>
-      <c r="B412" s="26"/>
+      <c r="A412" s="32"/>
+      <c r="B412" s="32"/>
     </row>
     <row r="413" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="26"/>
-      <c r="B413" s="26"/>
+      <c r="A413" s="32"/>
+      <c r="B413" s="32"/>
     </row>
     <row r="414" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="18" t="s">
+      <c r="A414" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B414" s="18" t="s">
+      <c r="B414" s="11" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B415" s="5" t="s">
+      <c r="B415" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="18" t="s">
+      <c r="A416" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="B416" s="18" t="s">
+      <c r="B416" s="11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="18" t="s">
+      <c r="A417" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B417" s="18" t="s">
+      <c r="B417" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="18" t="s">
+      <c r="A418" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B418" s="18" t="s">
+      <c r="B418" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="11" t="s">
+      <c r="A419" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B419" s="18" t="s">
+      <c r="B419" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="11" t="s">
+      <c r="A420" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B420" s="18" t="s">
+      <c r="B420" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="3" t="s">
+      <c r="A421" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B421" s="27"/>
+      <c r="B421" s="16"/>
     </row>
     <row r="422" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="18" t="s">
+      <c r="A422" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="B422" s="18" t="s">
+      <c r="B422" s="11" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="18" t="s">
+      <c r="A423" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B423" s="18" t="s">
+      <c r="B423" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="18" t="s">
+      <c r="A424" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B424" s="18" t="s">
+      <c r="B424" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="18" t="s">
+      <c r="A425" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B425" s="18" t="s">
+      <c r="B425" s="11" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="18" t="s">
+      <c r="A426" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B426" s="18" t="s">
+      <c r="B426" s="11" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="18" t="s">
+      <c r="A427" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B427" s="18" t="s">
+      <c r="B427" s="11" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="18" t="s">
+      <c r="A428" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B428" s="18" t="s">
+      <c r="B428" s="11" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="18" t="s">
+      <c r="A429" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="B429" s="18" t="s">
+      <c r="B429" s="11" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="11" t="s">
+      <c r="A430" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B430" s="18" t="s">
+      <c r="B430" s="11" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="18" t="s">
+      <c r="A431" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B431" s="18" t="s">
+      <c r="B431" s="11" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="18" t="s">
+      <c r="A432" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B432" s="18" t="s">
+      <c r="B432" s="11" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="18" t="s">
+      <c r="A433" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B433" s="18" t="s">
+      <c r="B433" s="11" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="18" t="s">
+      <c r="A434" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B434" s="18" t="s">
+      <c r="B434" s="11" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="18" t="s">
+      <c r="A435" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="B435" s="18" t="s">
+      <c r="B435" s="11" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="18" t="s">
+      <c r="A436" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B436" s="18" t="s">
+      <c r="B436" s="11" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="18" t="s">
+      <c r="A437" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B437" s="18" t="s">
+      <c r="B437" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="3" t="s">
+      <c r="A438" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B438" s="27" t="s">
+      <c r="B438" s="16" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="3" t="s">
+      <c r="A439" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B439" s="27" t="s">
+      <c r="B439" s="16" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="28" t="s">
+      <c r="A441" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="B441" s="5" t="s">
+      <c r="B441" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="28"/>
-      <c r="B442" s="5" t="s">
+      <c r="A442" s="33"/>
+      <c r="B442" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="28"/>
-      <c r="B443" s="29" t="s">
+      <c r="A443" s="33"/>
+      <c r="B443" s="17" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="28"/>
-      <c r="B444" s="3" t="s">
+      <c r="A444" s="33"/>
+      <c r="B444" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="446" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="30" t="s">
+      <c r="A446" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="30"/>
-      <c r="B447" s="3" t="s">
+      <c r="A447" s="34"/>
+      <c r="B447" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="30"/>
-      <c r="B448" s="3" t="s">
+      <c r="A448" s="34"/>
+      <c r="B448" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="30"/>
-      <c r="B449" s="3" t="s">
+      <c r="A449" s="34"/>
+      <c r="B449" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="30"/>
-      <c r="B450" s="3" t="s">
+      <c r="A450" s="34"/>
+      <c r="B450" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="30"/>
-      <c r="B451" s="3" t="s">
+      <c r="A451" s="34"/>
+      <c r="B451" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="30"/>
-      <c r="B452" s="3" t="s">
+      <c r="A452" s="34"/>
+      <c r="B452" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="30"/>
-      <c r="B453" s="3" t="s">
+      <c r="A453" s="34"/>
+      <c r="B453" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="30"/>
-      <c r="B454" s="3" t="s">
+      <c r="A454" s="34"/>
+      <c r="B454" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="30"/>
-      <c r="B455" s="4" t="s">
+      <c r="A455" s="34"/>
+      <c r="B455" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="30"/>
-      <c r="B456" s="5" t="s">
+      <c r="A456" s="34"/>
+      <c r="B456" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="30"/>
-      <c r="B457" s="3" t="s">
+      <c r="A457" s="34"/>
+      <c r="B457" s="2" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="30"/>
-      <c r="B458" s="4" t="s">
+      <c r="A458" s="34"/>
+      <c r="B458" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="30"/>
-      <c r="B459" s="5" t="s">
+      <c r="A459" s="34"/>
+      <c r="B459" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="30"/>
-      <c r="B460" s="5" t="s">
+      <c r="A460" s="34"/>
+      <c r="B460" s="4" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="30"/>
-      <c r="B461" s="5" t="s">
+      <c r="A461" s="34"/>
+      <c r="B461" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="30"/>
-      <c r="B462" s="31" t="s">
+      <c r="A462" s="34"/>
+      <c r="B462" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="C462" s="31" t="s">
+      <c r="C462" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="D462" s="23" t="s">
+      <c r="D462" s="15" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="30"/>
-      <c r="B463" s="31"/>
-      <c r="C463" s="31"/>
-      <c r="D463" s="5" t="s">
+      <c r="A463" s="34"/>
+      <c r="B463" s="29"/>
+      <c r="C463" s="29"/>
+      <c r="D463" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="30"/>
-      <c r="B464" s="31"/>
-      <c r="C464" s="31"/>
-      <c r="D464" s="18" t="s">
+      <c r="A464" s="34"/>
+      <c r="B464" s="29"/>
+      <c r="C464" s="29"/>
+      <c r="D464" s="11" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="30"/>
-      <c r="B465" s="31"/>
-      <c r="C465" s="31" t="s">
+      <c r="A465" s="34"/>
+      <c r="B465" s="29"/>
+      <c r="C465" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="D465" s="3" t="s">
+      <c r="D465" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="30"/>
-      <c r="B466" s="31"/>
-      <c r="C466" s="31"/>
-      <c r="D466" s="3" t="s">
+      <c r="A466" s="34"/>
+      <c r="B466" s="29"/>
+      <c r="C466" s="29"/>
+      <c r="D466" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="30"/>
-      <c r="B467" s="31"/>
-      <c r="C467" s="31"/>
-      <c r="D467" s="3" t="s">
+      <c r="A467" s="34"/>
+      <c r="B467" s="29"/>
+      <c r="C467" s="29"/>
+      <c r="D467" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="30"/>
-      <c r="B468" s="31"/>
-      <c r="C468" s="31"/>
-      <c r="D468" s="3" t="s">
+      <c r="A468" s="34"/>
+      <c r="B468" s="29"/>
+      <c r="C468" s="29"/>
+      <c r="D468" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="34"/>
+      <c r="B469" s="29"/>
+      <c r="C469" s="29"/>
+      <c r="D469" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="34"/>
+      <c r="B470" s="29"/>
+      <c r="C470" s="29"/>
+      <c r="D470" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="34"/>
+      <c r="B471" s="29"/>
+      <c r="C471" s="29"/>
+      <c r="D471" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="34"/>
+      <c r="B472" s="29"/>
+      <c r="C472" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D472" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="34"/>
+      <c r="B473" s="29"/>
+      <c r="C473" s="29"/>
+      <c r="D473" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="34"/>
+      <c r="B474" s="29"/>
+      <c r="C474" s="29"/>
+      <c r="D474" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="34"/>
+      <c r="B475" s="29"/>
+      <c r="C475" s="29"/>
+      <c r="D475" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="30"/>
-      <c r="B469" s="31"/>
-      <c r="C469" s="31"/>
-      <c r="D469" s="3" t="s">
+    <row r="476" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="34"/>
+      <c r="B476" s="29"/>
+      <c r="C476" s="29"/>
+      <c r="D476" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="34"/>
+      <c r="B477" s="29"/>
+      <c r="C477" s="29"/>
+      <c r="D477" s="19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="34"/>
+      <c r="B478" s="29"/>
+      <c r="C478" s="29"/>
+      <c r="D478" s="19" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="30"/>
-      <c r="B470" s="31"/>
-      <c r="C470" s="31"/>
-      <c r="D470" s="3" t="s">
+    <row r="479" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="34"/>
+      <c r="B479" s="29"/>
+      <c r="C479" s="29"/>
+      <c r="D479" s="19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="34"/>
+      <c r="B480" s="29"/>
+      <c r="C480" s="29"/>
+      <c r="D480" s="19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A481" s="34"/>
+      <c r="B481" s="29"/>
+      <c r="C481" s="29"/>
+      <c r="D481" s="19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="34"/>
+      <c r="B482" s="29"/>
+      <c r="C482" s="29"/>
+      <c r="D482" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="34"/>
+      <c r="B483" s="29"/>
+      <c r="C483" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="34"/>
+      <c r="B484" s="29"/>
+      <c r="C484" s="29"/>
+      <c r="D484" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="34"/>
+      <c r="B485" s="29"/>
+      <c r="C485" s="29"/>
+      <c r="D485" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A486" s="34"/>
+      <c r="B486" s="29"/>
+      <c r="C486" s="29"/>
+      <c r="D486" s="20" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="30"/>
-      <c r="B471" s="31"/>
-      <c r="C471" s="31"/>
-      <c r="D471" s="32">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="30"/>
-      <c r="B472" s="31"/>
-      <c r="C472" s="31" t="s">
+    <row r="487" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A487" s="34"/>
+      <c r="B487" s="29"/>
+      <c r="C487" s="29"/>
+      <c r="D487" s="35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="34"/>
+      <c r="B488" s="29"/>
+      <c r="C488" s="29"/>
+      <c r="D488" s="20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="34"/>
+      <c r="B489" s="29"/>
+      <c r="C489" s="29"/>
+      <c r="D489" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="34"/>
+      <c r="B490" s="29"/>
+      <c r="C490" s="29"/>
+      <c r="D490" s="36">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="34"/>
+      <c r="B491" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C491" s="6"/>
+    </row>
+    <row r="492" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A492" s="34"/>
+      <c r="B492" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C492" s="6"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="34"/>
+      <c r="B493" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C493" s="6"/>
+    </row>
+    <row r="494" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="34"/>
+      <c r="B494" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="B497" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C497" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="D472" s="23" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="30"/>
-      <c r="B473" s="31"/>
-      <c r="C473" s="31"/>
-      <c r="D473" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="30"/>
-      <c r="B474" s="31"/>
-      <c r="C474" s="31"/>
-      <c r="D474" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="30"/>
-      <c r="B475" s="31"/>
-      <c r="C475" s="31"/>
-      <c r="D475" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="30"/>
-      <c r="B476" s="31"/>
-      <c r="C476" s="31"/>
-      <c r="D476" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="30"/>
-      <c r="B477" s="31"/>
-      <c r="C477" s="31"/>
-      <c r="D477" s="33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="30"/>
-      <c r="B478" s="31"/>
-      <c r="C478" s="31"/>
-      <c r="D478" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="30"/>
-      <c r="B479" s="31"/>
-      <c r="C479" s="31"/>
-      <c r="D479" s="33" t="s">
+      <c r="D497" s="40" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B498" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="C498" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="D498" s="44" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="B499" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="C499" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="D499" s="44" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="45"/>
+      <c r="B500" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="C500" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="D500" s="44" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="45"/>
+      <c r="B501" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="C501" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="D501" s="44" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="45"/>
+      <c r="B502" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="C502" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D502" s="44" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="45"/>
+      <c r="B503" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="C503" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D503" s="44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="45"/>
+      <c r="B504" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C504" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="D504" s="44" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="45"/>
+      <c r="B505" s="45"/>
+      <c r="C505" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="D505" s="44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="45"/>
+      <c r="B506" s="45"/>
+      <c r="C506" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="D506" s="44" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="45"/>
+      <c r="B507" s="45"/>
+      <c r="C507" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="D507" s="44" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="45"/>
+      <c r="B508" s="45"/>
+      <c r="C508" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="D508" s="44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="45"/>
+      <c r="B509" s="45"/>
+      <c r="C509" s="43" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="30"/>
-      <c r="B480" s="31"/>
-      <c r="C480" s="31"/>
-      <c r="D480" s="33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A481" s="30"/>
-      <c r="B481" s="31"/>
-      <c r="C481" s="31"/>
-      <c r="D481" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="30"/>
-      <c r="B482" s="31"/>
-      <c r="C482" s="31"/>
-      <c r="D482" s="32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="30"/>
-      <c r="B483" s="31"/>
-      <c r="C483" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="30"/>
-      <c r="B484" s="31"/>
-      <c r="C484" s="31"/>
-      <c r="D484" s="18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="30"/>
-      <c r="B485" s="31"/>
-      <c r="C485" s="31"/>
-      <c r="D485" s="18" t="s">
+      <c r="D509" s="44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="45"/>
+      <c r="B510" s="45"/>
+      <c r="C510" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="D510" s="44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A511" s="45"/>
+      <c r="B511" s="45"/>
+      <c r="C511" s="45"/>
+      <c r="D511" s="46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="45"/>
+      <c r="B512" s="45"/>
+      <c r="C512" s="45"/>
+      <c r="D512" s="47" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="30"/>
-      <c r="B486" s="31"/>
-      <c r="C486" s="31"/>
-      <c r="D486" s="34" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="30"/>
-      <c r="B487" s="31"/>
-      <c r="C487" s="31"/>
-      <c r="D487" s="34" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A488" s="30"/>
-      <c r="B488" s="31"/>
-      <c r="C488" s="31"/>
-      <c r="D488" s="34" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A489" s="30"/>
-      <c r="B489" s="31"/>
-      <c r="C489" s="31"/>
-      <c r="D489" s="34" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="30"/>
-      <c r="B490" s="31"/>
-      <c r="C490" s="31"/>
-      <c r="D490" s="34" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="30"/>
-      <c r="B491" s="31"/>
-      <c r="C491" s="31"/>
-      <c r="D491" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="30"/>
-      <c r="B492" s="31"/>
-      <c r="C492" s="31"/>
-      <c r="D492" s="32">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="30"/>
-      <c r="B493" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C493" s="8"/>
-    </row>
-    <row r="494" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="30"/>
-      <c r="B494" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C494" s="8"/>
-    </row>
-    <row r="495" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="30"/>
-      <c r="B495" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C495" s="8"/>
-    </row>
-    <row r="496" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="30"/>
-      <c r="B496" s="3" t="s">
-        <v>408</v>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="45"/>
+      <c r="B513" s="45"/>
+      <c r="C513" s="45"/>
+      <c r="D513" s="47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="45"/>
+      <c r="B514" s="45"/>
+      <c r="C514" s="45"/>
+      <c r="D514" s="47" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -4789,7 +5133,7 @@
     <mergeCell ref="C462:C464"/>
     <mergeCell ref="C465:C471"/>
     <mergeCell ref="C472:C482"/>
-    <mergeCell ref="C483:C492"/>
+    <mergeCell ref="C483:C490"/>
     <mergeCell ref="A385:A395"/>
     <mergeCell ref="B385:B389"/>
     <mergeCell ref="B390:B395"/>
@@ -4798,8 +5142,8 @@
     <mergeCell ref="A407:B407"/>
     <mergeCell ref="A410:B413"/>
     <mergeCell ref="A441:A444"/>
-    <mergeCell ref="A446:A496"/>
-    <mergeCell ref="B462:B492"/>
+    <mergeCell ref="A446:A494"/>
+    <mergeCell ref="B462:B490"/>
     <mergeCell ref="A364:B364"/>
     <mergeCell ref="A367:B367"/>
     <mergeCell ref="A368:A369"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\Projetos\aws-cloud-practitioner-essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66931962-A4A0-4BD4-BA26-67A17D1630FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24709D32-6C5D-4657-A64A-9DC1097B9FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="469">
   <si>
     <t>EC2</t>
   </si>
@@ -1356,7 +1356,82 @@
     <t>Concierge Support</t>
   </si>
   <si>
-    <t>Access to online labs</t>
+    <t>AWS Health API</t>
+  </si>
+  <si>
+    <t>Erros do simulado 2 (MAREEK 1)</t>
+  </si>
+  <si>
+    <t>Q1 - What is a CMK</t>
+  </si>
+  <si>
+    <t>Q3 - AWS Abuse Team and when they can be levereged</t>
+  </si>
+  <si>
+    <t>Q4 - AWS services support VPC Endpoint Gateway for a private connection from a VPC? (Check question 4 explanation!)</t>
+  </si>
+  <si>
+    <t>Q9 - 1 minute minimum charge for linux EC2 instances</t>
+  </si>
+  <si>
+    <t>Q12 - Usage of Access Key ID and Secret Access Key to access AWS resources programmatically</t>
+  </si>
+  <si>
+    <t>Q13 - Is AWS responsible for keeping S3 data in multiple Azs?</t>
+  </si>
+  <si>
+    <t>Access to self-paced online labs</t>
+  </si>
+  <si>
+    <t>Q18 - S3 doesn't allow data appending</t>
+  </si>
+  <si>
+    <t>Q20 - Understand clearly the role of AWS Professional Services and Managed Services</t>
+  </si>
+  <si>
+    <t>Q22 - Usage of Instance Store storage</t>
+  </si>
+  <si>
+    <t>Q23 - READ THE DAMN QUESTION!</t>
+  </si>
+  <si>
+    <t>Q29 - Cloud advantage with TRADE CAPITAL EXPENSIVE FOR VARIABLE EXPENSE</t>
+  </si>
+  <si>
+    <t>Q30 - RDS feature Multi-AZ Deployment with automatic failover</t>
+  </si>
+  <si>
+    <t>Q31 - Credits applied order</t>
+  </si>
+  <si>
+    <t>Q34 - Who applies patches on Aurora and its features</t>
+  </si>
+  <si>
+    <t>Q25 - Security groups have only allow permissions list</t>
+  </si>
+  <si>
+    <t>Q35 - Removal of account from AWS Organizations</t>
+  </si>
+  <si>
+    <t>Q39 - Amazon Transcribe and Polly</t>
+  </si>
+  <si>
+    <t>Q40 - Route 53 routing policies (check explanation)</t>
+  </si>
+  <si>
+    <t>Q42 - EC2 are IaaS (check explanation)</t>
+  </si>
+  <si>
+    <t>Q53 - Data transfer cost</t>
+  </si>
+  <si>
+    <t>Q56 - Shield standard and advanced</t>
+  </si>
+  <si>
+    <t>Q59 - Global tables from DynamoDB</t>
+  </si>
+  <si>
+    <t>Q65 - Concierge Support Team Role</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1637,11 +1712,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1703,6 +1802,45 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1745,44 +1883,17 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2166,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ514"/>
+  <dimension ref="A1:AMJ537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B511" sqref="B511"/>
+    <sheetView tabSelected="1" topLeftCell="A508" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B508" sqref="B508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,17 +2294,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2201,36 +2312,36 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2238,36 +2349,36 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2275,49 +2386,49 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2325,16 +2436,16 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="34"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2345,10 +2456,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2357,10 +2468,10 @@
       <c r="B27" s="7"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="34"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2371,10 +2482,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2383,13 +2494,13 @@
       <c r="B33" s="7"/>
     </row>
     <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="34"/>
     </row>
     <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2397,31 +2508,31 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="34"/>
     </row>
     <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -2429,16 +2540,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2447,10 +2558,10 @@
       <c r="B46" s="7"/>
     </row>
     <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="34"/>
     </row>
     <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2461,10 +2572,10 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="34"/>
     </row>
     <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2475,13 +2586,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="34"/>
     </row>
     <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -2489,16 +2600,16 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="34"/>
     </row>
     <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -2509,13 +2620,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="34"/>
     </row>
     <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -2523,19 +2634,19 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="34"/>
     </row>
     <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -2543,43 +2654,43 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
+      <c r="A73" s="40"/>
       <c r="B73" s="4" t="s">
         <v>59</v>
       </c>
@@ -2591,13 +2702,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="34"/>
     </row>
     <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -2605,43 +2716,43 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
+      <c r="A78" s="40"/>
       <c r="B78" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
+      <c r="A79" s="40"/>
       <c r="B79" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
+      <c r="A80" s="40"/>
       <c r="B80" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
+      <c r="A81" s="40"/>
       <c r="B81" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
+      <c r="A82" s="40"/>
       <c r="B82" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="34"/>
     </row>
     <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -2649,82 +2760,82 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="21"/>
+      <c r="B99" s="34"/>
     </row>
     <row r="100" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -2735,13 +2846,13 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B102" s="21"/>
+      <c r="B102" s="34"/>
     </row>
     <row r="103" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -2749,19 +2860,19 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="28"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B106" s="21"/>
+      <c r="B106" s="34"/>
     </row>
     <row r="107" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B107" s="11" t="s">
@@ -2769,28 +2880,28 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
+      <c r="A108" s="39"/>
       <c r="B108" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
+      <c r="A110" s="39"/>
       <c r="B110" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B112" s="21"/>
+      <c r="B112" s="34"/>
     </row>
     <row r="113" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -2801,13 +2912,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="21"/>
+      <c r="B115" s="34"/>
     </row>
     <row r="116" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -2815,19 +2926,19 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
+      <c r="A117" s="40"/>
       <c r="B117" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="21"/>
+      <c r="B119" s="34"/>
     </row>
     <row r="120" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B120" s="11" t="s">
@@ -2835,55 +2946,55 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="28"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="28"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="28"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="28"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="28"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="28"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="21"/>
+      <c r="B129" s="34"/>
     </row>
     <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="28" t="s">
+      <c r="A130" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B130" s="11" t="s">
@@ -2891,37 +3002,37 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="28"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="28"/>
+      <c r="A132" s="41"/>
       <c r="B132" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
+      <c r="A133" s="41"/>
       <c r="B133" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="28"/>
+      <c r="A134" s="41"/>
       <c r="B134" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="28"/>
+      <c r="A135" s="41"/>
       <c r="B135" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="28"/>
+      <c r="A136" s="41"/>
       <c r="B136" s="2" t="s">
         <v>113</v>
       </c>
@@ -2933,13 +3044,13 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B139" s="21"/>
+      <c r="B139" s="34"/>
     </row>
     <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="26" t="s">
+      <c r="A140" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -2947,31 +3058,31 @@
       </c>
     </row>
     <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
+      <c r="A141" s="39"/>
       <c r="B141" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="26"/>
+      <c r="A142" s="39"/>
       <c r="B142" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="26"/>
+      <c r="A143" s="39"/>
       <c r="B143" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B145" s="21"/>
+      <c r="B145" s="34"/>
     </row>
     <row r="146" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="28" t="s">
+      <c r="A146" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -2979,31 +3090,31 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="28"/>
+      <c r="A147" s="41"/>
       <c r="B147" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="28"/>
+      <c r="A148" s="41"/>
       <c r="B148" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
+      <c r="A149" s="41"/>
       <c r="B149" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="21" t="s">
+      <c r="A151" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B151" s="21"/>
+      <c r="B151" s="34"/>
     </row>
     <row r="152" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="26" t="s">
+      <c r="A152" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B152" s="7" t="s">
@@ -3011,19 +3122,19 @@
       </c>
     </row>
     <row r="153" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="26"/>
+      <c r="A153" s="39"/>
       <c r="B153" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B155" s="21"/>
+      <c r="B155" s="34"/>
     </row>
     <row r="156" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="26" t="s">
+      <c r="A156" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -3031,55 +3142,55 @@
       </c>
     </row>
     <row r="157" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="26"/>
+      <c r="A157" s="39"/>
       <c r="B157" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="26"/>
+      <c r="A158" s="39"/>
       <c r="B158" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="26"/>
+      <c r="A159" s="39"/>
       <c r="B159" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
+      <c r="A160" s="39"/>
       <c r="B160" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
+      <c r="A161" s="39"/>
       <c r="B161" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
+      <c r="A162" s="39"/>
       <c r="B162" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="26"/>
+      <c r="A163" s="39"/>
       <c r="B163" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="21"/>
+      <c r="B165" s="34"/>
     </row>
     <row r="166" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="28" t="s">
+      <c r="A166" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -3087,25 +3198,25 @@
       </c>
     </row>
     <row r="167" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="28"/>
+      <c r="A167" s="41"/>
       <c r="B167" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="28"/>
+      <c r="A168" s="41"/>
       <c r="B168" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B170" s="21"/>
+      <c r="B170" s="34"/>
     </row>
     <row r="171" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="26" t="s">
+      <c r="A171" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -3113,19 +3224,19 @@
       </c>
     </row>
     <row r="172" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="26"/>
+      <c r="A172" s="39"/>
       <c r="B172" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="21" t="s">
+      <c r="A174" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B174" s="21"/>
+      <c r="B174" s="34"/>
     </row>
     <row r="175" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="26" t="s">
+      <c r="A175" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -3133,19 +3244,19 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="26"/>
+      <c r="A176" s="39"/>
       <c r="B176" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="21" t="s">
+      <c r="A178" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B178" s="21"/>
+      <c r="B178" s="34"/>
     </row>
     <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="26" t="s">
+      <c r="A179" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B179" s="7" t="s">
@@ -3153,37 +3264,37 @@
       </c>
     </row>
     <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="26"/>
+      <c r="A180" s="39"/>
       <c r="B180" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="26"/>
+      <c r="A181" s="39"/>
       <c r="B181" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="26"/>
+      <c r="A182" s="39"/>
       <c r="B182" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="26"/>
+      <c r="A183" s="39"/>
       <c r="B183" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="21" t="s">
+      <c r="A185" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B185" s="21"/>
+      <c r="B185" s="34"/>
     </row>
     <row r="186" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="26" t="s">
+      <c r="A186" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -3191,19 +3302,19 @@
       </c>
     </row>
     <row r="187" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="26"/>
+      <c r="A187" s="39"/>
       <c r="B187" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="21" t="s">
+      <c r="A189" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B189" s="21"/>
+      <c r="B189" s="34"/>
     </row>
     <row r="190" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="26" t="s">
+      <c r="A190" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B190" s="7" t="s">
@@ -3211,28 +3322,28 @@
       </c>
     </row>
     <row r="191" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="26"/>
+      <c r="A191" s="39"/>
       <c r="B191" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="26"/>
+      <c r="A192" s="39"/>
       <c r="B192" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="26"/>
+      <c r="A193" s="39"/>
       <c r="B193" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="21" t="s">
+      <c r="A195" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B195" s="21"/>
+      <c r="B195" s="34"/>
     </row>
     <row r="196" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -3243,13 +3354,13 @@
       </c>
     </row>
     <row r="198" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="B198" s="21"/>
+      <c r="B198" s="34"/>
     </row>
     <row r="199" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="26" t="s">
+      <c r="A199" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B199" s="11" t="s">
@@ -3257,16 +3368,16 @@
       </c>
     </row>
     <row r="200" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="26"/>
+      <c r="A200" s="39"/>
       <c r="B200" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="21" t="s">
+      <c r="A202" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B202" s="21"/>
+      <c r="B202" s="34"/>
     </row>
     <row r="203" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -3277,13 +3388,13 @@
       </c>
     </row>
     <row r="205" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="21" t="s">
+      <c r="A205" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B205" s="21"/>
+      <c r="B205" s="34"/>
     </row>
     <row r="206" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="26" t="s">
+      <c r="A206" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B206" s="11" t="s">
@@ -3291,19 +3402,19 @@
       </c>
     </row>
     <row r="207" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="26"/>
+      <c r="A207" s="39"/>
       <c r="B207" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="21" t="s">
+      <c r="A209" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="B209" s="21"/>
+      <c r="B209" s="34"/>
     </row>
     <row r="210" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="26" t="s">
+      <c r="A210" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B210" s="11" t="s">
@@ -3311,28 +3422,28 @@
       </c>
     </row>
     <row r="211" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="26"/>
+      <c r="A211" s="39"/>
       <c r="B211" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="26"/>
+      <c r="A212" s="39"/>
       <c r="B212" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="26"/>
+      <c r="A213" s="39"/>
       <c r="B213" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="21" t="s">
+      <c r="A215" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B215" s="21"/>
+      <c r="B215" s="34"/>
     </row>
     <row r="216" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
@@ -3343,10 +3454,10 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="21" t="s">
+      <c r="A218" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="B218" s="21"/>
+      <c r="B218" s="34"/>
     </row>
     <row r="219" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -3357,13 +3468,13 @@
       </c>
     </row>
     <row r="221" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="21" t="s">
+      <c r="A221" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="B221" s="21"/>
+      <c r="B221" s="34"/>
     </row>
     <row r="222" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="26" t="s">
+      <c r="A222" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B222" s="11" t="s">
@@ -3371,22 +3482,22 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="26"/>
+      <c r="A223" s="39"/>
       <c r="B223" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="26"/>
+      <c r="A224" s="39"/>
       <c r="B224" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="21" t="s">
+      <c r="A226" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B226" s="21"/>
+      <c r="B226" s="34"/>
     </row>
     <row r="227" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
@@ -3397,10 +3508,10 @@
       </c>
     </row>
     <row r="229" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="21" t="s">
+      <c r="A229" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B229" s="21"/>
+      <c r="B229" s="34"/>
     </row>
     <row r="230" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
@@ -3411,13 +3522,13 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="21" t="s">
+      <c r="A232" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B232" s="21"/>
+      <c r="B232" s="34"/>
     </row>
     <row r="233" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="26" t="s">
+      <c r="A233" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B233" s="7" t="s">
@@ -3425,19 +3536,19 @@
       </c>
     </row>
     <row r="234" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="26"/>
+      <c r="A234" s="39"/>
       <c r="B234" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="21" t="s">
+      <c r="A236" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B236" s="21"/>
+      <c r="B236" s="34"/>
     </row>
     <row r="237" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="28" t="s">
+      <c r="A237" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B237" s="11" t="s">
@@ -3445,25 +3556,25 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="28"/>
+      <c r="A238" s="41"/>
       <c r="B238" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="28"/>
+      <c r="A239" s="41"/>
       <c r="B239" s="11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="21" t="s">
+      <c r="A241" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B241" s="21"/>
+      <c r="B241" s="34"/>
     </row>
     <row r="242" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="26" t="s">
+      <c r="A242" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B242" s="11" t="s">
@@ -3471,19 +3582,19 @@
       </c>
     </row>
     <row r="243" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="26"/>
+      <c r="A243" s="39"/>
       <c r="B243" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="21" t="s">
+      <c r="A245" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B245" s="21"/>
+      <c r="B245" s="34"/>
     </row>
     <row r="246" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="28" t="s">
+      <c r="A246" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B246" s="7" t="s">
@@ -3491,34 +3602,34 @@
       </c>
     </row>
     <row r="247" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="28"/>
+      <c r="A247" s="41"/>
       <c r="B247" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="28"/>
+      <c r="A248" s="41"/>
       <c r="B248" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="28"/>
+      <c r="A249" s="41"/>
       <c r="B249" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="28"/>
+      <c r="A250" s="41"/>
       <c r="B250" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="21" t="s">
+      <c r="A252" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B252" s="21"/>
+      <c r="B252" s="34"/>
     </row>
     <row r="253" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
@@ -3529,10 +3640,10 @@
       </c>
     </row>
     <row r="255" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="21" t="s">
+      <c r="A255" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B255" s="21"/>
+      <c r="B255" s="34"/>
     </row>
     <row r="256" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
@@ -3543,10 +3654,10 @@
       </c>
     </row>
     <row r="258" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="21" t="s">
+      <c r="A258" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B258" s="21"/>
+      <c r="B258" s="34"/>
     </row>
     <row r="259" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
@@ -3557,10 +3668,10 @@
       </c>
     </row>
     <row r="261" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="21" t="s">
+      <c r="A261" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="B261" s="21"/>
+      <c r="B261" s="34"/>
     </row>
     <row r="262" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
@@ -3571,10 +3682,10 @@
       </c>
     </row>
     <row r="264" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="21" t="s">
+      <c r="A264" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B264" s="21"/>
+      <c r="B264" s="34"/>
     </row>
     <row r="265" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
@@ -3585,13 +3696,13 @@
       </c>
     </row>
     <row r="267" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="21" t="s">
+      <c r="A267" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B267" s="21"/>
+      <c r="B267" s="34"/>
     </row>
     <row r="268" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="26" t="s">
+      <c r="A268" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B268" s="7" t="s">
@@ -3599,19 +3710,19 @@
       </c>
     </row>
     <row r="269" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="26"/>
+      <c r="A269" s="39"/>
       <c r="B269" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="21" t="s">
+      <c r="A271" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B271" s="21"/>
+      <c r="B271" s="34"/>
     </row>
     <row r="272" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="26" t="s">
+      <c r="A272" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B272" s="7" t="s">
@@ -3619,25 +3730,25 @@
       </c>
     </row>
     <row r="273" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="26"/>
+      <c r="A273" s="39"/>
       <c r="B273" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="26"/>
+      <c r="A274" s="39"/>
       <c r="B274" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="21" t="s">
+      <c r="A276" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B276" s="21"/>
+      <c r="B276" s="34"/>
     </row>
     <row r="277" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="26" t="s">
+      <c r="A277" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B277" s="7" t="s">
@@ -3645,16 +3756,16 @@
       </c>
     </row>
     <row r="278" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="26"/>
+      <c r="A278" s="39"/>
       <c r="B278" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="21" t="s">
+      <c r="A280" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B280" s="21"/>
+      <c r="B280" s="34"/>
     </row>
     <row r="281" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
@@ -3665,13 +3776,13 @@
       </c>
     </row>
     <row r="283" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="21" t="s">
+      <c r="A283" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B283" s="21"/>
+      <c r="B283" s="34"/>
     </row>
     <row r="284" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="26" t="s">
+      <c r="A284" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B284" s="4" t="s">
@@ -3679,16 +3790,16 @@
       </c>
     </row>
     <row r="285" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="26"/>
+      <c r="A285" s="39"/>
       <c r="B285" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="21" t="s">
+      <c r="A287" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="B287" s="21"/>
+      <c r="B287" s="34"/>
     </row>
     <row r="288" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
@@ -3699,10 +3810,10 @@
       </c>
     </row>
     <row r="290" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="21" t="s">
+      <c r="A290" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B290" s="21"/>
+      <c r="B290" s="34"/>
     </row>
     <row r="291" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
@@ -3713,10 +3824,10 @@
       </c>
     </row>
     <row r="293" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="21" t="s">
+      <c r="A293" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B293" s="21"/>
+      <c r="B293" s="34"/>
     </row>
     <row r="294" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
@@ -3727,10 +3838,10 @@
       </c>
     </row>
     <row r="296" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="21" t="s">
+      <c r="A296" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B296" s="21"/>
+      <c r="B296" s="34"/>
     </row>
     <row r="297" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
@@ -3741,10 +3852,10 @@
       </c>
     </row>
     <row r="299" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="21" t="s">
+      <c r="A299" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="B299" s="21"/>
+      <c r="B299" s="34"/>
     </row>
     <row r="300" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
@@ -3755,10 +3866,10 @@
       </c>
     </row>
     <row r="302" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="21" t="s">
+      <c r="A302" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="B302" s="21"/>
+      <c r="B302" s="34"/>
     </row>
     <row r="303" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
@@ -3769,13 +3880,13 @@
       </c>
     </row>
     <row r="305" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="21" t="s">
+      <c r="A305" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B305" s="21"/>
+      <c r="B305" s="34"/>
     </row>
     <row r="306" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="26" t="s">
+      <c r="A306" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B306" s="11" t="s">
@@ -3783,25 +3894,25 @@
       </c>
     </row>
     <row r="307" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="26"/>
+      <c r="A307" s="39"/>
       <c r="B307" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="26"/>
+      <c r="A308" s="39"/>
       <c r="B308" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="21" t="s">
+      <c r="A310" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="B310" s="21"/>
+      <c r="B310" s="34"/>
     </row>
     <row r="311" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="26" t="s">
+      <c r="A311" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B311" s="11" t="s">
@@ -3809,16 +3920,16 @@
       </c>
     </row>
     <row r="312" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="26"/>
+      <c r="A312" s="39"/>
       <c r="B312" s="11" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="21" t="s">
+      <c r="A314" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="B314" s="21"/>
+      <c r="B314" s="34"/>
     </row>
     <row r="315" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
@@ -3829,13 +3940,13 @@
       </c>
     </row>
     <row r="317" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="21" t="s">
+      <c r="A317" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="B317" s="21"/>
+      <c r="B317" s="34"/>
     </row>
     <row r="318" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="28" t="s">
+      <c r="A318" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B318" s="11" t="s">
@@ -3843,16 +3954,16 @@
       </c>
     </row>
     <row r="319" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="28"/>
+      <c r="A319" s="41"/>
       <c r="B319" s="11" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="21" t="s">
+      <c r="A321" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B321" s="21"/>
+      <c r="B321" s="34"/>
     </row>
     <row r="322" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
@@ -3863,13 +3974,13 @@
       </c>
     </row>
     <row r="324" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="21" t="s">
+      <c r="A324" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="B324" s="21"/>
+      <c r="B324" s="34"/>
     </row>
     <row r="325" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="26" t="s">
+      <c r="A325" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B325" s="11" t="s">
@@ -3877,16 +3988,16 @@
       </c>
     </row>
     <row r="326" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="26"/>
+      <c r="A326" s="39"/>
       <c r="B326" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="21" t="s">
+      <c r="A328" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B328" s="21"/>
+      <c r="B328" s="34"/>
     </row>
     <row r="329" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
@@ -3897,10 +4008,10 @@
       </c>
     </row>
     <row r="331" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="21" t="s">
+      <c r="A331" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="B331" s="21"/>
+      <c r="B331" s="34"/>
     </row>
     <row r="332" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
@@ -3911,10 +4022,10 @@
       </c>
     </row>
     <row r="334" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="21" t="s">
+      <c r="A334" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B334" s="21"/>
+      <c r="B334" s="34"/>
     </row>
     <row r="335" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
@@ -3925,13 +4036,13 @@
       </c>
     </row>
     <row r="337" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="21" t="s">
+      <c r="A337" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B337" s="21"/>
+      <c r="B337" s="34"/>
     </row>
     <row r="338" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="26" t="s">
+      <c r="A338" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B338" s="11" t="s">
@@ -3939,7 +4050,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="26"/>
+      <c r="A339" s="39"/>
       <c r="B339" s="11" t="s">
         <v>262</v>
       </c>
@@ -3951,10 +4062,10 @@
       </c>
     </row>
     <row r="342" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="21" t="s">
+      <c r="A342" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="B342" s="21"/>
+      <c r="B342" s="34"/>
     </row>
     <row r="343" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
@@ -3965,13 +4076,13 @@
       </c>
     </row>
     <row r="345" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="21" t="s">
+      <c r="A345" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B345" s="21"/>
+      <c r="B345" s="34"/>
     </row>
     <row r="346" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="26" t="s">
+      <c r="A346" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B346" s="11" t="s">
@@ -3979,22 +4090,22 @@
       </c>
     </row>
     <row r="347" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="26"/>
+      <c r="A347" s="39"/>
       <c r="B347" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="26"/>
+      <c r="A348" s="39"/>
       <c r="B348" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="21" t="s">
+      <c r="A350" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B350" s="21"/>
+      <c r="B350" s="34"/>
     </row>
     <row r="351" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
@@ -4005,10 +4116,10 @@
       </c>
     </row>
     <row r="353" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="21" t="s">
+      <c r="A353" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="B353" s="21"/>
+      <c r="B353" s="34"/>
     </row>
     <row r="354" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
@@ -4019,10 +4130,10 @@
       </c>
     </row>
     <row r="356" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="B356" s="21"/>
+      <c r="B356" s="34"/>
     </row>
     <row r="357" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
@@ -4033,13 +4144,13 @@
       </c>
     </row>
     <row r="359" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="21" t="s">
+      <c r="A359" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="B359" s="21"/>
+      <c r="B359" s="34"/>
     </row>
     <row r="360" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="26" t="s">
+      <c r="A360" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B360" s="11" t="s">
@@ -4047,22 +4158,22 @@
       </c>
     </row>
     <row r="361" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="26"/>
+      <c r="A361" s="39"/>
       <c r="B361" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="26"/>
+      <c r="A362" s="39"/>
       <c r="B362" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="21" t="s">
+      <c r="A364" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="B364" s="21"/>
+      <c r="B364" s="34"/>
     </row>
     <row r="365" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
@@ -4073,13 +4184,13 @@
       </c>
     </row>
     <row r="367" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="21" t="s">
+      <c r="A367" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="B367" s="21"/>
+      <c r="B367" s="34"/>
     </row>
     <row r="368" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="26" t="s">
+      <c r="A368" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B368" s="11" t="s">
@@ -4087,16 +4198,16 @@
       </c>
     </row>
     <row r="369" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="26"/>
+      <c r="A369" s="39"/>
       <c r="B369" s="11" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="21" t="s">
+      <c r="A371" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="B371" s="21"/>
+      <c r="B371" s="34"/>
     </row>
     <row r="372" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
@@ -4107,10 +4218,10 @@
       </c>
     </row>
     <row r="374" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="21" t="s">
+      <c r="A374" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="B374" s="21"/>
+      <c r="B374" s="34"/>
     </row>
     <row r="375" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
@@ -4121,10 +4232,10 @@
       </c>
     </row>
     <row r="377" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="21" t="s">
+      <c r="A377" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="B377" s="21"/>
+      <c r="B377" s="34"/>
     </row>
     <row r="378" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
@@ -4135,13 +4246,13 @@
       </c>
     </row>
     <row r="380" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="21" t="s">
+      <c r="A380" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="B380" s="21"/>
+      <c r="B380" s="34"/>
     </row>
     <row r="381" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="26" t="s">
+      <c r="A381" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B381" s="4" t="s">
@@ -4149,23 +4260,23 @@
       </c>
     </row>
     <row r="382" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="26"/>
+      <c r="A382" s="39"/>
       <c r="B382" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="21" t="s">
+      <c r="A384" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B384" s="21"/>
-      <c r="C384" s="21"/>
+      <c r="B384" s="34"/>
+      <c r="C384" s="34"/>
     </row>
     <row r="385" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B385" s="30" t="s">
+      <c r="A385" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B385" s="43" t="s">
         <v>295</v>
       </c>
       <c r="C385" s="11" t="s">
@@ -4173,36 +4284,36 @@
       </c>
     </row>
     <row r="386" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="26"/>
-      <c r="B386" s="30"/>
+      <c r="A386" s="39"/>
+      <c r="B386" s="43"/>
       <c r="C386" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="26"/>
-      <c r="B387" s="30"/>
+      <c r="A387" s="39"/>
+      <c r="B387" s="43"/>
       <c r="C387" s="11" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="26"/>
-      <c r="B388" s="30"/>
+      <c r="A388" s="39"/>
+      <c r="B388" s="43"/>
       <c r="C388" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="26"/>
-      <c r="B389" s="30"/>
+      <c r="A389" s="39"/>
+      <c r="B389" s="43"/>
       <c r="C389" s="11" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="26"/>
-      <c r="B390" s="31" t="s">
+      <c r="A390" s="39"/>
+      <c r="B390" s="44" t="s">
         <v>300</v>
       </c>
       <c r="C390" s="11" t="s">
@@ -4210,48 +4321,48 @@
       </c>
     </row>
     <row r="391" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="26"/>
-      <c r="B391" s="31"/>
+      <c r="A391" s="39"/>
+      <c r="B391" s="44"/>
       <c r="C391" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="26"/>
-      <c r="B392" s="31"/>
+      <c r="A392" s="39"/>
+      <c r="B392" s="44"/>
       <c r="C392" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="26"/>
-      <c r="B393" s="31"/>
+      <c r="A393" s="39"/>
+      <c r="B393" s="44"/>
       <c r="C393" s="11" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="26"/>
-      <c r="B394" s="31"/>
+      <c r="A394" s="39"/>
+      <c r="B394" s="44"/>
       <c r="C394" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="26"/>
-      <c r="B395" s="31"/>
+      <c r="A395" s="39"/>
+      <c r="B395" s="44"/>
       <c r="C395" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="21" t="s">
+      <c r="A397" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="B397" s="21"/>
+      <c r="B397" s="34"/>
     </row>
     <row r="398" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="26" t="s">
+      <c r="A398" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B398" s="4" t="s">
@@ -4259,53 +4370,53 @@
       </c>
     </row>
     <row r="399" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="26"/>
+      <c r="A399" s="39"/>
       <c r="B399" s="4" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="26"/>
+      <c r="A400" s="39"/>
       <c r="B400" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="26"/>
+      <c r="A401" s="39"/>
       <c r="B401" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="26"/>
+      <c r="A402" s="39"/>
       <c r="B402" s="4" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="26"/>
+      <c r="A403" s="39"/>
       <c r="B403" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="26"/>
+      <c r="A404" s="39"/>
       <c r="B404" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="26"/>
+      <c r="A405" s="39"/>
       <c r="B405" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="407" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="21" t="s">
+      <c r="A407" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B407" s="21"/>
+      <c r="B407" s="34"/>
     </row>
     <row r="408" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
@@ -4317,22 +4428,22 @@
     </row>
     <row r="409" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="410" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="32" t="s">
+      <c r="A410" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="B410" s="32"/>
+      <c r="B410" s="45"/>
     </row>
     <row r="411" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="32"/>
-      <c r="B411" s="32"/>
+      <c r="A411" s="45"/>
+      <c r="B411" s="45"/>
     </row>
     <row r="412" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="32"/>
-      <c r="B412" s="32"/>
+      <c r="A412" s="45"/>
+      <c r="B412" s="45"/>
     </row>
     <row r="413" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="32"/>
-      <c r="B413" s="32"/>
+      <c r="A413" s="45"/>
+      <c r="B413" s="45"/>
     </row>
     <row r="414" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="11" t="s">
@@ -4541,7 +4652,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="33" t="s">
+      <c r="A441" s="46" t="s">
         <v>367</v>
       </c>
       <c r="B441" s="4" t="s">
@@ -4549,26 +4660,26 @@
       </c>
     </row>
     <row r="442" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="33"/>
+      <c r="A442" s="46"/>
       <c r="B442" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="33"/>
+      <c r="A443" s="46"/>
       <c r="B443" s="17" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="33"/>
+      <c r="A444" s="46"/>
       <c r="B444" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="446" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="34" t="s">
+      <c r="A446" s="47" t="s">
         <v>372</v>
       </c>
       <c r="B446" s="2" t="s">
@@ -4576,101 +4687,101 @@
       </c>
     </row>
     <row r="447" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="34"/>
+      <c r="A447" s="47"/>
       <c r="B447" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="34"/>
+      <c r="A448" s="47"/>
       <c r="B448" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="34"/>
+      <c r="A449" s="47"/>
       <c r="B449" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="34"/>
+      <c r="A450" s="47"/>
       <c r="B450" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="34"/>
+      <c r="A451" s="47"/>
       <c r="B451" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="34"/>
+      <c r="A452" s="47"/>
       <c r="B452" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="34"/>
+      <c r="A453" s="47"/>
       <c r="B453" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="34"/>
+      <c r="A454" s="47"/>
       <c r="B454" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="34"/>
+      <c r="A455" s="47"/>
       <c r="B455" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="34"/>
+      <c r="A456" s="47"/>
       <c r="B456" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="34"/>
+      <c r="A457" s="47"/>
       <c r="B457" s="2" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="34"/>
+      <c r="A458" s="47"/>
       <c r="B458" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="34"/>
+      <c r="A459" s="47"/>
       <c r="B459" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="34"/>
+      <c r="A460" s="47"/>
       <c r="B460" s="4" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="34"/>
+      <c r="A461" s="47"/>
       <c r="B461" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="34"/>
-      <c r="B462" s="29" t="s">
+      <c r="A462" s="47"/>
+      <c r="B462" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="C462" s="29" t="s">
+      <c r="C462" s="42" t="s">
         <v>390</v>
       </c>
       <c r="D462" s="15" t="s">
@@ -4678,25 +4789,25 @@
       </c>
     </row>
     <row r="463" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="34"/>
-      <c r="B463" s="29"/>
-      <c r="C463" s="29"/>
+      <c r="A463" s="47"/>
+      <c r="B463" s="42"/>
+      <c r="C463" s="42"/>
       <c r="D463" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="34"/>
-      <c r="B464" s="29"/>
-      <c r="C464" s="29"/>
+      <c r="A464" s="47"/>
+      <c r="B464" s="42"/>
+      <c r="C464" s="42"/>
       <c r="D464" s="11" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="34"/>
-      <c r="B465" s="29"/>
-      <c r="C465" s="29" t="s">
+      <c r="A465" s="47"/>
+      <c r="B465" s="42"/>
+      <c r="C465" s="42" t="s">
         <v>394</v>
       </c>
       <c r="D465" s="2" t="s">
@@ -4704,57 +4815,57 @@
       </c>
     </row>
     <row r="466" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="34"/>
-      <c r="B466" s="29"/>
-      <c r="C466" s="29"/>
+      <c r="A466" s="47"/>
+      <c r="B466" s="42"/>
+      <c r="C466" s="42"/>
       <c r="D466" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="34"/>
-      <c r="B467" s="29"/>
-      <c r="C467" s="29"/>
+      <c r="A467" s="47"/>
+      <c r="B467" s="42"/>
+      <c r="C467" s="42"/>
       <c r="D467" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="34"/>
-      <c r="B468" s="29"/>
-      <c r="C468" s="29"/>
+      <c r="A468" s="47"/>
+      <c r="B468" s="42"/>
+      <c r="C468" s="42"/>
       <c r="D468" s="2" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="34"/>
-      <c r="B469" s="29"/>
-      <c r="C469" s="29"/>
+      <c r="A469" s="47"/>
+      <c r="B469" s="42"/>
+      <c r="C469" s="42"/>
       <c r="D469" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="34"/>
-      <c r="B470" s="29"/>
-      <c r="C470" s="29"/>
+      <c r="A470" s="47"/>
+      <c r="B470" s="42"/>
+      <c r="C470" s="42"/>
       <c r="D470" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="34"/>
-      <c r="B471" s="29"/>
-      <c r="C471" s="29"/>
+      <c r="A471" s="47"/>
+      <c r="B471" s="42"/>
+      <c r="C471" s="42"/>
       <c r="D471" s="18">
         <v>29</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="34"/>
-      <c r="B472" s="29"/>
-      <c r="C472" s="29" t="s">
+      <c r="A472" s="47"/>
+      <c r="B472" s="42"/>
+      <c r="C472" s="42" t="s">
         <v>296</v>
       </c>
       <c r="D472" s="15" t="s">
@@ -4762,89 +4873,89 @@
       </c>
     </row>
     <row r="473" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="34"/>
-      <c r="B473" s="29"/>
-      <c r="C473" s="29"/>
+      <c r="A473" s="47"/>
+      <c r="B473" s="42"/>
+      <c r="C473" s="42"/>
       <c r="D473" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="34"/>
-      <c r="B474" s="29"/>
-      <c r="C474" s="29"/>
+      <c r="A474" s="47"/>
+      <c r="B474" s="42"/>
+      <c r="C474" s="42"/>
       <c r="D474" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="34"/>
-      <c r="B475" s="29"/>
-      <c r="C475" s="29"/>
+      <c r="A475" s="47"/>
+      <c r="B475" s="42"/>
+      <c r="C475" s="42"/>
       <c r="D475" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="34"/>
-      <c r="B476" s="29"/>
-      <c r="C476" s="29"/>
+      <c r="A476" s="47"/>
+      <c r="B476" s="42"/>
+      <c r="C476" s="42"/>
       <c r="D476" s="4" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="34"/>
-      <c r="B477" s="29"/>
-      <c r="C477" s="29"/>
+      <c r="A477" s="47"/>
+      <c r="B477" s="42"/>
+      <c r="C477" s="42"/>
       <c r="D477" s="19" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="34"/>
-      <c r="B478" s="29"/>
-      <c r="C478" s="29"/>
+      <c r="A478" s="47"/>
+      <c r="B478" s="42"/>
+      <c r="C478" s="42"/>
       <c r="D478" s="19" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="34"/>
-      <c r="B479" s="29"/>
-      <c r="C479" s="29"/>
+      <c r="A479" s="47"/>
+      <c r="B479" s="42"/>
+      <c r="C479" s="42"/>
       <c r="D479" s="19" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="34"/>
-      <c r="B480" s="29"/>
-      <c r="C480" s="29"/>
+      <c r="A480" s="47"/>
+      <c r="B480" s="42"/>
+      <c r="C480" s="42"/>
       <c r="D480" s="19" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A481" s="34"/>
-      <c r="B481" s="29"/>
-      <c r="C481" s="29"/>
+      <c r="A481" s="47"/>
+      <c r="B481" s="42"/>
+      <c r="C481" s="42"/>
       <c r="D481" s="19" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="34"/>
-      <c r="B482" s="29"/>
-      <c r="C482" s="29"/>
+      <c r="A482" s="47"/>
+      <c r="B482" s="42"/>
+      <c r="C482" s="42"/>
       <c r="D482" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="34"/>
-      <c r="B483" s="29"/>
-      <c r="C483" s="29" t="s">
+      <c r="A483" s="47"/>
+      <c r="B483" s="42"/>
+      <c r="C483" s="42" t="s">
         <v>402</v>
       </c>
       <c r="D483" s="2" t="s">
@@ -4852,284 +4963,428 @@
       </c>
     </row>
     <row r="484" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="34"/>
-      <c r="B484" s="29"/>
-      <c r="C484" s="29"/>
+      <c r="A484" s="47"/>
+      <c r="B484" s="42"/>
+      <c r="C484" s="42"/>
       <c r="D484" s="20" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="34"/>
-      <c r="B485" s="29"/>
-      <c r="C485" s="29"/>
+      <c r="A485" s="47"/>
+      <c r="B485" s="42"/>
+      <c r="C485" s="42"/>
       <c r="D485" s="20" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A486" s="34"/>
-      <c r="B486" s="29"/>
-      <c r="C486" s="29"/>
+      <c r="A486" s="47"/>
+      <c r="B486" s="42"/>
+      <c r="C486" s="42"/>
       <c r="D486" s="20" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A487" s="34"/>
-      <c r="B487" s="29"/>
-      <c r="C487" s="29"/>
-      <c r="D487" s="35" t="s">
+      <c r="A487" s="47"/>
+      <c r="B487" s="42"/>
+      <c r="C487" s="42"/>
+      <c r="D487" s="21" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="34"/>
-      <c r="B488" s="29"/>
-      <c r="C488" s="29"/>
+      <c r="A488" s="47"/>
+      <c r="B488" s="42"/>
+      <c r="C488" s="42"/>
       <c r="D488" s="20" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="34"/>
-      <c r="B489" s="29"/>
-      <c r="C489" s="29"/>
-      <c r="D489" s="35" t="s">
+      <c r="A489" s="47"/>
+      <c r="B489" s="42"/>
+      <c r="C489" s="42"/>
+      <c r="D489" s="21" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="34"/>
-      <c r="B490" s="29"/>
-      <c r="C490" s="29"/>
-      <c r="D490" s="36">
+      <c r="A490" s="47"/>
+      <c r="B490" s="42"/>
+      <c r="C490" s="42"/>
+      <c r="D490" s="22">
         <v>15000</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="34"/>
+      <c r="A491" s="47"/>
       <c r="B491" s="2" t="s">
         <v>404</v>
       </c>
       <c r="C491" s="6"/>
     </row>
     <row r="492" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A492" s="34"/>
+      <c r="A492" s="47"/>
       <c r="B492" s="2" t="s">
         <v>405</v>
       </c>
       <c r="C492" s="6"/>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="34"/>
+      <c r="A493" s="47"/>
       <c r="B493" s="2" t="s">
         <v>406</v>
       </c>
       <c r="C493" s="6"/>
     </row>
     <row r="494" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="34"/>
+      <c r="A494" s="47"/>
       <c r="B494" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="37" t="s">
+      <c r="A497" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B497" s="38" t="s">
+      <c r="B497" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="C497" s="39" t="s">
+      <c r="C497" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="D497" s="40" t="s">
+      <c r="D497" s="26" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" s="41" t="s">
+      <c r="A498" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="B498" s="42" t="s">
+      <c r="B498" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="C498" s="43" t="s">
+      <c r="C498" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="D498" s="44" t="s">
+      <c r="D498" s="30" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" s="41" t="s">
+      <c r="A499" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="B499" s="42" t="s">
+      <c r="B499" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="C499" s="43" t="s">
+      <c r="C499" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="D499" s="44" t="s">
+      <c r="D499" s="30" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500" s="45"/>
-      <c r="B500" s="42" t="s">
+      <c r="A500" s="31"/>
+      <c r="B500" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="C500" s="43" t="s">
+      <c r="C500" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="D500" s="44" t="s">
+      <c r="D500" s="30" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501" s="45"/>
-      <c r="B501" s="42" t="s">
+      <c r="A501" s="31"/>
+      <c r="B501" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="C501" s="43" t="s">
+      <c r="C501" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="D501" s="44" t="s">
+      <c r="D501" s="30" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502" s="45"/>
-      <c r="B502" s="42" t="s">
+      <c r="A502" s="31"/>
+      <c r="B502" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="C502" s="43" t="s">
+      <c r="C502" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="D502" s="44" t="s">
+      <c r="D502" s="30" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="45"/>
-      <c r="B503" s="42" t="s">
+      <c r="A503" s="31"/>
+      <c r="B503" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="C503" s="43" t="s">
+      <c r="C503" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="D503" s="44" t="s">
+      <c r="D503" s="30" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="45"/>
-      <c r="B504" s="42" t="s">
+      <c r="A504" s="31"/>
+      <c r="B504" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="C504" s="43" t="s">
+      <c r="C504" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="D504" s="44" t="s">
+      <c r="D504" s="30" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" s="45"/>
-      <c r="B505" s="45"/>
-      <c r="C505" s="43" t="s">
+      <c r="A505" s="31"/>
+      <c r="B505" s="31"/>
+      <c r="C505" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="D505" s="44" t="s">
+      <c r="D505" s="30" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="45"/>
-      <c r="B506" s="45"/>
-      <c r="C506" s="43" t="s">
+      <c r="A506" s="31"/>
+      <c r="B506" s="31"/>
+      <c r="C506" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="D506" s="44" t="s">
+      <c r="D506" s="30" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="45"/>
-      <c r="B507" s="45"/>
-      <c r="C507" s="43" t="s">
+      <c r="A507" s="31"/>
+      <c r="B507" s="31"/>
+      <c r="C507" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="D507" s="44" t="s">
+      <c r="D507" s="30" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508" s="45"/>
-      <c r="B508" s="45"/>
-      <c r="C508" s="43" t="s">
+      <c r="A508" s="31"/>
+      <c r="B508" s="31"/>
+      <c r="C508" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="D508" s="30"/>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="31"/>
+      <c r="B509" s="31"/>
+      <c r="C509" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D508" s="44" t="s">
+      <c r="D509" s="30" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="45"/>
-      <c r="B509" s="45"/>
-      <c r="C509" s="43" t="s">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="31"/>
+      <c r="B510" s="31"/>
+      <c r="C510" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="D509" s="44" t="s">
+      <c r="D510" s="30" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="45"/>
-      <c r="B510" s="45"/>
-      <c r="C510" s="43" t="s">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="31"/>
+      <c r="B511" s="31"/>
+      <c r="C511" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="D510" s="44" t="s">
+      <c r="D511" s="30" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A511" s="45"/>
-      <c r="B511" s="45"/>
-      <c r="C511" s="45"/>
-      <c r="D511" s="46" t="s">
+    <row r="512" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A512" s="31"/>
+      <c r="B512" s="31"/>
+      <c r="C512" s="31"/>
+      <c r="D512" s="32" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="45"/>
-      <c r="B512" s="45"/>
-      <c r="C512" s="45"/>
-      <c r="D512" s="47" t="s">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="31"/>
+      <c r="B513" s="31"/>
+      <c r="C513" s="31"/>
+      <c r="D513" s="33" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="45"/>
-      <c r="B513" s="45"/>
-      <c r="C513" s="45"/>
-      <c r="D513" s="47" t="s">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="B514" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="C514" s="31"/>
+      <c r="D514" s="33" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="45"/>
-      <c r="B514" s="45"/>
-      <c r="C514" s="45"/>
-      <c r="D514" s="47" t="s">
-        <v>443</v>
-      </c>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="50"/>
+      <c r="B515" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="C515" s="31"/>
+      <c r="D515" s="33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="50"/>
+      <c r="B516" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="50"/>
+      <c r="B517" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="50"/>
+      <c r="B518" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="50"/>
+      <c r="B519" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="50"/>
+      <c r="B520" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="50"/>
+      <c r="B521" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="50"/>
+      <c r="B522" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="50"/>
+      <c r="B523" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="50"/>
+      <c r="B524" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="50"/>
+      <c r="B525" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="50"/>
+      <c r="B526" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="50"/>
+      <c r="B527" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="50"/>
+      <c r="B528" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="50"/>
+      <c r="B529" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="50"/>
+      <c r="B530" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="50"/>
+      <c r="B531" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="50"/>
+      <c r="B532" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="50"/>
+      <c r="B533" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="50"/>
+      <c r="B534" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="50"/>
+      <c r="B535" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="50"/>
+      <c r="B536" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="150">
+    <mergeCell ref="A514:A536"/>
     <mergeCell ref="C462:C464"/>
     <mergeCell ref="C465:C471"/>
     <mergeCell ref="C472:C482"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\Projetos\aws-cloud-practitioner-essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24709D32-6C5D-4657-A64A-9DC1097B9FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3603253C-AD18-4E8D-B83C-8D99BCFBBE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="470">
   <si>
     <t>EC2</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>Q65 - Concierge Support Team Role</t>
+  </si>
+  <si>
+    <t>Access to AWS Health API</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1844,46 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,45 +1896,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2279,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B508" sqref="B508"/>
+    <sheetView tabSelected="1" topLeftCell="C495" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,17 +2297,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2312,36 +2315,36 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2349,36 +2352,36 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2386,45 +2389,45 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,10 +2445,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="42"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2456,10 +2459,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="42"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2468,10 +2471,10 @@
       <c r="B27" s="7"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="42"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2482,10 +2485,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="42"/>
     </row>
     <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2494,10 +2497,10 @@
       <c r="B33" s="7"/>
     </row>
     <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="42"/>
     </row>
     <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
@@ -2526,10 +2529,10 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="42"/>
     </row>
     <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
@@ -2546,10 +2549,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="42"/>
     </row>
     <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2558,10 +2561,10 @@
       <c r="B46" s="7"/>
     </row>
     <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="42"/>
     </row>
     <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2572,10 +2575,10 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="34"/>
+      <c r="B51" s="42"/>
     </row>
     <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2586,10 +2589,10 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="42"/>
     </row>
     <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
@@ -2606,10 +2609,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="34"/>
+      <c r="B58" s="42"/>
     </row>
     <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -2620,10 +2623,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="42"/>
     </row>
     <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
@@ -2640,13 +2643,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="42"/>
     </row>
     <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -2654,43 +2657,43 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="4" t="s">
         <v>59</v>
       </c>
@@ -2702,13 +2705,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="34"/>
+      <c r="B76" s="42"/>
     </row>
     <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -2716,40 +2719,40 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="34"/>
+      <c r="B84" s="42"/>
     </row>
     <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
@@ -2832,10 +2835,10 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="34"/>
+      <c r="B99" s="42"/>
     </row>
     <row r="100" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -2846,13 +2849,13 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B102" s="34"/>
+      <c r="B102" s="42"/>
     </row>
     <row r="103" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -2860,16 +2863,16 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
+      <c r="A104" s="46"/>
       <c r="B104" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B106" s="34"/>
+      <c r="B106" s="42"/>
     </row>
     <row r="107" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
@@ -2898,10 +2901,10 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B112" s="34"/>
+      <c r="B112" s="42"/>
     </row>
     <row r="113" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -2912,13 +2915,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="34"/>
+      <c r="B115" s="42"/>
     </row>
     <row r="116" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40" t="s">
+      <c r="A116" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -2926,19 +2929,19 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="34"/>
+      <c r="B119" s="42"/>
     </row>
     <row r="120" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="41" t="s">
+      <c r="A120" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B120" s="11" t="s">
@@ -2946,55 +2949,55 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="41"/>
+      <c r="A121" s="46"/>
       <c r="B121" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
+      <c r="A122" s="46"/>
       <c r="B122" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
+      <c r="A124" s="46"/>
       <c r="B124" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
+      <c r="A125" s="46"/>
       <c r="B125" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
+      <c r="A126" s="46"/>
       <c r="B126" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
+      <c r="A127" s="46"/>
       <c r="B127" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="34"/>
+      <c r="B129" s="42"/>
     </row>
     <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="41" t="s">
+      <c r="A130" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B130" s="11" t="s">
@@ -3002,37 +3005,37 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
+      <c r="A131" s="46"/>
       <c r="B131" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
+      <c r="A132" s="46"/>
       <c r="B132" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
+      <c r="A133" s="46"/>
       <c r="B133" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
+      <c r="A134" s="46"/>
       <c r="B134" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
+      <c r="A135" s="46"/>
       <c r="B135" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
+      <c r="A136" s="46"/>
       <c r="B136" s="2" t="s">
         <v>113</v>
       </c>
@@ -3044,10 +3047,10 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="34" t="s">
+      <c r="A139" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B139" s="34"/>
+      <c r="B139" s="42"/>
     </row>
     <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
@@ -3076,13 +3079,13 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="34" t="s">
+      <c r="A145" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B145" s="34"/>
+      <c r="B145" s="42"/>
     </row>
     <row r="146" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="41" t="s">
+      <c r="A146" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -3090,28 +3093,28 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
+      <c r="A147" s="46"/>
       <c r="B147" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="41"/>
+      <c r="A148" s="46"/>
       <c r="B148" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
+      <c r="A149" s="46"/>
       <c r="B149" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="34" t="s">
+      <c r="A151" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B151" s="34"/>
+      <c r="B151" s="42"/>
     </row>
     <row r="152" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
@@ -3128,10 +3131,10 @@
       </c>
     </row>
     <row r="155" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B155" s="34"/>
+      <c r="B155" s="42"/>
     </row>
     <row r="156" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="39" t="s">
@@ -3184,13 +3187,13 @@
       </c>
     </row>
     <row r="165" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="34" t="s">
+      <c r="A165" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="34"/>
+      <c r="B165" s="42"/>
     </row>
     <row r="166" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="41" t="s">
+      <c r="A166" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -3198,22 +3201,22 @@
       </c>
     </row>
     <row r="167" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="41"/>
+      <c r="A167" s="46"/>
       <c r="B167" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="41"/>
+      <c r="A168" s="46"/>
       <c r="B168" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="34" t="s">
+      <c r="A170" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="B170" s="34"/>
+      <c r="B170" s="42"/>
     </row>
     <row r="171" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="39" t="s">
@@ -3230,10 +3233,10 @@
       </c>
     </row>
     <row r="174" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="34" t="s">
+      <c r="A174" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B174" s="34"/>
+      <c r="B174" s="42"/>
     </row>
     <row r="175" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="39" t="s">
@@ -3250,10 +3253,10 @@
       </c>
     </row>
     <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="34" t="s">
+      <c r="A178" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="B178" s="34"/>
+      <c r="B178" s="42"/>
     </row>
     <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="39" t="s">
@@ -3288,10 +3291,10 @@
       </c>
     </row>
     <row r="185" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="34" t="s">
+      <c r="A185" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B185" s="34"/>
+      <c r="B185" s="42"/>
     </row>
     <row r="186" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="39" t="s">
@@ -3308,10 +3311,10 @@
       </c>
     </row>
     <row r="189" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="34" t="s">
+      <c r="A189" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B189" s="34"/>
+      <c r="B189" s="42"/>
     </row>
     <row r="190" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="39" t="s">
@@ -3340,10 +3343,10 @@
       </c>
     </row>
     <row r="195" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="34" t="s">
+      <c r="A195" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="B195" s="34"/>
+      <c r="B195" s="42"/>
     </row>
     <row r="196" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -3354,10 +3357,10 @@
       </c>
     </row>
     <row r="198" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="34" t="s">
+      <c r="A198" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B198" s="34"/>
+      <c r="B198" s="42"/>
     </row>
     <row r="199" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="39" t="s">
@@ -3374,10 +3377,10 @@
       </c>
     </row>
     <row r="202" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="34" t="s">
+      <c r="A202" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="B202" s="34"/>
+      <c r="B202" s="42"/>
     </row>
     <row r="203" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -3388,10 +3391,10 @@
       </c>
     </row>
     <row r="205" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="34" t="s">
+      <c r="A205" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B205" s="34"/>
+      <c r="B205" s="42"/>
     </row>
     <row r="206" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="39" t="s">
@@ -3408,10 +3411,10 @@
       </c>
     </row>
     <row r="209" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="34" t="s">
+      <c r="A209" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="B209" s="34"/>
+      <c r="B209" s="42"/>
     </row>
     <row r="210" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="39" t="s">
@@ -3440,10 +3443,10 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="34" t="s">
+      <c r="A215" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B215" s="34"/>
+      <c r="B215" s="42"/>
     </row>
     <row r="216" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
@@ -3454,10 +3457,10 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="34" t="s">
+      <c r="A218" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B218" s="34"/>
+      <c r="B218" s="42"/>
     </row>
     <row r="219" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -3468,10 +3471,10 @@
       </c>
     </row>
     <row r="221" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="34" t="s">
+      <c r="A221" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B221" s="34"/>
+      <c r="B221" s="42"/>
     </row>
     <row r="222" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="39" t="s">
@@ -3494,10 +3497,10 @@
       </c>
     </row>
     <row r="226" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="34" t="s">
+      <c r="A226" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B226" s="34"/>
+      <c r="B226" s="42"/>
     </row>
     <row r="227" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
@@ -3508,10 +3511,10 @@
       </c>
     </row>
     <row r="229" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="34" t="s">
+      <c r="A229" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="B229" s="34"/>
+      <c r="B229" s="42"/>
     </row>
     <row r="230" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
@@ -3522,10 +3525,10 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="34" t="s">
+      <c r="A232" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B232" s="34"/>
+      <c r="B232" s="42"/>
     </row>
     <row r="233" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="39" t="s">
@@ -3542,13 +3545,13 @@
       </c>
     </row>
     <row r="236" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="34" t="s">
+      <c r="A236" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="B236" s="34"/>
+      <c r="B236" s="42"/>
     </row>
     <row r="237" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="41" t="s">
+      <c r="A237" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B237" s="11" t="s">
@@ -3556,22 +3559,22 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="41"/>
+      <c r="A238" s="46"/>
       <c r="B238" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="41"/>
+      <c r="A239" s="46"/>
       <c r="B239" s="11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="34" t="s">
+      <c r="A241" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B241" s="34"/>
+      <c r="B241" s="42"/>
     </row>
     <row r="242" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="39" t="s">
@@ -3588,13 +3591,13 @@
       </c>
     </row>
     <row r="245" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="34" t="s">
+      <c r="A245" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B245" s="34"/>
+      <c r="B245" s="42"/>
     </row>
     <row r="246" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="41" t="s">
+      <c r="A246" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B246" s="7" t="s">
@@ -3602,34 +3605,34 @@
       </c>
     </row>
     <row r="247" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="41"/>
+      <c r="A247" s="46"/>
       <c r="B247" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="41"/>
+      <c r="A248" s="46"/>
       <c r="B248" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="41"/>
+      <c r="A249" s="46"/>
       <c r="B249" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="41"/>
+      <c r="A250" s="46"/>
       <c r="B250" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="34" t="s">
+      <c r="A252" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="B252" s="34"/>
+      <c r="B252" s="42"/>
     </row>
     <row r="253" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
@@ -3640,10 +3643,10 @@
       </c>
     </row>
     <row r="255" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="34" t="s">
+      <c r="A255" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B255" s="34"/>
+      <c r="B255" s="42"/>
     </row>
     <row r="256" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
@@ -3654,10 +3657,10 @@
       </c>
     </row>
     <row r="258" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="34" t="s">
+      <c r="A258" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B258" s="34"/>
+      <c r="B258" s="42"/>
     </row>
     <row r="259" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
@@ -3668,10 +3671,10 @@
       </c>
     </row>
     <row r="261" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="34" t="s">
+      <c r="A261" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B261" s="34"/>
+      <c r="B261" s="42"/>
     </row>
     <row r="262" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
@@ -3682,10 +3685,10 @@
       </c>
     </row>
     <row r="264" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="34" t="s">
+      <c r="A264" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="B264" s="34"/>
+      <c r="B264" s="42"/>
     </row>
     <row r="265" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
@@ -3696,10 +3699,10 @@
       </c>
     </row>
     <row r="267" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="34" t="s">
+      <c r="A267" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="B267" s="34"/>
+      <c r="B267" s="42"/>
     </row>
     <row r="268" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="39" t="s">
@@ -3716,10 +3719,10 @@
       </c>
     </row>
     <row r="271" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="34" t="s">
+      <c r="A271" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B271" s="34"/>
+      <c r="B271" s="42"/>
     </row>
     <row r="272" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="39" t="s">
@@ -3742,10 +3745,10 @@
       </c>
     </row>
     <row r="276" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="34" t="s">
+      <c r="A276" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="B276" s="34"/>
+      <c r="B276" s="42"/>
     </row>
     <row r="277" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="39" t="s">
@@ -3762,10 +3765,10 @@
       </c>
     </row>
     <row r="280" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="34" t="s">
+      <c r="A280" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B280" s="34"/>
+      <c r="B280" s="42"/>
     </row>
     <row r="281" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
@@ -3776,10 +3779,10 @@
       </c>
     </row>
     <row r="283" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="34" t="s">
+      <c r="A283" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B283" s="34"/>
+      <c r="B283" s="42"/>
     </row>
     <row r="284" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="39" t="s">
@@ -3796,10 +3799,10 @@
       </c>
     </row>
     <row r="287" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="34" t="s">
+      <c r="A287" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B287" s="34"/>
+      <c r="B287" s="42"/>
     </row>
     <row r="288" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
@@ -3810,10 +3813,10 @@
       </c>
     </row>
     <row r="290" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="34" t="s">
+      <c r="A290" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="B290" s="34"/>
+      <c r="B290" s="42"/>
     </row>
     <row r="291" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
@@ -3824,10 +3827,10 @@
       </c>
     </row>
     <row r="293" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="34" t="s">
+      <c r="A293" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B293" s="34"/>
+      <c r="B293" s="42"/>
     </row>
     <row r="294" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
@@ -3838,10 +3841,10 @@
       </c>
     </row>
     <row r="296" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="34" t="s">
+      <c r="A296" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="B296" s="34"/>
+      <c r="B296" s="42"/>
     </row>
     <row r="297" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
@@ -3852,10 +3855,10 @@
       </c>
     </row>
     <row r="299" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="34" t="s">
+      <c r="A299" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="B299" s="34"/>
+      <c r="B299" s="42"/>
     </row>
     <row r="300" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
@@ -3866,10 +3869,10 @@
       </c>
     </row>
     <row r="302" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="34" t="s">
+      <c r="A302" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B302" s="34"/>
+      <c r="B302" s="42"/>
     </row>
     <row r="303" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
@@ -3880,10 +3883,10 @@
       </c>
     </row>
     <row r="305" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="34" t="s">
+      <c r="A305" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B305" s="34"/>
+      <c r="B305" s="42"/>
     </row>
     <row r="306" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="39" t="s">
@@ -3906,10 +3909,10 @@
       </c>
     </row>
     <row r="310" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="34" t="s">
+      <c r="A310" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B310" s="34"/>
+      <c r="B310" s="42"/>
     </row>
     <row r="311" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="39" t="s">
@@ -3926,10 +3929,10 @@
       </c>
     </row>
     <row r="314" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="34" t="s">
+      <c r="A314" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="B314" s="34"/>
+      <c r="B314" s="42"/>
     </row>
     <row r="315" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
@@ -3940,13 +3943,13 @@
       </c>
     </row>
     <row r="317" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="34" t="s">
+      <c r="A317" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="B317" s="34"/>
+      <c r="B317" s="42"/>
     </row>
     <row r="318" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="41" t="s">
+      <c r="A318" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B318" s="11" t="s">
@@ -3954,16 +3957,16 @@
       </c>
     </row>
     <row r="319" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="41"/>
+      <c r="A319" s="46"/>
       <c r="B319" s="11" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="34" t="s">
+      <c r="A321" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="B321" s="34"/>
+      <c r="B321" s="42"/>
     </row>
     <row r="322" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
@@ -3974,10 +3977,10 @@
       </c>
     </row>
     <row r="324" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="34" t="s">
+      <c r="A324" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="B324" s="34"/>
+      <c r="B324" s="42"/>
     </row>
     <row r="325" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="39" t="s">
@@ -3994,10 +3997,10 @@
       </c>
     </row>
     <row r="328" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="34" t="s">
+      <c r="A328" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="B328" s="34"/>
+      <c r="B328" s="42"/>
     </row>
     <row r="329" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
@@ -4008,10 +4011,10 @@
       </c>
     </row>
     <row r="331" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="34" t="s">
+      <c r="A331" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="B331" s="34"/>
+      <c r="B331" s="42"/>
     </row>
     <row r="332" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
@@ -4022,10 +4025,10 @@
       </c>
     </row>
     <row r="334" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="34" t="s">
+      <c r="A334" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="B334" s="34"/>
+      <c r="B334" s="42"/>
     </row>
     <row r="335" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
@@ -4036,10 +4039,10 @@
       </c>
     </row>
     <row r="337" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="34" t="s">
+      <c r="A337" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="B337" s="34"/>
+      <c r="B337" s="42"/>
     </row>
     <row r="338" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="39" t="s">
@@ -4062,10 +4065,10 @@
       </c>
     </row>
     <row r="342" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="34" t="s">
+      <c r="A342" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="B342" s="34"/>
+      <c r="B342" s="42"/>
     </row>
     <row r="343" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
@@ -4076,10 +4079,10 @@
       </c>
     </row>
     <row r="345" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="34" t="s">
+      <c r="A345" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="B345" s="34"/>
+      <c r="B345" s="42"/>
     </row>
     <row r="346" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="39" t="s">
@@ -4102,10 +4105,10 @@
       </c>
     </row>
     <row r="350" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="34" t="s">
+      <c r="A350" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B350" s="34"/>
+      <c r="B350" s="42"/>
     </row>
     <row r="351" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
@@ -4116,10 +4119,10 @@
       </c>
     </row>
     <row r="353" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="34" t="s">
+      <c r="A353" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="B353" s="34"/>
+      <c r="B353" s="42"/>
     </row>
     <row r="354" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
@@ -4130,10 +4133,10 @@
       </c>
     </row>
     <row r="356" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="34" t="s">
+      <c r="A356" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="B356" s="34"/>
+      <c r="B356" s="42"/>
     </row>
     <row r="357" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
@@ -4144,10 +4147,10 @@
       </c>
     </row>
     <row r="359" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="34" t="s">
+      <c r="A359" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="B359" s="34"/>
+      <c r="B359" s="42"/>
     </row>
     <row r="360" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="39" t="s">
@@ -4170,10 +4173,10 @@
       </c>
     </row>
     <row r="364" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="34" t="s">
+      <c r="A364" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B364" s="34"/>
+      <c r="B364" s="42"/>
     </row>
     <row r="365" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
@@ -4184,10 +4187,10 @@
       </c>
     </row>
     <row r="367" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="34" t="s">
+      <c r="A367" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="B367" s="34"/>
+      <c r="B367" s="42"/>
     </row>
     <row r="368" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="39" t="s">
@@ -4204,10 +4207,10 @@
       </c>
     </row>
     <row r="371" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="34" t="s">
+      <c r="A371" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="B371" s="34"/>
+      <c r="B371" s="42"/>
     </row>
     <row r="372" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
@@ -4218,10 +4221,10 @@
       </c>
     </row>
     <row r="374" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="34" t="s">
+      <c r="A374" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="B374" s="34"/>
+      <c r="B374" s="42"/>
     </row>
     <row r="375" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
@@ -4232,10 +4235,10 @@
       </c>
     </row>
     <row r="377" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="34" t="s">
+      <c r="A377" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="B377" s="34"/>
+      <c r="B377" s="42"/>
     </row>
     <row r="378" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
@@ -4246,10 +4249,10 @@
       </c>
     </row>
     <row r="380" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="34" t="s">
+      <c r="A380" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="B380" s="34"/>
+      <c r="B380" s="42"/>
     </row>
     <row r="381" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="39" t="s">
@@ -4266,17 +4269,17 @@
       </c>
     </row>
     <row r="384" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="34" t="s">
+      <c r="A384" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="B384" s="34"/>
-      <c r="C384" s="34"/>
+      <c r="B384" s="42"/>
+      <c r="C384" s="42"/>
     </row>
     <row r="385" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B385" s="43" t="s">
+      <c r="B385" s="40" t="s">
         <v>295</v>
       </c>
       <c r="C385" s="11" t="s">
@@ -4285,35 +4288,35 @@
     </row>
     <row r="386" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="39"/>
-      <c r="B386" s="43"/>
+      <c r="B386" s="40"/>
       <c r="C386" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="39"/>
-      <c r="B387" s="43"/>
+      <c r="B387" s="40"/>
       <c r="C387" s="11" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="39"/>
-      <c r="B388" s="43"/>
+      <c r="B388" s="40"/>
       <c r="C388" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="39"/>
-      <c r="B389" s="43"/>
+      <c r="B389" s="40"/>
       <c r="C389" s="11" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="39"/>
-      <c r="B390" s="44" t="s">
+      <c r="B390" s="41" t="s">
         <v>300</v>
       </c>
       <c r="C390" s="11" t="s">
@@ -4322,44 +4325,44 @@
     </row>
     <row r="391" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="39"/>
-      <c r="B391" s="44"/>
+      <c r="B391" s="41"/>
       <c r="C391" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="39"/>
-      <c r="B392" s="44"/>
+      <c r="B392" s="41"/>
       <c r="C392" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="39"/>
-      <c r="B393" s="44"/>
+      <c r="B393" s="41"/>
       <c r="C393" s="11" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="39"/>
-      <c r="B394" s="44"/>
+      <c r="B394" s="41"/>
       <c r="C394" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="39"/>
-      <c r="B395" s="44"/>
+      <c r="B395" s="41"/>
       <c r="C395" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="34" t="s">
+      <c r="A397" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="B397" s="34"/>
+      <c r="B397" s="42"/>
     </row>
     <row r="398" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="39" t="s">
@@ -4413,10 +4416,10 @@
     </row>
     <row r="406" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="407" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="34" t="s">
+      <c r="A407" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="B407" s="34"/>
+      <c r="B407" s="42"/>
     </row>
     <row r="408" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
@@ -4428,22 +4431,22 @@
     </row>
     <row r="409" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="410" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="45" t="s">
+      <c r="A410" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="B410" s="45"/>
+      <c r="B410" s="43"/>
     </row>
     <row r="411" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="45"/>
-      <c r="B411" s="45"/>
+      <c r="A411" s="43"/>
+      <c r="B411" s="43"/>
     </row>
     <row r="412" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="45"/>
-      <c r="B412" s="45"/>
+      <c r="A412" s="43"/>
+      <c r="B412" s="43"/>
     </row>
     <row r="413" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="45"/>
-      <c r="B413" s="45"/>
+      <c r="A413" s="43"/>
+      <c r="B413" s="43"/>
     </row>
     <row r="414" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="11" t="s">
@@ -4652,7 +4655,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="46" t="s">
+      <c r="A441" s="44" t="s">
         <v>367</v>
       </c>
       <c r="B441" s="4" t="s">
@@ -4660,26 +4663,26 @@
       </c>
     </row>
     <row r="442" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="46"/>
+      <c r="A442" s="44"/>
       <c r="B442" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="46"/>
+      <c r="A443" s="44"/>
       <c r="B443" s="17" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="46"/>
+      <c r="A444" s="44"/>
       <c r="B444" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="446" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="47" t="s">
+      <c r="A446" s="45" t="s">
         <v>372</v>
       </c>
       <c r="B446" s="2" t="s">
@@ -4687,101 +4690,101 @@
       </c>
     </row>
     <row r="447" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="47"/>
+      <c r="A447" s="45"/>
       <c r="B447" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="47"/>
+      <c r="A448" s="45"/>
       <c r="B448" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="47"/>
+      <c r="A449" s="45"/>
       <c r="B449" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="47"/>
+      <c r="A450" s="45"/>
       <c r="B450" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="47"/>
+      <c r="A451" s="45"/>
       <c r="B451" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="47"/>
+      <c r="A452" s="45"/>
       <c r="B452" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="47"/>
+      <c r="A453" s="45"/>
       <c r="B453" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="47"/>
+      <c r="A454" s="45"/>
       <c r="B454" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="47"/>
+      <c r="A455" s="45"/>
       <c r="B455" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="47"/>
+      <c r="A456" s="45"/>
       <c r="B456" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="47"/>
+      <c r="A457" s="45"/>
       <c r="B457" s="2" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="47"/>
+      <c r="A458" s="45"/>
       <c r="B458" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="47"/>
+      <c r="A459" s="45"/>
       <c r="B459" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="47"/>
+      <c r="A460" s="45"/>
       <c r="B460" s="4" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="47"/>
+      <c r="A461" s="45"/>
       <c r="B461" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="47"/>
-      <c r="B462" s="42" t="s">
+      <c r="A462" s="45"/>
+      <c r="B462" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="C462" s="42" t="s">
+      <c r="C462" s="38" t="s">
         <v>390</v>
       </c>
       <c r="D462" s="15" t="s">
@@ -4789,25 +4792,25 @@
       </c>
     </row>
     <row r="463" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="47"/>
-      <c r="B463" s="42"/>
-      <c r="C463" s="42"/>
+      <c r="A463" s="45"/>
+      <c r="B463" s="38"/>
+      <c r="C463" s="38"/>
       <c r="D463" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="47"/>
-      <c r="B464" s="42"/>
-      <c r="C464" s="42"/>
+      <c r="A464" s="45"/>
+      <c r="B464" s="38"/>
+      <c r="C464" s="38"/>
       <c r="D464" s="11" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="47"/>
-      <c r="B465" s="42"/>
-      <c r="C465" s="42" t="s">
+      <c r="A465" s="45"/>
+      <c r="B465" s="38"/>
+      <c r="C465" s="38" t="s">
         <v>394</v>
       </c>
       <c r="D465" s="2" t="s">
@@ -4815,57 +4818,57 @@
       </c>
     </row>
     <row r="466" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="47"/>
-      <c r="B466" s="42"/>
-      <c r="C466" s="42"/>
+      <c r="A466" s="45"/>
+      <c r="B466" s="38"/>
+      <c r="C466" s="38"/>
       <c r="D466" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="47"/>
-      <c r="B467" s="42"/>
-      <c r="C467" s="42"/>
+      <c r="A467" s="45"/>
+      <c r="B467" s="38"/>
+      <c r="C467" s="38"/>
       <c r="D467" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="47"/>
-      <c r="B468" s="42"/>
-      <c r="C468" s="42"/>
+      <c r="A468" s="45"/>
+      <c r="B468" s="38"/>
+      <c r="C468" s="38"/>
       <c r="D468" s="2" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="47"/>
-      <c r="B469" s="42"/>
-      <c r="C469" s="42"/>
+      <c r="A469" s="45"/>
+      <c r="B469" s="38"/>
+      <c r="C469" s="38"/>
       <c r="D469" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="47"/>
-      <c r="B470" s="42"/>
-      <c r="C470" s="42"/>
+      <c r="A470" s="45"/>
+      <c r="B470" s="38"/>
+      <c r="C470" s="38"/>
       <c r="D470" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="47"/>
-      <c r="B471" s="42"/>
-      <c r="C471" s="42"/>
+      <c r="A471" s="45"/>
+      <c r="B471" s="38"/>
+      <c r="C471" s="38"/>
       <c r="D471" s="18">
         <v>29</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="47"/>
-      <c r="B472" s="42"/>
-      <c r="C472" s="42" t="s">
+      <c r="A472" s="45"/>
+      <c r="B472" s="38"/>
+      <c r="C472" s="38" t="s">
         <v>296</v>
       </c>
       <c r="D472" s="15" t="s">
@@ -4873,89 +4876,89 @@
       </c>
     </row>
     <row r="473" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="47"/>
-      <c r="B473" s="42"/>
-      <c r="C473" s="42"/>
+      <c r="A473" s="45"/>
+      <c r="B473" s="38"/>
+      <c r="C473" s="38"/>
       <c r="D473" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="47"/>
-      <c r="B474" s="42"/>
-      <c r="C474" s="42"/>
+      <c r="A474" s="45"/>
+      <c r="B474" s="38"/>
+      <c r="C474" s="38"/>
       <c r="D474" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="47"/>
-      <c r="B475" s="42"/>
-      <c r="C475" s="42"/>
+      <c r="A475" s="45"/>
+      <c r="B475" s="38"/>
+      <c r="C475" s="38"/>
       <c r="D475" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="47"/>
-      <c r="B476" s="42"/>
-      <c r="C476" s="42"/>
+      <c r="A476" s="45"/>
+      <c r="B476" s="38"/>
+      <c r="C476" s="38"/>
       <c r="D476" s="4" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="47"/>
-      <c r="B477" s="42"/>
-      <c r="C477" s="42"/>
+      <c r="A477" s="45"/>
+      <c r="B477" s="38"/>
+      <c r="C477" s="38"/>
       <c r="D477" s="19" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="47"/>
-      <c r="B478" s="42"/>
-      <c r="C478" s="42"/>
+      <c r="A478" s="45"/>
+      <c r="B478" s="38"/>
+      <c r="C478" s="38"/>
       <c r="D478" s="19" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="47"/>
-      <c r="B479" s="42"/>
-      <c r="C479" s="42"/>
+      <c r="A479" s="45"/>
+      <c r="B479" s="38"/>
+      <c r="C479" s="38"/>
       <c r="D479" s="19" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="47"/>
-      <c r="B480" s="42"/>
-      <c r="C480" s="42"/>
+      <c r="A480" s="45"/>
+      <c r="B480" s="38"/>
+      <c r="C480" s="38"/>
       <c r="D480" s="19" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A481" s="47"/>
-      <c r="B481" s="42"/>
-      <c r="C481" s="42"/>
+      <c r="A481" s="45"/>
+      <c r="B481" s="38"/>
+      <c r="C481" s="38"/>
       <c r="D481" s="19" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="47"/>
-      <c r="B482" s="42"/>
-      <c r="C482" s="42"/>
+      <c r="A482" s="45"/>
+      <c r="B482" s="38"/>
+      <c r="C482" s="38"/>
       <c r="D482" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="47"/>
-      <c r="B483" s="42"/>
-      <c r="C483" s="42" t="s">
+      <c r="A483" s="45"/>
+      <c r="B483" s="38"/>
+      <c r="C483" s="38" t="s">
         <v>402</v>
       </c>
       <c r="D483" s="2" t="s">
@@ -4963,84 +4966,84 @@
       </c>
     </row>
     <row r="484" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="47"/>
-      <c r="B484" s="42"/>
-      <c r="C484" s="42"/>
+      <c r="A484" s="45"/>
+      <c r="B484" s="38"/>
+      <c r="C484" s="38"/>
       <c r="D484" s="20" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="47"/>
-      <c r="B485" s="42"/>
-      <c r="C485" s="42"/>
+      <c r="A485" s="45"/>
+      <c r="B485" s="38"/>
+      <c r="C485" s="38"/>
       <c r="D485" s="20" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A486" s="47"/>
-      <c r="B486" s="42"/>
-      <c r="C486" s="42"/>
+      <c r="A486" s="45"/>
+      <c r="B486" s="38"/>
+      <c r="C486" s="38"/>
       <c r="D486" s="20" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A487" s="47"/>
-      <c r="B487" s="42"/>
-      <c r="C487" s="42"/>
+      <c r="A487" s="45"/>
+      <c r="B487" s="38"/>
+      <c r="C487" s="38"/>
       <c r="D487" s="21" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="47"/>
-      <c r="B488" s="42"/>
-      <c r="C488" s="42"/>
+      <c r="A488" s="45"/>
+      <c r="B488" s="38"/>
+      <c r="C488" s="38"/>
       <c r="D488" s="20" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="47"/>
-      <c r="B489" s="42"/>
-      <c r="C489" s="42"/>
+      <c r="A489" s="45"/>
+      <c r="B489" s="38"/>
+      <c r="C489" s="38"/>
       <c r="D489" s="21" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="47"/>
-      <c r="B490" s="42"/>
-      <c r="C490" s="42"/>
+      <c r="A490" s="45"/>
+      <c r="B490" s="38"/>
+      <c r="C490" s="38"/>
       <c r="D490" s="22">
         <v>15000</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="47"/>
+      <c r="A491" s="45"/>
       <c r="B491" s="2" t="s">
         <v>404</v>
       </c>
       <c r="C491" s="6"/>
     </row>
     <row r="492" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A492" s="47"/>
+      <c r="A492" s="45"/>
       <c r="B492" s="2" t="s">
         <v>405</v>
       </c>
       <c r="C492" s="6"/>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="47"/>
+      <c r="A493" s="45"/>
       <c r="B493" s="2" t="s">
         <v>406</v>
       </c>
       <c r="C493" s="6"/>
     </row>
     <row r="494" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="47"/>
+      <c r="A494" s="45"/>
       <c r="B494" s="2" t="s">
         <v>407</v>
       </c>
@@ -5183,7 +5186,9 @@
       <c r="C508" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="D508" s="30"/>
+      <c r="D508" s="30" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="31"/>
@@ -5232,10 +5237,10 @@
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="49" t="s">
+      <c r="A514" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="B514" s="48" t="s">
+      <c r="B514" s="34" t="s">
         <v>445</v>
       </c>
       <c r="C514" s="31"/>
@@ -5244,8 +5249,8 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="50"/>
-      <c r="B515" s="48" t="s">
+      <c r="A515" s="37"/>
+      <c r="B515" s="34" t="s">
         <v>446</v>
       </c>
       <c r="C515" s="31"/>
@@ -5254,136 +5259,271 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="50"/>
+      <c r="A516" s="37"/>
       <c r="B516" s="3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="50"/>
+      <c r="A517" s="37"/>
       <c r="B517" s="3" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="50"/>
+      <c r="A518" s="37"/>
       <c r="B518" s="3" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="50"/>
+      <c r="A519" s="37"/>
       <c r="B519" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="50"/>
+      <c r="A520" s="37"/>
       <c r="B520" s="3" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="50"/>
+      <c r="A521" s="37"/>
       <c r="B521" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A522" s="50"/>
+      <c r="A522" s="37"/>
       <c r="B522" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" s="50"/>
+      <c r="A523" s="37"/>
       <c r="B523" s="3" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" s="50"/>
+      <c r="A524" s="37"/>
       <c r="B524" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525" s="50"/>
+      <c r="A525" s="37"/>
       <c r="B525" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526" s="50"/>
+      <c r="A526" s="37"/>
       <c r="B526" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" s="50"/>
+      <c r="A527" s="37"/>
       <c r="B527" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A528" s="50"/>
+      <c r="A528" s="37"/>
       <c r="B528" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="50"/>
+      <c r="A529" s="37"/>
       <c r="B529" s="3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="50"/>
+      <c r="A530" s="37"/>
       <c r="B530" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="50"/>
+      <c r="A531" s="37"/>
       <c r="B531" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="50"/>
+      <c r="A532" s="37"/>
       <c r="B532" s="3" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="50"/>
+      <c r="A533" s="37"/>
       <c r="B533" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="50"/>
+      <c r="A534" s="37"/>
       <c r="B534" s="3" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="50"/>
+      <c r="A535" s="37"/>
       <c r="B535" s="3" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="50"/>
+      <c r="A536" s="37"/>
       <c r="B536" s="3" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="51"/>
+      <c r="A537" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:A136"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:A163"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A311:A312"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A346:A348"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A360:A362"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A367:B367"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="A374:B374"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="A384:C384"/>
     <mergeCell ref="A514:A536"/>
     <mergeCell ref="C462:C464"/>
     <mergeCell ref="C465:C471"/>
@@ -5399,141 +5539,6 @@
     <mergeCell ref="A441:A444"/>
     <mergeCell ref="A446:A494"/>
     <mergeCell ref="B462:B490"/>
-    <mergeCell ref="A364:B364"/>
-    <mergeCell ref="A367:B367"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="A371:B371"/>
-    <mergeCell ref="A374:B374"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A381:A382"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A338:A339"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A346:A348"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="A356:B356"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="A360:A362"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A311:A312"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:A183"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:A163"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:A136"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:A143"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="525">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -1523,6 +1523,78 @@
   </si>
   <si>
     <t xml:space="preserve">The concierge team is resondible for account and billing problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erros do simulado 3 (MAREEK 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7 – Gateway types for AWS Storage Gateway (read explanation!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tape gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9 – Which AWS services does Compute Optimizer provides recommendations for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12 – Amazon MQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17 – Amazon Rekognition capabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18 – Make clear difference between SSH, Session Manager and Instance Connect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q24 – Data-transfer charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25 – VPC and SUBNETS coverage on regions/Azs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q26 – Improve your understanding on Global Accelerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q28 – Services used to prevent DDOS attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q30 – How CloudHSM works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q31 – Where can we enable MFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q38 – Personal Health Dashboard vs Service Health Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q39 – Services that can avoid SQL Injections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q43 – Local zones in depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q47 – RDS Multi-AZ deployment check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q52 – READ THE FOCKEN QUESHANNNNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q59 – Global services (S3 isnt!!!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q60 – Outbound data transfer usually costs more than inbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q62 – Fsx for Lustre and Windows file server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q63 – Read again!!</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1636,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1715,6 +1787,12 @@
         <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FAF46"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
@@ -1792,7 +1870,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1961,12 +2039,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1993,7 +2095,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF548235"/>
       <rgbColor rgb="FFA7074B"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -2029,7 +2131,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF8497B0"/>
       <rgbColor rgb="FF002060"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -2046,13 +2148,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D587"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B524" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C554" activeCellId="0" sqref="C554"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B551" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C562" activeCellId="0" sqref="C562"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="19.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.57"/>
@@ -5021,7 +5123,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="54.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="39"/>
       <c r="B519" s="39"/>
       <c r="C519" s="39"/>
@@ -5063,15 +5165,15 @@
     </row>
     <row r="525" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="39"/>
-      <c r="B525" s="0"/>
-      <c r="C525" s="0"/>
-      <c r="D525" s="0"/>
+      <c r="B525" s="39"/>
+      <c r="C525" s="39"/>
+      <c r="D525" s="39"/>
     </row>
     <row r="526" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="39"/>
-      <c r="B526" s="0"/>
-      <c r="C526" s="0"/>
-      <c r="D526" s="0"/>
+      <c r="B526" s="39"/>
+      <c r="C526" s="39"/>
+      <c r="D526" s="39"/>
     </row>
     <row r="527" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="39"/>
@@ -5079,19 +5181,19 @@
       <c r="C527" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="D527" s="0"/>
+      <c r="D527" s="39"/>
     </row>
     <row r="528" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="39"/>
       <c r="B528" s="39"/>
       <c r="C528" s="26"/>
-      <c r="D528" s="0"/>
+      <c r="D528" s="39"/>
     </row>
     <row r="529" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="39"/>
       <c r="B529" s="39"/>
       <c r="C529" s="26"/>
-      <c r="D529" s="0"/>
+      <c r="D529" s="39"/>
     </row>
     <row r="530" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="41" t="s">
@@ -5103,224 +5205,224 @@
       <c r="C530" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D530" s="0"/>
-    </row>
-    <row r="531" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D530" s="39"/>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="41"/>
       <c r="B531" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="C531" s="12" t="s">
+      <c r="C531" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="D531" s="0"/>
+      <c r="D531" s="39"/>
     </row>
     <row r="532" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="41"/>
-      <c r="B532" s="12" t="s">
+      <c r="B532" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="C532" s="12" t="s">
+      <c r="C532" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="D532" s="0"/>
+      <c r="D532" s="39"/>
     </row>
     <row r="533" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="41"/>
-      <c r="B533" s="43" t="s">
+      <c r="B533" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C533" s="12" t="s">
+      <c r="C533" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="D533" s="0"/>
+      <c r="D533" s="39"/>
     </row>
     <row r="534" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="41"/>
-      <c r="B534" s="12" t="s">
+      <c r="B534" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="C534" s="12" t="s">
+      <c r="C534" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="D534" s="0"/>
+      <c r="D534" s="39"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="41"/>
-      <c r="B535" s="12" t="s">
+      <c r="B535" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="C535" s="12" t="s">
+      <c r="C535" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="D535" s="0"/>
+      <c r="D535" s="39"/>
     </row>
     <row r="536" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="41"/>
-      <c r="B536" s="12" t="s">
+      <c r="B536" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="C536" s="12" t="s">
+      <c r="C536" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="D536" s="0"/>
+      <c r="D536" s="39"/>
     </row>
     <row r="537" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="41"/>
-      <c r="B537" s="12" t="s">
+      <c r="B537" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="C537" s="12" t="s">
+      <c r="C537" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="D537" s="0"/>
+      <c r="D537" s="39"/>
     </row>
     <row r="538" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="41"/>
-      <c r="B538" s="12" t="s">
+      <c r="B538" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="C538" s="12" t="s">
+      <c r="C538" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="D538" s="0"/>
+      <c r="D538" s="39"/>
     </row>
     <row r="539" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="41"/>
-      <c r="B539" s="12" t="s">
+      <c r="B539" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="C539" s="12" t="s">
+      <c r="C539" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="D539" s="0"/>
+      <c r="D539" s="39"/>
     </row>
     <row r="540" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="41"/>
-      <c r="B540" s="12" t="s">
+      <c r="B540" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="C540" s="12" t="s">
+      <c r="C540" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="D540" s="0"/>
+      <c r="D540" s="39"/>
     </row>
     <row r="541" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="41"/>
-      <c r="B541" s="12" t="s">
+      <c r="B541" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="C541" s="12" t="s">
+      <c r="C541" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="D541" s="0"/>
+      <c r="D541" s="39"/>
     </row>
     <row r="542" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="41"/>
-      <c r="B542" s="12" t="s">
+      <c r="B542" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="C542" s="12" t="s">
+      <c r="C542" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="D542" s="0"/>
+      <c r="D542" s="39"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="41"/>
-      <c r="B543" s="12" t="s">
+      <c r="B543" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="C543" s="12" t="s">
+      <c r="C543" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="D543" s="0"/>
-    </row>
-    <row r="544" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D543" s="39"/>
+    </row>
+    <row r="544" customFormat="false" ht="23.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="41"/>
-      <c r="B544" s="12" t="s">
+      <c r="B544" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="C544" s="12" t="s">
+      <c r="C544" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="D544" s="0"/>
-    </row>
-    <row r="545" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D544" s="39"/>
+    </row>
+    <row r="545" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="41"/>
-      <c r="B545" s="12" t="s">
+      <c r="B545" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="C545" s="12" t="s">
+      <c r="C545" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="D545" s="0"/>
+      <c r="D545" s="39"/>
     </row>
     <row r="546" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="41"/>
-      <c r="B546" s="12" t="s">
+      <c r="B546" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="C546" s="12" t="s">
+      <c r="C546" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D546" s="0"/>
+      <c r="D546" s="39"/>
     </row>
     <row r="547" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="41"/>
-      <c r="B547" s="12" t="s">
+      <c r="B547" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="C547" s="12" t="s">
+      <c r="C547" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="D547" s="0"/>
+      <c r="D547" s="39"/>
     </row>
     <row r="548" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="41"/>
-      <c r="B548" s="12" t="s">
+      <c r="B548" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="C548" s="42" t="s">
+      <c r="C548" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="D548" s="0"/>
+      <c r="D548" s="39"/>
     </row>
     <row r="549" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="41"/>
-      <c r="B549" s="12" t="s">
+      <c r="B549" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="C549" s="42" t="s">
+      <c r="C549" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="D549" s="0"/>
+      <c r="D549" s="39"/>
     </row>
     <row r="550" customFormat="false" ht="36.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="41"/>
-      <c r="B550" s="12" t="s">
+      <c r="B550" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="C550" s="42" t="s">
+      <c r="C550" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="D550" s="0"/>
+      <c r="D550" s="39"/>
     </row>
     <row r="551" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="41"/>
-      <c r="B551" s="12" t="s">
+      <c r="B551" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="C551" s="42" t="s">
+      <c r="C551" s="44" t="s">
         <v>498</v>
       </c>
       <c r="D551" s="39"/>
     </row>
     <row r="552" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="41"/>
-      <c r="B552" s="12" t="s">
+      <c r="B552" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C552" s="42" t="s">
+      <c r="C552" s="44" t="s">
         <v>500</v>
       </c>
       <c r="D552" s="39"/>
@@ -5330,68 +5432,216 @@
       <c r="D553" s="39"/>
     </row>
     <row r="554" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A554" s="39"/>
       <c r="C554" s="39"/>
       <c r="D554" s="39"/>
     </row>
     <row r="555" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A555" s="39"/>
       <c r="C555" s="39"/>
       <c r="D555" s="39"/>
     </row>
     <row r="556" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A556" s="39"/>
       <c r="C556" s="39"/>
       <c r="D556" s="39"/>
     </row>
     <row r="557" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C557" s="39"/>
+      <c r="A557" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="B557" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C557" s="46" t="s">
+        <v>503</v>
+      </c>
       <c r="D557" s="39"/>
     </row>
     <row r="558" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C558" s="39"/>
+      <c r="A558" s="26"/>
+      <c r="B558" s="15"/>
+      <c r="C558" s="46" t="s">
+        <v>504</v>
+      </c>
       <c r="D558" s="39"/>
     </row>
     <row r="559" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C559" s="39"/>
+      <c r="A559" s="26"/>
+      <c r="B559" s="15"/>
+      <c r="C559" s="46" t="s">
+        <v>505</v>
+      </c>
       <c r="D559" s="39"/>
     </row>
     <row r="560" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A560" s="26"/>
+      <c r="B560" s="12" t="s">
+        <v>506</v>
+      </c>
       <c r="C560" s="39"/>
       <c r="D560" s="39"/>
     </row>
     <row r="561" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A561" s="26"/>
+      <c r="B561" s="12" t="s">
+        <v>507</v>
+      </c>
       <c r="C561" s="39"/>
       <c r="D561" s="39"/>
     </row>
     <row r="562" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A562" s="26"/>
+      <c r="B562" s="12" t="s">
+        <v>508</v>
+      </c>
       <c r="C562" s="39"/>
       <c r="D562" s="39"/>
     </row>
     <row r="563" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A563" s="26"/>
+      <c r="B563" s="12" t="s">
+        <v>509</v>
+      </c>
       <c r="C563" s="39"/>
       <c r="D563" s="39"/>
     </row>
     <row r="564" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A564" s="26"/>
+      <c r="B564" s="12" t="s">
+        <v>510</v>
+      </c>
       <c r="C564" s="39"/>
       <c r="D564" s="39"/>
     </row>
     <row r="565" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A565" s="26"/>
+      <c r="B565" s="47" t="s">
+        <v>511</v>
+      </c>
       <c r="C565" s="39"/>
       <c r="D565" s="39"/>
     </row>
     <row r="566" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A566" s="26"/>
+      <c r="B566" s="47" t="s">
+        <v>512</v>
+      </c>
       <c r="C566" s="39"/>
       <c r="D566" s="39"/>
     </row>
     <row r="567" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A567" s="26"/>
+      <c r="B567" s="47" t="s">
+        <v>513</v>
+      </c>
       <c r="C567" s="39"/>
       <c r="D567" s="39"/>
     </row>
     <row r="568" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A568" s="26"/>
+      <c r="B568" s="47" t="s">
+        <v>514</v>
+      </c>
       <c r="C568" s="39"/>
       <c r="D568" s="39"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A569" s="26"/>
+      <c r="B569" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="C569" s="39"/>
+      <c r="D569" s="39"/>
+    </row>
+    <row r="570" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A570" s="26"/>
+      <c r="B570" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C570" s="39"/>
+      <c r="D570" s="39"/>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="26"/>
+      <c r="B571" s="47" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="26"/>
+      <c r="B572" s="47" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="26"/>
+      <c r="B573" s="47" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="26"/>
+      <c r="B574" s="47" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="26"/>
+      <c r="B575" s="47" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="26"/>
+      <c r="B576" s="47" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="26"/>
+      <c r="B577" s="47" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="26"/>
+      <c r="B578" s="47" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="48"/>
+      <c r="B579" s="39"/>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="49"/>
+      <c r="B580" s="39"/>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="49"/>
+      <c r="B581" s="39"/>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B582" s="39"/>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B583" s="39"/>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B584" s="39"/>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B585" s="39"/>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B586" s="39"/>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B587" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="151">
+  <mergeCells count="153">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B6"/>
@@ -5543,6 +5793,8 @@
     <mergeCell ref="C490:C497"/>
     <mergeCell ref="C527:C529"/>
     <mergeCell ref="A530:A552"/>
+    <mergeCell ref="A557:A578"/>
+    <mergeCell ref="B557:B559"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="519">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -619,6 +619,9 @@
     <t xml:space="preserve">Defines rules to block traffic</t>
   </si>
   <si>
+    <t xml:space="preserve">Helps with SQL Injection, DDOS and cross-site scripting</t>
+  </si>
+  <si>
     <t xml:space="preserve">GuardDuty</t>
   </si>
   <si>
@@ -1210,171 +1213,96 @@
     <t xml:space="preserve">AWS Professional Services</t>
   </si>
   <si>
-    <t xml:space="preserve">AWS Support tiers</t>
+    <t xml:space="preserve">Amazon WorkSpaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Connect (Service used to create customer support centers. Voice, text and bot-chats that use Amazon Lex available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS License Manager (Used to control software licenses)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop guessing capacity</t>
   </si>
   <si>
     <t xml:space="preserve">Basic</t>
   </si>
   <si>
-    <t xml:space="preserve">Billing and account support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 trusted advisor checks (basic and developer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREE!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">+ tech email support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ general guidance (&lt; 24h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ systems impaired (&lt; 12h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Support for unlimited cases with primarily 1 contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architetural guidance is GENERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to SUPPORT AUTOMATION WORKFLOWS with prefixes AWSSupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ chat/phone tech support 24/7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ production systems impaired (&lt; 4h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ production systems down (&lt; 1h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Support for unlimited casos with unlimited contacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ ALL trusted advisor checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Support API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architetural guidance is CONTEXTUAL TO YOUR USE-CASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interoperability and configuration guidance and troubleshooting for 3rd party apps</t>
+    <t xml:space="preserve">Enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing and Account support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail tech support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/7 tech support through phone, web and chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Trusted advisor checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL Trusted advisor checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems impaired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech support for unlimited cases (1 contact)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production systems impaired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architetural guidance: GENERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production systems down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to SUPPORT AUTOMATION WORKFLOWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech support for unlimited cases (UNLIMITED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architetural guidance:  CONTEXTUAL TO YOUR USE-CASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architetural guidance: CONSULTATIVE REVIEW AND GUIDANCE BASED ON YOUR APPLICATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to AWS Support API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Health API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to AWS Health API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubleshooting for 3rd party apps</t>
   </si>
   <si>
     <t xml:space="preserve">Access to INFRASTRUCTURE EVENT MANAGEMENT for additional fee (Support for planning and running business critical events)</t>
   </si>
   <si>
-    <t xml:space="preserve">Access to AWS MANAGED SERVICES (AMS) for an additional fee. AMS augments your existing teams with cloud operations skills and capacity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ business critical system down (&lt; 15min)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architetural guidance is a CONSULTATIVE REVIEW AND GUIDANCE BASED ON YOUR APPLICATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFRASTRUCTURE AND EVENT MANAGEAMENT "FREE"</t>
+    <t xml:space="preserve">Access to INFRASTRUCTURE EVENT MANAGEMENT included "FREE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to AWS MANAGED SERVICES (AMS) for an additional fee</t>
   </si>
   <si>
     <t xml:space="preserve">Access to AWS INCIDENT DETECTION AND RESPONSE for an additional fee. AWS Incident Detection and Response is an add-on to Enterprise Support that offers 24x7 proactive monitoring and incident management for selected workloads. AWS Incident Detection and Response leverages the proven operational, enhanced monitoring, and incident management capabilities used internally by AWS teams and externally by AWS Managed Services (AMS).</t>
   </si>
   <si>
-    <t xml:space="preserve">Designated Technical Account Manager (TAM) to proactively monitor your environment and assist with optimization and coordinate access to programs and AWS experts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to online self-paced labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concierge Support Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon WorkSpaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Connect (Service used to create customer support centers. Voice, text and bot-chats that use Amazon Lex available)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS License Manager (Used to control software licenses)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop guessing capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing and Account support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mail tech support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/7 tech support through phone, web and chat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Trusted advisor checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL Trusted advisor checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systems impaired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech support for unlimited cases (1 contact)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production systems impaired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architetural guidance: GENERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production systems down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to SUPPORT AUTOMATION WORKFLOWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech support for unlimited cases (UNLIMITED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architetural guidance:  CONTEXTUAL TO YOUR USE-CASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architetural guidance: CONSULTATIVE REVIEW AND GUIDANCE BASED ON YOUR APPLICATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to AWS Support API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Health API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to AWS Health API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troubleshooting for 3rd party apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to INFRASTRUCTURE EVENT MANAGEMENT included "FREE"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to AWS MANAGED SERVICES (AMS) for an additional fee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Concierge Support</t>
   </si>
   <si>
@@ -1543,67 +1471,120 @@
     <t xml:space="preserve">Q9 – Which AWS services does Compute Optimizer provides recommendations for</t>
   </si>
   <si>
+    <t xml:space="preserve">Compute optimizer offers recommendations only for EC2, Lambda functions, EBS volumes and Auto-scaling groups</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q12 – Amazon MQ</t>
   </si>
   <si>
+    <t xml:space="preserve">We can use Amazon MQ to migrate existing broker systems to AWS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q17 – Amazon Rekognition capabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">Q18 – Make clear difference between SSH, Session Manager and Instance Connect </t>
+    <t xml:space="preserve">With Amazon Rekognition, you can identify objects, people, text, scenes, and activities in images and videos, as well as detect any inappropriate content. Amazon Rekognition also provides highly accurate facial analysis and facial search capabilities that you can use to detect, analyze, and compare faces for a wide variety of user verification, people counting, and public safety use cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18 – Make clear difference between SSH, Instance Connect and Session Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSH é padrão, Instance Connect é usado para gerenciar conexão SSH com usuários IAM, retirando a necessidade de compartilhar chaves, e o Session Manager é para…</t>
   </si>
   <si>
     <t xml:space="preserve">Q24 – Data-transfer charges</t>
   </si>
   <si>
+    <t xml:space="preserve">There are three fundamental drivers of cost with AWS: compute, storage, and outbound data transfer. Outbound data to the internet from all AWS regions is billed at region-specific. Inbound data transfer into all AWS regions from the internet is free.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q25 – VPC and SUBNETS coverage on regions/Azs</t>
   </si>
   <si>
+    <t xml:space="preserve">A VPC covers ALL AZ's in a region, whereas a SUBNET covers only one AZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q26 – Improve your understanding on Global Accelerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Pendente. Revisar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q28 – Services used to prevent DDOS attacks</t>
   </si>
   <si>
     <t xml:space="preserve">Q30 – How CloudHSM works</t>
   </si>
   <si>
+    <t xml:space="preserve">CloudHSM uses a hardware security module to encrypt your data. The HSM is stored in a VPC and therefore has a low-latency access to other resources</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q31 – Where can we enable MFA</t>
   </si>
   <si>
+    <t xml:space="preserve">The email and password informed on the account creation are the root account credentials. The root account has the full set of permissions, and you cannot limit its access, even with policies. It's a best practice to enable MFA on the root account </t>
+  </si>
+  <si>
     <t xml:space="preserve">Q38 – Personal Health Dashboard vs Service Health Dashboard</t>
   </si>
   <si>
+    <t xml:space="preserve">Personal Health Dashboard provides information on your personal account, besides alerts on events that might possible affect your environment. Service Health Dashboard provides info on service status throughout all the regions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q39 – Services that can avoid SQL Injections</t>
   </si>
   <si>
+    <t xml:space="preserve">WAF protects against SQL Injections and cross-site scripting</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q43 – Local zones in depth</t>
   </si>
   <si>
+    <t xml:space="preserve">The question seems wrong</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q47 – RDS Multi-AZ deployment check</t>
   </si>
   <si>
+    <t xml:space="preserve">Review the difference between Multi-AZ, Multi-Region and Read Replica deployment for RDS: Q47</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q52 – READ THE FOCKEN QUESHANNNNN</t>
   </si>
   <si>
+    <t xml:space="preserve">I’VE READ IT!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q59 – Global services (S3 isnt!!!)</t>
   </si>
   <si>
+    <t xml:space="preserve">IAM, CloudFront, Route 53, WAF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q60 – Outbound data transfer usually costs more than inbound</t>
   </si>
   <si>
+    <t xml:space="preserve">The main cost-related pricing you might receive are: Compute, Storage and Outbound data transfers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q62 – Fsx for Lustre and Windows file server</t>
   </si>
   <si>
+    <t xml:space="preserve">Fsx is focused on Windows file systems, and uses SSD technology. FSX lustre is for high performance.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q63 – Read again!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightsail = Monthly billing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1636,7 +1617,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1688,7 +1669,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF38B4ED"/>
-        <bgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF5CA9FB"/>
       </patternFill>
     </fill>
     <fill>
@@ -1793,6 +1774,12 @@
         <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5CA9FB"/>
+        <bgColor rgb="FF38B4ED"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
@@ -1870,7 +1857,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1987,52 +1974,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2040,27 +2003,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2098,7 +2045,7 @@
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF5CA9FB"/>
       <rgbColor rgb="FFA1467E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -2148,13 +2095,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D587"/>
+  <dimension ref="A1:D553"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B551" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C562" activeCellId="0" sqref="C562"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B486" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B507" activeCellId="0" sqref="B507"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="20.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.57"/>
@@ -2163,14 +2110,14 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2181,35 +2128,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -2218,35 +2165,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
@@ -2255,49 +2202,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
@@ -2305,19 +2252,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>1</v>
       </c>
@@ -2325,25 +2272,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>1</v>
       </c>
@@ -2351,25 +2298,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
         <v>1</v>
       </c>
@@ -2377,31 +2324,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
       <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
       <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
         <v>1</v>
       </c>
@@ -2409,31 +2356,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -2441,13 +2388,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
         <v>1</v>
       </c>
@@ -2455,13 +2402,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
         <v>1</v>
       </c>
@@ -2469,19 +2416,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2489,13 +2436,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
         <v>1</v>
       </c>
@@ -2503,61 +2450,61 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
       <c r="B63" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="9"/>
       <c r="B64" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="9"/>
       <c r="B65" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="9"/>
       <c r="B66" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="9"/>
       <c r="B67" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9"/>
       <c r="B68" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="9"/>
       <c r="B69" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="9"/>
       <c r="B70" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
         <v>1</v>
       </c>
@@ -2565,61 +2512,61 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="13"/>
       <c r="B74" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="13"/>
       <c r="B75" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="13"/>
       <c r="B76" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="13"/>
       <c r="B77" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="13"/>
       <c r="B78" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="13"/>
       <c r="B79" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="13"/>
       <c r="B80" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
       <c r="B81" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
         <v>1</v>
       </c>
@@ -2627,43 +2574,43 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="13"/>
       <c r="B85" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="13"/>
       <c r="B86" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="13"/>
       <c r="B87" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="13"/>
       <c r="B88" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="13"/>
       <c r="B89" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2671,85 +2618,85 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="9"/>
       <c r="B93" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="9"/>
       <c r="B94" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="9"/>
       <c r="B95" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="9"/>
       <c r="B96" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="9"/>
       <c r="B97" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="9"/>
       <c r="B98" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="9"/>
       <c r="B99" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="9"/>
       <c r="B100" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="9"/>
       <c r="B101" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="9"/>
       <c r="B102" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="9"/>
       <c r="B103" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="9"/>
       <c r="B104" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
         <v>1</v>
       </c>
@@ -2757,13 +2704,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="19" t="s">
         <v>1</v>
       </c>
@@ -2771,19 +2718,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="19"/>
       <c r="B111" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
@@ -2791,31 +2738,31 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="9"/>
       <c r="B115" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="9"/>
       <c r="B116" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="9"/>
       <c r="B117" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
         <v>1</v>
       </c>
@@ -2823,13 +2770,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
         <v>1</v>
       </c>
@@ -2837,19 +2784,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="13"/>
       <c r="B124" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="19" t="s">
         <v>1</v>
       </c>
@@ -2857,55 +2804,55 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="19"/>
       <c r="B128" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="19"/>
       <c r="B129" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="19"/>
       <c r="B130" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="19"/>
       <c r="B131" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="19"/>
       <c r="B132" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="19"/>
       <c r="B133" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="19"/>
       <c r="B134" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="19" t="s">
         <v>1</v>
       </c>
@@ -2913,55 +2860,55 @@
         <v>114</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="19"/>
       <c r="B138" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="19"/>
       <c r="B139" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="19"/>
       <c r="B140" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="19"/>
       <c r="B141" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="19"/>
       <c r="B142" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="19"/>
       <c r="B143" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
       <c r="B144" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
         <v>1</v>
       </c>
@@ -2969,31 +2916,31 @@
         <v>123</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="9"/>
       <c r="B148" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="9"/>
       <c r="B149" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="9"/>
       <c r="B150" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="19" t="s">
         <v>1</v>
       </c>
@@ -3001,31 +2948,31 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="19"/>
       <c r="B154" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="19"/>
       <c r="B155" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="19"/>
       <c r="B156" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
         <v>1</v>
       </c>
@@ -3033,19 +2980,19 @@
         <v>133</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="9"/>
       <c r="B160" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
         <v>1</v>
       </c>
@@ -3053,55 +3000,55 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="9"/>
       <c r="B164" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="9"/>
       <c r="B165" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="9"/>
       <c r="B166" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="9"/>
       <c r="B167" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="9"/>
       <c r="B168" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="9"/>
       <c r="B169" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="9"/>
       <c r="B170" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="19" t="s">
         <v>1</v>
       </c>
@@ -3109,25 +3056,25 @@
         <v>145</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="19"/>
       <c r="B174" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="19"/>
       <c r="B175" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
         <v>1</v>
       </c>
@@ -3135,19 +3082,19 @@
         <v>149</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="9"/>
       <c r="B179" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3155,19 +3102,19 @@
         <v>152</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="9"/>
       <c r="B183" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
         <v>1</v>
       </c>
@@ -3175,37 +3122,37 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="9"/>
       <c r="B187" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="9"/>
       <c r="B188" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="9"/>
       <c r="B189" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="9"/>
       <c r="B190" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
         <v>1</v>
       </c>
@@ -3213,19 +3160,19 @@
         <v>160</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="9"/>
       <c r="B194" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
         <v>1</v>
       </c>
@@ -3233,31 +3180,31 @@
         <v>162</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="9"/>
       <c r="B198" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="9"/>
       <c r="B199" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="9"/>
       <c r="B200" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
         <v>1</v>
       </c>
@@ -3265,13 +3212,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="s">
         <v>1</v>
       </c>
@@ -3279,19 +3226,19 @@
         <v>169</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="9"/>
       <c r="B207" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="s">
         <v>1</v>
       </c>
@@ -3299,13 +3246,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="9" t="s">
         <v>1</v>
       </c>
@@ -3313,19 +3260,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="9"/>
       <c r="B214" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="9" t="s">
         <v>1</v>
       </c>
@@ -3333,31 +3280,31 @@
         <v>176</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="9"/>
       <c r="B218" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="9"/>
       <c r="B219" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="9"/>
       <c r="B220" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="9" t="s">
         <v>1</v>
       </c>
@@ -3365,13 +3312,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="9" t="s">
         <v>1</v>
       </c>
@@ -3379,13 +3326,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="9" t="s">
         <v>1</v>
       </c>
@@ -3393,25 +3340,25 @@
         <v>185</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="9"/>
       <c r="B230" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="9"/>
       <c r="B231" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="9" t="s">
         <v>1</v>
       </c>
@@ -3419,13 +3366,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="9" t="s">
         <v>1</v>
       </c>
@@ -3433,13 +3380,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="s">
         <v>1</v>
       </c>
@@ -3447,19 +3394,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="9"/>
       <c r="B241" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="19" t="s">
         <v>1</v>
       </c>
@@ -3467,2181 +3414,1854 @@
         <v>196</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="19"/>
       <c r="B245" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="19"/>
       <c r="B246" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
+    <row r="247" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A247" s="19"/>
+      <c r="B247" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B248" s="2"/>
-    </row>
-    <row r="249" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B249" s="14" t="s">
+    </row>
+    <row r="249" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="250" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="9"/>
-      <c r="B250" s="15" t="s">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="s">
+    <row r="251" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A251" s="9"/>
+      <c r="B251" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B252" s="2"/>
-    </row>
-    <row r="253" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B253" s="5" t="s">
+    </row>
+    <row r="253" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="254" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="19"/>
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="B254" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="19"/>
       <c r="B255" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="19"/>
       <c r="B256" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="19"/>
       <c r="B257" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="s">
+    <row r="258" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A258" s="19"/>
+      <c r="B258" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B259" s="2"/>
-    </row>
-    <row r="260" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B260" s="5" t="s">
+    </row>
+    <row r="260" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="262" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="s">
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A261" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B262" s="2"/>
-    </row>
-    <row r="263" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="s">
+    </row>
+    <row r="263" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B265" s="2"/>
-    </row>
-    <row r="266" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B266" s="5" t="s">
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A264" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="268" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="s">
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A267" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B267" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B268" s="2"/>
-    </row>
-    <row r="269" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B269" s="5" t="s">
+    </row>
+    <row r="269" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="271" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="s">
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A270" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B270" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B271" s="2"/>
-    </row>
-    <row r="272" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B272" s="14" t="s">
+    </row>
+    <row r="272" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="274" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="s">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B274" s="2"/>
-    </row>
-    <row r="275" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B275" s="5" t="s">
+    </row>
+    <row r="275" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="276" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="9"/>
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B276" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="s">
+    <row r="277" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A277" s="9"/>
+      <c r="B277" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B278" s="2"/>
-    </row>
-    <row r="279" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B279" s="5" t="s">
+    </row>
+    <row r="279" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="280" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="9"/>
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B280" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="9"/>
       <c r="B281" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="s">
+    <row r="282" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A282" s="9"/>
+      <c r="B282" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B283" s="2"/>
-    </row>
-    <row r="284" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B284" s="5" t="s">
+    </row>
+    <row r="284" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="285" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="9"/>
-      <c r="B285" s="20" t="s">
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A285" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="s">
+    <row r="286" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A286" s="9"/>
+      <c r="B286" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B287" s="2"/>
-    </row>
-    <row r="288" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B288" s="5" t="s">
+    </row>
+    <row r="288" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="290" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="s">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A289" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B289" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B290" s="2"/>
-    </row>
-    <row r="291" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B291" s="15" t="s">
+    </row>
+    <row r="291" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="292" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="9"/>
-      <c r="B292" s="14" t="s">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A292" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B292" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="s">
+    <row r="293" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A293" s="9"/>
+      <c r="B293" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B294" s="2"/>
-    </row>
-    <row r="295" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B295" s="14" t="s">
+    </row>
+    <row r="295" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="297" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="s">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A296" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B297" s="2"/>
-    </row>
-    <row r="298" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B298" s="14" t="s">
+    </row>
+    <row r="298" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="300" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="s">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A299" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B299" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B300" s="2"/>
-    </row>
-    <row r="301" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B301" s="14" t="s">
+    </row>
+    <row r="301" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="303" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="s">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A302" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B302" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B303" s="2"/>
-    </row>
-    <row r="304" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B304" s="14" t="s">
+    </row>
+    <row r="304" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="306" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="s">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A305" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B306" s="2"/>
-    </row>
-    <row r="307" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B307" s="14" t="s">
+    </row>
+    <row r="307" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="309" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="s">
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B308" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B309" s="2"/>
-    </row>
-    <row r="310" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B310" s="14" t="s">
+    </row>
+    <row r="310" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="312" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="s">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B311" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B312" s="2"/>
-    </row>
-    <row r="313" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B313" s="14" t="s">
+    </row>
+    <row r="313" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="314" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="9"/>
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A314" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B314" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="9"/>
       <c r="B315" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="s">
+    <row r="316" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A316" s="9"/>
+      <c r="B316" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B317" s="2"/>
-    </row>
-    <row r="318" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B318" s="14" t="s">
+    </row>
+    <row r="318" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="319" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="9"/>
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A319" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B319" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="s">
+    <row r="320" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A320" s="9"/>
+      <c r="B320" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B321" s="2"/>
-    </row>
-    <row r="322" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B322" s="14" t="s">
+    </row>
+    <row r="322" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="324" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="s">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A323" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B324" s="2"/>
-    </row>
-    <row r="325" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B325" s="14" t="s">
+    </row>
+    <row r="325" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="326" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="19"/>
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A326" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="B326" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="s">
+    <row r="327" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A327" s="19"/>
+      <c r="B327" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B328" s="2"/>
-    </row>
-    <row r="329" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B329" s="20" t="s">
+    </row>
+    <row r="329" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="331" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="s">
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A330" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B331" s="2"/>
-    </row>
-    <row r="332" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B332" s="14" t="s">
+    </row>
+    <row r="332" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="333" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="9"/>
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A333" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B333" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="2" t="s">
+    <row r="334" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A334" s="9"/>
+      <c r="B334" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B335" s="2"/>
-    </row>
-    <row r="336" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B336" s="14" t="s">
+    </row>
+    <row r="336" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="338" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="s">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A337" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B337" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B338" s="2"/>
-    </row>
-    <row r="339" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B339" s="14" t="s">
+    </row>
+    <row r="339" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="341" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2" t="s">
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A340" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B341" s="2"/>
-    </row>
-    <row r="342" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B342" s="20" t="s">
+    </row>
+    <row r="342" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="344" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2" t="s">
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A343" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B344" s="2"/>
-    </row>
-    <row r="345" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B345" s="14" t="s">
+    </row>
+    <row r="345" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="346" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="9"/>
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A346" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B346" s="14" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="9"/>
-      <c r="B347" s="15" t="s">
+      <c r="B347" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="s">
+    <row r="348" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A348" s="9"/>
+      <c r="B348" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B349" s="2"/>
-    </row>
-    <row r="350" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B350" s="14" t="s">
+    </row>
+    <row r="350" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="352" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="s">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A351" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B352" s="2"/>
-    </row>
-    <row r="353" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B353" s="14" t="s">
+    </row>
+    <row r="353" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="354" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="9"/>
-      <c r="B354" s="20" t="s">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A354" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="9"/>
-      <c r="B355" s="14" t="s">
+      <c r="B355" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="s">
+    <row r="356" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A356" s="9"/>
+      <c r="B356" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B357" s="2"/>
-    </row>
-    <row r="358" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B358" s="14" t="s">
+    </row>
+    <row r="358" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="360" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="2" t="s">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B359" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B360" s="2"/>
-    </row>
-    <row r="361" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B361" s="14" t="s">
+    </row>
+    <row r="361" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="363" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="2" t="s">
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A362" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B362" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B363" s="2"/>
-    </row>
-    <row r="364" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B364" s="14" t="s">
+    </row>
+    <row r="364" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="366" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="2" t="s">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B366" s="2"/>
-    </row>
-    <row r="367" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B367" s="14" t="s">
+    </row>
+    <row r="367" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="368" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="9"/>
-      <c r="B368" s="20" t="s">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B368" s="14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="9"/>
       <c r="B369" s="20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="2" t="s">
+    <row r="370" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="9"/>
+      <c r="B370" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B371" s="2"/>
-    </row>
-    <row r="372" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B372" s="14" t="s">
+    </row>
+    <row r="372" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="374" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="2" t="s">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B373" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B374" s="2"/>
-    </row>
-    <row r="375" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B375" s="14" t="s">
+    </row>
+    <row r="375" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="376" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="9"/>
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B376" s="14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="2" t="s">
+    <row r="377" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="9"/>
+      <c r="B377" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B378" s="2"/>
-    </row>
-    <row r="379" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B379" s="14" t="s">
+    </row>
+    <row r="379" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="381" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="2" t="s">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B380" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="B381" s="2"/>
-    </row>
-    <row r="382" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B382" s="14" t="s">
+    </row>
+    <row r="382" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="384" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="2" t="s">
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B383" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B384" s="2"/>
-    </row>
-    <row r="385" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B385" s="5" t="s">
+    </row>
+    <row r="385" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="387" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="2" t="s">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B386" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B387" s="2"/>
-    </row>
-    <row r="388" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B388" s="15" t="s">
+    </row>
+    <row r="388" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="389" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="9"/>
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B389" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A391" s="2" t="s">
+    <row r="390" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="9"/>
+      <c r="B390" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-    </row>
-    <row r="392" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A392" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B392" s="22" t="s">
+    </row>
+    <row r="392" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C392" s="14" t="s">
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+    </row>
+    <row r="393" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B393" s="22" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="393" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="9"/>
-      <c r="B393" s="22"/>
       <c r="C393" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="9"/>
       <c r="B394" s="22"/>
       <c r="C394" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="9"/>
       <c r="B395" s="22"/>
       <c r="C395" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="9"/>
       <c r="B396" s="22"/>
       <c r="C396" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="9"/>
-      <c r="B397" s="23" t="s">
+      <c r="B397" s="22"/>
+      <c r="C397" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C397" s="14" t="s">
+    </row>
+    <row r="398" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="9"/>
+      <c r="B398" s="23" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="398" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="9"/>
-      <c r="B398" s="23"/>
       <c r="C398" s="14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="9"/>
       <c r="B399" s="23"/>
       <c r="C399" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="9"/>
       <c r="B400" s="23"/>
       <c r="C400" s="14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="9"/>
       <c r="B401" s="23"/>
       <c r="C401" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="9"/>
       <c r="B402" s="23"/>
       <c r="C402" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="2" t="s">
+    <row r="403" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="9"/>
+      <c r="B403" s="23"/>
+      <c r="C403" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B404" s="2"/>
-    </row>
-    <row r="405" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B405" s="15" t="s">
+    </row>
+    <row r="405" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A405" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A406" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B406" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="9"/>
-      <c r="B406" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="9"/>
       <c r="B407" s="15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="9"/>
       <c r="B408" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="9"/>
       <c r="B409" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="9"/>
-      <c r="B410" s="20" t="s">
+      <c r="B410" s="15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="9"/>
       <c r="B411" s="20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="9"/>
       <c r="B412" s="20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="2" t="s">
+    <row r="413" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="9"/>
+      <c r="B413" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B414" s="2"/>
-    </row>
-    <row r="415" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B415" s="20" t="s">
+    </row>
+    <row r="415" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="417" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="24" t="s">
+      <c r="B415" s="2"/>
+    </row>
+    <row r="416" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B416" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B417" s="24"/>
-    </row>
-    <row r="418" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="24"/>
+    </row>
+    <row r="418" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="24" t="s">
+        <v>324</v>
+      </c>
       <c r="B418" s="24"/>
     </row>
-    <row r="419" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="24"/>
       <c r="B419" s="24"/>
     </row>
-    <row r="420" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="24"/>
       <c r="B420" s="24"/>
     </row>
-    <row r="421" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B421" s="14" t="s">
+    <row r="421" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A421" s="24"/>
+      <c r="B421" s="24"/>
+    </row>
+    <row r="422" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A422" s="14" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="422" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="15" t="s">
+      <c r="B422" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B422" s="15" t="s">
+    </row>
+    <row r="423" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A423" s="15" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="423" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="14" t="s">
+      <c r="B423" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B423" s="14" t="s">
+    </row>
+    <row r="424" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="14" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="424" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A424" s="14" t="s">
+      <c r="B424" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B424" s="14" t="s">
+    </row>
+    <row r="425" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A425" s="14" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="425" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A425" s="14" t="s">
+      <c r="B425" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B425" s="14" t="s">
+    </row>
+    <row r="426" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A426" s="14" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="426" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A426" s="5" t="s">
+      <c r="B426" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="B426" s="14" t="s">
+    </row>
+    <row r="427" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A427" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="427" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A427" s="5" t="s">
+      <c r="B427" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B427" s="14" t="s">
+    </row>
+    <row r="428" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A428" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="428" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A428" s="20" t="s">
+      <c r="B428" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B428" s="25"/>
-    </row>
-    <row r="429" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="14" t="s">
+    </row>
+    <row r="429" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A429" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="B429" s="14" t="s">
+      <c r="B429" s="25"/>
+    </row>
+    <row r="430" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A430" s="14" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="430" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="14" t="s">
+      <c r="B430" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B430" s="14" t="s">
+    </row>
+    <row r="431" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A431" s="14" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="431" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="14" t="s">
+      <c r="B431" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B431" s="14" t="s">
+    </row>
+    <row r="432" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A432" s="14" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="432" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="14" t="s">
+      <c r="B432" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B432" s="14" t="s">
+    </row>
+    <row r="433" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A433" s="14" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="433" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A433" s="14" t="s">
+      <c r="B433" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B433" s="14" t="s">
+    </row>
+    <row r="434" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A434" s="14" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="434" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A434" s="14" t="s">
+      <c r="B434" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B434" s="14" t="s">
+    </row>
+    <row r="435" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A435" s="14" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="435" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A435" s="14" t="s">
+      <c r="B435" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="B435" s="14" t="s">
+    </row>
+    <row r="436" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A436" s="14" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="436" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A436" s="14" t="s">
+      <c r="B436" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="B436" s="14" t="s">
+    </row>
+    <row r="437" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A437" s="14" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="437" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A437" s="5" t="s">
+      <c r="B437" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B437" s="14" t="s">
+    </row>
+    <row r="438" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A438" s="5" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="438" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A438" s="14" t="s">
+      <c r="B438" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="B438" s="14" t="s">
+    </row>
+    <row r="439" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A439" s="14" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="439" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A439" s="14" t="s">
+      <c r="B439" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B439" s="14" t="s">
+    </row>
+    <row r="440" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A440" s="14" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="440" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A440" s="14" t="s">
+      <c r="B440" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B440" s="14" t="s">
+    </row>
+    <row r="441" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A441" s="14" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="441" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A441" s="14" t="s">
+      <c r="B441" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="B441" s="14" t="s">
+    </row>
+    <row r="442" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A442" s="14" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="442" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="14" t="s">
+      <c r="B442" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B442" s="14" t="s">
+    </row>
+    <row r="443" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A443" s="14" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A443" s="14" t="s">
-        <v>171</v>
       </c>
       <c r="B443" s="14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B444" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B444" s="14" t="s">
+    </row>
+    <row r="445" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A445" s="14" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="445" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A445" s="20" t="s">
+      <c r="B445" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B445" s="25" t="s">
+    </row>
+    <row r="446" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A446" s="20" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="446" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A446" s="20" t="s">
+      <c r="B446" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="B446" s="25" t="s">
+    </row>
+    <row r="447" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A447" s="20" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="448" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="26" t="s">
+      <c r="B447" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="B448" s="15" t="s">
+    </row>
+    <row r="449" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A449" s="26" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="449" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="26"/>
       <c r="B449" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="26"/>
-      <c r="B450" s="27" t="s">
+      <c r="B450" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="26"/>
-      <c r="B451" s="20" t="s">
+      <c r="B451" s="27" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="28" t="s">
+    <row r="452" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A452" s="26"/>
+      <c r="B452" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B453" s="20" t="s">
+    </row>
+    <row r="454" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A454" s="28" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="454" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="28"/>
       <c r="B454" s="20" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="28"/>
       <c r="B455" s="20" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="28"/>
       <c r="B456" s="20" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="28"/>
       <c r="B457" s="20" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="28"/>
       <c r="B458" s="20" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="28"/>
       <c r="B459" s="20" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="28"/>
       <c r="B460" s="20" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="28"/>
       <c r="B461" s="20" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="28"/>
-      <c r="B462" s="12" t="s">
+      <c r="B462" s="20" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="28"/>
-      <c r="B463" s="15" t="s">
+      <c r="B463" s="12" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="28"/>
-      <c r="B464" s="20" t="s">
+      <c r="B464" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="28"/>
-      <c r="B465" s="12" t="s">
+      <c r="B465" s="20" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="28"/>
-      <c r="B466" s="15" t="s">
+      <c r="B466" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="28"/>
       <c r="B467" s="15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="28"/>
       <c r="B468" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="28"/>
-      <c r="B469" s="21" t="s">
+      <c r="B469" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C469" s="21" t="s">
+    </row>
+    <row r="470" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A470" s="28"/>
+      <c r="B470" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="D469" s="21" t="s">
+    </row>
+    <row r="471" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A471" s="28"/>
+      <c r="B471" s="20" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A470" s="28"/>
-      <c r="B470" s="21"/>
-      <c r="C470" s="21"/>
-      <c r="D470" s="15" t="s">
+    <row r="472" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A472" s="28"/>
+      <c r="B472" s="20" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A471" s="28"/>
-      <c r="B471" s="21"/>
-      <c r="C471" s="21"/>
-      <c r="D471" s="14" t="s">
+    <row r="473" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A473" s="28"/>
+      <c r="B473" s="20" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A472" s="28"/>
-      <c r="B472" s="21"/>
-      <c r="C472" s="21" t="s">
+    <row r="476" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A476" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D472" s="20" t="s">
+      <c r="B476" s="4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="473" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A473" s="28"/>
-      <c r="B473" s="21"/>
-      <c r="C473" s="21"/>
-      <c r="D473" s="20" t="s">
+      <c r="C476" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D476" s="30" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A474" s="28"/>
-      <c r="B474" s="21"/>
-      <c r="C474" s="21"/>
-      <c r="D474" s="20" t="s">
+    <row r="477" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A477" s="31" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="475" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A475" s="28"/>
-      <c r="B475" s="21"/>
-      <c r="C475" s="21"/>
-      <c r="D475" s="20" t="s">
+      <c r="B477" s="32" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="476" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A476" s="28"/>
-      <c r="B476" s="21"/>
-      <c r="C476" s="21"/>
-      <c r="D476" s="20" t="s">
+      <c r="C477" s="33" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="477" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A477" s="28"/>
-      <c r="B477" s="21"/>
-      <c r="C477" s="21"/>
-      <c r="D477" s="20" t="s">
+      <c r="D477" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A478" s="31" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="478" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="28"/>
-      <c r="B478" s="21"/>
-      <c r="C478" s="21"/>
-      <c r="D478" s="29" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A479" s="28"/>
-      <c r="B479" s="21"/>
-      <c r="C479" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D479" s="21" t="s">
+      <c r="B478" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C478" s="33" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="480" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A480" s="28"/>
-      <c r="B480" s="21"/>
-      <c r="C480" s="21"/>
-      <c r="D480" s="20" t="s">
+      <c r="D478" s="34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B479" s="32" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="481" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A481" s="28"/>
-      <c r="B481" s="21"/>
-      <c r="C481" s="21"/>
-      <c r="D481" s="20" t="s">
+      <c r="C479" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="D479" s="34" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B480" s="32" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="482" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A482" s="28"/>
-      <c r="B482" s="21"/>
-      <c r="C482" s="21"/>
-      <c r="D482" s="20" t="s">
+      <c r="C480" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="D480" s="34" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B481" s="32" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="483" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A483" s="28"/>
-      <c r="B483" s="21"/>
-      <c r="C483" s="21"/>
-      <c r="D483" s="15" t="s">
+      <c r="C481" s="33" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="484" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A484" s="28"/>
-      <c r="B484" s="21"/>
-      <c r="C484" s="21"/>
-      <c r="D484" s="20" t="s">
+      <c r="D481" s="34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B482" s="32" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="485" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A485" s="28"/>
-      <c r="B485" s="21"/>
-      <c r="C485" s="21"/>
-      <c r="D485" s="20" t="s">
+      <c r="C482" s="33" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="486" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A486" s="28"/>
-      <c r="B486" s="21"/>
-      <c r="C486" s="21"/>
-      <c r="D486" s="20" t="s">
+      <c r="D482" s="34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B483" s="32" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="487" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A487" s="28"/>
-      <c r="B487" s="21"/>
-      <c r="C487" s="21"/>
-      <c r="D487" s="20" t="s">
+      <c r="C483" s="33" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="488" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A488" s="28"/>
-      <c r="B488" s="21"/>
-      <c r="C488" s="21"/>
-      <c r="D488" s="20" t="s">
+      <c r="D483" s="34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C484" s="33" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="489" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A489" s="28"/>
-      <c r="B489" s="21"/>
-      <c r="C489" s="21"/>
-      <c r="D489" s="29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A490" s="28"/>
-      <c r="B490" s="21"/>
-      <c r="C490" s="21" t="s">
+      <c r="D484" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="D490" s="20" t="s">
+    </row>
+    <row r="485" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C485" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D485" s="34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C486" s="33" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="491" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A491" s="28"/>
-      <c r="B491" s="21"/>
-      <c r="C491" s="21"/>
-      <c r="D491" s="20" t="s">
+      <c r="D486" s="34" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C487" s="33" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="492" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A492" s="28"/>
-      <c r="B492" s="21"/>
-      <c r="C492" s="21"/>
-      <c r="D492" s="20" t="s">
+      <c r="D487" s="34" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A493" s="28"/>
-      <c r="B493" s="21"/>
-      <c r="C493" s="21"/>
-      <c r="D493" s="20" t="s">
+    <row r="488" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C488" s="33" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="494" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A494" s="28"/>
-      <c r="B494" s="21"/>
-      <c r="C494" s="21"/>
-      <c r="D494" s="5" t="s">
+      <c r="D488" s="34" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C489" s="33" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="495" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A495" s="28"/>
-      <c r="B495" s="21"/>
-      <c r="C495" s="21"/>
-      <c r="D495" s="20" t="s">
+      <c r="D489" s="34" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A496" s="28"/>
-      <c r="B496" s="21"/>
-      <c r="C496" s="21"/>
-      <c r="D496" s="5" t="s">
+    <row r="490" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C490" s="33" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="497" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A497" s="28"/>
-      <c r="B497" s="21"/>
-      <c r="C497" s="21"/>
-      <c r="D497" s="30" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A498" s="28"/>
-      <c r="B498" s="20" t="s">
+      <c r="D490" s="34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D491" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A499" s="28"/>
-      <c r="B499" s="20" t="s">
+    <row r="492" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D492" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D493" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A500" s="28"/>
-      <c r="B500" s="20" t="s">
+    <row r="494" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D494" s="6" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A501" s="28"/>
-      <c r="B501" s="20" t="s">
+    <row r="499" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C499" s="26" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A504" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="B504" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="C504" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="D504" s="34" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A505" s="35" t="s">
+    <row r="500" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C500" s="26"/>
+    </row>
+    <row r="501" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C501" s="26"/>
+    </row>
+    <row r="502" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A502" s="35" t="s">
         <v>430</v>
       </c>
+      <c r="B502" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C502" s="36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A503" s="35"/>
+      <c r="B503" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="C503" s="36" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A504" s="35"/>
+      <c r="B504" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C504" s="15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A505" s="35"/>
       <c r="B505" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="C505" s="37" t="s">
-        <v>432</v>
-      </c>
-      <c r="D505" s="38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="506" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A506" s="35" t="s">
-        <v>433</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C505" s="36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A506" s="35"/>
       <c r="B506" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="C506" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="D506" s="38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A507" s="39"/>
+        <v>439</v>
+      </c>
+      <c r="C506" s="36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A507" s="35"/>
       <c r="B507" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="C507" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="D507" s="38" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A508" s="39"/>
+        <v>441</v>
+      </c>
+      <c r="C507" s="36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A508" s="35"/>
       <c r="B508" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="C508" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="D508" s="38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A509" s="39"/>
+        <v>443</v>
+      </c>
+      <c r="C508" s="36" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A509" s="35"/>
       <c r="B509" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="C509" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="D509" s="38" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A510" s="39"/>
+        <v>445</v>
+      </c>
+      <c r="C509" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A510" s="35"/>
       <c r="B510" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="C510" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="D510" s="38" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A511" s="39"/>
-      <c r="B511" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="C511" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="D511" s="38" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="512" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A512" s="39"/>
-      <c r="B512" s="39"/>
-      <c r="C512" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="D512" s="38" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="513" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A513" s="39"/>
-      <c r="B513" s="39"/>
-      <c r="C513" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="D513" s="38" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="514" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A514" s="39"/>
-      <c r="B514" s="39"/>
-      <c r="C514" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="D514" s="38" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A515" s="39"/>
-      <c r="B515" s="39"/>
-      <c r="C515" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="D515" s="38" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="516" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A516" s="39"/>
-      <c r="B516" s="39"/>
-      <c r="C516" s="37" t="s">
+      <c r="C510" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="D516" s="38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="517" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A517" s="39"/>
-      <c r="B517" s="39"/>
-      <c r="C517" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="D517" s="38" t="s">
+    </row>
+    <row r="511" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A511" s="35"/>
+      <c r="B511" s="15" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="518" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A518" s="39"/>
-      <c r="B518" s="39"/>
-      <c r="C518" s="37" t="s">
+      <c r="C511" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="D518" s="38" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="54.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="39"/>
-      <c r="B519" s="39"/>
-      <c r="C519" s="39"/>
-      <c r="D519" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A520" s="39"/>
-      <c r="B520" s="39"/>
-      <c r="C520" s="39"/>
-      <c r="D520" s="40" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="521" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A521" s="39"/>
-      <c r="B521" s="39"/>
-      <c r="C521" s="39"/>
-      <c r="D521" s="40" t="s">
+    </row>
+    <row r="512" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A512" s="35"/>
+      <c r="B512" s="36" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="522" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A522" s="39"/>
-      <c r="B522" s="39"/>
-      <c r="C522" s="39"/>
-      <c r="D522" s="40" t="s">
+      <c r="C512" s="36" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A523" s="39"/>
-      <c r="B523" s="39"/>
-    </row>
-    <row r="524" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A524" s="39"/>
-      <c r="B524" s="39"/>
-    </row>
-    <row r="525" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A525" s="39"/>
-      <c r="B525" s="39"/>
-      <c r="C525" s="39"/>
-      <c r="D525" s="39"/>
-    </row>
-    <row r="526" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A526" s="39"/>
-      <c r="B526" s="39"/>
-      <c r="C526" s="39"/>
-      <c r="D526" s="39"/>
-    </row>
-    <row r="527" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A527" s="39"/>
-      <c r="B527" s="39"/>
-      <c r="C527" s="26" t="s">
+    <row r="513" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A513" s="35"/>
+      <c r="B513" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="D527" s="39"/>
-    </row>
-    <row r="528" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A528" s="39"/>
-      <c r="B528" s="39"/>
-      <c r="C528" s="26"/>
-      <c r="D528" s="39"/>
-    </row>
-    <row r="529" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A529" s="39"/>
-      <c r="B529" s="39"/>
-      <c r="C529" s="26"/>
-      <c r="D529" s="39"/>
-    </row>
-    <row r="530" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A530" s="41" t="s">
+      <c r="C513" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="B530" s="42" t="s">
+    </row>
+    <row r="514" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A514" s="35"/>
+      <c r="B514" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="C530" s="42" t="s">
+      <c r="C514" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="D530" s="39"/>
-    </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="41"/>
-      <c r="B531" s="42" t="s">
+    </row>
+    <row r="515" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A515" s="35"/>
+      <c r="B515" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="C531" s="43" t="s">
+      <c r="C515" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="D531" s="39"/>
-    </row>
-    <row r="532" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A532" s="41"/>
-      <c r="B532" s="15" t="s">
+    </row>
+    <row r="516" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A516" s="35"/>
+      <c r="B516" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="C532" s="15" t="s">
+      <c r="C516" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="D532" s="39"/>
-    </row>
-    <row r="533" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A533" s="41"/>
-      <c r="B533" s="15" t="s">
+    </row>
+    <row r="517" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A517" s="35"/>
+      <c r="B517" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="C533" s="15" t="s">
+      <c r="C517" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="D533" s="39"/>
-    </row>
-    <row r="534" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A534" s="41"/>
-      <c r="B534" s="43" t="s">
+    </row>
+    <row r="518" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A518" s="35"/>
+      <c r="B518" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="C534" s="43" t="s">
+      <c r="C518" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="D534" s="39"/>
-    </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="41"/>
-      <c r="B535" s="43" t="s">
+    </row>
+    <row r="519" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A519" s="35"/>
+      <c r="B519" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C535" s="43" t="s">
+      <c r="C519" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="D535" s="39"/>
-    </row>
-    <row r="536" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A536" s="41"/>
-      <c r="B536" s="15" t="s">
+    </row>
+    <row r="520" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A520" s="35"/>
+      <c r="B520" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="C536" s="15" t="s">
+      <c r="C520" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="D536" s="39"/>
-    </row>
-    <row r="537" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A537" s="41"/>
-      <c r="B537" s="15" t="s">
+    </row>
+    <row r="521" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A521" s="35"/>
+      <c r="B521" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="C537" s="15" t="s">
+      <c r="C521" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="D537" s="39"/>
-    </row>
-    <row r="538" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A538" s="41"/>
-      <c r="B538" s="15" t="s">
+    </row>
+    <row r="522" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A522" s="35"/>
+      <c r="B522" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="C538" s="15" t="s">
+      <c r="C522" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="D538" s="39"/>
-    </row>
-    <row r="539" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A539" s="41"/>
-      <c r="B539" s="15" t="s">
+    </row>
+    <row r="523" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A523" s="35"/>
+      <c r="B523" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="C539" s="15" t="s">
+      <c r="C523" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="D539" s="39"/>
-    </row>
-    <row r="540" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A540" s="41"/>
-      <c r="B540" s="43" t="s">
+    </row>
+    <row r="524" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A524" s="35"/>
+      <c r="B524" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="C540" s="43" t="s">
+      <c r="C524" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="D540" s="39"/>
-    </row>
-    <row r="541" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A541" s="41"/>
-      <c r="B541" s="43" t="s">
+    </row>
+    <row r="529" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A529" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="C541" s="43" t="s">
+      <c r="B529" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="D541" s="39"/>
-    </row>
-    <row r="542" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="41"/>
-      <c r="B542" s="15" t="s">
+      <c r="C529" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="C542" s="15" t="s">
+    </row>
+    <row r="530" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A530" s="26"/>
+      <c r="B530" s="15"/>
+      <c r="C530" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="D542" s="39"/>
-    </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="41"/>
-      <c r="B543" s="15" t="s">
+    </row>
+    <row r="531" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A531" s="26"/>
+      <c r="B531" s="15"/>
+      <c r="C531" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="C543" s="15" t="s">
+    </row>
+    <row r="532" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A532" s="26"/>
+      <c r="B532" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="D543" s="39"/>
-    </row>
-    <row r="544" customFormat="false" ht="23.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="41"/>
-      <c r="B544" s="15" t="s">
+      <c r="C532" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="C544" s="15" t="s">
+    </row>
+    <row r="533" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A533" s="26"/>
+      <c r="B533" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="D544" s="39"/>
-    </row>
-    <row r="545" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="41"/>
-      <c r="B545" s="15" t="s">
+      <c r="C533" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="C545" s="15" t="s">
+    </row>
+    <row r="534" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="26"/>
+      <c r="B534" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="D545" s="39"/>
-    </row>
-    <row r="546" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="41"/>
-      <c r="B546" s="15" t="s">
+      <c r="C534" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="C546" s="15" t="s">
+    </row>
+    <row r="535" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A535" s="26"/>
+      <c r="B535" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="D546" s="39"/>
-    </row>
-    <row r="547" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="41"/>
-      <c r="B547" s="15" t="s">
+      <c r="C535" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="C547" s="15" t="s">
+    </row>
+    <row r="536" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="26"/>
+      <c r="B536" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="D547" s="39"/>
-    </row>
-    <row r="548" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="41"/>
-      <c r="B548" s="15" t="s">
+      <c r="C536" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="C548" s="44" t="s">
+    </row>
+    <row r="537" customFormat="false" ht="36.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A537" s="26"/>
+      <c r="B537" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="D548" s="39"/>
-    </row>
-    <row r="549" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="41"/>
+      <c r="C537" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A538" s="26"/>
+      <c r="B538" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="C538" s="37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A539" s="26"/>
+      <c r="B539" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="C539" s="37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A540" s="26"/>
+      <c r="B540" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="C540" s="20" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A541" s="26"/>
+      <c r="B541" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C541" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A542" s="26"/>
+      <c r="B542" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C542" s="20" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A543" s="26"/>
+      <c r="B543" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="C543" s="20" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A544" s="26"/>
+      <c r="B544" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C544" s="20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A545" s="26"/>
+      <c r="B545" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="C545" s="37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A546" s="26"/>
+      <c r="B546" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="C546" s="20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A547" s="26"/>
+      <c r="B547" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="C547" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="26"/>
+      <c r="B548" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C548" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="26"/>
       <c r="B549" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="C549" s="45" t="s">
-        <v>494</v>
-      </c>
-      <c r="D549" s="39"/>
-    </row>
-    <row r="550" customFormat="false" ht="36.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="41"/>
+        <v>515</v>
+      </c>
+      <c r="C549" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="26"/>
       <c r="B550" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="C550" s="45" t="s">
-        <v>496</v>
-      </c>
-      <c r="D550" s="39"/>
-    </row>
-    <row r="551" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="41"/>
-      <c r="B551" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="C551" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="D551" s="39"/>
-    </row>
-    <row r="552" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="41"/>
-      <c r="B552" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="C552" s="44" t="s">
-        <v>500</v>
-      </c>
-      <c r="D552" s="39"/>
-    </row>
-    <row r="553" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C553" s="39"/>
-      <c r="D553" s="39"/>
-    </row>
-    <row r="554" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A554" s="39"/>
-      <c r="C554" s="39"/>
-      <c r="D554" s="39"/>
-    </row>
-    <row r="555" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A555" s="39"/>
-      <c r="C555" s="39"/>
-      <c r="D555" s="39"/>
-    </row>
-    <row r="556" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A556" s="39"/>
-      <c r="C556" s="39"/>
-      <c r="D556" s="39"/>
-    </row>
-    <row r="557" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A557" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="B557" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="C557" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="D557" s="39"/>
-    </row>
-    <row r="558" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A558" s="26"/>
-      <c r="B558" s="15"/>
-      <c r="C558" s="46" t="s">
-        <v>504</v>
-      </c>
-      <c r="D558" s="39"/>
-    </row>
-    <row r="559" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A559" s="26"/>
-      <c r="B559" s="15"/>
-      <c r="C559" s="46" t="s">
-        <v>505</v>
-      </c>
-      <c r="D559" s="39"/>
-    </row>
-    <row r="560" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A560" s="26"/>
-      <c r="B560" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C560" s="39"/>
-      <c r="D560" s="39"/>
-    </row>
-    <row r="561" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A561" s="26"/>
-      <c r="B561" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C561" s="39"/>
-      <c r="D561" s="39"/>
-    </row>
-    <row r="562" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="26"/>
-      <c r="B562" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="C562" s="39"/>
-      <c r="D562" s="39"/>
-    </row>
-    <row r="563" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A563" s="26"/>
-      <c r="B563" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="C563" s="39"/>
-      <c r="D563" s="39"/>
-    </row>
-    <row r="564" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A564" s="26"/>
-      <c r="B564" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C564" s="39"/>
-      <c r="D564" s="39"/>
-    </row>
-    <row r="565" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A565" s="26"/>
-      <c r="B565" s="47" t="s">
-        <v>511</v>
-      </c>
-      <c r="C565" s="39"/>
-      <c r="D565" s="39"/>
-    </row>
-    <row r="566" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A566" s="26"/>
-      <c r="B566" s="47" t="s">
-        <v>512</v>
-      </c>
-      <c r="C566" s="39"/>
-      <c r="D566" s="39"/>
-    </row>
-    <row r="567" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A567" s="26"/>
-      <c r="B567" s="47" t="s">
-        <v>513</v>
-      </c>
-      <c r="C567" s="39"/>
-      <c r="D567" s="39"/>
-    </row>
-    <row r="568" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A568" s="26"/>
-      <c r="B568" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="C568" s="39"/>
-      <c r="D568" s="39"/>
-    </row>
-    <row r="569" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A569" s="26"/>
-      <c r="B569" s="47" t="s">
-        <v>515</v>
-      </c>
-      <c r="C569" s="39"/>
-      <c r="D569" s="39"/>
-    </row>
-    <row r="570" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A570" s="26"/>
-      <c r="B570" s="47" t="s">
-        <v>516</v>
-      </c>
-      <c r="C570" s="39"/>
-      <c r="D570" s="39"/>
-    </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="26"/>
-      <c r="B571" s="47" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="26"/>
-      <c r="B572" s="47" t="s">
+      <c r="C550" s="20" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="26"/>
-      <c r="B573" s="47" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="26"/>
-      <c r="B574" s="47" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="26"/>
-      <c r="B575" s="47" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="26"/>
-      <c r="B576" s="47" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="26"/>
-      <c r="B577" s="47" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="26"/>
-      <c r="B578" s="47" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="48"/>
-      <c r="B579" s="39"/>
-    </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="49"/>
-      <c r="B580" s="39"/>
-    </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="49"/>
-      <c r="B581" s="39"/>
-    </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B582" s="39"/>
-    </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B583" s="39"/>
-    </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B584" s="39"/>
-    </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B585" s="39"/>
-    </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B586" s="39"/>
-    </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B587" s="39"/>
+    <row r="551" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="38"/>
+    </row>
+    <row r="552" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A552" s="39"/>
+    </row>
+    <row r="553" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A553" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="153">
+  <mergeCells count="148">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B6"/>
@@ -5721,80 +5341,75 @@
     <mergeCell ref="A240:A241"/>
     <mergeCell ref="A243:B243"/>
     <mergeCell ref="A244:A246"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:A281"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A291:A292"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A313:A315"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A332:A333"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="A345:A346"/>
-    <mergeCell ref="A349:B349"/>
-    <mergeCell ref="A352:B352"/>
-    <mergeCell ref="A353:A355"/>
-    <mergeCell ref="A357:B357"/>
-    <mergeCell ref="A360:B360"/>
-    <mergeCell ref="A363:B363"/>
-    <mergeCell ref="A366:B366"/>
-    <mergeCell ref="A367:A369"/>
-    <mergeCell ref="A371:B371"/>
-    <mergeCell ref="A374:B374"/>
-    <mergeCell ref="A375:A376"/>
-    <mergeCell ref="A378:B378"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="A387:B387"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A392:A402"/>
-    <mergeCell ref="B392:B396"/>
-    <mergeCell ref="B397:B402"/>
-    <mergeCell ref="A404:B404"/>
-    <mergeCell ref="A405:A412"/>
-    <mergeCell ref="A414:B414"/>
-    <mergeCell ref="A417:B420"/>
-    <mergeCell ref="A448:A451"/>
-    <mergeCell ref="A453:A501"/>
-    <mergeCell ref="B469:B497"/>
-    <mergeCell ref="C469:C471"/>
-    <mergeCell ref="C472:C478"/>
-    <mergeCell ref="C479:C489"/>
-    <mergeCell ref="C490:C497"/>
-    <mergeCell ref="C527:C529"/>
-    <mergeCell ref="A530:A552"/>
-    <mergeCell ref="A557:A578"/>
-    <mergeCell ref="B557:B559"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A254:A258"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A280:A282"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="A314:A316"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A333:A334"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A354:A356"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A361:B361"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A367:B367"/>
+    <mergeCell ref="A368:A370"/>
+    <mergeCell ref="A372:B372"/>
+    <mergeCell ref="A375:B375"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="A379:B379"/>
+    <mergeCell ref="A382:B382"/>
+    <mergeCell ref="A385:B385"/>
+    <mergeCell ref="A388:B388"/>
+    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A393:A403"/>
+    <mergeCell ref="B393:B397"/>
+    <mergeCell ref="B398:B403"/>
+    <mergeCell ref="A405:B405"/>
+    <mergeCell ref="A406:A413"/>
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A418:B421"/>
+    <mergeCell ref="A449:A452"/>
+    <mergeCell ref="A454:A473"/>
+    <mergeCell ref="C499:C501"/>
+    <mergeCell ref="A502:A524"/>
+    <mergeCell ref="A529:A550"/>
+    <mergeCell ref="B529:B531"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="534">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -880,12 +880,6 @@
     <t xml:space="preserve">Build and test applications</t>
   </si>
   <si>
-    <t xml:space="preserve">Buildspec file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artifact (build's output)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CodeDeploy</t>
   </si>
   <si>
@@ -928,6 +922,9 @@
     <t xml:space="preserve">Recommends improvements (ex: using a different instance type, change instance settings)</t>
   </si>
   <si>
+    <t xml:space="preserve">Compute optimizer offers recommendations only for EC2, Lambda functions, EBS volumes and Auto-scaling groups</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cloud Adoption Framework (CAF)</t>
   </si>
   <si>
@@ -991,7 +988,7 @@
     <t xml:space="preserve">AWS Managed Services</t>
   </si>
   <si>
-    <t xml:space="preserve">AWS Support for ongoing projects</t>
+    <t xml:space="preserve">AWS  ongoing support for projects</t>
   </si>
   <si>
     <t xml:space="preserve">Other important themes</t>
@@ -1054,7 +1051,7 @@
     <t xml:space="preserve">Check your monthly sprends and expected monthly bill based on your usage</t>
   </si>
   <si>
-    <t xml:space="preserve">AWS Health Dashboard</t>
+    <t xml:space="preserve">AWS Personal Health Dashboard</t>
   </si>
   <si>
     <t xml:space="preserve">Check your services health</t>
@@ -1159,7 +1156,7 @@
     <t xml:space="preserve">Read THE WHOLE QUESTION!!</t>
   </si>
   <si>
-    <t xml:space="preserve">Instance connect, session manager and SSH</t>
+    <t xml:space="preserve">SSH é padrão, Instance Connect é usado para gerenciar conexão SSH com usuários IAM, retirando a necessidade de compartilhar chaves e usando um browser-based client, e o Session Manager usa HTTPS</t>
   </si>
   <si>
     <t xml:space="preserve">Cloud concepts on their PDF that I hadn’t studied</t>
@@ -1390,7 +1387,7 @@
     <t xml:space="preserve">Q30 - RDS feature Multi-AZ Deployment with automatic failover</t>
   </si>
   <si>
-    <t xml:space="preserve">This feature allows us to deploy our RDS DB to multiple regions and use it in case of failover</t>
+    <t xml:space="preserve">Multi-AZ deployment protects agains AZ failing, and mainly focuses on high availability. Multi-Region deployment focuses on disaster recovery, and read-replicas focuses on scalability, used for DBs that have a lot of read, but not so many writes. </t>
   </si>
   <si>
     <t xml:space="preserve">Q31 - Credits applied order</t>
@@ -1432,7 +1429,7 @@
     <t xml:space="preserve">Q53 - Data transfer cost</t>
   </si>
   <si>
-    <t xml:space="preserve">No cost for the same region transfer.</t>
+    <t xml:space="preserve">No cost for the same region transfer. Outbound data transfer is one of the main leads of on-AWS expenses</t>
   </si>
   <si>
     <t xml:space="preserve">Q56 - Shield standard and advanced</t>
@@ -1471,9 +1468,6 @@
     <t xml:space="preserve">Q9 – Which AWS services does Compute Optimizer provides recommendations for</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute optimizer offers recommendations only for EC2, Lambda functions, EBS volumes and Auto-scaling groups</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q12 – Amazon MQ</t>
   </si>
   <si>
@@ -1489,9 +1483,6 @@
     <t xml:space="preserve">Q18 – Make clear difference between SSH, Instance Connect and Session Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">SSH é padrão, Instance Connect é usado para gerenciar conexão SSH com usuários IAM, retirando a necessidade de compartilhar chaves, e o Session Manager é para…</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q24 – Data-transfer charges</t>
   </si>
   <si>
@@ -1507,12 +1498,15 @@
     <t xml:space="preserve">Q26 – Improve your understanding on Global Accelerator</t>
   </si>
   <si>
-    <t xml:space="preserve">Pendente. Revisar</t>
+    <t xml:space="preserve">Global Accelerator creates a fix-ip owned by AWS where you can point your applications to and get a faster connection to cloud resources, regardless of your geographical location</t>
   </si>
   <si>
     <t xml:space="preserve">Q28 – Services used to prevent DDOS attacks</t>
   </si>
   <si>
+    <t xml:space="preserve">Shield, WAF and CloudFront with Route53</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q30 – How CloudHSM works</t>
   </si>
   <si>
@@ -1546,9 +1540,6 @@
     <t xml:space="preserve">Q47 – RDS Multi-AZ deployment check</t>
   </si>
   <si>
-    <t xml:space="preserve">Review the difference between Multi-AZ, Multi-Region and Read Replica deployment for RDS: Q47</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q52 – READ THE FOCKEN QUESHANNNNN</t>
   </si>
   <si>
@@ -1573,10 +1564,64 @@
     <t xml:space="preserve">Fsx is focused on Windows file systems, and uses SSD technology. FSX lustre is for high performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Q63 – Read again!!</t>
+    <t xml:space="preserve">Q63 – Lightsail has a monthly billing!</t>
   </si>
   <si>
     <t xml:space="preserve">Lightsail = Monthly billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erros do simulado 4 (MAREEK 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 – Understand better S3 Transfer Acceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 – AWS Device Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6 – Amazon Translate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7 – Reserved Instances on Organizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10 – CloudWatch and SNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q11 – Review Regions and Azs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18 – Remember AWS Shield Advanced supported products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q19 – Global accelerator is a good case for non-http use-cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q24 – Other services can also choose the instance type, such as RDS with reserved instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q36 – S3 Replication and other features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q37 – Only S3 Standard and Intelligent tiering don’t charge data retrival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q41 – Reserved Instances on Organizations and its shareable capabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q42 – Trusted advisor pillars and more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q48 – Credentials Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q49 – S3 is key-value with tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q55 – EC2 Instance user data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q60 – U2F security key</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1662,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1687,13 +1732,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFC9211E"/>
+        <bgColor rgb="FFA7074B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E905"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF069A2E"/>
+        <bgColor rgb="FF00A933"/>
       </patternFill>
     </fill>
     <fill>
@@ -1705,19 +1756,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5429"/>
-        <bgColor rgb="FFC9211E"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA7074B"/>
         <bgColor rgb="FF800080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9211E"/>
-        <bgColor rgb="FFA7074B"/>
       </patternFill>
     </fill>
     <fill>
@@ -1740,6 +1785,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5CA9FB"/>
+        <bgColor rgb="FF38B4ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBF9000"/>
         <bgColor rgb="FF99CC00"/>
       </patternFill>
@@ -1753,31 +1804,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF9DC3E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFF4B183"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3FAF46"/>
         <bgColor rgb="FF00B050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5CA9FB"/>
-        <bgColor rgb="FF38B4ED"/>
       </patternFill>
     </fill>
   </fills>
@@ -1857,7 +1890,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1954,11 +1987,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1978,11 +2015,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1994,7 +2031,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2002,19 +2043,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2038,7 +2067,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF069A2E"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF548235"/>
       <rgbColor rgb="FFA7074B"/>
@@ -2050,7 +2079,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF611729"/>
-      <rgbColor rgb="FFF4B183"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -2059,16 +2088,16 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF9DC3E6"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FFF4B183"/>
       <rgbColor rgb="FF2E75B6"/>
       <rgbColor rgb="FF38B4ED"/>
       <rgbColor rgb="FF99CC00"/>
@@ -2081,7 +2110,7 @@
       <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333F50"/>
@@ -2095,10 +2124,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D553"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B486" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B507" activeCellId="0" sqref="B507"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A547" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B568" activeCellId="0" sqref="B568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="20.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3650,7 +3679,7 @@
       <c r="A292" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B292" s="15" t="s">
+      <c r="B292" s="22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4022,461 +4051,463 @@
         <v>285</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="9"/>
-      <c r="B369" s="20" t="s">
+    <row r="370" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="370" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="9"/>
-      <c r="B370" s="20" t="s">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B371" s="14" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="2" t="s">
+    <row r="373" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B372" s="2"/>
-    </row>
-    <row r="373" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B374" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="2" t="s">
+      <c r="A375" s="9"/>
+      <c r="B375" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B375" s="2"/>
-    </row>
-    <row r="376" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B376" s="14" t="s">
+    </row>
+    <row r="377" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="377" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="9"/>
-      <c r="B377" s="14" t="s">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B378" s="14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="2" t="s">
+    <row r="380" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B379" s="2"/>
-    </row>
-    <row r="380" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B380" s="14" t="s">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="2" t="s">
+    <row r="383" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B382" s="2"/>
-    </row>
-    <row r="383" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B384" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="2" t="s">
+    <row r="386" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B385" s="2"/>
-    </row>
-    <row r="386" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B386" s="5" t="s">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B387" s="15" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="9"/>
+      <c r="B388" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B388" s="2"/>
-    </row>
-    <row r="389" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B389" s="15" t="s">
+    </row>
+    <row r="389" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="9"/>
+      <c r="B389" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="9"/>
-      <c r="B390" s="15" t="s">
+    <row r="391" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A392" s="2" t="s">
+      <c r="A392" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B392" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
+      <c r="C392" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="393" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B393" s="22" t="s">
-        <v>303</v>
-      </c>
+      <c r="A393" s="9"/>
+      <c r="B393" s="23"/>
       <c r="C393" s="14" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="9"/>
-      <c r="B394" s="22"/>
+      <c r="B394" s="23"/>
       <c r="C394" s="14" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="9"/>
-      <c r="B395" s="22"/>
+      <c r="B395" s="23"/>
       <c r="C395" s="14" t="s">
-        <v>306</v>
+        <v>141</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="9"/>
-      <c r="B396" s="22"/>
+      <c r="B396" s="23"/>
       <c r="C396" s="14" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="9"/>
-      <c r="B397" s="22"/>
+      <c r="B397" s="24" t="s">
+        <v>307</v>
+      </c>
       <c r="C397" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="9"/>
-      <c r="B398" s="23" t="s">
-        <v>308</v>
-      </c>
+      <c r="B398" s="24"/>
       <c r="C398" s="14" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="9"/>
-      <c r="B399" s="23"/>
+      <c r="B399" s="24"/>
       <c r="C399" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="9"/>
-      <c r="B400" s="23"/>
+      <c r="B400" s="24"/>
       <c r="C400" s="14" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="9"/>
-      <c r="B401" s="23"/>
+      <c r="B401" s="24"/>
       <c r="C401" s="14" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="9"/>
-      <c r="B402" s="23"/>
+      <c r="B402" s="24"/>
       <c r="C402" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="9"/>
-      <c r="B403" s="23"/>
-      <c r="C403" s="14" t="s">
+    <row r="404" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A404" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="B404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B405" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A406" s="9"/>
+      <c r="B406" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="B405" s="2"/>
-    </row>
-    <row r="406" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B406" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="9"/>
-      <c r="B407" s="15" t="s">
+      <c r="B407" s="22" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="9"/>
-      <c r="B408" s="15" t="s">
-        <v>317</v>
+      <c r="B408" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="9"/>
-      <c r="B409" s="15" t="s">
-        <v>141</v>
+      <c r="B409" s="22" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="9"/>
-      <c r="B410" s="15" t="s">
+      <c r="B410" s="22" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="9"/>
-      <c r="B411" s="20" t="s">
+      <c r="B411" s="22" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="9"/>
-      <c r="B412" s="20" t="s">
+      <c r="B412" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="9"/>
-      <c r="B413" s="20" t="s">
+    <row r="414" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="B414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B415" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B415" s="2"/>
-    </row>
-    <row r="416" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A416" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B416" s="20" t="s">
+    </row>
+    <row r="417" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="25" t="s">
         <v>323</v>
       </c>
+      <c r="B417" s="25"/>
     </row>
     <row r="418" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="24" t="s">
+      <c r="A418" s="25"/>
+      <c r="B418" s="25"/>
+    </row>
+    <row r="419" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A419" s="25"/>
+      <c r="B419" s="25"/>
+    </row>
+    <row r="420" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="25"/>
+      <c r="B420" s="25"/>
+    </row>
+    <row r="421" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A421" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="B418" s="24"/>
-    </row>
-    <row r="419" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A419" s="24"/>
-      <c r="B419" s="24"/>
-    </row>
-    <row r="420" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="24"/>
-      <c r="B420" s="24"/>
-    </row>
-    <row r="421" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="24"/>
-      <c r="B421" s="24"/>
+      <c r="B421" s="14" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="422" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B422" s="14" t="s">
+      <c r="A422" s="15" t="s">
         <v>326</v>
       </c>
+      <c r="B422" s="15" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="423" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="B423" s="15" t="s">
+      <c r="A423" s="14" t="s">
         <v>328</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A426" s="14" t="s">
-        <v>333</v>
+      <c r="A426" s="22" t="s">
+        <v>334</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A427" s="5" t="s">
-        <v>335</v>
+      <c r="A427" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A428" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B428" s="14" t="s">
+      <c r="A428" s="22" t="s">
         <v>338</v>
       </c>
+      <c r="B428" s="26"/>
     </row>
     <row r="429" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="20" t="s">
+      <c r="A429" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B429" s="25"/>
+      <c r="B429" s="14" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="430" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A435" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B435" s="14" t="s">
+      <c r="A435" s="15" t="s">
         <v>351</v>
+      </c>
+      <c r="B435" s="15" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A437" s="14" t="s">
-        <v>354</v>
+      <c r="A437" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A438" s="5" t="s">
-        <v>356</v>
+      <c r="A438" s="14" t="s">
+        <v>357</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
-        <v>366</v>
+        <v>171</v>
       </c>
       <c r="B443" s="14" t="s">
         <v>367</v>
@@ -4484,782 +4515,889 @@
     </row>
     <row r="444" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
-        <v>171</v>
+        <v>368</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A445" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B445" s="14" t="s">
+      <c r="A445" s="15" t="s">
         <v>370</v>
+      </c>
+      <c r="B445" s="15" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="B446" s="25" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="447" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="20" t="s">
+      <c r="B446" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="B447" s="25" t="s">
+    </row>
+    <row r="448" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A448" s="27" t="s">
         <v>374</v>
       </c>
+      <c r="B448" s="15" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="449" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="26" t="s">
-        <v>375</v>
-      </c>
+      <c r="A449" s="27"/>
       <c r="B449" s="15" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="26"/>
-      <c r="B450" s="15" t="s">
+      <c r="A450" s="27"/>
+      <c r="B450" s="28" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A451" s="26"/>
-      <c r="B451" s="27" t="s">
+    <row r="451" customFormat="false" ht="55.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A451" s="27"/>
+      <c r="B451" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A452" s="26"/>
-      <c r="B452" s="20" t="s">
+    <row r="453" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A453" s="29" t="s">
         <v>379</v>
       </c>
+      <c r="B453" s="22" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="454" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="B454" s="20" t="s">
+      <c r="A454" s="29"/>
+      <c r="B454" s="22" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="28"/>
-      <c r="B455" s="20" t="s">
+      <c r="A455" s="29"/>
+      <c r="B455" s="22" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="28"/>
-      <c r="B456" s="20" t="s">
+      <c r="A456" s="29"/>
+      <c r="B456" s="15" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="28"/>
-      <c r="B457" s="20" t="s">
+      <c r="A457" s="29"/>
+      <c r="B457" s="15" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A458" s="28"/>
-      <c r="B458" s="20" t="s">
+      <c r="A458" s="29"/>
+      <c r="B458" s="22" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A459" s="28"/>
-      <c r="B459" s="20" t="s">
+      <c r="A459" s="29"/>
+      <c r="B459" s="22" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A460" s="28"/>
-      <c r="B460" s="20" t="s">
+      <c r="A460" s="29"/>
+      <c r="B460" s="15" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="28"/>
-      <c r="B461" s="20" t="s">
+      <c r="A461" s="29"/>
+      <c r="B461" s="15" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="28"/>
-      <c r="B462" s="20" t="s">
+      <c r="A462" s="29"/>
+      <c r="B462" s="30" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="28"/>
-      <c r="B463" s="12" t="s">
+      <c r="A463" s="29"/>
+      <c r="B463" s="22" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A464" s="28"/>
-      <c r="B464" s="15" t="s">
+      <c r="A464" s="29"/>
+      <c r="B464" s="22" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="28"/>
-      <c r="B465" s="20" t="s">
+      <c r="A465" s="29"/>
+      <c r="B465" s="30" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A466" s="28"/>
-      <c r="B466" s="12" t="s">
+      <c r="A466" s="29"/>
+      <c r="B466" s="22" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A467" s="28"/>
-      <c r="B467" s="15" t="s">
+      <c r="A467" s="29"/>
+      <c r="B467" s="22" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A468" s="28"/>
-      <c r="B468" s="15" t="s">
+      <c r="A468" s="29"/>
+      <c r="B468" s="22" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A469" s="28"/>
+      <c r="A469" s="29"/>
       <c r="B469" s="15" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A470" s="28"/>
-      <c r="B470" s="20" t="s">
+      <c r="A470" s="29"/>
+      <c r="B470" s="15" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A471" s="28"/>
+      <c r="A471" s="29"/>
       <c r="B471" s="20" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A472" s="28"/>
-      <c r="B472" s="20" t="s">
+      <c r="A472" s="29"/>
+      <c r="B472" s="22" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A473" s="28"/>
-      <c r="B473" s="20" t="s">
+    <row r="475" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A475" s="9" t="s">
         <v>400</v>
       </c>
+      <c r="B475" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C475" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D475" s="32" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="476" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A476" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="B476" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C476" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="D476" s="30" t="s">
+      <c r="A476" s="33" t="s">
         <v>403</v>
       </c>
+      <c r="B476" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="C476" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D476" s="35" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="477" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A477" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="B477" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C477" s="33" t="s">
+      <c r="A477" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="D477" s="34" t="s">
+      <c r="B477" s="34" t="s">
         <v>406</v>
       </c>
+      <c r="C477" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D477" s="35" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="478" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="B478" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C478" s="33" t="s">
+      <c r="B478" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="D478" s="34" t="s">
+      <c r="C478" s="22" t="s">
         <v>408</v>
       </c>
+      <c r="D478" s="35" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="479" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B479" s="32" t="s">
+      <c r="B479" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="C479" s="33" t="s">
+      <c r="C479" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="D479" s="34" t="s">
+      <c r="D479" s="35" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B480" s="32" t="s">
+      <c r="B480" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C480" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="D480" s="34" t="s">
-        <v>410</v>
+      <c r="C480" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D480" s="35" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B481" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="C481" s="33" t="s">
+      <c r="B481" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="D481" s="34" t="s">
-        <v>412</v>
+      <c r="C481" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D481" s="35" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B482" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="C482" s="33" t="s">
+      <c r="B482" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="D482" s="34" t="s">
+      <c r="C482" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D482" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C483" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="D483" s="36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C484" s="34" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="483" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B483" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="C483" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="D483" s="34" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C484" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="D484" s="34" t="s">
+      <c r="D484" s="35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C485" s="34" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="485" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C485" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="D485" s="34" t="s">
-        <v>415</v>
+      <c r="D485" s="35" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C486" s="33" t="s">
+      <c r="C486" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="D486" s="34" t="s">
-        <v>419</v>
+      <c r="D486" s="35" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C487" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D487" s="34" t="s">
+      <c r="C487" s="34" t="s">
         <v>421</v>
       </c>
+      <c r="D487" s="35" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="488" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C488" s="33" t="s">
+      <c r="C488" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D488" s="34" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C489" s="33" t="s">
+      <c r="D488" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="D489" s="34" t="s">
+    </row>
+    <row r="489" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C489" s="34" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="490" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C490" s="33" t="s">
+      <c r="D489" s="36" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="70.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D490" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="D490" s="34" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="491" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D491" s="6" t="s">
+      <c r="D491" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D492" s="34" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D492" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
     <row r="493" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D493" s="6" t="s">
+      <c r="D493" s="34" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D494" s="6" t="s">
+    <row r="498" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C498" s="27" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C499" s="26" t="s">
+      <c r="C499" s="27"/>
+    </row>
+    <row r="500" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C500" s="27"/>
+    </row>
+    <row r="501" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A501" s="37" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="500" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C500" s="26"/>
-    </row>
-    <row r="501" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C501" s="26"/>
+      <c r="B501" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C501" s="34" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="502" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A502" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="B502" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="C502" s="36" t="s">
+      <c r="A502" s="37"/>
+      <c r="B502" s="34" t="s">
         <v>432</v>
       </c>
+      <c r="C502" s="34" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="503" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A503" s="35"/>
-      <c r="B503" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="C503" s="36" t="s">
+      <c r="A503" s="37"/>
+      <c r="B503" s="15" t="s">
         <v>434</v>
       </c>
+      <c r="C503" s="15" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="504" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A504" s="35"/>
-      <c r="B504" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C504" s="15" t="s">
+      <c r="A504" s="37"/>
+      <c r="B504" s="34" t="s">
         <v>436</v>
       </c>
+      <c r="C504" s="34" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="505" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A505" s="35"/>
-      <c r="B505" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="C505" s="36" t="s">
+      <c r="A505" s="37"/>
+      <c r="B505" s="34" t="s">
         <v>438</v>
       </c>
+      <c r="C505" s="34" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="506" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A506" s="35"/>
-      <c r="B506" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="C506" s="36" t="s">
+      <c r="A506" s="37"/>
+      <c r="B506" s="34" t="s">
         <v>440</v>
       </c>
+      <c r="C506" s="34" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="507" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A507" s="35"/>
-      <c r="B507" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="C507" s="36" t="s">
+      <c r="A507" s="37"/>
+      <c r="B507" s="34" t="s">
         <v>442</v>
       </c>
+      <c r="C507" s="34" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="508" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A508" s="35"/>
-      <c r="B508" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="C508" s="36" t="s">
+      <c r="A508" s="37"/>
+      <c r="B508" s="34" t="s">
         <v>444</v>
       </c>
+      <c r="C508" s="34" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="509" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A509" s="35"/>
-      <c r="B509" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="C509" s="36" t="s">
+      <c r="A509" s="37"/>
+      <c r="B509" s="34" t="s">
         <v>446</v>
       </c>
+      <c r="C509" s="34" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="510" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A510" s="35"/>
-      <c r="B510" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="C510" s="36" t="s">
+      <c r="A510" s="37"/>
+      <c r="B510" s="15" t="s">
         <v>448</v>
       </c>
+      <c r="C510" s="15" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="511" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A511" s="35"/>
-      <c r="B511" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="C511" s="15" t="s">
+      <c r="A511" s="37"/>
+      <c r="B511" s="34" t="s">
         <v>450</v>
       </c>
+      <c r="C511" s="34" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="512" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A512" s="35"/>
-      <c r="B512" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="C512" s="36" t="s">
+      <c r="A512" s="37"/>
+      <c r="B512" s="34" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="513" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A513" s="35"/>
-      <c r="B513" s="36" t="s">
+      <c r="C512" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="C513" s="36" t="s">
+    </row>
+    <row r="513" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="37"/>
+      <c r="B513" s="15" t="s">
         <v>454</v>
       </c>
+      <c r="C513" s="15" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="514" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A514" s="35"/>
+      <c r="A514" s="37"/>
       <c r="B514" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C514" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A515" s="37"/>
+      <c r="B515" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="C515" s="34" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A516" s="37"/>
+      <c r="B516" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="C516" s="34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A517" s="37"/>
+      <c r="B517" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="C517" s="34" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A518" s="37"/>
+      <c r="B518" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C518" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A519" s="37"/>
+      <c r="B519" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C519" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A520" s="37"/>
+      <c r="B520" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C520" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A521" s="37"/>
+      <c r="B521" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C521" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A522" s="37"/>
+      <c r="B522" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="C522" s="34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A523" s="37"/>
+      <c r="B523" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C523" s="34" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A528" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="B528" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C528" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A529" s="27"/>
+      <c r="B529" s="20"/>
+      <c r="C529" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A530" s="27"/>
+      <c r="B530" s="20"/>
+      <c r="C530" s="20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A531" s="27"/>
+      <c r="B531" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C531" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A532" s="27"/>
+      <c r="B532" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C532" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="27"/>
+      <c r="B533" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C533" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A534" s="27"/>
+      <c r="B534" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="C534" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="27"/>
+      <c r="B535" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C535" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="36.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A536" s="27"/>
+      <c r="B536" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C536" s="22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A537" s="27"/>
+      <c r="B537" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C537" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A538" s="27"/>
+      <c r="B538" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C538" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A539" s="27"/>
+      <c r="B539" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C539" s="22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A540" s="27"/>
+      <c r="B540" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="C540" s="22" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A541" s="27"/>
+      <c r="B541" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="C541" s="22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A542" s="27"/>
+      <c r="B542" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="C542" s="22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A543" s="27"/>
+      <c r="B543" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="C543" s="30" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="27"/>
+      <c r="B544" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C544" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="C514" s="15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A515" s="35"/>
-      <c r="B515" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C515" s="15" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="516" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A516" s="35"/>
-      <c r="B516" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="C516" s="36" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="517" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A517" s="35"/>
-      <c r="B517" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="C517" s="36" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="518" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A518" s="35"/>
-      <c r="B518" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="C518" s="36" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A519" s="35"/>
-      <c r="B519" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="C519" s="15" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A520" s="35"/>
-      <c r="B520" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="C520" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="521" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A521" s="35"/>
-      <c r="B521" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="C521" s="20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="522" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A522" s="35"/>
-      <c r="B522" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="C522" s="20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="523" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A523" s="35"/>
-      <c r="B523" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="C523" s="36" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="524" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A524" s="35"/>
-      <c r="B524" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="C524" s="36" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A529" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="B529" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="C529" s="15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="530" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A530" s="26"/>
-      <c r="B530" s="15"/>
-      <c r="C530" s="15" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="531" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A531" s="26"/>
-      <c r="B531" s="15"/>
-      <c r="C531" s="15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="532" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A532" s="26"/>
-      <c r="B532" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="C532" s="20" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A533" s="26"/>
-      <c r="B533" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="C533" s="20" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="534" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="26"/>
-      <c r="B534" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="C534" s="20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="535" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A535" s="26"/>
-      <c r="B535" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="C535" s="37" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="536" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="26"/>
-      <c r="B536" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="C536" s="20" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="537" customFormat="false" ht="36.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A537" s="26"/>
-      <c r="B537" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="C537" s="20" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="538" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A538" s="26"/>
-      <c r="B538" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="C538" s="37" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="539" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A539" s="26"/>
-      <c r="B539" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="C539" s="37" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="540" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A540" s="26"/>
-      <c r="B540" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="C540" s="20" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="541" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A541" s="26"/>
-      <c r="B541" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="C541" s="20" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="542" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="26"/>
-      <c r="B542" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="C542" s="20" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="543" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A543" s="26"/>
-      <c r="B543" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="C543" s="20" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="544" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="26"/>
-      <c r="B544" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C544" s="20" t="s">
+    </row>
+    <row r="545" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A545" s="27"/>
+      <c r="B545" s="15" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="545" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="26"/>
-      <c r="B545" s="37" t="s">
+      <c r="C545" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="C545" s="37" t="s">
+    </row>
+    <row r="546" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A546" s="27"/>
+      <c r="B546" s="15" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="546" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="26"/>
-      <c r="B546" s="20" t="s">
+      <c r="C546" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="C546" s="20" t="s">
+    </row>
+    <row r="547" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A547" s="27"/>
+      <c r="B547" s="15" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="547" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="26"/>
-      <c r="B547" s="20" t="s">
+      <c r="C547" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="C547" s="20" t="s">
+    </row>
+    <row r="548" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="27"/>
+      <c r="B548" s="15" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="548" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="26"/>
-      <c r="B548" s="20" t="s">
+      <c r="C548" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="C548" s="20" t="s">
+    </row>
+    <row r="549" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="27"/>
+      <c r="B549" s="20" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="549" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="26"/>
-      <c r="B549" s="20" t="s">
+      <c r="C549" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="C549" s="20" t="s">
+    </row>
+    <row r="550" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="38"/>
+    </row>
+    <row r="551" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="27" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="550" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="26"/>
-      <c r="B550" s="20" t="s">
+      <c r="B551" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C550" s="20" t="s">
+    </row>
+    <row r="552" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A552" s="27"/>
+      <c r="B552" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="38"/>
-    </row>
-    <row r="552" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="39"/>
-    </row>
-    <row r="553" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A553" s="39"/>
-    </row>
+    <row r="553" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="27"/>
+      <c r="B553" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="27"/>
+      <c r="B554" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="27"/>
+      <c r="B555" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="27"/>
+      <c r="B556" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="27"/>
+      <c r="B557" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="27"/>
+      <c r="B558" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="27"/>
+      <c r="B559" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="27"/>
+      <c r="B560" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="27"/>
+      <c r="B561" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="27"/>
+      <c r="B562" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="27"/>
+      <c r="B563" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="27"/>
+      <c r="B564" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="27"/>
+      <c r="B565" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="27"/>
+      <c r="B566" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="27"/>
+      <c r="B567" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="27"/>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="27"/>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="27"/>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="27"/>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="27"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="148">
     <mergeCell ref="A1:C1"/>
@@ -5387,29 +5525,29 @@
     <mergeCell ref="A361:B361"/>
     <mergeCell ref="A364:B364"/>
     <mergeCell ref="A367:B367"/>
-    <mergeCell ref="A368:A370"/>
-    <mergeCell ref="A372:B372"/>
-    <mergeCell ref="A375:B375"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="A379:B379"/>
-    <mergeCell ref="A382:B382"/>
-    <mergeCell ref="A385:B385"/>
-    <mergeCell ref="A388:B388"/>
-    <mergeCell ref="A389:A390"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A393:A403"/>
-    <mergeCell ref="B393:B397"/>
-    <mergeCell ref="B398:B403"/>
-    <mergeCell ref="A405:B405"/>
-    <mergeCell ref="A406:A413"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A418:B421"/>
-    <mergeCell ref="A449:A452"/>
-    <mergeCell ref="A454:A473"/>
-    <mergeCell ref="C499:C501"/>
-    <mergeCell ref="A502:A524"/>
-    <mergeCell ref="A529:A550"/>
-    <mergeCell ref="B529:B531"/>
+    <mergeCell ref="A370:B370"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A374:A375"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A383:B383"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="A387:A389"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A392:A402"/>
+    <mergeCell ref="B392:B396"/>
+    <mergeCell ref="B397:B402"/>
+    <mergeCell ref="A404:B404"/>
+    <mergeCell ref="A405:A412"/>
+    <mergeCell ref="A414:B414"/>
+    <mergeCell ref="A417:B420"/>
+    <mergeCell ref="A448:A451"/>
+    <mergeCell ref="A453:A472"/>
+    <mergeCell ref="C498:C500"/>
+    <mergeCell ref="A501:A523"/>
+    <mergeCell ref="A528:A549"/>
+    <mergeCell ref="B528:B530"/>
+    <mergeCell ref="A551:A572"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="566">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -1366,12 +1366,6 @@
     <t xml:space="preserve">Instance storage is faster than any other storage service, because it’s phisically attached to the instance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Q23 - READ THE DAMN QUESTION!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">READ THE DAMN QUESTION!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q25 - Security groups have only allow permissions list</t>
   </si>
   <si>
@@ -1540,12 +1534,6 @@
     <t xml:space="preserve">Q47 – RDS Multi-AZ deployment check</t>
   </si>
   <si>
-    <t xml:space="preserve">Q52 – READ THE FOCKEN QUESHANNNNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’VE READ IT!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q59 – Global services (S3 isnt!!!)</t>
   </si>
   <si>
@@ -1576,42 +1564,78 @@
     <t xml:space="preserve">Q2 – Understand better S3 Transfer Acceleration</t>
   </si>
   <si>
+    <t xml:space="preserve">S3 Transfer Accelerator is used to transfer data faster from multiple global regions by leveraging the Edge Locations of CloudFront</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q5 – AWS Device Farm</t>
   </si>
   <si>
+    <t xml:space="preserve">Used to test mobile apps on large scale, like provisioning tests across multiple devices to see if it doesn’t break due to hardware/resolution/etc changes across devices.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q6 – Amazon Translate</t>
   </si>
   <si>
+    <t xml:space="preserve">Translates things</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q7 – Reserved Instances on Organizations</t>
   </si>
   <si>
+    <t xml:space="preserve">Reserved instances are “shareable” if 2 people are in the same organization. If account A bought a reserved instance AND RI Sharing is turned on, account A will receive the discounts for it. However, if account A isn’t launching the Reserved Instance, and account B launches it, AWS will bill B’s instance as A’s instance, with all the applicable discounts and benefits. This, however, only happens if the instances are launched in the same AZ where the A’s instance was originally bought </t>
+  </si>
+  <si>
     <t xml:space="preserve">Q10 – CloudWatch and SNS</t>
   </si>
   <si>
+    <t xml:space="preserve">I still need to learn CloudWatch Events. CloudWatch can also use SNS to deliver e-mails or messages when a defined trigger happens</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q11 – Review Regions and Azs</t>
   </si>
   <si>
+    <t xml:space="preserve">A region has 3 or more Azs. An AZ has one or more data-centers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q18 – Remember AWS Shield Advanced supported products</t>
   </si>
   <si>
+    <t xml:space="preserve">EC2, ELB, CloudFront, Route 53 and Global Accelerator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q19 – Global accelerator is a good case for non-http use-cases</t>
   </si>
   <si>
+    <t xml:space="preserve">It is, because it focuses mainly on the TCP/UDP communication and improving package-delivery speeds</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q24 – Other services can also choose the instance type, such as RDS with reserved instances</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes, it can. We can select an EC2 instance to build RDS on, so all instance types are available</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q36 – S3 Replication and other features</t>
   </si>
   <si>
+    <t xml:space="preserve">S3 Replication is used to replicate data to other regions (CRR) or Azs (SRR)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q37 – Only S3 Standard and Intelligent tiering don’t charge data retrival</t>
   </si>
   <si>
     <t xml:space="preserve">Q41 – Reserved Instances on Organizations and its shareable capabilities</t>
   </si>
   <si>
+    <t xml:space="preserve">RI are shareable if 2 accounts are in the same organization/used on consolidated billing.  To be shareable: RI sharing must be turned ON and the EC2 instance must be launched in the same AZ where the RI was originally bought</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q42 – Trusted advisor pillars and more</t>
   </si>
   <si>
+    <t xml:space="preserve">Take notes later here!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q48 – Credentials Report</t>
   </si>
   <si>
@@ -1622,6 +1646,78 @@
   </si>
   <si>
     <t xml:space="preserve">Q60 – U2F security key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erros do simulado 5  (MAREEK 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 – Elastic Beanstalk is PaaS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4 – Best practices using AWS organizations (accounts per department)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6 – Amazon Personalize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7 – What is a CDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9 – Get better understanding of AMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10 – Get more deeper into the TCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q11 – Types of reserved instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q15 – Re-check the global services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16 – Study pratically the use of tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18 – AWS Security Token Service (STS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q22 – Where EBS Snapshots are stored (S3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q24 – AWS Quick Start references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27 – Monitoring offered by CloudWatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q32 – WAF in depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q34 – Criteria used to charge EBS volumes (and what is a IOPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q35 – AWS OpsWorks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q37 – AWS SSO and User Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q40 – Understand clearly IaaS and PaaS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q47 – Read operational excellence pillar again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q56 – Fault Injection Simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q57 – S3 Access Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q58 – CodeGuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q63 – Customer Gateway</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1864,6 +1960,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1890,7 +1993,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2047,6 +2150,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2124,29 +2243,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D591"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A547" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B568" activeCellId="0" sqref="B568"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B555" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B562" activeCellId="0" sqref="B562"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="20.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="32.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="131.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="134.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="102.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2157,35 +2276,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -2194,35 +2313,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
@@ -2231,49 +2350,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
@@ -2281,19 +2400,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>1</v>
       </c>
@@ -2301,25 +2420,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>1</v>
       </c>
@@ -2327,25 +2446,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
         <v>1</v>
       </c>
@@ -2353,31 +2472,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
       <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
       <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
         <v>1</v>
       </c>
@@ -2385,31 +2504,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -2417,13 +2536,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
         <v>1</v>
       </c>
@@ -2431,13 +2550,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
         <v>1</v>
       </c>
@@ -2445,19 +2564,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
         <v>1</v>
       </c>
@@ -2465,13 +2584,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
         <v>1</v>
       </c>
@@ -2479,61 +2598,61 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
       <c r="B63" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="9"/>
       <c r="B64" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="9"/>
       <c r="B65" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="9"/>
       <c r="B66" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="9"/>
       <c r="B67" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9"/>
       <c r="B68" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="9"/>
       <c r="B69" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="9"/>
       <c r="B70" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
         <v>1</v>
       </c>
@@ -2541,61 +2660,61 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="13"/>
       <c r="B74" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="13"/>
       <c r="B75" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="13"/>
       <c r="B76" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="13"/>
       <c r="B77" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="13"/>
       <c r="B78" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="13"/>
       <c r="B79" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="13"/>
       <c r="B80" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
       <c r="B81" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
         <v>1</v>
       </c>
@@ -2603,43 +2722,43 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="13"/>
       <c r="B85" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="13"/>
       <c r="B86" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="13"/>
       <c r="B87" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="13"/>
       <c r="B88" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="13"/>
       <c r="B89" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2647,85 +2766,85 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="9"/>
       <c r="B93" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="9"/>
       <c r="B94" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="9"/>
       <c r="B95" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="9"/>
       <c r="B96" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="9"/>
       <c r="B97" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="9"/>
       <c r="B98" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="9"/>
       <c r="B99" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="9"/>
       <c r="B100" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="9"/>
       <c r="B101" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="9"/>
       <c r="B102" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="9"/>
       <c r="B103" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="9"/>
       <c r="B104" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
         <v>1</v>
       </c>
@@ -2733,13 +2852,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="19" t="s">
         <v>1</v>
       </c>
@@ -2747,19 +2866,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="19"/>
       <c r="B111" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
         <v>1</v>
       </c>
@@ -2767,31 +2886,31 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="9"/>
       <c r="B115" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="9"/>
       <c r="B116" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="9"/>
       <c r="B117" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
         <v>1</v>
       </c>
@@ -2799,13 +2918,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
         <v>1</v>
       </c>
@@ -2813,19 +2932,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="13"/>
       <c r="B124" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="19" t="s">
         <v>1</v>
       </c>
@@ -2833,55 +2952,55 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="19"/>
       <c r="B128" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="19"/>
       <c r="B129" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="19"/>
       <c r="B130" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="19"/>
       <c r="B131" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="19"/>
       <c r="B132" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="19"/>
       <c r="B133" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="19"/>
       <c r="B134" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="19" t="s">
         <v>1</v>
       </c>
@@ -2889,55 +3008,55 @@
         <v>114</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="19"/>
       <c r="B138" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="19"/>
       <c r="B139" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="19"/>
       <c r="B140" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="19"/>
       <c r="B141" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="19"/>
       <c r="B142" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="19"/>
       <c r="B143" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
       <c r="B144" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
         <v>1</v>
       </c>
@@ -2945,31 +3064,31 @@
         <v>123</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="9"/>
       <c r="B148" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="9"/>
       <c r="B149" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="9"/>
       <c r="B150" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="19" t="s">
         <v>1</v>
       </c>
@@ -2977,31 +3096,31 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="19"/>
       <c r="B154" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="19"/>
       <c r="B155" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="19"/>
       <c r="B156" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
         <v>1</v>
       </c>
@@ -3009,19 +3128,19 @@
         <v>133</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="9"/>
       <c r="B160" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
         <v>1</v>
       </c>
@@ -3029,55 +3148,55 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="9"/>
       <c r="B164" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="9"/>
       <c r="B165" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="9"/>
       <c r="B166" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="9"/>
       <c r="B167" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="9"/>
       <c r="B168" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="9"/>
       <c r="B169" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="9"/>
       <c r="B170" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="19" t="s">
         <v>1</v>
       </c>
@@ -3085,25 +3204,25 @@
         <v>145</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="19"/>
       <c r="B174" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="19"/>
       <c r="B175" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
         <v>1</v>
       </c>
@@ -3111,19 +3230,19 @@
         <v>149</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="9"/>
       <c r="B179" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3131,19 +3250,19 @@
         <v>152</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="9"/>
       <c r="B183" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
         <v>1</v>
       </c>
@@ -3151,37 +3270,37 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="9"/>
       <c r="B187" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="9"/>
       <c r="B188" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="9"/>
       <c r="B189" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="9"/>
       <c r="B190" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
         <v>1</v>
       </c>
@@ -3189,19 +3308,19 @@
         <v>160</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="9"/>
       <c r="B194" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
         <v>1</v>
       </c>
@@ -3209,31 +3328,31 @@
         <v>162</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="9"/>
       <c r="B198" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="9"/>
       <c r="B199" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="9"/>
       <c r="B200" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
         <v>1</v>
       </c>
@@ -3241,13 +3360,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="s">
         <v>1</v>
       </c>
@@ -3255,19 +3374,19 @@
         <v>169</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="9"/>
       <c r="B207" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="s">
         <v>1</v>
       </c>
@@ -3275,13 +3394,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="9" t="s">
         <v>1</v>
       </c>
@@ -3289,19 +3408,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="9"/>
       <c r="B214" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="9" t="s">
         <v>1</v>
       </c>
@@ -3309,31 +3428,31 @@
         <v>176</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="9"/>
       <c r="B218" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="9"/>
       <c r="B219" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="9"/>
       <c r="B220" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="9" t="s">
         <v>1</v>
       </c>
@@ -3341,13 +3460,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="9" t="s">
         <v>1</v>
       </c>
@@ -3355,13 +3474,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="9" t="s">
         <v>1</v>
       </c>
@@ -3369,25 +3488,25 @@
         <v>185</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="9"/>
       <c r="B230" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="9"/>
       <c r="B231" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="9" t="s">
         <v>1</v>
       </c>
@@ -3395,13 +3514,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="9" t="s">
         <v>1</v>
       </c>
@@ -3409,13 +3528,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="s">
         <v>1</v>
       </c>
@@ -3423,19 +3542,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="9"/>
       <c r="B241" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="19" t="s">
         <v>1</v>
       </c>
@@ -3443,31 +3562,31 @@
         <v>196</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="19"/>
       <c r="B245" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="19"/>
       <c r="B246" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="19"/>
       <c r="B247" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="9" t="s">
         <v>1</v>
       </c>
@@ -3475,19 +3594,19 @@
         <v>201</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="9"/>
       <c r="B251" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="19" t="s">
         <v>1</v>
       </c>
@@ -3495,37 +3614,37 @@
         <v>204</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="19"/>
       <c r="B255" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="19"/>
       <c r="B256" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="19"/>
       <c r="B257" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="19"/>
       <c r="B258" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="9" t="s">
         <v>1</v>
       </c>
@@ -3533,13 +3652,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
         <v>1</v>
       </c>
@@ -3547,13 +3666,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="9" t="s">
         <v>1</v>
       </c>
@@ -3561,13 +3680,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="9" t="s">
         <v>1</v>
       </c>
@@ -3575,13 +3694,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="9" t="s">
         <v>1</v>
       </c>
@@ -3589,13 +3708,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="9" t="s">
         <v>1</v>
       </c>
@@ -3603,19 +3722,19 @@
         <v>219</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="9"/>
       <c r="B277" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="9" t="s">
         <v>1</v>
       </c>
@@ -3623,25 +3742,25 @@
         <v>222</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="9"/>
       <c r="B281" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="9"/>
       <c r="B282" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="9" t="s">
         <v>1</v>
       </c>
@@ -3649,19 +3768,19 @@
         <v>226</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="9"/>
       <c r="B286" s="20" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="9" t="s">
         <v>1</v>
       </c>
@@ -3669,13 +3788,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="9" t="s">
         <v>1</v>
       </c>
@@ -3683,19 +3802,19 @@
         <v>231</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="9"/>
       <c r="B293" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="9" t="s">
         <v>1</v>
       </c>
@@ -3703,13 +3822,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="9" t="s">
         <v>1</v>
       </c>
@@ -3717,13 +3836,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="9" t="s">
         <v>1</v>
       </c>
@@ -3731,13 +3850,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="9" t="s">
         <v>1</v>
       </c>
@@ -3745,13 +3864,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="9" t="s">
         <v>1</v>
       </c>
@@ -3759,13 +3878,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="9" t="s">
         <v>1</v>
       </c>
@@ -3773,13 +3892,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="9" t="s">
         <v>1</v>
       </c>
@@ -3787,25 +3906,25 @@
         <v>246</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="9"/>
       <c r="B315" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="9"/>
       <c r="B316" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="9" t="s">
         <v>1</v>
       </c>
@@ -3813,19 +3932,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="9"/>
       <c r="B320" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="9" t="s">
         <v>1</v>
       </c>
@@ -3833,13 +3952,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="19" t="s">
         <v>1</v>
       </c>
@@ -3847,19 +3966,19 @@
         <v>255</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="19"/>
       <c r="B327" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="9" t="s">
         <v>1</v>
       </c>
@@ -3867,13 +3986,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="9" t="s">
         <v>1</v>
       </c>
@@ -3881,19 +4000,19 @@
         <v>260</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="9"/>
       <c r="B334" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="9" t="s">
         <v>1</v>
       </c>
@@ -3901,13 +4020,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="9" t="s">
         <v>1</v>
       </c>
@@ -3915,13 +4034,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="9" t="s">
         <v>1</v>
       </c>
@@ -3929,13 +4048,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="9" t="s">
         <v>1</v>
       </c>
@@ -3943,25 +4062,25 @@
         <v>269</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="9"/>
       <c r="B347" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="9"/>
       <c r="B348" s="15" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="9" t="s">
         <v>1</v>
       </c>
@@ -3969,13 +4088,13 @@
         <v>273</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="9" t="s">
         <v>1</v>
       </c>
@@ -3983,25 +4102,25 @@
         <v>275</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="9"/>
       <c r="B355" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="9"/>
       <c r="B356" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="9" t="s">
         <v>1</v>
       </c>
@@ -4009,13 +4128,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="9" t="s">
         <v>1</v>
       </c>
@@ -4023,13 +4142,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="9" t="s">
         <v>1</v>
       </c>
@@ -4037,13 +4156,13 @@
         <v>283</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="9" t="s">
         <v>1</v>
       </c>
@@ -4051,13 +4170,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="9" t="s">
         <v>1</v>
       </c>
@@ -4065,13 +4184,13 @@
         <v>287</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="9" t="s">
         <v>1</v>
       </c>
@@ -4079,19 +4198,19 @@
         <v>289</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="9"/>
       <c r="B375" s="14" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="9" t="s">
         <v>1</v>
       </c>
@@ -4099,13 +4218,13 @@
         <v>292</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="9" t="s">
         <v>1</v>
       </c>
@@ -4113,13 +4232,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="9" t="s">
         <v>1</v>
       </c>
@@ -4127,13 +4246,13 @@
         <v>296</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="9" t="s">
         <v>1</v>
       </c>
@@ -4141,26 +4260,26 @@
         <v>298</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="9"/>
       <c r="B388" s="15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="9"/>
       <c r="B389" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
     </row>
-    <row r="392" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="9" t="s">
         <v>1</v>
       </c>
@@ -4171,35 +4290,35 @@
         <v>303</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="9"/>
       <c r="B393" s="23"/>
       <c r="C393" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="9"/>
       <c r="B394" s="23"/>
       <c r="C394" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="9"/>
       <c r="B395" s="23"/>
       <c r="C395" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="9"/>
       <c r="B396" s="23"/>
       <c r="C396" s="14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="9"/>
       <c r="B397" s="24" t="s">
         <v>307</v>
@@ -4208,48 +4327,48 @@
         <v>308</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="9"/>
       <c r="B398" s="24"/>
       <c r="C398" s="14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="9"/>
       <c r="B399" s="24"/>
       <c r="C399" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="9"/>
       <c r="B400" s="24"/>
       <c r="C400" s="14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="9"/>
       <c r="B401" s="24"/>
       <c r="C401" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="9"/>
       <c r="B402" s="24"/>
       <c r="C402" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="9" t="s">
         <v>1</v>
       </c>
@@ -4257,55 +4376,55 @@
         <v>139</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="9"/>
       <c r="B406" s="22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="9"/>
       <c r="B407" s="22" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="9"/>
       <c r="B408" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="9"/>
       <c r="B409" s="22" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="9"/>
       <c r="B410" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="9"/>
       <c r="B411" s="22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="9"/>
       <c r="B412" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="9" t="s">
         <v>1</v>
       </c>
@@ -4313,25 +4432,25 @@
         <v>322</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="25" t="s">
         <v>323</v>
       </c>
       <c r="B417" s="25"/>
     </row>
-    <row r="418" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="25"/>
       <c r="B418" s="25"/>
     </row>
-    <row r="419" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="25"/>
       <c r="B419" s="25"/>
     </row>
-    <row r="420" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="25"/>
       <c r="B420" s="25"/>
     </row>
-    <row r="421" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="14" t="s">
         <v>324</v>
       </c>
@@ -4339,7 +4458,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="15" t="s">
         <v>326</v>
       </c>
@@ -4347,7 +4466,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
         <v>328</v>
       </c>
@@ -4355,7 +4474,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="14" t="s">
         <v>330</v>
       </c>
@@ -4363,7 +4482,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="14" t="s">
         <v>332</v>
       </c>
@@ -4371,7 +4490,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="22" t="s">
         <v>334</v>
       </c>
@@ -4379,7 +4498,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="22" t="s">
         <v>336</v>
       </c>
@@ -4387,13 +4506,13 @@
         <v>337</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="22" t="s">
         <v>338</v>
       </c>
       <c r="B428" s="26"/>
     </row>
-    <row r="429" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
         <v>339</v>
       </c>
@@ -4401,7 +4520,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="14" t="s">
         <v>341</v>
       </c>
@@ -4409,7 +4528,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="14" t="s">
         <v>343</v>
       </c>
@@ -4417,7 +4536,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
         <v>345</v>
       </c>
@@ -4425,7 +4544,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="14" t="s">
         <v>347</v>
       </c>
@@ -4433,7 +4552,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="14" t="s">
         <v>349</v>
       </c>
@@ -4441,7 +4560,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="15" t="s">
         <v>351</v>
       </c>
@@ -4449,7 +4568,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
         <v>353</v>
       </c>
@@ -4457,7 +4576,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="5" t="s">
         <v>355</v>
       </c>
@@ -4465,7 +4584,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="14" t="s">
         <v>357</v>
       </c>
@@ -4473,7 +4592,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="14" t="s">
         <v>359</v>
       </c>
@@ -4481,7 +4600,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
         <v>361</v>
       </c>
@@ -4489,7 +4608,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
         <v>363</v>
       </c>
@@ -4497,7 +4616,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
         <v>365</v>
       </c>
@@ -4505,7 +4624,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
         <v>171</v>
       </c>
@@ -4513,7 +4632,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
         <v>368</v>
       </c>
@@ -4521,7 +4640,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="15" t="s">
         <v>370</v>
       </c>
@@ -4529,7 +4648,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="20" t="s">
         <v>372</v>
       </c>
@@ -4537,7 +4656,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="27" t="s">
         <v>374</v>
       </c>
@@ -4545,25 +4664,25 @@
         <v>375</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="27"/>
       <c r="B449" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="27"/>
       <c r="B450" s="28" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="55.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="27"/>
       <c r="B451" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="29" t="s">
         <v>379</v>
       </c>
@@ -4571,121 +4690,121 @@
         <v>380</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="29"/>
       <c r="B454" s="22" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="29"/>
       <c r="B455" s="22" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="29"/>
       <c r="B456" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="29"/>
       <c r="B457" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="29"/>
       <c r="B458" s="22" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="29"/>
       <c r="B459" s="22" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="29"/>
       <c r="B460" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="29"/>
       <c r="B461" s="15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="29"/>
       <c r="B462" s="30" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="29"/>
       <c r="B463" s="22" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="29"/>
       <c r="B464" s="22" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="29"/>
       <c r="B465" s="30" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="29"/>
       <c r="B466" s="22" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="29"/>
       <c r="B467" s="22" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="29"/>
       <c r="B468" s="22" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="29"/>
       <c r="B469" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="29"/>
       <c r="B470" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="29"/>
       <c r="B471" s="20" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="29"/>
       <c r="B472" s="22" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="9" t="s">
         <v>400</v>
       </c>
@@ -4699,7 +4818,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="33" t="s">
         <v>403</v>
       </c>
@@ -4713,7 +4832,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="33" t="s">
         <v>406</v>
       </c>
@@ -4727,7 +4846,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B478" s="34" t="s">
         <v>408</v>
       </c>
@@ -4738,7 +4857,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B479" s="34" t="s">
         <v>409</v>
       </c>
@@ -4749,7 +4868,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B480" s="34" t="s">
         <v>410</v>
       </c>
@@ -4760,7 +4879,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B481" s="20" t="s">
         <v>412</v>
       </c>
@@ -4771,7 +4890,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B482" s="15" t="s">
         <v>414</v>
       </c>
@@ -4782,7 +4901,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C483" s="34" t="s">
         <v>416</v>
       </c>
@@ -4790,7 +4909,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C484" s="34" t="s">
         <v>414</v>
       </c>
@@ -4798,7 +4917,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C485" s="34" t="s">
         <v>418</v>
       </c>
@@ -4806,7 +4925,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C486" s="34" t="s">
         <v>419</v>
       </c>
@@ -4814,7 +4933,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C487" s="34" t="s">
         <v>421</v>
       </c>
@@ -4822,7 +4941,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C488" s="34" t="s">
         <v>422</v>
       </c>
@@ -4830,7 +4949,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C489" s="34" t="s">
         <v>424</v>
       </c>
@@ -4838,38 +4957,38 @@
         <v>424</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="70.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D490" s="20" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D491" s="34" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D492" s="34" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D493" s="34" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C498" s="27" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C499" s="27"/>
     </row>
-    <row r="500" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C500" s="27"/>
     </row>
-    <row r="501" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="37" t="s">
         <v>429</v>
       </c>
@@ -4880,7 +4999,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="37"/>
       <c r="B502" s="34" t="s">
         <v>432</v>
@@ -4889,7 +5008,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="37"/>
       <c r="B503" s="15" t="s">
         <v>434</v>
@@ -4898,7 +5017,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="37"/>
       <c r="B504" s="34" t="s">
         <v>436</v>
@@ -4907,7 +5026,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="37"/>
       <c r="B505" s="34" t="s">
         <v>438</v>
@@ -4916,7 +5035,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="37"/>
       <c r="B506" s="34" t="s">
         <v>440</v>
@@ -4925,7 +5044,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="37"/>
       <c r="B507" s="34" t="s">
         <v>442</v>
@@ -4934,7 +5053,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="37"/>
       <c r="B508" s="34" t="s">
         <v>444</v>
@@ -4943,7 +5062,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="37"/>
       <c r="B509" s="34" t="s">
         <v>446</v>
@@ -4952,16 +5071,16 @@
         <v>447</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="37"/>
-      <c r="B510" s="15" t="s">
+      <c r="B510" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="C510" s="15" t="s">
+      <c r="C510" s="34" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="37"/>
       <c r="B511" s="34" t="s">
         <v>450</v>
@@ -4970,16 +5089,16 @@
         <v>451</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="37"/>
-      <c r="B512" s="34" t="s">
+      <c r="B512" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C512" s="34" t="s">
+      <c r="C512" s="15" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="37"/>
       <c r="B513" s="15" t="s">
         <v>454</v>
@@ -4988,16 +5107,16 @@
         <v>455</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="37"/>
-      <c r="B514" s="15" t="s">
+      <c r="B514" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="C514" s="15" t="s">
+      <c r="C514" s="34" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="37"/>
       <c r="B515" s="34" t="s">
         <v>458</v>
@@ -5006,7 +5125,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="37"/>
       <c r="B516" s="34" t="s">
         <v>460</v>
@@ -5015,52 +5134,52 @@
         <v>461</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="37"/>
-      <c r="B517" s="34" t="s">
+      <c r="B517" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="C517" s="34" t="s">
+      <c r="C517" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="37"/>
-      <c r="B518" s="15" t="s">
+      <c r="B518" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="C518" s="15" t="s">
+      <c r="C518" s="22" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="37"/>
-      <c r="B519" s="22" t="s">
+      <c r="B519" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="C519" s="22" t="s">
+      <c r="C519" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="37"/>
-      <c r="B520" s="15" t="s">
+      <c r="B520" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="C520" s="15" t="s">
+      <c r="C520" s="20" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="37"/>
-      <c r="B521" s="20" t="s">
+      <c r="B521" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="C521" s="20" t="s">
+      <c r="C521" s="34" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="37"/>
       <c r="B522" s="34" t="s">
         <v>472</v>
@@ -5069,50 +5188,50 @@
         <v>473</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A523" s="37"/>
-      <c r="B523" s="34" t="s">
+    <row r="527" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A527" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="C523" s="34" t="s">
+      <c r="B527" s="20" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="528" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A528" s="27" t="s">
+      <c r="C527" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B528" s="20" t="s">
+    </row>
+    <row r="528" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A528" s="27"/>
+      <c r="B528" s="20"/>
+      <c r="C528" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C528" s="20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="529" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="27"/>
       <c r="B529" s="20"/>
       <c r="C529" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A530" s="27"/>
+      <c r="B530" s="15" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="530" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A530" s="27"/>
-      <c r="B530" s="20"/>
-      <c r="C530" s="20" t="s">
+      <c r="C530" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A531" s="27"/>
+      <c r="B531" s="22" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="531" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A531" s="27"/>
-      <c r="B531" s="15" t="s">
+      <c r="C531" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="C531" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="532" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="532" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="27"/>
       <c r="B532" s="15" t="s">
         <v>482</v>
@@ -5121,25 +5240,25 @@
         <v>483</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="27"/>
       <c r="B533" s="15" t="s">
         <v>484</v>
       </c>
       <c r="C533" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A534" s="27"/>
+      <c r="B534" s="22" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="534" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A534" s="27"/>
-      <c r="B534" s="15" t="s">
+      <c r="C534" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="C534" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="535" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="535" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="27"/>
       <c r="B535" s="22" t="s">
         <v>487</v>
@@ -5148,16 +5267,16 @@
         <v>488</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="36.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="27"/>
-      <c r="B536" s="22" t="s">
+      <c r="B536" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="C536" s="22" t="s">
+      <c r="C536" s="15" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="27"/>
       <c r="B537" s="15" t="s">
         <v>491</v>
@@ -5166,16 +5285,16 @@
         <v>492</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="27"/>
-      <c r="B538" s="15" t="s">
+      <c r="B538" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="C538" s="15" t="s">
+      <c r="C538" s="22" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="27"/>
       <c r="B539" s="22" t="s">
         <v>495</v>
@@ -5184,7 +5303,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="27"/>
       <c r="B540" s="22" t="s">
         <v>497</v>
@@ -5193,7 +5312,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="27"/>
       <c r="B541" s="22" t="s">
         <v>499</v>
@@ -5202,204 +5321,389 @@
         <v>500</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="27"/>
-      <c r="B542" s="22" t="s">
+      <c r="B542" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="C542" s="22" t="s">
+      <c r="C542" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="27"/>
-      <c r="B543" s="30" t="s">
+      <c r="B543" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="C543" s="30" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="544" customFormat="false" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C543" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="27"/>
       <c r="B544" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C544" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="C544" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="545" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="545" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="27"/>
-      <c r="B545" s="15" t="s">
+      <c r="B545" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="C545" s="15" t="s">
+      <c r="C545" s="22" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="27"/>
-      <c r="B546" s="15" t="s">
+      <c r="B546" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="C546" s="15" t="s">
+      <c r="C546" s="22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="27"/>
-      <c r="B547" s="15" t="s">
+      <c r="B547" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="C547" s="15" t="s">
+      <c r="C547" s="20" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="27"/>
-      <c r="B548" s="15" t="s">
+    <row r="548" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="38"/>
+    </row>
+    <row r="549" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="C548" s="15" t="s">
+      <c r="B549" s="12" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="549" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="27"/>
-      <c r="B549" s="20" t="s">
+      <c r="C549" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C549" s="20" t="s">
+    </row>
+    <row r="550" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="27"/>
+      <c r="B550" s="12" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="550" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="38"/>
-    </row>
-    <row r="551" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="27" t="s">
+      <c r="C550" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="B551" s="1" t="s">
+    </row>
+    <row r="551" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="27"/>
+      <c r="B551" s="12" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="552" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C551" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="50.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="27"/>
-      <c r="B552" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="553" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B552" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C552" s="12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="27"/>
-      <c r="B553" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="554" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B553" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C553" s="12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="27"/>
-      <c r="B554" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B554" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C554" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="27"/>
-      <c r="B555" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="556" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B555" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C555" s="12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="27"/>
-      <c r="B556" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="557" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B556" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C556" s="12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="27"/>
-      <c r="B557" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="558" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B557" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C557" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="27"/>
-      <c r="B558" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="559" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B558" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="C558" s="12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="27"/>
-      <c r="B559" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="560" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B559" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C559" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="27"/>
-      <c r="B560" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="561" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B560" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C560" s="12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="27"/>
-      <c r="B561" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="562" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B561" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C561" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="27"/>
-      <c r="B562" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="563" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B562" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C562" s="12"/>
+    </row>
+    <row r="563" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="27"/>
-      <c r="B563" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="564" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B563" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C563" s="12"/>
+    </row>
+    <row r="564" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="27"/>
-      <c r="B564" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="565" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B564" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C564" s="12"/>
+    </row>
+    <row r="565" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="27"/>
-      <c r="B565" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="566" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B565" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C565" s="12"/>
+    </row>
+    <row r="566" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="27"/>
-      <c r="B566" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="567" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="27"/>
-      <c r="B567" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="27"/>
-    </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="27"/>
-    </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B566" s="39"/>
+      <c r="C566" s="39"/>
+    </row>
+    <row r="567" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B567" s="40"/>
+      <c r="C567" s="40"/>
+    </row>
+    <row r="568" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0"/>
+      <c r="B568" s="41"/>
+      <c r="C568" s="42"/>
+    </row>
+    <row r="569" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A569" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="B569" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C569" s="12"/>
+    </row>
+    <row r="570" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="27"/>
-    </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B570" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C570" s="12"/>
+    </row>
+    <row r="571" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="27"/>
-    </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B571" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C571" s="12"/>
+    </row>
+    <row r="572" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="27"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B572" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C572" s="12"/>
+    </row>
+    <row r="573" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="27"/>
+      <c r="B573" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C573" s="12"/>
+    </row>
+    <row r="574" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="27"/>
+      <c r="B574" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C574" s="12"/>
+    </row>
+    <row r="575" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="27"/>
+      <c r="B575" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C575" s="12"/>
+    </row>
+    <row r="576" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="27"/>
+      <c r="B576" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C576" s="12"/>
+    </row>
+    <row r="577" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="27"/>
+      <c r="B577" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C577" s="12"/>
+    </row>
+    <row r="578" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="27"/>
+      <c r="B578" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C578" s="12"/>
+    </row>
+    <row r="579" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="27"/>
+      <c r="B579" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C579" s="12"/>
+    </row>
+    <row r="580" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="27"/>
+      <c r="B580" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C580" s="12"/>
+    </row>
+    <row r="581" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A581" s="27"/>
+      <c r="B581" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C581" s="12"/>
+    </row>
+    <row r="582" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A582" s="27"/>
+      <c r="B582" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C582" s="12"/>
+    </row>
+    <row r="583" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A583" s="27"/>
+      <c r="B583" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C583" s="12"/>
+    </row>
+    <row r="584" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A584" s="27"/>
+      <c r="B584" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C584" s="12"/>
+    </row>
+    <row r="585" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A585" s="27"/>
+      <c r="B585" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C585" s="12"/>
+    </row>
+    <row r="586" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A586" s="27"/>
+      <c r="B586" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="C586" s="12"/>
+    </row>
+    <row r="587" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A587" s="27"/>
+      <c r="B587" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C587" s="12"/>
+    </row>
+    <row r="588" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A588" s="27"/>
+      <c r="B588" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C588" s="12"/>
+    </row>
+    <row r="589" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A589" s="27"/>
+      <c r="B589" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C589" s="12"/>
+    </row>
+    <row r="590" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A590" s="27"/>
+      <c r="B590" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C590" s="12"/>
+    </row>
+    <row r="591" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A591" s="27"/>
+      <c r="B591" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C591" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="149">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B6"/>
@@ -5544,10 +5848,11 @@
     <mergeCell ref="A448:A451"/>
     <mergeCell ref="A453:A472"/>
     <mergeCell ref="C498:C500"/>
-    <mergeCell ref="A501:A523"/>
-    <mergeCell ref="A528:A549"/>
-    <mergeCell ref="B528:B530"/>
-    <mergeCell ref="A551:A572"/>
+    <mergeCell ref="A501:A522"/>
+    <mergeCell ref="A527:A547"/>
+    <mergeCell ref="B527:B529"/>
+    <mergeCell ref="A549:A566"/>
+    <mergeCell ref="A569:A591"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="592">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -1003,7 +1003,7 @@
     <t xml:space="preserve">PaaS</t>
   </si>
   <si>
-    <t xml:space="preserve">Platform as a Service (Just upload the application. LightSail, AppRunner)</t>
+    <t xml:space="preserve">Platform as a Service (Just upload the application. Elastic Beanstalk, LightSail, AppRunner)</t>
   </si>
   <si>
     <t xml:space="preserve">IaaS</t>
@@ -1516,7 +1516,7 @@
     <t xml:space="preserve">Q38 – Personal Health Dashboard vs Service Health Dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal Health Dashboard provides information on your personal account, besides alerts on events that might possible affect your environment. Service Health Dashboard provides info on service status throughout all the regions.</t>
+    <t xml:space="preserve">Personal Health Dashboard provides information on your personal account, besides alerts on events that might possible affect your environment. Service Health Dashboard provides info on service status throughout all the regions. Besides, you can subscribe to receive notifications on possible interruptions that might affect you</t>
   </si>
   <si>
     <t xml:space="preserve">Q39 – Services that can avoid SQL Injections</t>
@@ -1627,97 +1627,176 @@
     <t xml:space="preserve">Q41 – Reserved Instances on Organizations and its shareable capabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">RI are shareable if 2 accounts are in the same organization/used on consolidated billing.  To be shareable: RI sharing must be turned ON and the EC2 instance must be launched in the same AZ where the RI was originally bought</t>
+    <t xml:space="preserve">RI are shareable if 2 accounts are in the same organization/used on consolidated billing. To be shareable: RI sharing must be turned ON and the EC2 instance must be launched in the same AZ where the RI was originally bought</t>
   </si>
   <si>
     <t xml:space="preserve">Q42 – Trusted advisor pillars and more</t>
   </si>
   <si>
-    <t xml:space="preserve">Take notes later here!</t>
+    <t xml:space="preserve">Cost Optimization, Performance Efficiency, Security, Service Limits and Fault Tolerance</t>
   </si>
   <si>
     <t xml:space="preserve">Q48 – Credentials Report</t>
   </si>
   <si>
-    <t xml:space="preserve">Q49 – S3 is key-value with tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q55 – EC2 Instance user data</t>
+    <t xml:space="preserve">Credential report is a feature that we can use to check the status of all users in an account and their respective passwords, MFA and access keys statuses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q49 – S3 objects are key-value with tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q55 – EC2 Instance user data and metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC2 Instance user data is used when we want to launch scripts when the instance starts (ONLY RUNS ONCE!). Metadata is an URL thay you can access from inside the EC2 to gather information about the instance, without leveraging IAM permissions</t>
   </si>
   <si>
     <t xml:space="preserve">Q60 – U2F security key</t>
   </si>
   <si>
-    <t xml:space="preserve">Erros do simulado 5  (MAREEK 5)</t>
+    <t xml:space="preserve">U2F is a MFA FIDO key that is used for MFA on AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erros do simulado 5 (MAREEK 5)</t>
   </si>
   <si>
     <t xml:space="preserve">Q1 – Elastic Beanstalk is PaaS</t>
   </si>
   <si>
+    <t xml:space="preserve">It is, because Elastic Beanstalk has less freedom than EC2, but more than the average SaaS service</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q4 – Best practices using AWS organizations (accounts per department)</t>
   </si>
   <si>
+    <t xml:space="preserve">Enable MFA on root account and on all users within an organization, besides creating accounts by department</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q6 – Amazon Personalize</t>
   </si>
   <si>
-    <t xml:space="preserve">Q7 – What is a CDK</t>
+    <t xml:space="preserve">ML serviced used to provide more accurate recommendations to your customers and also target customers more accurately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7 – CDK vs SDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDK's are code libs, while CDK are IaC resources, used to deploy infrastructure onto AWS</t>
   </si>
   <si>
     <t xml:space="preserve">Q9 – Get better understanding of AMI</t>
   </si>
   <si>
-    <t xml:space="preserve">Q10 – Get more deeper into the TCO</t>
+    <t xml:space="preserve">AMI’s can be used to deploy the same EC2 instance across different regions/Azs</t>
   </si>
   <si>
     <t xml:space="preserve">Q11 – Types of reserved instances</t>
   </si>
   <si>
+    <t xml:space="preserve">Standard and Convertible. Convertible Instances can be exchanged for new types (M to T, for example, instance families) and get new instance types, besides being able to get different tenancies.
+They can also be merged and splitted</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q15 – Re-check the global services</t>
   </si>
   <si>
+    <t xml:space="preserve">The AWS Global Services are WAF, IAM, CloudFront and Route 53</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q16 – Study pratically the use of tags</t>
   </si>
   <si>
+    <t xml:space="preserve">Tags can be used to separate billing across departments, etc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q18 – AWS Security Token Service (STS)</t>
   </si>
   <si>
+    <t xml:space="preserve">AWS provides AWS Security Token Service (AWS STS) as a web service that enables you to request temporary, limited-privilege credentials for AWS Identity and Access Management (IAM) users or for users you authenticate (federated users).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q22 – Where EBS Snapshots are stored (S3)</t>
   </si>
   <si>
+    <t xml:space="preserve">EBS Snapshots are stored on S3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q24 – AWS Quick Start references</t>
   </si>
   <si>
+    <t xml:space="preserve">It’s now called Partner Solutions. Used to deploy common applications on AWS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q27 – Monitoring offered by CloudWatch</t>
   </si>
   <si>
+    <t xml:space="preserve">CloudWatch can monitor application performance and resource utilization.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q32 – WAF in depth</t>
   </si>
   <si>
+    <t xml:space="preserve">WAF can inspect CloudFront distributions.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q34 – Criteria used to charge EBS volumes (and what is a IOPS)</t>
   </si>
   <si>
+    <t xml:space="preserve">The fundamentals charges for EBS volumes are: the volume type (based on performance), the storage volume in GB per month provisioned, the number of IOPS provisioned per month, the storage consumed by snapshots, and outbound data transfer. IOPS is Input/Output per second.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q35 – AWS OpsWorks</t>
   </si>
   <si>
+    <t xml:space="preserve">Used to automate the infrastructure with Chef and Puppet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q37 – AWS SSO and User Federation</t>
   </si>
   <si>
+    <t xml:space="preserve">SSO is a single login page that shows all the accesses that you have. Federation is connecting your login page to other access providers, such as AD, etc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q40 – Understand clearly IaaS and PaaS</t>
   </si>
   <si>
+    <t xml:space="preserve">EC2 is IaaS. Elastic Beanstalk is PaaS. CloudFront is IaC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q47 – Read operational excellence pillar again</t>
   </si>
   <si>
+    <t xml:space="preserve">Monitor, document, provision things as code, automate stuff, make small reversible changes, antecipate failure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q56 – Fault Injection Simulator</t>
   </si>
   <si>
+    <t xml:space="preserve">Based on the principle of chaos engineering. Used to simulate failures on AWS resources.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q57 – S3 Access Logs</t>
   </si>
   <si>
+    <t xml:space="preserve">We can enable S3 access logs to direct the logs from a source bucket to a destination bucket.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q58 – CodeGuru</t>
   </si>
   <si>
+    <t xml:space="preserve">Reviews code and offers improvement sugestions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q63 – Customer Gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute Optimizer supported services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC2, Lambda Functions, Auto-scaling groups and EBS Volumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield Advanced supported services</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +1989,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1960,13 +2039,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1993,7 +2065,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2150,20 +2222,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2243,10 +2323,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D591"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B555" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B562" activeCellId="0" sqref="B562"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B565" activeCellId="0" sqref="B565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="32.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4428,7 +4508,7 @@
       <c r="A415" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B415" s="15" t="s">
+      <c r="B415" s="22" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4649,10 +4729,10 @@
       </c>
     </row>
     <row r="446" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A446" s="20" t="s">
+      <c r="A446" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B446" s="20" t="s">
+      <c r="B446" s="15" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4660,13 +4740,13 @@
       <c r="A448" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="B448" s="15" t="s">
+      <c r="B448" s="22" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="27"/>
-      <c r="B449" s="15" t="s">
+      <c r="B449" s="22" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4704,13 +4784,13 @@
     </row>
     <row r="456" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="29"/>
-      <c r="B456" s="15" t="s">
+      <c r="B456" s="22" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="29"/>
-      <c r="B457" s="15" t="s">
+      <c r="B457" s="22" t="s">
         <v>384</v>
       </c>
     </row>
@@ -4728,19 +4808,19 @@
     </row>
     <row r="460" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="29"/>
-      <c r="B460" s="15" t="s">
+      <c r="B460" s="22" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="29"/>
-      <c r="B461" s="15" t="s">
+      <c r="B461" s="22" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="29"/>
-      <c r="B462" s="30" t="s">
+      <c r="B462" s="15" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4782,19 +4862,19 @@
     </row>
     <row r="469" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="29"/>
-      <c r="B469" s="15" t="s">
+      <c r="B469" s="22" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="29"/>
-      <c r="B470" s="15" t="s">
+      <c r="B470" s="22" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="29"/>
-      <c r="B471" s="20" t="s">
+      <c r="B471" s="15" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4825,7 +4905,7 @@
       <c r="B476" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="C476" s="22" t="s">
+      <c r="C476" s="34" t="s">
         <v>405</v>
       </c>
       <c r="D476" s="35" t="s">
@@ -4839,7 +4919,7 @@
       <c r="B477" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="C477" s="22" t="s">
+      <c r="C477" s="34" t="s">
         <v>407</v>
       </c>
       <c r="D477" s="35" t="s">
@@ -4850,7 +4930,7 @@
       <c r="B478" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="C478" s="22" t="s">
+      <c r="C478" s="34" t="s">
         <v>408</v>
       </c>
       <c r="D478" s="35" t="s">
@@ -4861,7 +4941,7 @@
       <c r="B479" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="C479" s="22" t="s">
+      <c r="C479" s="34" t="s">
         <v>409</v>
       </c>
       <c r="D479" s="35" t="s">
@@ -4872,7 +4952,7 @@
       <c r="B480" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C480" s="22" t="s">
+      <c r="C480" s="34" t="s">
         <v>411</v>
       </c>
       <c r="D480" s="35" t="s">
@@ -4880,10 +4960,10 @@
       </c>
     </row>
     <row r="481" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B481" s="20" t="s">
+      <c r="B481" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="C481" s="22" t="s">
+      <c r="C481" s="34" t="s">
         <v>413</v>
       </c>
       <c r="D481" s="35" t="s">
@@ -4902,10 +4982,10 @@
       </c>
     </row>
     <row r="483" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C483" s="34" t="s">
+      <c r="C483" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="D483" s="36" t="s">
+      <c r="D483" s="35" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4957,7 +5037,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="80.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D490" s="20" t="s">
         <v>425</v>
       </c>
@@ -5091,19 +5171,19 @@
     </row>
     <row r="512" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="37"/>
-      <c r="B512" s="15" t="s">
+      <c r="B512" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="C512" s="15" t="s">
+      <c r="C512" s="34" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="37"/>
-      <c r="B513" s="15" t="s">
+      <c r="B513" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="C513" s="15" t="s">
+      <c r="C513" s="34" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5163,10 +5243,10 @@
     </row>
     <row r="520" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="37"/>
-      <c r="B520" s="20" t="s">
+      <c r="B520" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="C520" s="20" t="s">
+      <c r="C520" s="15" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5188,520 +5268,598 @@
         <v>473</v>
       </c>
     </row>
+    <row r="524" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A524" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="B524" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C524" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A525" s="27"/>
+      <c r="B525" s="15"/>
+      <c r="C525" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A526" s="27"/>
+      <c r="B526" s="15"/>
+      <c r="C526" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
     <row r="527" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A527" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="B527" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="C527" s="20" t="s">
-        <v>476</v>
+      <c r="A527" s="27"/>
+      <c r="B527" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="C527" s="15" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="27"/>
-      <c r="B528" s="20"/>
-      <c r="C528" s="20" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B528" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C528" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="77.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="27"/>
-      <c r="B529" s="20"/>
-      <c r="C529" s="20" t="s">
-        <v>478</v>
+      <c r="B529" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="C529" s="22" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="27"/>
-      <c r="B530" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="C530" s="15" t="s">
-        <v>300</v>
+      <c r="B530" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="C530" s="22" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="27"/>
       <c r="B531" s="22" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C531" s="22" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="532" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="68.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="27"/>
-      <c r="B532" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C532" s="15" t="s">
-        <v>483</v>
+      <c r="B532" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C532" s="22" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="27"/>
-      <c r="B533" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C533" s="15" t="s">
-        <v>378</v>
+      <c r="B533" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="C533" s="34" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="27"/>
-      <c r="B534" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="C534" s="22" t="s">
-        <v>486</v>
+      <c r="B534" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C534" s="15" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="27"/>
       <c r="B535" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C535" s="22" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="27"/>
-      <c r="B536" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="C536" s="15" t="s">
-        <v>490</v>
+      <c r="B536" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C536" s="22" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="27"/>
-      <c r="B537" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="C537" s="15" t="s">
-        <v>492</v>
+      <c r="B537" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="C537" s="22" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="27"/>
       <c r="B538" s="22" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C538" s="22" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="27"/>
-      <c r="B539" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="C539" s="22" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="540" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B539" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C539" s="30" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="27"/>
-      <c r="B540" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="C540" s="22" t="s">
-        <v>498</v>
+      <c r="B540" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C540" s="15" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="27"/>
-      <c r="B541" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="C541" s="22" t="s">
-        <v>500</v>
+      <c r="B541" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C541" s="15" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="27"/>
-      <c r="B542" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="C542" s="30" t="s">
-        <v>502</v>
+      <c r="B542" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="C542" s="22" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="27"/>
-      <c r="B543" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="C543" s="15" t="s">
-        <v>453</v>
+      <c r="B543" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="C543" s="22" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="27"/>
       <c r="B544" s="15" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C544" s="15" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="27"/>
-      <c r="B545" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="C545" s="22" t="s">
-        <v>507</v>
-      </c>
+      <c r="A545" s="38"/>
     </row>
     <row r="546" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="27"/>
-      <c r="B546" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="C546" s="22" t="s">
-        <v>509</v>
+      <c r="A546" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="B546" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C546" s="15" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="27"/>
-      <c r="B547" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="C547" s="20" t="s">
-        <v>511</v>
+      <c r="B547" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="C547" s="22" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="38"/>
-    </row>
-    <row r="549" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="B549" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C549" s="12" t="s">
-        <v>514</v>
+      <c r="A548" s="27"/>
+      <c r="B548" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="C548" s="22" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="53.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="27"/>
+      <c r="B549" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="C549" s="22" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="27"/>
-      <c r="B550" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="C550" s="12" t="s">
-        <v>516</v>
+      <c r="B550" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C550" s="15" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="27"/>
-      <c r="B551" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="C551" s="12" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="552" customFormat="false" ht="50.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B551" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="C551" s="22" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="69.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="27"/>
-      <c r="B552" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="C552" s="12" t="s">
-        <v>520</v>
+      <c r="B552" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="C552" s="22" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="27"/>
-      <c r="B553" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="C553" s="12" t="s">
-        <v>522</v>
+      <c r="B553" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C553" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="27"/>
-      <c r="B554" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="C554" s="12" t="s">
-        <v>524</v>
+      <c r="B554" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="C554" s="22" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="27"/>
-      <c r="B555" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="C555" s="12" t="s">
-        <v>526</v>
+      <c r="B555" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C555" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="27"/>
-      <c r="B556" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="C556" s="12" t="s">
-        <v>528</v>
+      <c r="B556" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="C556" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="27"/>
-      <c r="B557" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="C557" s="12" t="s">
-        <v>530</v>
+      <c r="B557" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="C557" s="22" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="27"/>
-      <c r="B558" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="C558" s="12" t="s">
-        <v>532</v>
+      <c r="B558" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C558" s="22" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="27"/>
-      <c r="B559" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="C559" s="12" t="s">
-        <v>441</v>
+      <c r="B559" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="C559" s="22" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="27"/>
-      <c r="B560" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="C560" s="12" t="s">
-        <v>535</v>
+      <c r="B560" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="C560" s="22" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="27"/>
-      <c r="B561" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="C561" s="12" t="s">
-        <v>537</v>
+      <c r="B561" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C561" s="15" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="27"/>
-      <c r="B562" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="C562" s="12"/>
+      <c r="B562" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="C562" s="15" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="563" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A563" s="27"/>
-      <c r="B563" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="C563" s="12"/>
+      <c r="A563" s="39"/>
+      <c r="B563" s="40"/>
+      <c r="C563" s="40"/>
     </row>
     <row r="564" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A564" s="27"/>
-      <c r="B564" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="C564" s="12"/>
+      <c r="A564" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="B564" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C564" s="41" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="565" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="27"/>
-      <c r="B565" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="C565" s="12"/>
+      <c r="B565" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C565" s="15" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="566" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="27"/>
-      <c r="B566" s="39"/>
-      <c r="C566" s="39"/>
+      <c r="B566" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C566" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="567" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B567" s="40"/>
-      <c r="C567" s="40"/>
+      <c r="A567" s="27"/>
+      <c r="B567" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C567" s="15" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="568" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A568" s="0"/>
-      <c r="B568" s="41"/>
-      <c r="C568" s="42"/>
-    </row>
-    <row r="569" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A569" s="27" t="s">
-        <v>542</v>
-      </c>
-      <c r="B569" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="C569" s="12"/>
+      <c r="A568" s="27"/>
+      <c r="B568" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C568" s="41" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A569" s="27"/>
+      <c r="B569" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C569" s="15" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="570" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="27"/>
-      <c r="B570" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="C570" s="12"/>
+      <c r="B570" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="C570" s="34" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="571" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="27"/>
-      <c r="B571" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="C571" s="12"/>
+      <c r="B571" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C571" s="42" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="572" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="27"/>
-      <c r="B572" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="C572" s="12"/>
+      <c r="B572" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C572" s="15" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="573" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="27"/>
-      <c r="B573" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="C573" s="12"/>
-    </row>
-    <row r="574" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B573" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C573" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="27"/>
-      <c r="B574" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="C574" s="12"/>
+      <c r="B574" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="C574" s="42" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="575" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="27"/>
-      <c r="B575" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="C575" s="12"/>
+      <c r="B575" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="C575" s="43" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="576" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="27"/>
-      <c r="B576" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="C576" s="12"/>
+      <c r="B576" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="C576" s="43" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="577" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="27"/>
-      <c r="B577" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="C577" s="12"/>
+      <c r="B577" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C577" s="18" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="578" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="27"/>
-      <c r="B578" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="C578" s="12"/>
+      <c r="B578" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C578" s="41" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="579" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="27"/>
-      <c r="B579" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="C579" s="12"/>
+      <c r="B579" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C579" s="15" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="580" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="27"/>
-      <c r="B580" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="C580" s="12"/>
+      <c r="B580" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C580" s="41" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="581" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="27"/>
-      <c r="B581" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="C581" s="12"/>
-    </row>
-    <row r="582" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B581" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C581" s="41" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="27"/>
-      <c r="B582" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="C582" s="12"/>
+      <c r="B582" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C582" s="15" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="583" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="27"/>
-      <c r="B583" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="C583" s="12"/>
-    </row>
-    <row r="584" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B583" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C583" s="41" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="27"/>
-      <c r="B584" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="C584" s="12"/>
+      <c r="B584" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="C584" s="34" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="585" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="27"/>
-      <c r="B585" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="C585" s="12"/>
+      <c r="B585" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C585" s="44"/>
     </row>
     <row r="586" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="27"/>
-      <c r="B586" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="C586" s="12"/>
+      <c r="B586" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="C586" s="34" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="587" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="27"/>
-      <c r="B587" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="C587" s="12"/>
+      <c r="B587" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="C587" s="34" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="588" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A588" s="27"/>
-      <c r="B588" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="C588" s="12"/>
+      <c r="A588" s="0"/>
+      <c r="B588" s="0"/>
+      <c r="C588" s="0"/>
     </row>
     <row r="589" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A589" s="27"/>
-      <c r="B589" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="C589" s="12"/>
+      <c r="A589" s="0"/>
+      <c r="B589" s="0"/>
+      <c r="C589" s="0"/>
     </row>
     <row r="590" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A590" s="27"/>
-      <c r="B590" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="C590" s="12"/>
+      <c r="A590" s="0"/>
+      <c r="B590" s="0"/>
+      <c r="C590" s="0"/>
     </row>
     <row r="591" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A591" s="27"/>
-      <c r="B591" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="C591" s="12"/>
-    </row>
+      <c r="A591" s="0"/>
+      <c r="B591" s="0"/>
+      <c r="C591" s="0"/>
+    </row>
+    <row r="592" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A592" s="0"/>
+      <c r="B592" s="0"/>
+      <c r="C592" s="0"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="149">
     <mergeCell ref="A1:C1"/>
@@ -5849,10 +6007,10 @@
     <mergeCell ref="A453:A472"/>
     <mergeCell ref="C498:C500"/>
     <mergeCell ref="A501:A522"/>
-    <mergeCell ref="A527:A547"/>
-    <mergeCell ref="B527:B529"/>
-    <mergeCell ref="A549:A566"/>
-    <mergeCell ref="A569:A591"/>
+    <mergeCell ref="A524:A544"/>
+    <mergeCell ref="B524:B526"/>
+    <mergeCell ref="A546:A562"/>
+    <mergeCell ref="A564:A587"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="653">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -1883,19 +1883,34 @@
     <t xml:space="preserve">Erros do simulado 6 (MAREEK 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Scale in and out</t>
+    <t xml:space="preserve">Scale in and out, up and down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale up is when we change our instance to a higher type (ex: m4.large to m4.xlarge), scale down is the opposite. Scale out is adding more instances, scaling in is the opposite.</t>
   </si>
   <si>
     <t xml:space="preserve">Security of x in the cloud</t>
   </si>
   <si>
+    <t xml:space="preserve">OF THE CLOUD = AWS. IN THE CLOUD = CUSTOMER</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q9 - Each tag must be unique and can have only one value, and we must activate AWS generated tags and user-defined tags before they appear in cost explorer</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes, each tag is unique and can have only one value, and we, as customers, have to activate both AWS-Generated tags and user-defined tags before they appear on our Cost Explorer.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q11 - All instances discounts</t>
   </si>
   <si>
+    <t xml:space="preserve">On-demand NO DISCOUNT. Savings Plans and Reservations 72%. Spot Instances 90%. Dedicated Hosts are billed as on-demand, but reservations offer up to 70%, while savings plans offer up to 72%.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q15 - Budgets types that can be created on AWS Budgets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost: When my costs reach X value, notify me!!!, Usage: When my usage units (ex: ec2 running hours) reach X, notify me please!!! and reservation budgets (for reserved instances)</t>
   </si>
   <si>
     <t xml:space="preserve">Q16 - CloudFormation doesn't help us in migrating data and applications</t>
@@ -2226,7 +2241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2257,10 +2272,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2383,36 +2394,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2420,7 +2403,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2502,11 +2485,11 @@
   </sheetPr>
   <dimension ref="A1:D642"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B616" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B613" activeCellId="0" sqref="B613"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B612" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C624" activeCellId="0" sqref="C624"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="43.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.57"/>
@@ -2617,18 +2600,18 @@
     <row r="14" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2655,45 +2638,45 @@
     </row>
     <row r="19" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2702,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -2734,7 +2717,7 @@
     </row>
     <row r="32" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2766,13 +2749,13 @@
     </row>
     <row r="39" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2786,7 +2769,7 @@
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2824,7 +2807,7 @@
     </row>
     <row r="50" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2904,7 +2887,7 @@
     </row>
     <row r="67" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2932,55 +2915,55 @@
       <c r="A73" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2991,58 +2974,58 @@
       <c r="B83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="9" t="s">
+      <c r="A84" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16"/>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="15"/>
+      <c r="B85" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16"/>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="15"/>
+      <c r="B86" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="16"/>
-      <c r="B87" s="9" t="s">
+      <c r="A87" s="15"/>
+      <c r="B87" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="16"/>
-      <c r="B88" s="9" t="s">
+      <c r="A88" s="15"/>
+      <c r="B88" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="16"/>
-      <c r="B89" s="17" t="s">
+      <c r="A89" s="15"/>
+      <c r="B89" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="16"/>
-      <c r="B90" s="9" t="s">
+      <c r="A90" s="15"/>
+      <c r="B90" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16"/>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="15"/>
+      <c r="B91" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="18"/>
-      <c r="B92" s="10" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3053,46 +3036,46 @@
       <c r="B94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="9" t="s">
+      <c r="A95" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="16"/>
-      <c r="B96" s="9" t="s">
+      <c r="A96" s="15"/>
+      <c r="B96" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="16"/>
-      <c r="B97" s="9" t="s">
+      <c r="A97" s="15"/>
+      <c r="B97" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="16"/>
-      <c r="B98" s="9" t="s">
+      <c r="A98" s="15"/>
+      <c r="B98" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="16"/>
-      <c r="B99" s="9" t="s">
+      <c r="A99" s="15"/>
+      <c r="B99" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="16"/>
-      <c r="B100" s="9" t="s">
+      <c r="A100" s="15"/>
+      <c r="B100" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="16"/>
-      <c r="B101" s="10" t="s">
+      <c r="A101" s="15"/>
+      <c r="B101" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3106,85 +3089,85 @@
       <c r="A104" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3198,25 +3181,25 @@
       <c r="A120" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3227,22 +3210,22 @@
       <c r="B125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B126" s="9" t="s">
+      <c r="A126" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="19"/>
-      <c r="B127" s="9" t="s">
+      <c r="A127" s="18"/>
+      <c r="B127" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="19"/>
-      <c r="B128" s="10" t="s">
+      <c r="A128" s="18"/>
+      <c r="B128" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3256,25 +3239,25 @@
       <c r="A131" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3288,7 +3271,7 @@
       <c r="A137" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3299,16 +3282,16 @@
       <c r="B139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="9" t="s">
+      <c r="A140" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="16"/>
-      <c r="B141" s="20" t="s">
+      <c r="A141" s="15"/>
+      <c r="B141" s="19" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3319,52 +3302,52 @@
       <c r="B143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="9" t="s">
+      <c r="A144" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="19"/>
-      <c r="B145" s="10" t="s">
+      <c r="A145" s="18"/>
+      <c r="B145" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="19"/>
-      <c r="B146" s="9" t="s">
+      <c r="A146" s="18"/>
+      <c r="B146" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="19"/>
-      <c r="B147" s="9" t="s">
+      <c r="A147" s="18"/>
+      <c r="B147" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="19"/>
-      <c r="B148" s="9" t="s">
+      <c r="A148" s="18"/>
+      <c r="B148" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="19"/>
-      <c r="B149" s="9" t="s">
+      <c r="A149" s="18"/>
+      <c r="B149" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="19"/>
-      <c r="B150" s="9" t="s">
+      <c r="A150" s="18"/>
+      <c r="B150" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="19"/>
-      <c r="B151" s="10" t="s">
+      <c r="A151" s="18"/>
+      <c r="B151" s="9" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3378,55 +3361,55 @@
       <c r="A154" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="21"/>
-      <c r="B161" s="9" t="s">
+      <c r="A161" s="20"/>
+      <c r="B161" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="21"/>
-      <c r="B162" s="10" t="s">
+      <c r="A162" s="20"/>
+      <c r="B162" s="9" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3440,25 +3423,25 @@
       <c r="A165" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="8" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3469,34 +3452,34 @@
       <c r="B170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" s="9" t="s">
+      <c r="A171" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="19"/>
-      <c r="B172" s="9" t="s">
+      <c r="A172" s="18"/>
+      <c r="B172" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="19"/>
-      <c r="B173" s="10" t="s">
+      <c r="A173" s="18"/>
+      <c r="B173" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="19"/>
-      <c r="B174" s="9" t="s">
+      <c r="A174" s="18"/>
+      <c r="B174" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="19"/>
-      <c r="B175" s="10" t="s">
+      <c r="A175" s="18"/>
+      <c r="B175" s="9" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3510,13 +3493,13 @@
       <c r="A178" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3530,49 +3513,49 @@
       <c r="A182" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="9" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3583,28 +3566,28 @@
       <c r="B191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B192" s="9" t="s">
+      <c r="A192" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="19"/>
-      <c r="B193" s="9" t="s">
+      <c r="A193" s="18"/>
+      <c r="B193" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="19"/>
-      <c r="B194" s="9" t="s">
+      <c r="A194" s="18"/>
+      <c r="B194" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="19"/>
-      <c r="B195" s="10" t="s">
+      <c r="A195" s="18"/>
+      <c r="B195" s="9" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3618,7 +3601,7 @@
       <c r="A198" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3632,7 +3615,7 @@
       <c r="A201" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3646,31 +3629,31 @@
       <c r="A204" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
-      <c r="B207" s="12" t="s">
+      <c r="B207" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="8" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3684,13 +3667,13 @@
       <c r="A211" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
-      <c r="B212" s="12" t="s">
+      <c r="B212" s="11" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3704,25 +3687,25 @@
       <c r="A215" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="8" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3736,13 +3719,13 @@
       <c r="A221" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="9" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3756,19 +3739,19 @@
       <c r="A225" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
-      <c r="B227" s="12" t="s">
+      <c r="B227" s="11" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3782,7 +3765,7 @@
       <c r="A230" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="8" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3796,7 +3779,7 @@
       <c r="A233" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3810,25 +3793,25 @@
       <c r="A236" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="8" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3842,7 +3825,7 @@
       <c r="A242" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="8" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3856,7 +3839,7 @@
       <c r="A245" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="8" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3870,19 +3853,19 @@
       <c r="A248" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="8" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3896,7 +3879,7 @@
       <c r="A253" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="9" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3910,7 +3893,7 @@
       <c r="A256" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="8" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3924,19 +3907,19 @@
       <c r="A259" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3947,28 +3930,28 @@
       <c r="B263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B264" s="9" t="s">
+      <c r="A264" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="19"/>
-      <c r="B265" s="9" t="s">
+      <c r="A265" s="18"/>
+      <c r="B265" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="19"/>
-      <c r="B266" s="9" t="s">
+      <c r="A266" s="18"/>
+      <c r="B266" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="19"/>
-      <c r="B267" s="10" t="s">
+      <c r="A267" s="18"/>
+      <c r="B267" s="9" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3982,13 +3965,13 @@
       <c r="A270" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3999,34 +3982,34 @@
       <c r="B273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B274" s="9" t="s">
+      <c r="A274" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="19"/>
-      <c r="B275" s="9" t="s">
+      <c r="A275" s="18"/>
+      <c r="B275" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="19"/>
-      <c r="B276" s="9" t="s">
+      <c r="A276" s="18"/>
+      <c r="B276" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="19"/>
-      <c r="B277" s="9" t="s">
+      <c r="A277" s="18"/>
+      <c r="B277" s="8" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="19"/>
-      <c r="B278" s="9" t="s">
+      <c r="A278" s="18"/>
+      <c r="B278" s="8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4040,7 +4023,7 @@
       <c r="A281" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B281" s="8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4054,7 +4037,7 @@
       <c r="A284" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B284" s="8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4068,7 +4051,7 @@
       <c r="A287" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B287" s="8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4082,7 +4065,7 @@
       <c r="A290" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="8" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4096,7 +4079,7 @@
       <c r="A293" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="8" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4110,13 +4093,13 @@
       <c r="A296" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B296" s="8" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="8" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4130,19 +4113,19 @@
       <c r="A300" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="B300" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="8" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4156,13 +4139,13 @@
       <c r="A305" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="3"/>
-      <c r="B306" s="12" t="s">
+      <c r="B306" s="11" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4176,7 +4159,7 @@
       <c r="A309" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="8" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4190,13 +4173,13 @@
       <c r="A312" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B312" s="22" t="s">
+      <c r="B312" s="21" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="3"/>
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="8" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4210,7 +4193,7 @@
       <c r="A316" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="8" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4224,7 +4207,7 @@
       <c r="A319" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="B319" s="8" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4238,7 +4221,7 @@
       <c r="A322" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="B322" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4252,7 +4235,7 @@
       <c r="A325" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="8" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4266,7 +4249,7 @@
       <c r="A328" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="8" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4280,25 +4263,25 @@
       <c r="A331" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="B331" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="3"/>
-      <c r="B332" s="12" t="s">
+      <c r="B332" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="3"/>
-      <c r="B333" s="12" t="s">
+      <c r="B333" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="3"/>
-      <c r="B334" s="12" t="s">
+      <c r="B334" s="11" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4312,25 +4295,25 @@
       <c r="A337" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B337" s="9" t="s">
+      <c r="B337" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="3"/>
-      <c r="B338" s="9" t="s">
+      <c r="B338" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="3"/>
-      <c r="B339" s="9" t="s">
+      <c r="B339" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="3"/>
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="8" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4344,19 +4327,19 @@
       <c r="A343" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B343" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="3"/>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="8" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="3"/>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="8" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4370,7 +4353,7 @@
       <c r="A348" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B348" s="9" t="s">
+      <c r="B348" s="8" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4381,16 +4364,16 @@
       <c r="B350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B351" s="9" t="s">
+      <c r="A351" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="19"/>
-      <c r="B352" s="9" t="s">
+      <c r="A352" s="18"/>
+      <c r="B352" s="8" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4404,7 +4387,7 @@
       <c r="A355" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B355" s="12" t="s">
+      <c r="B355" s="11" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4418,13 +4401,13 @@
       <c r="A358" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="3"/>
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="8" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4438,7 +4421,7 @@
       <c r="A362" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4452,7 +4435,7 @@
       <c r="A365" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="8" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4466,7 +4449,7 @@
       <c r="A368" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B368" s="12" t="s">
+      <c r="B368" s="11" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4480,19 +4463,19 @@
       <c r="A371" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="8" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="3"/>
-      <c r="B372" s="9" t="s">
+      <c r="B372" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="3"/>
-      <c r="B373" s="9" t="s">
+      <c r="B373" s="8" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4506,7 +4489,7 @@
       <c r="A376" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="8" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4520,19 +4503,19 @@
       <c r="A379" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="3"/>
-      <c r="B380" s="10" t="s">
+      <c r="B380" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="3"/>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="8" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4546,7 +4529,7 @@
       <c r="A384" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="8" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4560,7 +4543,7 @@
       <c r="A387" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B387" s="9" t="s">
+      <c r="B387" s="8" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4574,7 +4557,7 @@
       <c r="A390" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B390" s="9" t="s">
+      <c r="B390" s="8" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4588,7 +4571,7 @@
       <c r="A393" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="8" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4602,7 +4585,7 @@
       <c r="A396" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="8" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4616,13 +4599,13 @@
       <c r="A399" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="B399" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="3"/>
-      <c r="B400" s="9" t="s">
+      <c r="B400" s="8" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4636,7 +4619,7 @@
       <c r="A403" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="8" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4650,7 +4633,7 @@
       <c r="A406" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B406" s="9" t="s">
+      <c r="B406" s="8" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4678,19 +4661,19 @@
       <c r="A412" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B412" s="10" t="s">
+      <c r="B412" s="9" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="3"/>
-      <c r="B413" s="9" t="s">
+      <c r="B413" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="3"/>
-      <c r="B414" s="10" t="s">
+      <c r="B414" s="9" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4705,82 +4688,82 @@
       <c r="A417" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B417" s="23" t="s">
+      <c r="B417" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="C417" s="9" t="s">
+      <c r="C417" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="3"/>
-      <c r="B418" s="23"/>
-      <c r="C418" s="9" t="s">
+      <c r="B418" s="22"/>
+      <c r="C418" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="3"/>
-      <c r="B419" s="23"/>
-      <c r="C419" s="9" t="s">
+      <c r="B419" s="22"/>
+      <c r="C419" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="3"/>
-      <c r="B420" s="23"/>
-      <c r="C420" s="9" t="s">
+      <c r="B420" s="22"/>
+      <c r="C420" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
-      <c r="B421" s="23"/>
-      <c r="C421" s="9" t="s">
+      <c r="B421" s="22"/>
+      <c r="C421" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
-      <c r="B422" s="24" t="s">
+      <c r="B422" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="C422" s="10" t="s">
+      <c r="C422" s="9" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
-      <c r="B423" s="24"/>
-      <c r="C423" s="10" t="s">
+      <c r="B423" s="23"/>
+      <c r="C423" s="9" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="3"/>
-      <c r="B424" s="24"/>
-      <c r="C424" s="10" t="s">
+      <c r="B424" s="23"/>
+      <c r="C424" s="9" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="3"/>
-      <c r="B425" s="24"/>
-      <c r="C425" s="10" t="s">
+      <c r="B425" s="23"/>
+      <c r="C425" s="9" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="3"/>
-      <c r="B426" s="24"/>
-      <c r="C426" s="10" t="s">
+      <c r="B426" s="23"/>
+      <c r="C426" s="9" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="3"/>
-      <c r="B427" s="24"/>
-      <c r="C427" s="10" t="s">
+      <c r="B427" s="23"/>
+      <c r="C427" s="9" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4794,49 +4777,49 @@
       <c r="A430" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B430" s="22" t="s">
+      <c r="B430" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="3"/>
-      <c r="B431" s="22" t="s">
+      <c r="B431" s="21" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="3"/>
-      <c r="B432" s="22" t="s">
+      <c r="B432" s="21" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="3"/>
-      <c r="B433" s="22" t="s">
+      <c r="B433" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
-      <c r="B434" s="22" t="s">
+      <c r="B434" s="21" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="3"/>
-      <c r="B435" s="22" t="s">
+      <c r="B435" s="21" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="3"/>
-      <c r="B436" s="22" t="s">
+      <c r="B436" s="21" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="3"/>
-      <c r="B437" s="22" t="s">
+      <c r="B437" s="21" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4850,151 +4833,151 @@
       <c r="A440" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B440" s="22" t="s">
+      <c r="B440" s="21" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="25" t="s">
+      <c r="A442" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="B442" s="25"/>
+      <c r="B442" s="24"/>
     </row>
     <row r="443" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A443" s="25"/>
-      <c r="B443" s="25"/>
+      <c r="A443" s="24"/>
+      <c r="B443" s="24"/>
     </row>
     <row r="444" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="25"/>
-      <c r="B444" s="25"/>
+      <c r="A444" s="24"/>
+      <c r="B444" s="24"/>
     </row>
     <row r="445" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A445" s="25"/>
-      <c r="B445" s="25"/>
+      <c r="A445" s="24"/>
+      <c r="B445" s="24"/>
     </row>
     <row r="446" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A446" s="9" t="s">
+      <c r="A446" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="10" t="s">
+      <c r="A447" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B447" s="10" t="s">
+      <c r="B447" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="9" t="s">
+      <c r="A448" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="B448" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="9" t="s">
+      <c r="A449" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B449" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="9" t="s">
+      <c r="A450" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" s="8" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A451" s="22" t="s">
+      <c r="A451" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A452" s="22" t="s">
+      <c r="A452" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="8" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="22" t="s">
+      <c r="A453" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="B453" s="26"/>
+      <c r="B453" s="25"/>
     </row>
     <row r="454" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="9" t="s">
+      <c r="A454" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="8" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="9" t="s">
+      <c r="A455" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" s="8" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="9" t="s">
+      <c r="A456" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="9" t="s">
+      <c r="A457" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="8" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A458" s="9" t="s">
+      <c r="A458" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A459" s="9" t="s">
+      <c r="A459" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B459" s="9" t="s">
+      <c r="B459" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A460" s="10" t="s">
+      <c r="A460" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B460" s="10" t="s">
+      <c r="B460" s="9" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="9" t="s">
+      <c r="A461" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B461" s="9" t="s">
+      <c r="B461" s="8" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5002,233 +4985,233 @@
       <c r="A462" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B462" s="8" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="9" t="s">
+      <c r="A463" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B463" s="8" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A464" s="9" t="s">
+      <c r="A464" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B464" s="9" t="s">
+      <c r="B464" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="9" t="s">
+      <c r="A465" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B465" s="8" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A466" s="9" t="s">
+      <c r="A466" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="8" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A467" s="9" t="s">
+      <c r="A467" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B467" s="8" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A468" s="9" t="s">
+      <c r="A468" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="8" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A469" s="9" t="s">
+      <c r="A469" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B469" s="8" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A470" s="10" t="s">
+      <c r="A470" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B470" s="10" t="s">
+      <c r="B470" s="9" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A471" s="10" t="s">
+      <c r="A471" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B471" s="10" t="s">
+      <c r="B471" s="9" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A473" s="27" t="s">
+      <c r="A473" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="B473" s="22" t="s">
+      <c r="B473" s="21" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A474" s="27"/>
-      <c r="B474" s="22" t="s">
+      <c r="A474" s="26"/>
+      <c r="B474" s="21" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A475" s="27"/>
-      <c r="B475" s="28" t="s">
+      <c r="A475" s="26"/>
+      <c r="B475" s="27" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A476" s="27"/>
-      <c r="B476" s="10" t="s">
+      <c r="A476" s="26"/>
+      <c r="B476" s="9" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="29" t="s">
+      <c r="A478" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" s="8" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A479" s="29"/>
-      <c r="B479" s="12" t="s">
+      <c r="A479" s="28"/>
+      <c r="B479" s="11" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A480" s="29"/>
-      <c r="B480" s="9" t="s">
+      <c r="A480" s="28"/>
+      <c r="B480" s="8" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A481" s="29"/>
-      <c r="B481" s="9" t="s">
+      <c r="A481" s="28"/>
+      <c r="B481" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A482" s="29"/>
-      <c r="B482" s="9" t="s">
+      <c r="A482" s="28"/>
+      <c r="B482" s="8" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A483" s="29"/>
-      <c r="B483" s="9" t="s">
+      <c r="A483" s="28"/>
+      <c r="B483" s="8" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A484" s="29"/>
-      <c r="B484" s="9" t="s">
+      <c r="A484" s="28"/>
+      <c r="B484" s="8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A485" s="29"/>
-      <c r="B485" s="9" t="s">
+      <c r="A485" s="28"/>
+      <c r="B485" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A486" s="29"/>
-      <c r="B486" s="9" t="s">
+      <c r="A486" s="28"/>
+      <c r="B486" s="8" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A487" s="29"/>
-      <c r="B487" s="9" t="s">
+      <c r="A487" s="28"/>
+      <c r="B487" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A488" s="29"/>
-      <c r="B488" s="9" t="s">
+      <c r="A488" s="28"/>
+      <c r="B488" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A489" s="29"/>
-      <c r="B489" s="9" t="s">
+      <c r="A489" s="28"/>
+      <c r="B489" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A490" s="29"/>
-      <c r="B490" s="9" t="s">
+      <c r="A490" s="28"/>
+      <c r="B490" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A491" s="29"/>
-      <c r="B491" s="30" t="s">
+      <c r="A491" s="28"/>
+      <c r="B491" s="29" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A492" s="29"/>
-      <c r="B492" s="22" t="s">
+      <c r="A492" s="28"/>
+      <c r="B492" s="21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A493" s="29"/>
-      <c r="B493" s="22" t="s">
+      <c r="A493" s="28"/>
+      <c r="B493" s="21" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A494" s="29"/>
-      <c r="B494" s="22" t="s">
+      <c r="A494" s="28"/>
+      <c r="B494" s="21" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A495" s="29"/>
-      <c r="B495" s="22" t="s">
+      <c r="A495" s="28"/>
+      <c r="B495" s="21" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A496" s="29"/>
-      <c r="B496" s="22" t="s">
+      <c r="A496" s="28"/>
+      <c r="B496" s="21" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A497" s="29"/>
-      <c r="B497" s="10" t="s">
+      <c r="A497" s="28"/>
+      <c r="B497" s="9" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A498" s="29"/>
-      <c r="B498" s="22" t="s">
+      <c r="A498" s="28"/>
+      <c r="B498" s="21" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5239,1179 +5222,1184 @@
       <c r="B501" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C501" s="31" t="s">
+      <c r="C501" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="D501" s="32" t="s">
+      <c r="D501" s="31" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A502" s="33" t="s">
+      <c r="A502" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="B502" s="34" t="s">
+      <c r="B502" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="C502" s="34" t="s">
+      <c r="C502" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="D502" s="35" t="s">
+      <c r="D502" s="34" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A503" s="33" t="s">
+      <c r="A503" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="B503" s="34" t="s">
+      <c r="B503" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="C503" s="34" t="s">
+      <c r="C503" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="D503" s="35" t="s">
+      <c r="D503" s="34" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B504" s="34" t="s">
+      <c r="B504" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="C504" s="34" t="s">
+      <c r="C504" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="D504" s="35" t="s">
+      <c r="D504" s="34" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B505" s="34" t="s">
+      <c r="B505" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="C505" s="34" t="s">
+      <c r="C505" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="D505" s="35" t="s">
+      <c r="D505" s="34" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B506" s="34" t="s">
+      <c r="B506" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="C506" s="34" t="s">
+      <c r="C506" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="D506" s="35" t="s">
+      <c r="D506" s="34" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B507" s="10" t="s">
+      <c r="B507" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C507" s="34" t="s">
+      <c r="C507" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="D507" s="35" t="s">
+      <c r="D507" s="34" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B508" s="10" t="s">
+      <c r="B508" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C508" s="10" t="s">
+      <c r="C508" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D508" s="35" t="s">
+      <c r="D508" s="34" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C509" s="10" t="s">
+      <c r="C509" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D509" s="35" t="s">
+      <c r="D509" s="34" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C510" s="34" t="s">
+      <c r="C510" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="D510" s="35" t="s">
+      <c r="D510" s="34" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C511" s="34" t="s">
+      <c r="C511" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="D511" s="35" t="s">
+      <c r="D511" s="34" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C512" s="34" t="s">
+      <c r="C512" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="D512" s="35" t="s">
+      <c r="D512" s="34" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C513" s="34" t="s">
+      <c r="C513" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="D513" s="35" t="s">
+      <c r="D513" s="34" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C514" s="34" t="s">
+      <c r="C514" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="D514" s="35" t="s">
+      <c r="D514" s="34" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C515" s="34" t="s">
+      <c r="C515" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="D515" s="36" t="s">
+      <c r="D515" s="35" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D516" s="12" t="s">
+      <c r="D516" s="11" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D517" s="34" t="s">
+      <c r="D517" s="33" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D518" s="34" t="s">
+      <c r="D518" s="33" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D519" s="34" t="s">
+      <c r="D519" s="33" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C524" s="27" t="s">
+      <c r="C524" s="26" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C525" s="27"/>
+      <c r="C525" s="26"/>
     </row>
     <row r="526" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C526" s="27"/>
+      <c r="C526" s="26"/>
     </row>
     <row r="527" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A527" s="37" t="s">
+      <c r="A527" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="B527" s="34" t="s">
+      <c r="B527" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="C527" s="34" t="s">
+      <c r="C527" s="33" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A528" s="37"/>
-      <c r="B528" s="34" t="s">
+      <c r="A528" s="36"/>
+      <c r="B528" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="C528" s="34" t="s">
+      <c r="C528" s="33" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A529" s="37"/>
-      <c r="B529" s="34" t="s">
+      <c r="A529" s="36"/>
+      <c r="B529" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="C529" s="34" t="s">
+      <c r="C529" s="33" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A530" s="37"/>
-      <c r="B530" s="34" t="s">
+      <c r="A530" s="36"/>
+      <c r="B530" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="C530" s="34" t="s">
+      <c r="C530" s="33" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A531" s="37"/>
-      <c r="B531" s="34" t="s">
+      <c r="A531" s="36"/>
+      <c r="B531" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="C531" s="34" t="s">
+      <c r="C531" s="33" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A532" s="37"/>
-      <c r="B532" s="34" t="s">
+      <c r="A532" s="36"/>
+      <c r="B532" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="C532" s="34" t="s">
+      <c r="C532" s="33" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A533" s="37"/>
-      <c r="B533" s="34" t="s">
+      <c r="A533" s="36"/>
+      <c r="B533" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="C533" s="34" t="s">
+      <c r="C533" s="33" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A534" s="37"/>
-      <c r="B534" s="34" t="s">
+      <c r="A534" s="36"/>
+      <c r="B534" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="C534" s="34" t="s">
+      <c r="C534" s="33" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A535" s="37"/>
-      <c r="B535" s="34" t="s">
+      <c r="A535" s="36"/>
+      <c r="B535" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="C535" s="34" t="s">
+      <c r="C535" s="33" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A536" s="37"/>
-      <c r="B536" s="34" t="s">
+      <c r="A536" s="36"/>
+      <c r="B536" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="C536" s="34" t="s">
+      <c r="C536" s="33" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A537" s="37"/>
-      <c r="B537" s="34" t="s">
+      <c r="A537" s="36"/>
+      <c r="B537" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="C537" s="34" t="s">
+      <c r="C537" s="33" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A538" s="37"/>
-      <c r="B538" s="34" t="s">
+      <c r="A538" s="36"/>
+      <c r="B538" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="C538" s="34" t="s">
+      <c r="C538" s="33" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A539" s="37"/>
-      <c r="B539" s="34" t="s">
+      <c r="A539" s="36"/>
+      <c r="B539" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="C539" s="34" t="s">
+      <c r="C539" s="33" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A540" s="37"/>
-      <c r="B540" s="34" t="s">
+      <c r="A540" s="36"/>
+      <c r="B540" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="C540" s="34" t="s">
+      <c r="C540" s="33" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A541" s="37"/>
-      <c r="B541" s="34" t="s">
+      <c r="A541" s="36"/>
+      <c r="B541" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="C541" s="34" t="s">
+      <c r="C541" s="33" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="37"/>
-      <c r="B542" s="34" t="s">
+      <c r="A542" s="36"/>
+      <c r="B542" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="C542" s="34" t="s">
+      <c r="C542" s="33" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A543" s="37"/>
-      <c r="B543" s="10" t="s">
+      <c r="A543" s="36"/>
+      <c r="B543" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C543" s="10" t="s">
+      <c r="C543" s="9" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="37"/>
-      <c r="B544" s="22" t="s">
+      <c r="A544" s="36"/>
+      <c r="B544" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="C544" s="22" t="s">
+      <c r="C544" s="21" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="37"/>
-      <c r="B545" s="10" t="s">
+      <c r="A545" s="36"/>
+      <c r="B545" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="C545" s="10" t="s">
+      <c r="C545" s="9" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="37"/>
-      <c r="B546" s="34" t="s">
+      <c r="A546" s="36"/>
+      <c r="B546" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="C546" s="34" t="s">
+      <c r="C546" s="33" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="37"/>
-      <c r="B547" s="34" t="s">
+      <c r="A547" s="36"/>
+      <c r="B547" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="C547" s="34" t="s">
+      <c r="C547" s="33" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="37"/>
-      <c r="B548" s="34" t="s">
+      <c r="A548" s="36"/>
+      <c r="B548" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="C548" s="34" t="s">
+      <c r="C548" s="33" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="27" t="s">
+      <c r="A550" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="B550" s="10" t="s">
+      <c r="B550" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C550" s="10" t="s">
+      <c r="C550" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="27"/>
-      <c r="B551" s="10"/>
-      <c r="C551" s="10" t="s">
+      <c r="A551" s="26"/>
+      <c r="B551" s="9"/>
+      <c r="C551" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="27"/>
-      <c r="B552" s="10"/>
-      <c r="C552" s="10" t="s">
+      <c r="A552" s="26"/>
+      <c r="B552" s="9"/>
+      <c r="C552" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A553" s="27"/>
-      <c r="B553" s="9" t="s">
+      <c r="A553" s="26"/>
+      <c r="B553" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="C553" s="9" t="s">
+      <c r="C553" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A554" s="27"/>
-      <c r="B554" s="9" t="s">
+      <c r="A554" s="26"/>
+      <c r="B554" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C554" s="9" t="s">
+      <c r="C554" s="8" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A555" s="27"/>
-      <c r="B555" s="9" t="s">
+      <c r="A555" s="26"/>
+      <c r="B555" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="C555" s="9" t="s">
+      <c r="C555" s="8" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A556" s="27"/>
-      <c r="B556" s="9" t="s">
+      <c r="A556" s="26"/>
+      <c r="B556" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="C556" s="9" t="s">
+      <c r="C556" s="8" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A557" s="27"/>
-      <c r="B557" s="9" t="s">
+      <c r="A557" s="26"/>
+      <c r="B557" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="C557" s="9" t="s">
+      <c r="C557" s="8" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A558" s="27"/>
-      <c r="B558" s="9" t="s">
+      <c r="A558" s="26"/>
+      <c r="B558" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="C558" s="9" t="s">
+      <c r="C558" s="8" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A559" s="27"/>
-      <c r="B559" s="9" t="s">
+      <c r="A559" s="26"/>
+      <c r="B559" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C559" s="9" t="s">
+      <c r="C559" s="8" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A560" s="27"/>
-      <c r="B560" s="10" t="s">
+      <c r="A560" s="26"/>
+      <c r="B560" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="C560" s="10" t="s">
+      <c r="C560" s="9" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A561" s="27"/>
-      <c r="B561" s="22" t="s">
+      <c r="A561" s="26"/>
+      <c r="B561" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="C561" s="22" t="s">
+      <c r="C561" s="21" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="27"/>
-      <c r="B562" s="22" t="s">
+      <c r="A562" s="26"/>
+      <c r="B562" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C562" s="22" t="s">
+      <c r="C562" s="21" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A563" s="27"/>
-      <c r="B563" s="22" t="s">
+      <c r="A563" s="26"/>
+      <c r="B563" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="C563" s="22" t="s">
+      <c r="C563" s="21" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A564" s="27"/>
-      <c r="B564" s="22" t="s">
+      <c r="A564" s="26"/>
+      <c r="B564" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="C564" s="22" t="s">
+      <c r="C564" s="21" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A565" s="27"/>
-      <c r="B565" s="30" t="s">
+      <c r="A565" s="26"/>
+      <c r="B565" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="C565" s="30" t="s">
+      <c r="C565" s="29" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A566" s="27"/>
-      <c r="B566" s="10" t="s">
+      <c r="A566" s="26"/>
+      <c r="B566" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="C566" s="10" t="s">
+      <c r="C566" s="9" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A567" s="27"/>
-      <c r="B567" s="10" t="s">
+      <c r="A567" s="26"/>
+      <c r="B567" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C567" s="10" t="s">
+      <c r="C567" s="9" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A568" s="27"/>
-      <c r="B568" s="22" t="s">
+      <c r="A568" s="26"/>
+      <c r="B568" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="C568" s="22" t="s">
+      <c r="C568" s="21" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A569" s="27"/>
-      <c r="B569" s="22" t="s">
+      <c r="A569" s="26"/>
+      <c r="B569" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="C569" s="22" t="s">
+      <c r="C569" s="21" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A570" s="27"/>
-      <c r="B570" s="10" t="s">
+      <c r="A570" s="26"/>
+      <c r="B570" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="C570" s="10" t="s">
+      <c r="C570" s="9" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A571" s="38"/>
+      <c r="A571" s="37"/>
     </row>
     <row r="572" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A572" s="27" t="s">
+      <c r="A572" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B572" s="10" t="s">
+      <c r="B572" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="C572" s="10" t="s">
+      <c r="C572" s="9" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A573" s="27"/>
-      <c r="B573" s="22" t="s">
+      <c r="A573" s="26"/>
+      <c r="B573" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="C573" s="22" t="s">
+      <c r="C573" s="21" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A574" s="27"/>
-      <c r="B574" s="22" t="s">
+      <c r="A574" s="26"/>
+      <c r="B574" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C574" s="22" t="s">
+      <c r="C574" s="21" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A575" s="27"/>
-      <c r="B575" s="22" t="s">
+      <c r="A575" s="26"/>
+      <c r="B575" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C575" s="22" t="s">
+      <c r="C575" s="21" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A576" s="27"/>
-      <c r="B576" s="10" t="s">
+      <c r="A576" s="26"/>
+      <c r="B576" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C576" s="10" t="s">
+      <c r="C576" s="9" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A577" s="27"/>
-      <c r="B577" s="22" t="s">
+      <c r="A577" s="26"/>
+      <c r="B577" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="C577" s="22" t="s">
+      <c r="C577" s="21" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A578" s="27"/>
-      <c r="B578" s="22" t="s">
+      <c r="A578" s="26"/>
+      <c r="B578" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="C578" s="22" t="s">
+      <c r="C578" s="21" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A579" s="27"/>
-      <c r="B579" s="10" t="s">
+      <c r="A579" s="26"/>
+      <c r="B579" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="C579" s="10" t="s">
+      <c r="C579" s="9" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A580" s="27"/>
-      <c r="B580" s="22" t="s">
+      <c r="A580" s="26"/>
+      <c r="B580" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="C580" s="22" t="s">
+      <c r="C580" s="21" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A581" s="27"/>
-      <c r="B581" s="10" t="s">
+      <c r="A581" s="26"/>
+      <c r="B581" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="C581" s="10" t="s">
+      <c r="C581" s="9" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A582" s="27"/>
-      <c r="B582" s="12" t="s">
+      <c r="A582" s="26"/>
+      <c r="B582" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C582" s="12" t="s">
+      <c r="C582" s="11" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A583" s="27"/>
-      <c r="B583" s="22" t="s">
+      <c r="A583" s="26"/>
+      <c r="B583" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="C583" s="22" t="s">
+      <c r="C583" s="21" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A584" s="27"/>
-      <c r="B584" s="22" t="s">
+      <c r="A584" s="26"/>
+      <c r="B584" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="C584" s="22" t="s">
+      <c r="C584" s="21" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A585" s="27"/>
-      <c r="B585" s="22" t="s">
+      <c r="A585" s="26"/>
+      <c r="B585" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="C585" s="22" t="s">
+      <c r="C585" s="21" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A586" s="27"/>
-      <c r="B586" s="22" t="s">
+      <c r="A586" s="26"/>
+      <c r="B586" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="C586" s="22" t="s">
+      <c r="C586" s="21" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A587" s="27"/>
-      <c r="B587" s="10" t="s">
+      <c r="A587" s="26"/>
+      <c r="B587" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C587" s="10" t="s">
+      <c r="C587" s="9" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A588" s="27"/>
-      <c r="B588" s="10" t="s">
+      <c r="A588" s="26"/>
+      <c r="B588" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="C588" s="10" t="s">
+      <c r="C588" s="9" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A589" s="39"/>
-      <c r="B589" s="40"/>
-      <c r="C589" s="40"/>
+      <c r="B589" s="38"/>
+      <c r="C589" s="38"/>
     </row>
     <row r="590" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A590" s="27" t="s">
+      <c r="A590" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="B590" s="10" t="s">
+      <c r="B590" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C590" s="41" t="s">
+      <c r="C590" s="9" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A591" s="27"/>
-      <c r="B591" s="10" t="s">
+      <c r="A591" s="26"/>
+      <c r="B591" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C591" s="10" t="s">
+      <c r="C591" s="9" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A592" s="27"/>
-      <c r="B592" s="10" t="s">
+      <c r="A592" s="26"/>
+      <c r="B592" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C592" s="10" t="s">
+      <c r="C592" s="9" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A593" s="27"/>
-      <c r="B593" s="9" t="s">
+      <c r="A593" s="26"/>
+      <c r="B593" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C593" s="9" t="s">
+      <c r="C593" s="8" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A594" s="27"/>
-      <c r="B594" s="10" t="s">
+      <c r="A594" s="26"/>
+      <c r="B594" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C594" s="41" t="s">
+      <c r="C594" s="9" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A595" s="27"/>
-      <c r="B595" s="9" t="s">
+      <c r="A595" s="26"/>
+      <c r="B595" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C595" s="9" t="s">
+      <c r="C595" s="8" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A596" s="27"/>
-      <c r="B596" s="9" t="s">
+      <c r="A596" s="26"/>
+      <c r="B596" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="C596" s="9" t="s">
+      <c r="C596" s="8" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A597" s="27"/>
-      <c r="B597" s="9" t="s">
+      <c r="A597" s="26"/>
+      <c r="B597" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="C597" s="42" t="s">
+      <c r="C597" s="8" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A598" s="27"/>
-      <c r="B598" s="10" t="s">
+      <c r="A598" s="26"/>
+      <c r="B598" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="C598" s="10" t="s">
+      <c r="C598" s="9" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A599" s="27"/>
-      <c r="B599" s="10" t="s">
+      <c r="A599" s="26"/>
+      <c r="B599" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="C599" s="10" t="s">
+      <c r="C599" s="9" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A600" s="27"/>
-      <c r="B600" s="10" t="s">
+      <c r="A600" s="26"/>
+      <c r="B600" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="C600" s="41" t="s">
+      <c r="C600" s="9" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A601" s="27"/>
-      <c r="B601" s="12" t="s">
+      <c r="A601" s="26"/>
+      <c r="B601" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="C601" s="43" t="s">
+      <c r="C601" s="11" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A602" s="27"/>
-      <c r="B602" s="12" t="s">
+      <c r="A602" s="26"/>
+      <c r="B602" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="C602" s="43" t="s">
+      <c r="C602" s="11" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A603" s="27"/>
-      <c r="B603" s="10" t="s">
+      <c r="A603" s="26"/>
+      <c r="B603" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C603" s="20" t="s">
+      <c r="C603" s="19" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A604" s="27"/>
-      <c r="B604" s="9" t="s">
+      <c r="A604" s="26"/>
+      <c r="B604" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="C604" s="42" t="s">
+      <c r="C604" s="8" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A605" s="27"/>
-      <c r="B605" s="9" t="s">
+      <c r="A605" s="26"/>
+      <c r="B605" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="C605" s="9" t="s">
+      <c r="C605" s="8" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A606" s="27"/>
-      <c r="B606" s="9" t="s">
+      <c r="A606" s="26"/>
+      <c r="B606" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C606" s="42" t="s">
+      <c r="C606" s="8" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A607" s="27"/>
-      <c r="B607" s="9" t="s">
+      <c r="A607" s="26"/>
+      <c r="B607" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="C607" s="42" t="s">
+      <c r="C607" s="8" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A608" s="27"/>
-      <c r="B608" s="9" t="s">
+      <c r="A608" s="26"/>
+      <c r="B608" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="C608" s="9" t="s">
+      <c r="C608" s="8" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A609" s="27"/>
-      <c r="B609" s="10" t="s">
+      <c r="A609" s="26"/>
+      <c r="B609" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C609" s="41" t="s">
+      <c r="C609" s="9" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A610" s="27"/>
-      <c r="B610" s="34" t="s">
+      <c r="A610" s="26"/>
+      <c r="B610" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="C610" s="34" t="s">
+      <c r="C610" s="33" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A611" s="27"/>
-      <c r="B611" s="30" t="s">
+      <c r="A611" s="26"/>
+      <c r="B611" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="C611" s="44"/>
+      <c r="C611" s="29"/>
     </row>
     <row r="612" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A612" s="27"/>
-      <c r="B612" s="34" t="s">
+      <c r="A612" s="26"/>
+      <c r="B612" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="C612" s="34" t="s">
+      <c r="C612" s="33" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A613" s="27"/>
-      <c r="B613" s="34" t="s">
+      <c r="A613" s="26"/>
+      <c r="B613" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="C613" s="34" t="s">
+      <c r="C613" s="33" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A614" s="39"/>
-      <c r="B614" s="39"/>
-      <c r="C614" s="39"/>
-    </row>
+    <row r="614" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="615" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A615" s="27" t="s">
+      <c r="A615" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="B615" s="45" t="s">
+      <c r="B615" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="C615" s="46"/>
-      <c r="D615" s="47"/>
+      <c r="C615" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D615" s="39"/>
     </row>
     <row r="616" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A616" s="27"/>
-      <c r="B616" s="45" t="s">
-        <v>621</v>
-      </c>
-      <c r="C616" s="46"/>
-      <c r="D616" s="47"/>
+      <c r="A616" s="26"/>
+      <c r="B616" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C616" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="D616" s="39"/>
     </row>
     <row r="617" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A617" s="27"/>
-      <c r="B617" s="45" t="s">
-        <v>622</v>
-      </c>
-      <c r="C617" s="46"/>
-      <c r="D617" s="47"/>
+      <c r="A617" s="26"/>
+      <c r="B617" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C617" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="D617" s="39"/>
     </row>
     <row r="618" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A618" s="27"/>
-      <c r="B618" s="45" t="s">
-        <v>623</v>
-      </c>
-      <c r="C618" s="46"/>
-      <c r="D618" s="47"/>
+      <c r="A618" s="26"/>
+      <c r="B618" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C618" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D618" s="39"/>
     </row>
     <row r="619" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A619" s="27"/>
-      <c r="B619" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="C619" s="47"/>
-      <c r="D619" s="47"/>
+      <c r="A619" s="26"/>
+      <c r="B619" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C619" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D619" s="39"/>
     </row>
     <row r="620" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A620" s="27"/>
-      <c r="B620" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="C620" s="47"/>
-      <c r="D620" s="47"/>
+      <c r="A620" s="26"/>
+      <c r="B620" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="C620" s="39"/>
+      <c r="D620" s="39"/>
     </row>
     <row r="621" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A621" s="27"/>
-      <c r="B621" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="C621" s="47"/>
-      <c r="D621" s="47"/>
+      <c r="A621" s="26"/>
+      <c r="B621" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="C621" s="39"/>
+      <c r="D621" s="39"/>
     </row>
     <row r="622" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A622" s="27"/>
-      <c r="B622" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="C622" s="47"/>
-      <c r="D622" s="47"/>
+      <c r="A622" s="26"/>
+      <c r="B622" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="C622" s="39"/>
+      <c r="D622" s="39"/>
     </row>
     <row r="623" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A623" s="27"/>
-      <c r="B623" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="C623" s="47"/>
-      <c r="D623" s="47"/>
+      <c r="A623" s="26"/>
+      <c r="B623" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="C623" s="39"/>
+      <c r="D623" s="39"/>
     </row>
     <row r="624" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A624" s="27"/>
-      <c r="B624" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="C624" s="47"/>
-      <c r="D624" s="47"/>
+      <c r="A624" s="26"/>
+      <c r="B624" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="C624" s="39"/>
+      <c r="D624" s="39"/>
     </row>
     <row r="625" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A625" s="27"/>
-      <c r="B625" s="48" t="s">
-        <v>630</v>
-      </c>
-      <c r="C625" s="47"/>
-      <c r="D625" s="47"/>
+      <c r="A625" s="26"/>
+      <c r="B625" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="C625" s="39"/>
+      <c r="D625" s="39"/>
     </row>
     <row r="626" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A626" s="27"/>
-      <c r="B626" s="48" t="s">
-        <v>631</v>
-      </c>
-      <c r="C626" s="47"/>
-      <c r="D626" s="47"/>
+      <c r="A626" s="26"/>
+      <c r="B626" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="C626" s="39"/>
+      <c r="D626" s="39"/>
     </row>
     <row r="627" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A627" s="27"/>
-      <c r="B627" s="48" t="s">
-        <v>632</v>
-      </c>
-      <c r="C627" s="47"/>
-      <c r="D627" s="47"/>
+      <c r="A627" s="26"/>
+      <c r="B627" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="C627" s="39"/>
+      <c r="D627" s="39"/>
     </row>
     <row r="628" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A628" s="27"/>
-      <c r="B628" s="48" t="s">
-        <v>633</v>
-      </c>
-      <c r="C628" s="47"/>
-      <c r="D628" s="47"/>
+      <c r="A628" s="26"/>
+      <c r="B628" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="C628" s="39"/>
+      <c r="D628" s="39"/>
     </row>
     <row r="629" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A629" s="27"/>
-      <c r="B629" s="48" t="s">
-        <v>634</v>
-      </c>
-      <c r="C629" s="47"/>
-      <c r="D629" s="47"/>
+      <c r="A629" s="26"/>
+      <c r="B629" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="C629" s="39"/>
+      <c r="D629" s="39"/>
     </row>
     <row r="630" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A630" s="27"/>
-      <c r="B630" s="48" t="s">
-        <v>635</v>
-      </c>
-      <c r="C630" s="47"/>
-      <c r="D630" s="47"/>
+      <c r="A630" s="26"/>
+      <c r="B630" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="C630" s="39"/>
+      <c r="D630" s="39"/>
     </row>
     <row r="631" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A631" s="27"/>
-      <c r="B631" s="48" t="s">
-        <v>636</v>
-      </c>
-      <c r="C631" s="47"/>
-      <c r="D631" s="47"/>
+      <c r="A631" s="26"/>
+      <c r="B631" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="C631" s="39"/>
+      <c r="D631" s="39"/>
     </row>
     <row r="632" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A632" s="27"/>
-      <c r="B632" s="48" t="s">
-        <v>637</v>
-      </c>
-      <c r="C632" s="47"/>
-      <c r="D632" s="47"/>
+      <c r="A632" s="26"/>
+      <c r="B632" s="40" t="s">
+        <v>642</v>
+      </c>
+      <c r="C632" s="39"/>
+      <c r="D632" s="39"/>
     </row>
     <row r="633" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A633" s="27"/>
-      <c r="B633" s="48" t="s">
-        <v>638</v>
-      </c>
-      <c r="C633" s="47"/>
-      <c r="D633" s="47"/>
+      <c r="A633" s="26"/>
+      <c r="B633" s="40" t="s">
+        <v>643</v>
+      </c>
+      <c r="C633" s="39"/>
+      <c r="D633" s="39"/>
     </row>
     <row r="634" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A634" s="27"/>
-      <c r="B634" s="48" t="s">
-        <v>639</v>
-      </c>
-      <c r="C634" s="47"/>
-      <c r="D634" s="47"/>
+      <c r="A634" s="26"/>
+      <c r="B634" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="C634" s="39"/>
+      <c r="D634" s="39"/>
     </row>
     <row r="635" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A635" s="27"/>
-      <c r="B635" s="48" t="s">
-        <v>640</v>
-      </c>
-      <c r="C635" s="47"/>
-      <c r="D635" s="47"/>
+      <c r="A635" s="26"/>
+      <c r="B635" s="40" t="s">
+        <v>645</v>
+      </c>
+      <c r="C635" s="39"/>
+      <c r="D635" s="39"/>
     </row>
     <row r="636" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A636" s="27"/>
-      <c r="B636" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="C636" s="47"/>
-      <c r="D636" s="47"/>
+      <c r="A636" s="26"/>
+      <c r="B636" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="C636" s="39"/>
+      <c r="D636" s="39"/>
     </row>
     <row r="637" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A637" s="27"/>
-      <c r="B637" s="48" t="s">
-        <v>642</v>
-      </c>
-      <c r="C637" s="47"/>
-      <c r="D637" s="47"/>
+      <c r="A637" s="26"/>
+      <c r="B637" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="C637" s="39"/>
+      <c r="D637" s="39"/>
     </row>
     <row r="638" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A638" s="27"/>
-      <c r="B638" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="C638" s="47"/>
-      <c r="D638" s="47"/>
+      <c r="A638" s="26"/>
+      <c r="B638" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="C638" s="39"/>
+      <c r="D638" s="39"/>
     </row>
     <row r="639" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A639" s="27"/>
-      <c r="B639" s="48" t="s">
-        <v>644</v>
-      </c>
-      <c r="C639" s="47"/>
-      <c r="D639" s="47"/>
+      <c r="A639" s="26"/>
+      <c r="B639" s="40" t="s">
+        <v>649</v>
+      </c>
+      <c r="C639" s="39"/>
+      <c r="D639" s="39"/>
     </row>
     <row r="640" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A640" s="27"/>
-      <c r="B640" s="47" t="s">
-        <v>645</v>
-      </c>
-      <c r="C640" s="47"/>
-      <c r="D640" s="47"/>
+      <c r="A640" s="26"/>
+      <c r="B640" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="C640" s="39"/>
+      <c r="D640" s="39"/>
     </row>
     <row r="641" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A641" s="27"/>
-      <c r="B641" s="47" t="s">
-        <v>646</v>
-      </c>
-      <c r="C641" s="47"/>
-      <c r="D641" s="47"/>
+      <c r="A641" s="26"/>
+      <c r="B641" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="C641" s="39"/>
+      <c r="D641" s="39"/>
     </row>
     <row r="642" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A642" s="27"/>
-      <c r="B642" s="47" t="s">
-        <v>647</v>
-      </c>
-      <c r="C642" s="47"/>
-      <c r="D642" s="47"/>
+      <c r="A642" s="26"/>
+      <c r="B642" s="39" t="s">
+        <v>652</v>
+      </c>
+      <c r="C642" s="39"/>
+      <c r="D642" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="150">

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Serviços AWS" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Erros retake simulados Mareek" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="675">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -481,6 +482,9 @@
     <t xml:space="preserve">Integration with SNS</t>
   </si>
   <si>
+    <t xml:space="preserve">CloudWatch Events</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cloudtrail</t>
   </si>
   <si>
@@ -1747,7 +1751,7 @@
     <t xml:space="preserve">It is, because Elastic Beanstalk has less freedom than EC2, but more than the average SaaS service</t>
   </si>
   <si>
-    <t xml:space="preserve">Q4 – Best practices using AWS organizations (accounts per department)</t>
+    <t xml:space="preserve">Q4 – Best practices using AWS organizations</t>
   </si>
   <si>
     <t xml:space="preserve">Enable MFA on root account and on all users within an organization, besides creating accounts by department</t>
@@ -1796,7 +1800,7 @@
     <t xml:space="preserve">AWS provides AWS Security Token Service (AWS STS) as a web service that enables you to request temporary, limited-privilege credentials for AWS Identity and Access Management (IAM) users or for users you authenticate (federated users).</t>
   </si>
   <si>
-    <t xml:space="preserve">Q22 – Where EBS Snapshots are stored (S3)</t>
+    <t xml:space="preserve">Q22 – Where EBS Snapshots are stored </t>
   </si>
   <si>
     <t xml:space="preserve">EBS Snapshots are stored on S3</t>
@@ -1823,7 +1827,7 @@
     <t xml:space="preserve">Q34 – Criteria used to charge EBS volumes (and what is a IOPS)</t>
   </si>
   <si>
-    <t xml:space="preserve">The fundamentals charges for EBS volumes are: the volume type (based on performance), the storage volume in GB per month provisioned, the number of IOPS provisioned per month, the storage consumed by snapshots, and outbound data transfer. IOPS is Input/Output per second.</t>
+    <t xml:space="preserve">The fundamentals charges for EBS volumes are: the volume type, the storage volume in GB per month provisioned, the number of IOPS provisioned per month, the storage consumed by snapshots, and outbound data transfer. IOPS is Input/Output per second.</t>
   </si>
   <si>
     <t xml:space="preserve">Q35 – AWS OpsWorks</t>
@@ -1916,51 +1920,96 @@
     <t xml:space="preserve">Q16 - CloudFormation doesn't help us in migrating data and applications</t>
   </si>
   <si>
+    <t xml:space="preserve">CloudFormation can migrate infrastructure, it doesn’t help migrating data and applications. For that, use a specific service, such as DMS, Application Migration Service or AppSync, etc…</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q17 - You can only receive different invoices if you have different accounts. AWS Organizations DOESN'T allow you to create a separated invoice, it just helps us to manage a central bill plus its other benefits</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes! Each account provides its own invoice at the end of the month</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q21 - AWS Site-to-site VPN and Virtual Private Gateway</t>
   </si>
   <si>
+    <t xml:space="preserve">Internet Gateway is used when resources inside of a VPC want to connect to the internet. Para estabelecer um site-to-site VPN, precisamos do Virtual Private Gateway (do lado da AWS) e do Customer Gateway (do lado do cliente)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q23 - CloudWatch can only identify under utilized resources with a manual configuration</t>
   </si>
   <si>
+    <t xml:space="preserve">Yeah. CloudWatch needs to be manually configured to identify underutilized resources</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q25 - AWS Customers can perform penetration tests on their infrastructure without prior knowledge of AWS, but it is not permitted to perform pentesting on their services and infrastructure</t>
   </si>
   <si>
     <t xml:space="preserve">Q26 – AWS Migration Evaluator</t>
   </si>
   <si>
+    <t xml:space="preserve">It helps customers plan and define their next steps on the cloud migration process with a data-gathering tool that we install on-premises</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q28 – S3 One-Zone IA offers the lowest availability</t>
   </si>
   <si>
+    <t xml:space="preserve">Availability = How safe are you if a bad thing happens?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q33 – Search EFS storage classes</t>
   </si>
   <si>
+    <t xml:space="preserve">EFS has 4 storage classes: Standard, Standard IA, One-Zone and One-Zone Infrequent Access. We always pay for read/write on IA storage classes - S3 or EFS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q34 – Methods to apply MFA on my accounts</t>
   </si>
   <si>
+    <t xml:space="preserve">FIDO Security keys (U2F, Physical), Virtual MFA device (virtual)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q35 – Where is CloudWatch billing info stored</t>
   </si>
   <si>
+    <t xml:space="preserve">It’s stored on US East (N. Virginia) – us-east-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q37 – Regional constraints for AMI</t>
   </si>
   <si>
+    <t xml:space="preserve">We must use an AMI from the region we chose. IRegion doesn’t affect performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q38 – AWS Knowledge Center</t>
   </si>
   <si>
+    <t xml:space="preserve">AWS Knowledge Center contains the most frequent &amp; common questions and requests and AWS provided solutions for the same. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Q43 – Customers are responsible for encryption</t>
   </si>
   <si>
+    <t xml:space="preserve">The customer is responsible for ENABLING encryption</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q46 – AWS CodeDeploy vs AWS CodePIpelines</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeDeploy automates Code Deployment. CodePipelines is an CI/CD tool that integrates other services such as CodeBild and CodeDeploy. CodePIpelines CAN NOT deploy code by itself. Instead, it leverages CodeDeploy to do so.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q48 – Read IAM best practices</t>
   </si>
   <si>
+    <t xml:space="preserve">Remember to rotate credentials</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q49 – Where is data encryption enabled by default</t>
   </si>
   <si>
+    <t xml:space="preserve">Storage Gateway encrypts data automatically via SSL certificates. S3 Glacier also encrypts data by default</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q52 – CloudWatch can also monitor on-premises</t>
   </si>
   <si>
@@ -1970,16 +2019,34 @@
     <t xml:space="preserve">Q55 – IAM Policies fields</t>
   </si>
   <si>
+    <t xml:space="preserve">Effect (Allow/Deny), Action, Resource</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q57 – AWS Config also provides past configurations info</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q58 – Instance store is a block-level storage</t>
   </si>
   <si>
     <t xml:space="preserve">Q61 – Amazon Kendra</t>
   </si>
   <si>
+    <t xml:space="preserve">Kendra uses ML to search for data in documents</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q65 – What is Lambda pricing based on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of requests to the function and the time it takes to execute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erros simulado 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18 – WAF works on the 7th OSI layer!</t>
   </si>
 </sst>
 </file>
@@ -2402,7 +2469,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2483,10 +2550,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D642"/>
+  <dimension ref="A1:D643"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B612" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C624" activeCellId="0" sqref="C624"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B606" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B614" activeCellId="0" sqref="B614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3483,55 +3550,55 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
+    <row r="176" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="18"/>
+      <c r="B176" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="8" t="s">
+      <c r="A178" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3"/>
+      <c r="A179" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B179" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
+    <row r="180" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3"/>
+      <c r="B180" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="8" t="s">
+      <c r="A182" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3"/>
+      <c r="A183" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B183" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3549,7 +3616,7 @@
     </row>
     <row r="188" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3559,22 +3626,22 @@
         <v>164</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
+    <row r="190" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="3"/>
+      <c r="B190" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B192" s="8" t="s">
+      <c r="A192" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="18"/>
+      <c r="A193" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B193" s="8" t="s">
         <v>167</v>
       </c>
@@ -3587,112 +3654,112 @@
     </row>
     <row r="195" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="18"/>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
+    <row r="196" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="18"/>
+      <c r="B196" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B198" s="8" t="s">
+      <c r="A198" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="200" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B201" s="9" t="s">
+      <c r="A201" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="203" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B204" s="8" t="s">
+      <c r="A204" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="B204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3"/>
+      <c r="A205" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B205" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
+    <row r="209" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="3"/>
+      <c r="B209" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="8" t="s">
+      <c r="A211" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="3"/>
-      <c r="B212" s="11" t="s">
+      <c r="A212" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
+    <row r="213" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="3"/>
+      <c r="B213" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B215" s="8" t="s">
+      <c r="A215" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3"/>
+      <c r="A216" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B216" s="8" t="s">
         <v>185</v>
       </c>
@@ -3709,156 +3776,156 @@
         <v>187</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
+    <row r="219" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="3"/>
+      <c r="B219" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B221" s="8" t="s">
+      <c r="A221" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3"/>
-      <c r="B222" s="9" t="s">
+      <c r="A222" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
+    <row r="223" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="3"/>
+      <c r="B223" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B225" s="8" t="s">
+      <c r="A225" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3"/>
+      <c r="A226" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B226" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
+    <row r="228" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="3"/>
+      <c r="B228" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B230" s="8" t="s">
+      <c r="A230" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="232" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="s">
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B233" s="8" t="s">
+      <c r="A233" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="235" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="s">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B236" s="8" t="s">
+      <c r="A236" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="3"/>
+      <c r="A237" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B237" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="s">
+    <row r="240" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="3"/>
+      <c r="B240" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B242" s="8" t="s">
+      <c r="A242" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="244" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A243" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B245" s="8" t="s">
+      <c r="A245" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="247" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="s">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B248" s="8" t="s">
+      <c r="A248" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="B248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="3"/>
+      <c r="A249" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B249" s="8" t="s">
         <v>210</v>
       </c>
@@ -3869,50 +3936,50 @@
         <v>211</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="s">
+    <row r="251" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A251" s="3"/>
+      <c r="B251" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B253" s="9" t="s">
+      <c r="A253" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="255" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="s">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B254" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B256" s="8" t="s">
+      <c r="A256" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2" t="s">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A257" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B258" s="2"/>
     </row>
     <row r="259" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B259" s="8" t="s">
+      <c r="A259" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="B259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3"/>
+      <c r="A260" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B260" s="8" t="s">
         <v>218</v>
       </c>
@@ -3923,22 +3990,22 @@
         <v>219</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="s">
+    <row r="262" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A262" s="3"/>
+      <c r="B262" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B264" s="8" t="s">
+      <c r="A264" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="B264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="18"/>
+      <c r="A265" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B265" s="8" t="s">
         <v>222</v>
       </c>
@@ -3951,46 +4018,46 @@
     </row>
     <row r="267" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="18"/>
-      <c r="B267" s="9" t="s">
+      <c r="B267" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="s">
+    <row r="268" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A268" s="18"/>
+      <c r="B268" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B270" s="8" t="s">
+      <c r="A270" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="B270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="3"/>
+      <c r="A271" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B271" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="s">
+    <row r="272" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="3"/>
+      <c r="B272" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B274" s="8" t="s">
+      <c r="A274" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="B274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="18"/>
+      <c r="A275" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B275" s="8" t="s">
         <v>230</v>
       </c>
@@ -4013,112 +4080,112 @@
         <v>233</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="s">
+    <row r="279" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="18"/>
+      <c r="B279" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B281" s="8" t="s">
+      <c r="A281" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="283" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="s">
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A282" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="s">
+      <c r="A284" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B286" s="2"/>
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A285" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B287" s="8" t="s">
+      <c r="A287" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="289" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="s">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A288" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B290" s="8" t="s">
+      <c r="A290" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="292" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="s">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A291" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B293" s="8" t="s">
+      <c r="A293" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="295" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="s">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A294" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B296" s="8" t="s">
+      <c r="A296" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="B296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="3"/>
+      <c r="A297" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B297" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="s">
+    <row r="298" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="3"/>
+      <c r="B298" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B300" s="8" t="s">
+      <c r="A300" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="B300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="3"/>
+      <c r="A301" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B301" s="8" t="s">
         <v>248</v>
       </c>
@@ -4129,147 +4196,147 @@
         <v>249</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="s">
+    <row r="303" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="3"/>
+      <c r="B303" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B305" s="8" t="s">
+      <c r="A305" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="B305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="3"/>
-      <c r="B306" s="11" t="s">
+      <c r="A306" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B306" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="2" t="s">
+    <row r="307" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A307" s="3"/>
+      <c r="B307" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B309" s="8" t="s">
+      <c r="A309" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="311" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="s">
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B310" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B311" s="2"/>
     </row>
     <row r="312" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B312" s="21" t="s">
+      <c r="A312" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="B312" s="2"/>
     </row>
     <row r="313" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="3"/>
-      <c r="B313" s="8" t="s">
+      <c r="A313" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B313" s="21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="2" t="s">
+    <row r="314" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A314" s="3"/>
+      <c r="B314" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B316" s="8" t="s">
+      <c r="A316" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="318" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2" t="s">
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A317" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B317" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B318" s="2"/>
     </row>
     <row r="319" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B319" s="8" t="s">
+      <c r="A319" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="321" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="s">
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A320" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B320" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B321" s="2"/>
     </row>
     <row r="322" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B322" s="8" t="s">
+      <c r="A322" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="324" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="s">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A323" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B325" s="8" t="s">
+      <c r="A325" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="327" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A326" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B326" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B328" s="8" t="s">
+      <c r="A328" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="330" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="s">
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B329" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B330" s="2"/>
     </row>
     <row r="331" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B331" s="8" t="s">
+      <c r="A331" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="B331" s="2"/>
     </row>
     <row r="332" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="3"/>
-      <c r="B332" s="11" t="s">
+      <c r="A332" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" s="8" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4285,22 +4352,22 @@
         <v>272</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="s">
+    <row r="335" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A335" s="3"/>
+      <c r="B335" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B336" s="2"/>
     </row>
     <row r="337" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B337" s="8" t="s">
+      <c r="A337" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="B337" s="2"/>
     </row>
     <row r="338" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="3"/>
+      <c r="A338" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B338" s="8" t="s">
         <v>275</v>
       </c>
@@ -4317,22 +4384,22 @@
         <v>277</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="2" t="s">
+    <row r="341" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A341" s="3"/>
+      <c r="B341" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B342" s="2"/>
     </row>
     <row r="343" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B343" s="8" t="s">
+      <c r="A343" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="B343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="3"/>
+      <c r="A344" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B344" s="8" t="s">
         <v>280</v>
       </c>
@@ -4343,132 +4410,132 @@
         <v>281</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A347" s="2" t="s">
+    <row r="346" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A346" s="3"/>
+      <c r="B346" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B347" s="2"/>
     </row>
     <row r="348" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B348" s="8" t="s">
+      <c r="A348" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="350" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="2" t="s">
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A349" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B349" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B351" s="8" t="s">
+      <c r="A351" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="B351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="18"/>
+      <c r="A352" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B352" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="2" t="s">
+    <row r="353" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A353" s="18"/>
+      <c r="B353" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B354" s="2"/>
     </row>
     <row r="355" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B355" s="11" t="s">
+      <c r="A355" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="357" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="s">
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A356" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B356" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B357" s="2"/>
     </row>
     <row r="358" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B358" s="8" t="s">
+      <c r="A358" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="B358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="3"/>
+      <c r="A359" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B359" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="2" t="s">
+    <row r="360" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A360" s="3"/>
+      <c r="B360" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B361" s="2"/>
     </row>
     <row r="362" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B362" s="8" t="s">
+      <c r="A362" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="364" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="2" t="s">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B363" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B364" s="2"/>
     </row>
     <row r="365" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B365" s="8" t="s">
+      <c r="A365" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="367" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="2" t="s">
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A366" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B368" s="11" t="s">
+      <c r="A368" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="370" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="2" t="s">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B369" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B371" s="8" t="s">
+      <c r="A371" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="B371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="3"/>
+      <c r="A372" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B372" s="8" t="s">
         <v>300</v>
       </c>
@@ -4479,225 +4546,224 @@
         <v>301</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="2" t="s">
+    <row r="374" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="3"/>
+      <c r="B374" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B376" s="8" t="s">
+      <c r="A376" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="378" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="2" t="s">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B377" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B379" s="8" t="s">
+      <c r="A379" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="B379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="3"/>
-      <c r="B380" s="9" t="s">
+      <c r="A380" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B380" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="3"/>
-      <c r="B381" s="8" t="s">
+      <c r="B381" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="2" t="s">
+    <row r="382" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="3"/>
+      <c r="B382" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B384" s="8" t="s">
+      <c r="A384" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="386" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="2" t="s">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B385" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B387" s="8" t="s">
+      <c r="A387" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="389" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="2" t="s">
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B388" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B390" s="8" t="s">
+      <c r="A390" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="392" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A392" s="2" t="s">
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B391" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B393" s="8" t="s">
+      <c r="A393" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="395" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="2" t="s">
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B394" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B396" s="8" t="s">
+      <c r="A396" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="398" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="2" t="s">
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B397" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B399" s="8" t="s">
+      <c r="A399" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="B399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="3"/>
+      <c r="A400" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B400" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="2" t="s">
+    <row r="401" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="3"/>
+      <c r="B401" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B402" s="2"/>
     </row>
     <row r="403" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B403" s="8" t="s">
+      <c r="A403" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="405" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="2" t="s">
+      <c r="B403" s="2"/>
+    </row>
+    <row r="404" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A404" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B404" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B405" s="2"/>
     </row>
     <row r="406" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B406" s="8" t="s">
+      <c r="A406" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="408" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="2" t="s">
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A407" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B407" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B409" s="5" t="s">
+      <c r="A409" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="411" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="2" t="s">
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B410" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B411" s="2"/>
     </row>
     <row r="412" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B412" s="9" t="s">
+      <c r="A412" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="B412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="3"/>
-      <c r="B413" s="8" t="s">
+      <c r="A413" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B413" s="9" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="3"/>
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A416" s="2" t="s">
+    <row r="415" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="3"/>
+      <c r="B415" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B417" s="22" t="s">
+      <c r="A417" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C417" s="8" t="s">
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+    </row>
+    <row r="418" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B418" s="22" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="418" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="3"/>
-      <c r="B418" s="22"/>
       <c r="C418" s="8" t="s">
         <v>334</v>
       </c>
@@ -4713,28 +4779,28 @@
       <c r="A420" s="3"/>
       <c r="B420" s="22"/>
       <c r="C420" s="8" t="s">
-        <v>162</v>
+        <v>336</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
       <c r="B421" s="22"/>
       <c r="C421" s="8" t="s">
-        <v>336</v>
+        <v>163</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
-      <c r="B422" s="23" t="s">
+      <c r="B422" s="22"/>
+      <c r="C422" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="C422" s="9" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
-      <c r="B423" s="23"/>
+      <c r="B423" s="23" t="s">
+        <v>338</v>
+      </c>
       <c r="C423" s="9" t="s">
         <v>339</v>
       </c>
@@ -4767,24 +4833,25 @@
         <v>343</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="2" t="s">
+    <row r="428" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A428" s="3"/>
+      <c r="B428" s="23"/>
+      <c r="C428" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B430" s="21" t="s">
-        <v>160</v>
-      </c>
+      <c r="A430" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="3"/>
+      <c r="A431" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B431" s="21" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4796,13 +4863,13 @@
     <row r="433" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="3"/>
       <c r="B433" s="21" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
       <c r="B434" s="21" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4823,28 +4890,30 @@
         <v>350</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A439" s="2" t="s">
+    <row r="438" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A438" s="3"/>
+      <c r="B438" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="B439" s="2"/>
     </row>
     <row r="440" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A440" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B440" s="21" t="s">
+      <c r="A440" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="442" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="24" t="s">
+      <c r="B440" s="2"/>
+    </row>
+    <row r="441" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A441" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B441" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="B442" s="24"/>
     </row>
     <row r="443" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A443" s="24"/>
+      <c r="A443" s="24" t="s">
+        <v>354</v>
+      </c>
       <c r="B443" s="24"/>
     </row>
     <row r="444" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4856,182 +4925,178 @@
       <c r="B445" s="24"/>
     </row>
     <row r="446" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A446" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B446" s="8" t="s">
+      <c r="A446" s="24"/>
+      <c r="B446" s="24"/>
+    </row>
+    <row r="447" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A447" s="8" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="447" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="9" t="s">
+      <c r="B447" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B447" s="9" t="s">
+    </row>
+    <row r="448" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A448" s="9" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="448" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="8" t="s">
+      <c r="B448" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="B448" s="8" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B449" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="B449" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B450" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B450" s="8" t="s">
+    </row>
+    <row r="451" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A451" s="8" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="451" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A451" s="21" t="s">
+      <c r="B451" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="B451" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B452" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="B452" s="8" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B453" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B453" s="25"/>
     </row>
     <row r="454" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="8" t="s">
+      <c r="A454" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="B454" s="8" t="s">
-        <v>370</v>
-      </c>
+      <c r="B454" s="25"/>
     </row>
     <row r="455" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B455" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="B455" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B456" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="B456" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B457" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="B457" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B458" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="B458" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B459" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B459" s="8" t="s">
+    </row>
+    <row r="460" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A460" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="460" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A460" s="9" t="s">
+      <c r="B460" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B460" s="9" t="s">
+    </row>
+    <row r="461" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A461" s="9" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="461" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="8" t="s">
+      <c r="B461" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B461" s="8" t="s">
+    </row>
+    <row r="462" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A462" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="462" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="5" t="s">
+      <c r="B462" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B462" s="8" t="s">
+    </row>
+    <row r="463" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A463" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="463" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="8" t="s">
+      <c r="B463" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="B463" s="8" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B464" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="B464" s="8" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B465" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="B465" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B466" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="B466" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B467" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="B467" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="8" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="B468" s="8" t="s">
         <v>397</v>
@@ -5039,71 +5104,73 @@
     </row>
     <row r="469" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B469" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B469" s="8" t="s">
+    </row>
+    <row r="470" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A470" s="8" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="470" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A470" s="9" t="s">
+      <c r="B470" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="B470" s="9" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B471" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B471" s="9" t="s">
+    </row>
+    <row r="472" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A472" s="9" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="473" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A473" s="26" t="s">
+      <c r="B472" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B473" s="21" t="s">
+    </row>
+    <row r="474" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A474" s="26" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="474" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A474" s="26"/>
       <c r="B474" s="21" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="26"/>
-      <c r="B475" s="27" t="s">
+      <c r="B475" s="21" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="26"/>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="27" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="28" t="s">
+    <row r="477" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A477" s="26"/>
+      <c r="B477" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B478" s="8" t="s">
+    </row>
+    <row r="479" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A479" s="28" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="479" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A479" s="28"/>
-      <c r="B479" s="11" t="s">
+      <c r="B479" s="8" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="28"/>
-      <c r="B480" s="8" t="s">
+      <c r="B480" s="11" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5169,13 +5236,13 @@
     </row>
     <row r="491" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="28"/>
-      <c r="B491" s="29" t="s">
+      <c r="B491" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="28"/>
-      <c r="B492" s="21" t="s">
+      <c r="B492" s="29" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5205,61 +5272,56 @@
     </row>
     <row r="497" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="28"/>
-      <c r="B497" s="9" t="s">
+      <c r="B497" s="21" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="28"/>
-      <c r="B498" s="21" t="s">
+      <c r="B498" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A501" s="3" t="s">
+    <row r="499" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A499" s="28"/>
+      <c r="B499" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B501" s="4" t="s">
+    </row>
+    <row r="502" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A502" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C501" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="D501" s="31" t="s">
+      <c r="B502" s="4" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="502" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A502" s="32" t="s">
+      <c r="C502" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="D502" s="31" t="s">
         <v>434</v>
-      </c>
-      <c r="B502" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="C502" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="D502" s="34" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="B503" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C503" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="B503" s="33" t="s">
+      <c r="D503" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="C503" s="33" t="s">
+    </row>
+    <row r="504" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A504" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="D503" s="34" t="s">
+      <c r="B504" s="33" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B504" s="33" t="s">
-        <v>439</v>
       </c>
       <c r="C504" s="33" t="s">
         <v>439</v>
@@ -5284,56 +5346,59 @@
         <v>441</v>
       </c>
       <c r="C506" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D506" s="34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B507" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="D506" s="34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B507" s="9" t="s">
+      <c r="C507" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="C507" s="33" t="s">
-        <v>444</v>
-      </c>
       <c r="D507" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B508" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C508" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="C508" s="9" t="s">
+      <c r="D508" s="34" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B509" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D508" s="34" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C509" s="9" t="s">
         <v>447</v>
       </c>
       <c r="D509" s="34" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C510" s="9" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="510" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C510" s="33" t="s">
-        <v>445</v>
-      </c>
       <c r="D510" s="34" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C511" s="33" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D511" s="34" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5341,12 +5406,12 @@
         <v>450</v>
       </c>
       <c r="D512" s="34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C513" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D513" s="34" t="s">
         <v>452</v>
@@ -5357,30 +5422,33 @@
         <v>453</v>
       </c>
       <c r="D514" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C515" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="D515" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="D515" s="35" t="s">
-        <v>455</v>
-      </c>
     </row>
     <row r="516" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D516" s="11" t="s">
+      <c r="C516" s="33" t="s">
         <v>456</v>
       </c>
+      <c r="D516" s="35" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="517" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D517" s="33" t="s">
-        <v>349</v>
+      <c r="D517" s="11" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D518" s="33" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5388,249 +5456,245 @@
         <v>458</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C524" s="26" t="s">
+    <row r="520" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D520" s="33" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C525" s="26"/>
+      <c r="C525" s="26" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="526" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C526" s="26"/>
     </row>
     <row r="527" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A527" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="B527" s="33" t="s">
+      <c r="C527" s="26"/>
+    </row>
+    <row r="528" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A528" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="C527" s="33" t="s">
+      <c r="B528" s="33" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="528" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A528" s="36"/>
-      <c r="B528" s="33" t="s">
+      <c r="C528" s="33" t="s">
         <v>463</v>
-      </c>
-      <c r="C528" s="33" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="36"/>
       <c r="B529" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="C529" s="33" t="s">
         <v>465</v>
-      </c>
-      <c r="C529" s="33" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="36"/>
       <c r="B530" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="C530" s="33" t="s">
         <v>467</v>
-      </c>
-      <c r="C530" s="33" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="36"/>
       <c r="B531" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="C531" s="33" t="s">
         <v>469</v>
-      </c>
-      <c r="C531" s="33" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="36"/>
       <c r="B532" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="C532" s="33" t="s">
         <v>471</v>
-      </c>
-      <c r="C532" s="33" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="36"/>
       <c r="B533" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C533" s="33" t="s">
         <v>473</v>
-      </c>
-      <c r="C533" s="33" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="36"/>
       <c r="B534" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="C534" s="33" t="s">
         <v>475</v>
-      </c>
-      <c r="C534" s="33" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="36"/>
       <c r="B535" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="C535" s="33" t="s">
         <v>477</v>
-      </c>
-      <c r="C535" s="33" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="36"/>
       <c r="B536" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="C536" s="33" t="s">
         <v>479</v>
-      </c>
-      <c r="C536" s="33" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="36"/>
       <c r="B537" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="C537" s="33" t="s">
         <v>481</v>
-      </c>
-      <c r="C537" s="33" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="36"/>
       <c r="B538" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="C538" s="33" t="s">
         <v>483</v>
-      </c>
-      <c r="C538" s="33" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="36"/>
       <c r="B539" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="C539" s="33" t="s">
         <v>485</v>
-      </c>
-      <c r="C539" s="33" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="36"/>
       <c r="B540" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="C540" s="33" t="s">
         <v>487</v>
-      </c>
-      <c r="C540" s="33" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="36"/>
       <c r="B541" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="C541" s="33" t="s">
         <v>489</v>
-      </c>
-      <c r="C541" s="33" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="36"/>
       <c r="B542" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="C542" s="33" t="s">
         <v>491</v>
-      </c>
-      <c r="C542" s="33" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="36"/>
-      <c r="B543" s="9" t="s">
+      <c r="B543" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="C543" s="33" t="s">
         <v>493</v>
-      </c>
-      <c r="C543" s="9" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="36"/>
-      <c r="B544" s="21" t="s">
+      <c r="B544" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C544" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="C544" s="21" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="36"/>
-      <c r="B545" s="9" t="s">
+      <c r="B545" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C545" s="21" t="s">
         <v>497</v>
-      </c>
-      <c r="C545" s="9" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="36"/>
-      <c r="B546" s="33" t="s">
+      <c r="B546" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C546" s="9" t="s">
         <v>499</v>
-      </c>
-      <c r="C546" s="33" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="36"/>
       <c r="B547" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="C547" s="33" t="s">
         <v>501</v>
-      </c>
-      <c r="C547" s="33" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="36"/>
       <c r="B548" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="C548" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="C548" s="33" t="s">
+    </row>
+    <row r="549" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="36"/>
+      <c r="B549" s="33" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="550" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="26" t="s">
+      <c r="C549" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="B550" s="9" t="s">
+    </row>
+    <row r="551" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="C550" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="551" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="26"/>
-      <c r="B551" s="9"/>
+      <c r="B551" s="9" t="s">
+        <v>507</v>
+      </c>
       <c r="C551" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="26"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="26"/>
-      <c r="B553" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C553" s="8" t="s">
-        <v>330</v>
+      <c r="B553" s="9"/>
+      <c r="C553" s="9" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5639,25 +5703,25 @@
         <v>508</v>
       </c>
       <c r="C554" s="8" t="s">
-        <v>509</v>
+        <v>331</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="26"/>
       <c r="B555" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C555" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="C555" s="8" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="26"/>
       <c r="B556" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C556" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="C556" s="8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5666,88 +5730,88 @@
         <v>513</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>514</v>
+        <v>409</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="26"/>
       <c r="B558" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C558" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="C558" s="8" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="26"/>
       <c r="B559" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C559" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="C559" s="8" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="26"/>
-      <c r="B560" s="9" t="s">
+      <c r="B560" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C560" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="C560" s="9" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="26"/>
-      <c r="B561" s="21" t="s">
+      <c r="B561" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C561" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="C561" s="21" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="26"/>
       <c r="B562" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="C562" s="21" t="s">
         <v>523</v>
-      </c>
-      <c r="C562" s="21" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="26"/>
       <c r="B563" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C563" s="21" t="s">
         <v>525</v>
-      </c>
-      <c r="C563" s="21" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="26"/>
       <c r="B564" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="C564" s="21" t="s">
         <v>527</v>
-      </c>
-      <c r="C564" s="21" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="26"/>
-      <c r="B565" s="29" t="s">
+      <c r="B565" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C565" s="21" t="s">
         <v>529</v>
-      </c>
-      <c r="C565" s="29" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="26"/>
-      <c r="B566" s="9" t="s">
+      <c r="B566" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="C566" s="29" t="s">
         <v>531</v>
-      </c>
-      <c r="C566" s="9" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5756,650 +5820,703 @@
         <v>532</v>
       </c>
       <c r="C567" s="9" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="26"/>
-      <c r="B568" s="21" t="s">
+      <c r="B568" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C568" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="C568" s="21" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="26"/>
       <c r="B569" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C569" s="21" t="s">
         <v>536</v>
-      </c>
-      <c r="C569" s="21" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="26"/>
-      <c r="B570" s="9" t="s">
+      <c r="B570" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="C570" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C570" s="9" t="s">
+    </row>
+    <row r="571" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A571" s="26"/>
+      <c r="B571" s="9" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="571" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A571" s="37"/>
+      <c r="C571" s="9" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="572" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A572" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="B572" s="9" t="s">
+      <c r="A572" s="37"/>
+    </row>
+    <row r="573" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="C572" s="9" t="s">
+      <c r="B573" s="9" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="573" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A573" s="26"/>
-      <c r="B573" s="21" t="s">
+      <c r="C573" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="C573" s="21" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="26"/>
       <c r="B574" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C574" s="21" t="s">
         <v>545</v>
-      </c>
-      <c r="C574" s="21" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="26"/>
       <c r="B575" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="C575" s="21" t="s">
         <v>547</v>
-      </c>
-      <c r="C575" s="21" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="26"/>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="C576" s="21" t="s">
         <v>549</v>
-      </c>
-      <c r="C576" s="9" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="26"/>
-      <c r="B577" s="21" t="s">
+      <c r="B577" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C577" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="C577" s="21" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="26"/>
       <c r="B578" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="C578" s="21" t="s">
         <v>553</v>
-      </c>
-      <c r="C578" s="21" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="26"/>
-      <c r="B579" s="9" t="s">
+      <c r="B579" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="C579" s="21" t="s">
         <v>555</v>
-      </c>
-      <c r="C579" s="9" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="26"/>
-      <c r="B580" s="21" t="s">
+      <c r="B580" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C580" s="9" t="s">
         <v>557</v>
-      </c>
-      <c r="C580" s="21" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="26"/>
-      <c r="B581" s="9" t="s">
+      <c r="B581" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="C581" s="21" t="s">
         <v>559</v>
-      </c>
-      <c r="C581" s="9" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="26"/>
-      <c r="B582" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C582" s="11" t="s">
-        <v>472</v>
+      <c r="B582" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C582" s="9" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="26"/>
-      <c r="B583" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="C583" s="21" t="s">
-        <v>562</v>
+      <c r="B583" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C583" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="26"/>
       <c r="B584" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="C584" s="21" t="s">
         <v>563</v>
-      </c>
-      <c r="C584" s="21" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="26"/>
       <c r="B585" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C585" s="21" t="s">
         <v>565</v>
-      </c>
-      <c r="C585" s="21" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="26"/>
       <c r="B586" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C586" s="21" t="s">
         <v>567</v>
-      </c>
-      <c r="C586" s="21" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="26"/>
-      <c r="B587" s="9" t="s">
+      <c r="B587" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="C587" s="9" t="s">
-        <v>569</v>
+      <c r="C587" s="21" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="26"/>
       <c r="B588" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C588" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="C588" s="9" t="s">
+    </row>
+    <row r="589" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A589" s="26"/>
+      <c r="B589" s="9" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="589" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B589" s="38"/>
-      <c r="C589" s="38"/>
+      <c r="C589" s="9" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="590" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A590" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="B590" s="9" t="s">
+      <c r="B590" s="38"/>
+      <c r="C590" s="38"/>
+    </row>
+    <row r="591" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A591" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="C590" s="9" t="s">
+      <c r="B591" s="9" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="591" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A591" s="26"/>
-      <c r="B591" s="9" t="s">
+      <c r="C591" s="9" t="s">
         <v>575</v>
-      </c>
-      <c r="C591" s="9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="26"/>
       <c r="B592" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C592" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="C592" s="9" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="26"/>
-      <c r="B593" s="8" t="s">
+      <c r="B593" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C593" s="9" t="s">
         <v>579</v>
-      </c>
-      <c r="C593" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="26"/>
-      <c r="B594" s="9" t="s">
+      <c r="B594" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C594" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="C594" s="9" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="26"/>
-      <c r="B595" s="8" t="s">
+      <c r="B595" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C595" s="9" t="s">
         <v>583</v>
-      </c>
-      <c r="C595" s="8" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="26"/>
       <c r="B596" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C596" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="C596" s="8" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="26"/>
       <c r="B597" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C597" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="C597" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="26"/>
-      <c r="B598" s="9" t="s">
+      <c r="B598" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C598" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="C598" s="9" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="26"/>
       <c r="B599" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C599" s="9" t="s">
         <v>591</v>
-      </c>
-      <c r="C599" s="9" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="26"/>
       <c r="B600" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C600" s="9" t="s">
         <v>593</v>
-      </c>
-      <c r="C600" s="9" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="26"/>
-      <c r="B601" s="11" t="s">
+      <c r="B601" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C601" s="9" t="s">
         <v>595</v>
-      </c>
-      <c r="C601" s="11" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="26"/>
       <c r="B602" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C602" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="C602" s="11" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="26"/>
-      <c r="B603" s="9" t="s">
+      <c r="B603" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C603" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="C603" s="19" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="26"/>
-      <c r="B604" s="8" t="s">
+      <c r="B604" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C604" s="19" t="s">
         <v>601</v>
-      </c>
-      <c r="C604" s="8" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="26"/>
       <c r="B605" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C605" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="C605" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="26"/>
       <c r="B606" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C606" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="C606" s="8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="26"/>
       <c r="B607" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C607" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="C607" s="8" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="26"/>
       <c r="B608" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C608" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="C608" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="26"/>
-      <c r="B609" s="9" t="s">
+      <c r="B609" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C609" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="C609" s="9" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="26"/>
-      <c r="B610" s="33" t="s">
+      <c r="B610" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C610" s="9" t="s">
         <v>613</v>
-      </c>
-      <c r="C610" s="33" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="26"/>
-      <c r="B611" s="29" t="s">
+      <c r="B611" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="C611" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="C611" s="29"/>
     </row>
     <row r="612" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="26"/>
-      <c r="B612" s="33" t="s">
+      <c r="B612" s="29" t="s">
         <v>616</v>
       </c>
-      <c r="C612" s="33" t="s">
-        <v>617</v>
-      </c>
+      <c r="C612" s="29"/>
     </row>
     <row r="613" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="26"/>
       <c r="B613" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="C613" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="C613" s="33" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="614" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A615" s="26" t="s">
+    </row>
+    <row r="614" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A614" s="26"/>
+      <c r="B614" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="B615" s="11" t="s">
+      <c r="C614" s="33" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A616" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="C615" s="11" t="s">
+      <c r="B616" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="D615" s="39"/>
-    </row>
-    <row r="616" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A616" s="26"/>
-      <c r="B616" s="11" t="s">
+      <c r="C616" s="11" t="s">
         <v>622</v>
-      </c>
-      <c r="C616" s="11" t="s">
-        <v>623</v>
       </c>
       <c r="D616" s="39"/>
     </row>
     <row r="617" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="26"/>
       <c r="B617" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C617" s="11" t="s">
         <v>624</v>
-      </c>
-      <c r="C617" s="11" t="s">
-        <v>625</v>
       </c>
       <c r="D617" s="39"/>
     </row>
     <row r="618" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="26"/>
       <c r="B618" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C618" s="11" t="s">
         <v>626</v>
-      </c>
-      <c r="C618" s="11" t="s">
-        <v>627</v>
       </c>
       <c r="D618" s="39"/>
     </row>
     <row r="619" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="26"/>
       <c r="B619" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C619" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="C619" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="D619" s="39"/>
     </row>
     <row r="620" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="26"/>
-      <c r="B620" s="40" t="s">
+      <c r="B620" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C620" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="C620" s="39"/>
       <c r="D620" s="39"/>
     </row>
     <row r="621" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="26"/>
-      <c r="B621" s="40" t="s">
+      <c r="B621" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="C621" s="39"/>
+      <c r="C621" s="11" t="s">
+        <v>632</v>
+      </c>
       <c r="D621" s="39"/>
     </row>
     <row r="622" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="26"/>
-      <c r="B622" s="40" t="s">
-        <v>632</v>
-      </c>
-      <c r="C622" s="39"/>
+      <c r="B622" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C622" s="11" t="s">
+        <v>634</v>
+      </c>
       <c r="D622" s="39"/>
     </row>
     <row r="623" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="26"/>
-      <c r="B623" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="C623" s="39"/>
+      <c r="B623" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C623" s="11" t="s">
+        <v>636</v>
+      </c>
       <c r="D623" s="39"/>
     </row>
     <row r="624" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="26"/>
-      <c r="B624" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="C624" s="39"/>
+      <c r="B624" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="C624" s="11" t="s">
+        <v>638</v>
+      </c>
       <c r="D624" s="39"/>
     </row>
     <row r="625" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="26"/>
-      <c r="B625" s="40" t="s">
-        <v>635</v>
-      </c>
-      <c r="C625" s="39"/>
+      <c r="B625" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C625" s="11"/>
       <c r="D625" s="39"/>
     </row>
     <row r="626" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="26"/>
-      <c r="B626" s="40" t="s">
-        <v>636</v>
-      </c>
-      <c r="C626" s="39"/>
+      <c r="B626" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C626" s="11" t="s">
+        <v>641</v>
+      </c>
       <c r="D626" s="39"/>
     </row>
     <row r="627" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="26"/>
-      <c r="B627" s="40" t="s">
-        <v>637</v>
-      </c>
-      <c r="C627" s="39"/>
+      <c r="B627" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="C627" s="11" t="s">
+        <v>643</v>
+      </c>
       <c r="D627" s="39"/>
     </row>
     <row r="628" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="26"/>
-      <c r="B628" s="40" t="s">
-        <v>638</v>
-      </c>
-      <c r="C628" s="39"/>
+      <c r="B628" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C628" s="11" t="s">
+        <v>645</v>
+      </c>
       <c r="D628" s="39"/>
     </row>
     <row r="629" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="26"/>
-      <c r="B629" s="40" t="s">
-        <v>639</v>
-      </c>
-      <c r="C629" s="39"/>
+      <c r="B629" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C629" s="11" t="s">
+        <v>647</v>
+      </c>
       <c r="D629" s="39"/>
     </row>
     <row r="630" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="26"/>
-      <c r="B630" s="40" t="s">
-        <v>640</v>
-      </c>
-      <c r="C630" s="39"/>
+      <c r="B630" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C630" s="11" t="s">
+        <v>649</v>
+      </c>
       <c r="D630" s="39"/>
     </row>
     <row r="631" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="26"/>
-      <c r="B631" s="40" t="s">
-        <v>641</v>
-      </c>
-      <c r="C631" s="39"/>
+      <c r="B631" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C631" s="11" t="s">
+        <v>651</v>
+      </c>
       <c r="D631" s="39"/>
     </row>
     <row r="632" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="26"/>
-      <c r="B632" s="40" t="s">
-        <v>642</v>
-      </c>
-      <c r="C632" s="39"/>
+      <c r="B632" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C632" s="40" t="s">
+        <v>653</v>
+      </c>
       <c r="D632" s="39"/>
     </row>
     <row r="633" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="26"/>
-      <c r="B633" s="40" t="s">
-        <v>643</v>
-      </c>
-      <c r="C633" s="39"/>
+      <c r="B633" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C633" s="11" t="s">
+        <v>655</v>
+      </c>
       <c r="D633" s="39"/>
     </row>
     <row r="634" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="26"/>
-      <c r="B634" s="40" t="s">
-        <v>644</v>
-      </c>
-      <c r="C634" s="39"/>
+      <c r="B634" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C634" s="11" t="s">
+        <v>657</v>
+      </c>
       <c r="D634" s="39"/>
     </row>
     <row r="635" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="26"/>
-      <c r="B635" s="40" t="s">
-        <v>645</v>
-      </c>
-      <c r="C635" s="39"/>
+      <c r="B635" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C635" s="11" t="s">
+        <v>659</v>
+      </c>
       <c r="D635" s="39"/>
     </row>
     <row r="636" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="26"/>
-      <c r="B636" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="C636" s="39"/>
+      <c r="B636" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C636" s="11" t="s">
+        <v>661</v>
+      </c>
       <c r="D636" s="39"/>
     </row>
     <row r="637" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="26"/>
-      <c r="B637" s="40" t="s">
-        <v>647</v>
-      </c>
-      <c r="C637" s="39"/>
+      <c r="B637" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="C637" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="D637" s="39"/>
     </row>
     <row r="638" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="26"/>
-      <c r="B638" s="40" t="s">
-        <v>648</v>
-      </c>
-      <c r="C638" s="39"/>
+      <c r="B638" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="C638" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="D638" s="39"/>
     </row>
     <row r="639" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="26"/>
-      <c r="B639" s="40" t="s">
-        <v>649</v>
-      </c>
-      <c r="C639" s="39"/>
+      <c r="B639" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C639" s="11" t="s">
+        <v>665</v>
+      </c>
       <c r="D639" s="39"/>
     </row>
     <row r="640" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="26"/>
-      <c r="B640" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="C640" s="39"/>
+      <c r="B640" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C640" s="11" t="s">
+        <v>667</v>
+      </c>
       <c r="D640" s="39"/>
     </row>
     <row r="641" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="26"/>
-      <c r="B641" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="C641" s="39"/>
+      <c r="B641" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="C641" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="D641" s="39"/>
     </row>
     <row r="642" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="26"/>
-      <c r="B642" s="39" t="s">
-        <v>652</v>
-      </c>
-      <c r="C642" s="39"/>
+      <c r="B642" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C642" s="11" t="s">
+        <v>670</v>
+      </c>
       <c r="D642" s="39"/>
+    </row>
+    <row r="643" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A643" s="26"/>
+      <c r="B643" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C643" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="D643" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="150">
@@ -6451,108 +6568,108 @@
     <mergeCell ref="A165:A168"/>
     <mergeCell ref="A170:B170"/>
     <mergeCell ref="A171:A174"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:A189"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:A218"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A236:A239"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:A267"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A274:A278"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A300:A302"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A305:A306"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A318:B318"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:A339"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="A351:A352"/>
-    <mergeCell ref="A354:B354"/>
-    <mergeCell ref="A357:B357"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="A361:B361"/>
-    <mergeCell ref="A364:B364"/>
-    <mergeCell ref="A367:B367"/>
-    <mergeCell ref="A370:B370"/>
-    <mergeCell ref="A371:A372"/>
-    <mergeCell ref="A375:B375"/>
-    <mergeCell ref="A378:B378"/>
-    <mergeCell ref="A379:A381"/>
-    <mergeCell ref="A383:B383"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="A389:B389"/>
-    <mergeCell ref="A392:B392"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A398:B398"/>
-    <mergeCell ref="A399:A400"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="A405:B405"/>
-    <mergeCell ref="A408:B408"/>
-    <mergeCell ref="A411:B411"/>
-    <mergeCell ref="A412:A414"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A417:A427"/>
-    <mergeCell ref="B417:B421"/>
-    <mergeCell ref="B422:B427"/>
-    <mergeCell ref="A429:B429"/>
-    <mergeCell ref="A430:A437"/>
-    <mergeCell ref="A439:B439"/>
-    <mergeCell ref="A442:B445"/>
-    <mergeCell ref="A473:A476"/>
-    <mergeCell ref="A478:A498"/>
-    <mergeCell ref="C524:C526"/>
-    <mergeCell ref="A527:A548"/>
-    <mergeCell ref="A550:A570"/>
-    <mergeCell ref="B550:B552"/>
-    <mergeCell ref="A572:A588"/>
-    <mergeCell ref="A590:A613"/>
-    <mergeCell ref="A615:A642"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:A190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:A268"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A275:A279"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="A301:A303"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A338:A340"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="A355:B355"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="A362:B362"/>
+    <mergeCell ref="A365:B365"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="A372:A373"/>
+    <mergeCell ref="A376:B376"/>
+    <mergeCell ref="A379:B379"/>
+    <mergeCell ref="A380:A382"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="A387:B387"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A393:B393"/>
+    <mergeCell ref="A396:B396"/>
+    <mergeCell ref="A399:B399"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="A403:B403"/>
+    <mergeCell ref="A406:B406"/>
+    <mergeCell ref="A409:B409"/>
+    <mergeCell ref="A412:B412"/>
+    <mergeCell ref="A413:A415"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:A428"/>
+    <mergeCell ref="B418:B422"/>
+    <mergeCell ref="B423:B428"/>
+    <mergeCell ref="A430:B430"/>
+    <mergeCell ref="A431:A438"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="A443:B446"/>
+    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="A479:A499"/>
+    <mergeCell ref="C525:C527"/>
+    <mergeCell ref="A528:A549"/>
+    <mergeCell ref="A551:A571"/>
+    <mergeCell ref="B551:B553"/>
+    <mergeCell ref="A573:A589"/>
+    <mergeCell ref="A591:A614"/>
+    <mergeCell ref="A616:A643"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6562,4 +6679,40 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="35.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>674</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="709">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -638,6 +638,9 @@
     <t xml:space="preserve">Control Tower Service: Creates a new multi-account environment with best practices</t>
   </si>
   <si>
+    <t xml:space="preserve">Shared RI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Artifacts</t>
   </si>
   <si>
@@ -1349,7 +1352,7 @@
     <t xml:space="preserve">Systems impaired</t>
   </si>
   <si>
-    <t xml:space="preserve">Tech support for unlimited cases (1 contact)</t>
+    <t xml:space="preserve">Tech support for limited cases (1 contact)</t>
   </si>
   <si>
     <t xml:space="preserve">Production systems impaired</t>
@@ -1580,7 +1583,7 @@
     <t xml:space="preserve">Q26 – Improve your understanding on Global Accelerator</t>
   </si>
   <si>
-    <t xml:space="preserve">Global Accelerator creates a fix-ip owned by AWS where you can point your applications to and get a faster connection to cloud resources, regardless of your geographical location</t>
+    <t xml:space="preserve">Global Accelerator creates a fix-ip owned by AWS where you can point your applications to and get a faster connection to cloud resources, regardless of your geographical location. Good for non-http use cases</t>
   </si>
   <si>
     <t xml:space="preserve">Q28 – Services used to prevent DDOS attacks</t>
@@ -1604,7 +1607,7 @@
     <t xml:space="preserve">Q38 – Personal Health Dashboard vs Service Health Dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal Health Dashboard provides information on your personal account, besides alerts on events that might possible affect your environment. Service Health Dashboard provides info on service status throughout all the regions. Besides, you can subscribe to receive notifications on possible interruptions that might affect you</t>
+    <t xml:space="preserve">Personal Health Dashboard provides information on your personal account, besides alerts on events that might possible affect your environment. Service Health Dashboard provides info on service status throughout all the regions. Besides, you can subscribe to and RSS feed to receive notifications on possible interruptions that might affect you</t>
   </si>
   <si>
     <t xml:space="preserve">Q39 – Services that can avoid SQL Injections</t>
@@ -1875,6 +1878,9 @@
     <t xml:space="preserve">Q63 – Customer Gateway</t>
   </si>
   <si>
+    <t xml:space="preserve">Used to make a site-to-site VPN along with Virtual Private Gateways</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compute Optimizer supported services</t>
   </si>
   <si>
@@ -1977,7 +1983,7 @@
     <t xml:space="preserve">Q37 – Regional constraints for AMI</t>
   </si>
   <si>
-    <t xml:space="preserve">We must use an AMI from the region we chose. IRegion doesn’t affect performance</t>
+    <t xml:space="preserve">We must use an AMI from the region we chose. Region doesn’t affect performance</t>
   </si>
   <si>
     <t xml:space="preserve">Q38 – AWS Knowledge Center</t>
@@ -2043,10 +2049,106 @@
     <t xml:space="preserve">Number of requests to the function and the time it takes to execute</t>
   </si>
   <si>
+    <t xml:space="preserve">Erros do simulado 7 (MAREEK 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4 – What is Amazon Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 – Cost Explorer can forecast bills for up to 12 months?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8 – Study Snow Family deeper and read the explanation!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9 – Service delivered globally (read explanation!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10 – Study AWS API Gateway deeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13 – CRM Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14 – CloudEndure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16 – Services where data is encrypted by default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17 – All traffic between Azs is encrypted!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q19 – Free services (READ EXPLANATION!!!!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q20 – Study deeper about Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25 – What is Amazon Sumerian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q26 – What is OpsHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27 – What is logged by default on CloudTrail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q28 – Deeper into Savings Plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q29 – AWS Managed Master Keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q30 – What is Amazon EC2 Image Builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q32 – Neptune is NOSql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q34 – What is Amazon AppStream 2.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erros simulado 1</t>
   </si>
   <si>
     <t xml:space="preserve">Q18 – WAF works on the 7th OSI layer!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leituras importantes nos comentários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS is responsible for data in transit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Overview of AWS Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Well Architected Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. How Pricing Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Shared Responsibility Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Other dedicated docs on S3, EC2, RDS, Route 53 etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow Family limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get info on what is S3 (SaaS or PaaS), EBS, EFS, RDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are four cost components to consider for S3 pricing – storage pricing; request and data retrieval pricing;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage gateway is S3 ONLY!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where data is encrypted by default.</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2410,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2469,8 +2571,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2550,13 +2656,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D643"/>
+  <dimension ref="A1:D673"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B606" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B614" activeCellId="0" sqref="B614"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A648" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B665" activeCellId="0" sqref="B665"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="35.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.57"/>
@@ -2565,14 +2671,14 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2583,35 +2689,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -2620,35 +2726,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
@@ -2657,14 +2763,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
@@ -2674,7 +2780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
@@ -2682,28 +2788,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="10" t="s">
         <v>23</v>
@@ -2712,49 +2818,49 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -2762,19 +2868,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -2782,31 +2888,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -2814,25 +2920,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
@@ -2840,13 +2946,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2854,37 +2960,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
@@ -2892,31 +2998,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
@@ -2924,13 +3030,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>1</v>
       </c>
@@ -2938,13 +3044,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>1</v>
       </c>
@@ -2952,19 +3058,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
@@ -2972,13 +3078,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>1</v>
       </c>
@@ -2986,61 +3092,61 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
         <v>1</v>
       </c>
@@ -3048,61 +3154,61 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="15"/>
       <c r="B85" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="15"/>
       <c r="B86" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="15"/>
       <c r="B87" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="15"/>
       <c r="B88" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="15"/>
       <c r="B89" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="15"/>
       <c r="B90" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="15"/>
       <c r="B91" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="B92" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
         <v>1</v>
       </c>
@@ -3110,49 +3216,49 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="15"/>
       <c r="B96" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="15"/>
       <c r="B97" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="15"/>
       <c r="B98" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="15"/>
       <c r="B99" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="15"/>
       <c r="B100" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="15"/>
       <c r="B101" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
         <v>1</v>
       </c>
@@ -3160,91 +3266,91 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
         <v>1</v>
       </c>
@@ -3252,31 +3358,31 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="18" t="s">
         <v>1</v>
       </c>
@@ -3284,25 +3390,25 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="18"/>
       <c r="B127" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="18"/>
       <c r="B128" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
         <v>1</v>
       </c>
@@ -3310,31 +3416,31 @@
         <v>114</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
         <v>1</v>
       </c>
@@ -3342,13 +3448,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="15" t="s">
         <v>1</v>
       </c>
@@ -3356,19 +3462,19 @@
         <v>121</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="15"/>
       <c r="B141" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="18" t="s">
         <v>1</v>
       </c>
@@ -3376,55 +3482,55 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="18"/>
       <c r="B145" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="18"/>
       <c r="B146" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="18"/>
       <c r="B147" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="18"/>
       <c r="B148" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="18"/>
       <c r="B149" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="18"/>
       <c r="B150" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="18"/>
       <c r="B151" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
         <v>1</v>
       </c>
@@ -3432,61 +3538,61 @@
         <v>133</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="20"/>
       <c r="B161" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="20"/>
       <c r="B162" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
         <v>1</v>
       </c>
@@ -3494,31 +3600,31 @@
         <v>143</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
       <c r="B168" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="18" t="s">
         <v>1</v>
       </c>
@@ -3526,43 +3632,43 @@
         <v>148</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="18"/>
       <c r="B172" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="18"/>
       <c r="B173" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="18"/>
       <c r="B174" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="18"/>
       <c r="B175" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="18"/>
       <c r="B176" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
         <v>1</v>
       </c>
@@ -3570,19 +3676,19 @@
         <v>155</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
       <c r="B180" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
         <v>1</v>
       </c>
@@ -3590,55 +3696,55 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
       <c r="B185" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
       <c r="B186" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
       <c r="B187" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
       <c r="B188" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
       <c r="B189" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
       <c r="B190" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="18" t="s">
         <v>1</v>
       </c>
@@ -3646,31 +3752,31 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="18"/>
       <c r="B194" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="18"/>
       <c r="B195" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="18"/>
       <c r="B196" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
         <v>1</v>
       </c>
@@ -3678,13 +3784,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
         <v>1</v>
       </c>
@@ -3692,13 +3798,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
         <v>1</v>
       </c>
@@ -3706,37 +3812,37 @@
         <v>176</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
       <c r="B206" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
       <c r="B208" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
       <c r="B209" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
         <v>1</v>
       </c>
@@ -3744,19 +3850,19 @@
         <v>182</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
       <c r="B213" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
         <v>1</v>
       </c>
@@ -3764,31 +3870,31 @@
         <v>185</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
       <c r="B217" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
       <c r="B218" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
       <c r="B219" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
         <v>1</v>
       </c>
@@ -3796,19 +3902,19 @@
         <v>190</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
       <c r="B223" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
         <v>1</v>
       </c>
@@ -3816,25 +3922,25 @@
         <v>193</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
       <c r="B227" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
       <c r="B228" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
         <v>1</v>
       </c>
@@ -3842,13 +3948,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
         <v>1</v>
       </c>
@@ -3856,13 +3962,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
         <v>1</v>
       </c>
@@ -3870,1469 +3976,1464 @@
         <v>201</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
       <c r="B239" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
       <c r="B240" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="s">
+    <row r="241" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A241" s="3"/>
+      <c r="B241" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B242" s="2"/>
-    </row>
-    <row r="243" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B243" s="8" t="s">
+    </row>
+    <row r="243" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="245" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="s">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A244" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B245" s="2"/>
-    </row>
-    <row r="246" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B246" s="8" t="s">
+    </row>
+    <row r="246" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="248" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B248" s="2"/>
-    </row>
-    <row r="249" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B249" s="8" t="s">
+    </row>
+    <row r="249" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="250" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3"/>
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B250" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2" t="s">
+    <row r="252" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A252" s="3"/>
+      <c r="B252" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B253" s="2"/>
-    </row>
-    <row r="254" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B254" s="9" t="s">
+    </row>
+    <row r="254" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="256" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2" t="s">
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A255" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B256" s="2"/>
-    </row>
-    <row r="257" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B257" s="8" t="s">
+    </row>
+    <row r="257" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="259" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="s">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A258" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B259" s="2"/>
-    </row>
-    <row r="260" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B260" s="8" t="s">
+    </row>
+    <row r="260" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="261" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="3"/>
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A261" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B261" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
       <c r="B262" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="s">
+    <row r="263" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A263" s="3"/>
+      <c r="B263" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B264" s="2"/>
-    </row>
-    <row r="265" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B265" s="8" t="s">
+    </row>
+    <row r="265" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="18"/>
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A266" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B266" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="18"/>
       <c r="B267" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="18"/>
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="s">
+    <row r="269" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="18"/>
+      <c r="B269" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B270" s="2"/>
-    </row>
-    <row r="271" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B271" s="8" t="s">
+    </row>
+    <row r="271" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="272" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="3"/>
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B272" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="s">
+    <row r="273" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="3"/>
+      <c r="B273" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B274" s="2"/>
-    </row>
-    <row r="275" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B275" s="8" t="s">
+    </row>
+    <row r="275" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="276" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="18"/>
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B276" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="18"/>
       <c r="B277" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="18"/>
       <c r="B278" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="18"/>
       <c r="B279" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="s">
+    <row r="280" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="18"/>
+      <c r="B280" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B281" s="2"/>
-    </row>
-    <row r="282" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B282" s="8" t="s">
+    </row>
+    <row r="282" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="284" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="s">
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A283" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B283" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B284" s="2"/>
-    </row>
-    <row r="285" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="s">
+    </row>
+    <row r="285" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B287" s="2"/>
-    </row>
-    <row r="288" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B288" s="8" t="s">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A286" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="290" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="s">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A289" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B289" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B290" s="2"/>
-    </row>
-    <row r="291" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B291" s="8" t="s">
+    </row>
+    <row r="291" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="293" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="s">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A292" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B292" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B293" s="2"/>
-    </row>
-    <row r="294" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B294" s="8" t="s">
+    </row>
+    <row r="294" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="296" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="s">
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A295" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B295" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B296" s="2"/>
-    </row>
-    <row r="297" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B297" s="8" t="s">
+    </row>
+    <row r="297" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="298" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="3"/>
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B298" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="s">
+    <row r="299" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A299" s="3"/>
+      <c r="B299" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B300" s="2"/>
-    </row>
-    <row r="301" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B301" s="8" t="s">
+    </row>
+    <row r="301" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="302" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="3"/>
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A302" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B302" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="3"/>
       <c r="B303" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="s">
+    <row r="304" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A304" s="3"/>
+      <c r="B304" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B305" s="2"/>
-    </row>
-    <row r="306" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B306" s="8" t="s">
+    </row>
+    <row r="306" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="307" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="3"/>
-      <c r="B307" s="11" t="s">
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A307" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B307" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="s">
+    <row r="308" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="3"/>
+      <c r="B308" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B309" s="2"/>
-    </row>
-    <row r="310" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B310" s="8" t="s">
+    </row>
+    <row r="310" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="312" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="s">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B311" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B312" s="2"/>
-    </row>
-    <row r="313" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B313" s="21" t="s">
+    </row>
+    <row r="313" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="314" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="3"/>
-      <c r="B314" s="8" t="s">
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A314" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B314" s="21" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="s">
+    <row r="315" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A315" s="3"/>
+      <c r="B315" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B316" s="2"/>
-    </row>
-    <row r="317" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B317" s="8" t="s">
+    </row>
+    <row r="317" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="319" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="s">
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A318" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B319" s="2"/>
-    </row>
-    <row r="320" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B320" s="8" t="s">
+    </row>
+    <row r="320" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="322" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A321" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B321" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B322" s="2"/>
-    </row>
-    <row r="323" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B323" s="8" t="s">
+    </row>
+    <row r="323" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="325" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2" t="s">
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A324" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B325" s="2"/>
-    </row>
-    <row r="326" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B326" s="8" t="s">
+    </row>
+    <row r="326" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="328" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="s">
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A327" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B328" s="2"/>
-    </row>
-    <row r="329" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B329" s="8" t="s">
+    </row>
+    <row r="329" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="331" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="s">
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A330" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B331" s="2"/>
-    </row>
-    <row r="332" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B332" s="8" t="s">
+    </row>
+    <row r="332" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="333" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="3"/>
-      <c r="B333" s="11" t="s">
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A333" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B333" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="3"/>
       <c r="B334" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="3"/>
       <c r="B335" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="2" t="s">
+    <row r="336" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A336" s="3"/>
+      <c r="B336" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B337" s="2"/>
-    </row>
-    <row r="338" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B338" s="8" t="s">
+    </row>
+    <row r="338" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="339" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="3"/>
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A339" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B339" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="3"/>
       <c r="B340" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="3"/>
       <c r="B341" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="2" t="s">
+    <row r="342" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A342" s="3"/>
+      <c r="B342" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B343" s="2"/>
-    </row>
-    <row r="344" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B344" s="8" t="s">
+    </row>
+    <row r="344" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="345" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="3"/>
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A345" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B345" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="3"/>
       <c r="B346" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="2" t="s">
+    <row r="347" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A347" s="3"/>
+      <c r="B347" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B348" s="2"/>
-    </row>
-    <row r="349" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B349" s="8" t="s">
+    </row>
+    <row r="349" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="351" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="s">
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A350" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B350" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B351" s="2"/>
-    </row>
-    <row r="352" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B352" s="8" t="s">
+    </row>
+    <row r="352" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="353" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="18"/>
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A353" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B353" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="2" t="s">
+    <row r="354" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A354" s="18"/>
+      <c r="B354" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B355" s="2"/>
-    </row>
-    <row r="356" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A356" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B356" s="11" t="s">
+    </row>
+    <row r="356" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="358" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="2" t="s">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B358" s="2"/>
-    </row>
-    <row r="359" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B359" s="8" t="s">
+    </row>
+    <row r="359" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="360" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="3"/>
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A360" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B360" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="2" t="s">
+    <row r="361" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A361" s="3"/>
+      <c r="B361" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B362" s="2"/>
-    </row>
-    <row r="363" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B363" s="8" t="s">
+    </row>
+    <row r="363" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="365" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="2" t="s">
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B365" s="2"/>
-    </row>
-    <row r="366" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B366" s="8" t="s">
+    </row>
+    <row r="366" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="368" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="2" t="s">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B367" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B368" s="2"/>
-    </row>
-    <row r="369" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B369" s="11" t="s">
+    </row>
+    <row r="369" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="371" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="2" t="s">
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B370" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B371" s="2"/>
-    </row>
-    <row r="372" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B372" s="8" t="s">
+    </row>
+    <row r="372" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="373" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="3"/>
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B373" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="3"/>
       <c r="B374" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="2" t="s">
+    <row r="375" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="3"/>
+      <c r="B375" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B376" s="2"/>
-    </row>
-    <row r="377" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B377" s="8" t="s">
+    </row>
+    <row r="377" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="379" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="2" t="s">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B378" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B379" s="2"/>
-    </row>
-    <row r="380" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B380" s="8" t="s">
+    </row>
+    <row r="380" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="381" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="3"/>
-      <c r="B381" s="9" t="s">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="3"/>
-      <c r="B382" s="8" t="s">
+      <c r="B382" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="2" t="s">
+    <row r="383" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="3"/>
+      <c r="B383" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B384" s="2"/>
-    </row>
-    <row r="385" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B385" s="8" t="s">
+    </row>
+    <row r="385" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="387" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="2" t="s">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B386" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B387" s="2"/>
-    </row>
-    <row r="388" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B388" s="8" t="s">
+    </row>
+    <row r="388" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="390" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="2" t="s">
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B389" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B390" s="2"/>
-    </row>
-    <row r="391" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A391" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B391" s="8" t="s">
+    </row>
+    <row r="391" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="393" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="2" t="s">
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B392" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B393" s="2"/>
-    </row>
-    <row r="394" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A394" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B394" s="8" t="s">
+    </row>
+    <row r="394" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="396" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="2" t="s">
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B395" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B396" s="2"/>
-    </row>
-    <row r="397" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A397" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B397" s="8" t="s">
+    </row>
+    <row r="397" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="399" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="2" t="s">
+      <c r="B397" s="2"/>
+    </row>
+    <row r="398" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B398" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B399" s="2"/>
-    </row>
-    <row r="400" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B400" s="8" t="s">
+    </row>
+    <row r="400" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A400" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="401" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A401" s="3"/>
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B401" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="2" t="s">
+    <row r="402" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A402" s="3"/>
+      <c r="B402" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B403" s="2"/>
-    </row>
-    <row r="404" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B404" s="8" t="s">
+    </row>
+    <row r="404" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A404" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="406" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="2" t="s">
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A405" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B405" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B406" s="2"/>
-    </row>
-    <row r="407" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B407" s="8" t="s">
+    </row>
+    <row r="407" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="409" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="2" t="s">
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A408" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B408" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B409" s="2"/>
-    </row>
-    <row r="410" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B410" s="5" t="s">
+    </row>
+    <row r="410" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="412" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="2" t="s">
+      <c r="B410" s="2"/>
+    </row>
+    <row r="411" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B411" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B412" s="2"/>
-    </row>
-    <row r="413" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B413" s="9" t="s">
+    </row>
+    <row r="413" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="414" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="3"/>
-      <c r="B414" s="8" t="s">
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B414" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="3"/>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="2" t="s">
+    <row r="416" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="3"/>
+      <c r="B416" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-    </row>
-    <row r="418" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B418" s="22" t="s">
+    </row>
+    <row r="418" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C418" s="8" t="s">
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+    </row>
+    <row r="419" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A419" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B419" s="22" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="419" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A419" s="3"/>
-      <c r="B419" s="22"/>
       <c r="C419" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="3"/>
       <c r="B420" s="22"/>
       <c r="C420" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
       <c r="B421" s="22"/>
       <c r="C421" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
       <c r="B422" s="22"/>
       <c r="C422" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
-      <c r="B423" s="23" t="s">
+      <c r="B423" s="22"/>
+      <c r="C423" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C423" s="9" t="s">
+    </row>
+    <row r="424" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="3"/>
+      <c r="B424" s="23" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="424" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A424" s="3"/>
-      <c r="B424" s="23"/>
       <c r="C424" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="3"/>
       <c r="B425" s="23"/>
       <c r="C425" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="3"/>
       <c r="B426" s="23"/>
       <c r="C426" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="3"/>
       <c r="B427" s="23"/>
       <c r="C427" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="3"/>
       <c r="B428" s="23"/>
       <c r="C428" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="2" t="s">
+    <row r="429" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A429" s="3"/>
+      <c r="B429" s="23"/>
+      <c r="C429" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B430" s="2"/>
-    </row>
-    <row r="431" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B431" s="21" t="s">
+    </row>
+    <row r="431" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A431" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A432" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B432" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="3"/>
-      <c r="B432" s="21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="3"/>
       <c r="B433" s="21" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
       <c r="B434" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="3"/>
       <c r="B435" s="21" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="3"/>
       <c r="B436" s="21" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="3"/>
       <c r="B437" s="21" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="3"/>
       <c r="B438" s="21" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A440" s="2" t="s">
+    <row r="439" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A439" s="3"/>
+      <c r="B439" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="B440" s="2"/>
-    </row>
-    <row r="441" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A441" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B441" s="21" t="s">
+    </row>
+    <row r="441" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A441" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="443" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A443" s="24" t="s">
+      <c r="B441" s="2"/>
+    </row>
+    <row r="442" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A442" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B442" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="B443" s="24"/>
-    </row>
-    <row r="444" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="24"/>
+    </row>
+    <row r="444" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A444" s="24" t="s">
+        <v>355</v>
+      </c>
       <c r="B444" s="24"/>
     </row>
-    <row r="445" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="24"/>
       <c r="B445" s="24"/>
     </row>
-    <row r="446" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="24"/>
       <c r="B446" s="24"/>
     </row>
-    <row r="447" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B447" s="8" t="s">
+    <row r="447" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A447" s="24"/>
+      <c r="B447" s="24"/>
+    </row>
+    <row r="448" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A448" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="448" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="9" t="s">
+      <c r="B448" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B448" s="9" t="s">
+    </row>
+    <row r="449" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A449" s="9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="449" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="8" t="s">
+      <c r="B449" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B449" s="8" t="s">
+    </row>
+    <row r="450" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A450" s="8" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="450" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="8" t="s">
+      <c r="B450" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B450" s="8" t="s">
+    </row>
+    <row r="451" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A451" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="451" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A451" s="8" t="s">
+      <c r="B451" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B451" s="8" t="s">
+    </row>
+    <row r="452" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A452" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="452" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A452" s="21" t="s">
+      <c r="B452" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="B452" s="8" t="s">
+    </row>
+    <row r="453" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A453" s="21" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="453" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="21" t="s">
+      <c r="B453" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B453" s="8" t="s">
+    </row>
+    <row r="454" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A454" s="21" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="454" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="21" t="s">
+      <c r="B454" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B454" s="25"/>
-    </row>
-    <row r="455" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="8" t="s">
+    </row>
+    <row r="455" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A455" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="B455" s="8" t="s">
+      <c r="B455" s="25"/>
+    </row>
+    <row r="456" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A456" s="8" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="456" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="8" t="s">
+      <c r="B456" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B456" s="8" t="s">
+    </row>
+    <row r="457" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A457" s="8" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="457" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="8" t="s">
+      <c r="B457" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B457" s="8" t="s">
+    </row>
+    <row r="458" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A458" s="8" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="458" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A458" s="8" t="s">
+      <c r="B458" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B458" s="8" t="s">
+    </row>
+    <row r="459" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A459" s="8" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="459" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A459" s="8" t="s">
+      <c r="B459" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B459" s="8" t="s">
+    </row>
+    <row r="460" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A460" s="8" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="460" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A460" s="8" t="s">
+      <c r="B460" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B460" s="8" t="s">
+    </row>
+    <row r="461" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A461" s="8" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="461" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="9" t="s">
+      <c r="B461" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B461" s="9" t="s">
+    </row>
+    <row r="462" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A462" s="9" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="462" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="8" t="s">
+      <c r="B462" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B462" s="8" t="s">
+    </row>
+    <row r="463" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A463" s="8" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="463" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="5" t="s">
+      <c r="B463" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B463" s="8" t="s">
+    </row>
+    <row r="464" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A464" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="464" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A464" s="8" t="s">
+      <c r="B464" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B464" s="8" t="s">
+    </row>
+    <row r="465" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A465" s="8" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="465" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="8" t="s">
+      <c r="B465" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B465" s="8" t="s">
+    </row>
+    <row r="466" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A466" s="8" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="466" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A466" s="8" t="s">
+      <c r="B466" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B466" s="8" t="s">
+    </row>
+    <row r="467" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A467" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="467" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A467" s="8" t="s">
+      <c r="B467" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B467" s="8" t="s">
+    </row>
+    <row r="468" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A468" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="468" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A468" s="8" t="s">
+      <c r="B468" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B468" s="8" t="s">
+    </row>
+    <row r="469" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A469" s="8" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A469" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="B469" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B470" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B470" s="8" t="s">
+    </row>
+    <row r="471" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A471" s="8" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="471" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A471" s="9" t="s">
+      <c r="B471" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B471" s="9" t="s">
+    </row>
+    <row r="472" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A472" s="9" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="472" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A472" s="9" t="s">
+      <c r="B472" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B472" s="9" t="s">
+    </row>
+    <row r="473" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A473" s="9" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="474" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A474" s="26" t="s">
+      <c r="B473" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B474" s="21" t="s">
+    </row>
+    <row r="475" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A475" s="26" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="475" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A475" s="26"/>
       <c r="B475" s="21" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="26"/>
-      <c r="B476" s="27" t="s">
+      <c r="B476" s="21" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="26"/>
-      <c r="B477" s="9" t="s">
+      <c r="B477" s="27" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A479" s="28" t="s">
+    <row r="478" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A478" s="26"/>
+      <c r="B478" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="B479" s="8" t="s">
+    </row>
+    <row r="480" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A480" s="28" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="480" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A480" s="28"/>
-      <c r="B480" s="11" t="s">
+      <c r="B480" s="8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="28"/>
-      <c r="B481" s="8" t="s">
+      <c r="B481" s="11" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="28"/>
       <c r="B482" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="28"/>
       <c r="B483" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="28"/>
       <c r="B484" s="8" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="28"/>
       <c r="B485" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="28"/>
       <c r="B486" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="28"/>
       <c r="B487" s="8" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="28"/>
       <c r="B488" s="8" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="28"/>
       <c r="B489" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="28"/>
       <c r="B490" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="28"/>
       <c r="B491" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="28"/>
-      <c r="B492" s="29" t="s">
+      <c r="B492" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="28"/>
-      <c r="B493" s="21" t="s">
+      <c r="B493" s="29" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="28"/>
       <c r="B494" s="21" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="28"/>
       <c r="B495" s="21" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="28"/>
       <c r="B496" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="28"/>
       <c r="B497" s="21" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="28"/>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="21" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="28"/>
-      <c r="B499" s="21" t="s">
+      <c r="B499" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A502" s="3" t="s">
+    <row r="500" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A500" s="28"/>
+      <c r="B500" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B502" s="4" t="s">
+    </row>
+    <row r="503" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A503" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C502" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="D502" s="31" t="s">
+      <c r="B503" s="4" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="503" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A503" s="32" t="s">
+      <c r="C503" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D503" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="B503" s="33" t="s">
+    </row>
+    <row r="504" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A504" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="C503" s="33" t="s">
+      <c r="B504" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D503" s="34" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A504" s="32" t="s">
+      <c r="C504" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="B504" s="33" t="s">
+      <c r="D504" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="C504" s="33" t="s">
+    </row>
+    <row r="505" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A505" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="D504" s="34" t="s">
+      <c r="B505" s="33" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B505" s="33" t="s">
-        <v>440</v>
       </c>
       <c r="C505" s="33" t="s">
         <v>440</v>
@@ -5341,7 +5442,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B506" s="33" t="s">
         <v>441</v>
       </c>
@@ -5352,915 +5453,917 @@
         <v>441</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B507" s="33" t="s">
         <v>442</v>
       </c>
       <c r="C507" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="D507" s="34" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B508" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D507" s="34" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B508" s="9" t="s">
+      <c r="C508" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="C508" s="33" t="s">
+      <c r="D508" s="34" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B509" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="D508" s="34" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B509" s="9" t="s">
+      <c r="C509" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="C509" s="9" t="s">
+      <c r="D509" s="34" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B510" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D509" s="34" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C510" s="9" t="s">
         <v>448</v>
       </c>
       <c r="D510" s="34" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C511" s="9" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="511" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C511" s="33" t="s">
-        <v>446</v>
-      </c>
       <c r="D511" s="34" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="512" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C512" s="33" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D512" s="34" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="513" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C513" s="33" t="s">
         <v>451</v>
       </c>
       <c r="D513" s="34" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C514" s="33" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="514" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C514" s="33" t="s">
-        <v>453</v>
       </c>
       <c r="D514" s="34" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C515" s="33" t="s">
         <v>454</v>
       </c>
       <c r="D515" s="34" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C516" s="33" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="516" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C516" s="33" t="s">
+      <c r="D516" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="D516" s="35" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="517" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D517" s="11" t="s">
+    </row>
+    <row r="517" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C517" s="33" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="518" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D518" s="33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D517" s="35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D518" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D519" s="33" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D520" s="33" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C525" s="26" t="s">
+    <row r="521" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D521" s="33" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C526" s="26"/>
-    </row>
-    <row r="527" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C526" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C527" s="26"/>
     </row>
-    <row r="528" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A528" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="B528" s="33" t="s">
+    <row r="528" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C528" s="26"/>
+    </row>
+    <row r="529" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A529" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="C528" s="33" t="s">
+      <c r="B529" s="33" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="529" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A529" s="36"/>
-      <c r="B529" s="33" t="s">
+      <c r="C529" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="C529" s="33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="530" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="530" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="36"/>
       <c r="B530" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C530" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="C530" s="33" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="531" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="531" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="36"/>
       <c r="B531" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C531" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="C531" s="33" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="532" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="532" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="36"/>
       <c r="B532" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="C532" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="C532" s="33" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="533" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="36"/>
       <c r="B533" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C533" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="C533" s="33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="534" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="534" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="36"/>
       <c r="B534" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C534" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="C534" s="33" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="535" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="535" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="36"/>
       <c r="B535" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="C535" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="C535" s="33" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="536" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="536" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="36"/>
       <c r="B536" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="C536" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="C536" s="33" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="537" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="537" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="36"/>
       <c r="B537" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="C537" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="C537" s="33" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="538" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="538" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="36"/>
       <c r="B538" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="C538" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="C538" s="33" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="539" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="539" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="36"/>
       <c r="B539" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C539" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="C539" s="33" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="540" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="540" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="36"/>
       <c r="B540" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C540" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="C540" s="33" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="541" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="541" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="36"/>
       <c r="B541" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C541" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="C541" s="33" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="542" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="542" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="36"/>
       <c r="B542" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="C542" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="C542" s="33" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="543" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="543" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="36"/>
       <c r="B543" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C543" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="C543" s="33" t="s">
+    </row>
+    <row r="544" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A544" s="36"/>
+      <c r="B544" s="33" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="544" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="36"/>
-      <c r="B544" s="9" t="s">
+      <c r="C544" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="C544" s="9" t="s">
+    </row>
+    <row r="545" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A545" s="36"/>
+      <c r="B545" s="9" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="545" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="36"/>
-      <c r="B545" s="21" t="s">
+      <c r="C545" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C545" s="21" t="s">
+    </row>
+    <row r="546" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A546" s="36"/>
+      <c r="B546" s="21" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="546" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="36"/>
-      <c r="B546" s="9" t="s">
+      <c r="C546" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="C546" s="9" t="s">
+    </row>
+    <row r="547" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A547" s="36"/>
+      <c r="B547" s="9" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="547" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="36"/>
-      <c r="B547" s="33" t="s">
+      <c r="C547" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="C547" s="33" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="548" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="548" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="36"/>
       <c r="B548" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C548" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="C548" s="33" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="549" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="549" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="36"/>
       <c r="B549" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="C549" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="C549" s="33" t="s">
+    </row>
+    <row r="550" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="36"/>
+      <c r="B550" s="33" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="551" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="26" t="s">
+      <c r="C550" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="B551" s="9" t="s">
+    </row>
+    <row r="552" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A552" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="C551" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="552" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="26"/>
-      <c r="B552" s="9"/>
+      <c r="B552" s="9" t="s">
+        <v>508</v>
+      </c>
       <c r="C552" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="553" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="26"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="554" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="26"/>
-      <c r="B554" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C554" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B554" s="9"/>
+      <c r="C554" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="26"/>
       <c r="B555" s="8" t="s">
         <v>509</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="556" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="26"/>
       <c r="B556" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C556" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C556" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="557" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="557" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="26"/>
       <c r="B557" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C557" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="C557" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="558" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="558" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="26"/>
       <c r="B558" s="8" t="s">
         <v>514</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="559" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="26"/>
       <c r="B559" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C559" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="C559" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="560" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="560" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="26"/>
       <c r="B560" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C560" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C560" s="8" t="s">
+    </row>
+    <row r="561" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A561" s="26"/>
+      <c r="B561" s="8" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="561" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A561" s="26"/>
-      <c r="B561" s="9" t="s">
+      <c r="C561" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="C561" s="9" t="s">
+    </row>
+    <row r="562" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A562" s="26"/>
+      <c r="B562" s="9" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="562" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="26"/>
-      <c r="B562" s="21" t="s">
+      <c r="C562" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C562" s="21" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="563" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="563" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="26"/>
       <c r="B563" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="C563" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="C563" s="21" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="564" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="564" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="26"/>
       <c r="B564" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C564" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="C564" s="21" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="565" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="565" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="26"/>
       <c r="B565" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="C565" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="C565" s="21" t="s">
+    </row>
+    <row r="566" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A566" s="26"/>
+      <c r="B566" s="21" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="566" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A566" s="26"/>
-      <c r="B566" s="29" t="s">
+      <c r="C566" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="C566" s="29" t="s">
+    </row>
+    <row r="567" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A567" s="26"/>
+      <c r="B567" s="29" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="567" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A567" s="26"/>
-      <c r="B567" s="9" t="s">
+      <c r="C567" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="C567" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="568" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="568" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="26"/>
       <c r="B568" s="9" t="s">
         <v>533</v>
       </c>
       <c r="C568" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A569" s="26"/>
+      <c r="B569" s="9" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="569" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A569" s="26"/>
-      <c r="B569" s="21" t="s">
+      <c r="C569" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C569" s="21" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="570" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="570" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="26"/>
       <c r="B570" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="C570" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="C570" s="21" t="s">
+    </row>
+    <row r="571" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A571" s="26"/>
+      <c r="B571" s="21" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="571" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A571" s="26"/>
-      <c r="B571" s="9" t="s">
+      <c r="C571" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="C571" s="9" t="s">
+    </row>
+    <row r="572" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A572" s="26"/>
+      <c r="B572" s="9" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="572" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A572" s="37"/>
-    </row>
-    <row r="573" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A573" s="26" t="s">
+      <c r="C572" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B573" s="9" t="s">
+    </row>
+    <row r="573" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="37"/>
+    </row>
+    <row r="574" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="C573" s="9" t="s">
+      <c r="B574" s="9" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="574" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A574" s="26"/>
-      <c r="B574" s="21" t="s">
+      <c r="C574" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="C574" s="21" t="s">
+    </row>
+    <row r="575" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="26"/>
+      <c r="B575" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="575" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A575" s="26"/>
-      <c r="B575" s="21" t="s">
+      <c r="C575" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="C575" s="21" t="s">
+    </row>
+    <row r="576" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="26"/>
+      <c r="B576" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="576" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A576" s="26"/>
-      <c r="B576" s="21" t="s">
+      <c r="C576" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="C576" s="21" t="s">
+    </row>
+    <row r="577" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="26"/>
+      <c r="B577" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="577" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A577" s="26"/>
-      <c r="B577" s="9" t="s">
+      <c r="C577" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C577" s="9" t="s">
+    </row>
+    <row r="578" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="26"/>
+      <c r="B578" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="578" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A578" s="26"/>
-      <c r="B578" s="21" t="s">
+      <c r="C578" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C578" s="21" t="s">
+    </row>
+    <row r="579" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="26"/>
+      <c r="B579" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="579" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A579" s="26"/>
-      <c r="B579" s="21" t="s">
+      <c r="C579" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C579" s="21" t="s">
+    </row>
+    <row r="580" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="26"/>
+      <c r="B580" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="580" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A580" s="26"/>
-      <c r="B580" s="9" t="s">
+      <c r="C580" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="C580" s="9" t="s">
+    </row>
+    <row r="581" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A581" s="26"/>
+      <c r="B581" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="581" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A581" s="26"/>
-      <c r="B581" s="21" t="s">
+      <c r="C581" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="C581" s="21" t="s">
+    </row>
+    <row r="582" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A582" s="26"/>
+      <c r="B582" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="582" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A582" s="26"/>
-      <c r="B582" s="9" t="s">
+      <c r="C582" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="C582" s="9" t="s">
+    </row>
+    <row r="583" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A583" s="26"/>
+      <c r="B583" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="583" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A583" s="26"/>
-      <c r="B583" s="11" t="s">
+      <c r="C583" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A584" s="26"/>
+      <c r="B584" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C583" s="11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A584" s="26"/>
-      <c r="B584" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="C584" s="21" t="s">
+      <c r="C584" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A585" s="26"/>
+      <c r="B585" s="8" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="585" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A585" s="26"/>
-      <c r="B585" s="21" t="s">
+      <c r="C585" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="C585" s="21" t="s">
+    </row>
+    <row r="586" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A586" s="26"/>
+      <c r="B586" s="8" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="586" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A586" s="26"/>
-      <c r="B586" s="21" t="s">
+      <c r="C586" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="C586" s="21" t="s">
+    </row>
+    <row r="587" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A587" s="26"/>
+      <c r="B587" s="8" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="587" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A587" s="26"/>
-      <c r="B587" s="21" t="s">
+      <c r="C587" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C587" s="21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="588" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="588" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="26"/>
-      <c r="B588" s="9" t="s">
+      <c r="B588" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="C588" s="9" t="s">
+      <c r="C588" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A589" s="26"/>
+      <c r="B589" s="8" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="589" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A589" s="26"/>
-      <c r="B589" s="9" t="s">
+      <c r="C589" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C589" s="9" t="s">
+    </row>
+    <row r="590" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A590" s="26"/>
+      <c r="B590" s="8" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="590" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B590" s="38"/>
-      <c r="C590" s="38"/>
-    </row>
-    <row r="591" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A591" s="26" t="s">
+      <c r="C590" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B591" s="9" t="s">
+    </row>
+    <row r="591" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B591" s="38"/>
+      <c r="C591" s="38"/>
+    </row>
+    <row r="592" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A592" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="C591" s="9" t="s">
+      <c r="B592" s="9" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="592" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A592" s="26"/>
-      <c r="B592" s="9" t="s">
+      <c r="C592" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C592" s="9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="593" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="26"/>
       <c r="B593" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C593" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C593" s="9" t="s">
+    </row>
+    <row r="594" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A594" s="26"/>
+      <c r="B594" s="9" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="594" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A594" s="26"/>
-      <c r="B594" s="8" t="s">
+      <c r="C594" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="C594" s="8" t="s">
+    </row>
+    <row r="595" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A595" s="26"/>
+      <c r="B595" s="8" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="595" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A595" s="26"/>
-      <c r="B595" s="9" t="s">
+      <c r="C595" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C595" s="9" t="s">
+    </row>
+    <row r="596" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A596" s="26"/>
+      <c r="B596" s="9" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="596" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A596" s="26"/>
-      <c r="B596" s="8" t="s">
+      <c r="C596" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C596" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="597" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="597" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="26"/>
       <c r="B597" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C597" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C597" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="598" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="598" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="26"/>
       <c r="B598" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C598" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C598" s="8" t="s">
+    </row>
+    <row r="599" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A599" s="26"/>
+      <c r="B599" s="8" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="599" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A599" s="26"/>
-      <c r="B599" s="9" t="s">
+      <c r="C599" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C599" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="600" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="600" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="26"/>
       <c r="B600" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C600" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="C600" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="601" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="601" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="26"/>
       <c r="B601" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C601" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C601" s="9" t="s">
+    </row>
+    <row r="602" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A602" s="26"/>
+      <c r="B602" s="9" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="602" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A602" s="26"/>
-      <c r="B602" s="11" t="s">
+      <c r="C602" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="C602" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="603" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="603" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="26"/>
       <c r="B603" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C603" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="C603" s="11" t="s">
+    </row>
+    <row r="604" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A604" s="26"/>
+      <c r="B604" s="11" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="604" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A604" s="26"/>
-      <c r="B604" s="9" t="s">
+      <c r="C604" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="C604" s="19" t="s">
+    </row>
+    <row r="605" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A605" s="26"/>
+      <c r="B605" s="9" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="605" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A605" s="26"/>
-      <c r="B605" s="8" t="s">
+      <c r="C605" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="C605" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="606" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="606" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="26"/>
       <c r="B606" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C606" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="C606" s="8" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="607" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="607" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="26"/>
       <c r="B607" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C607" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="C607" s="8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="608" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="608" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="26"/>
       <c r="B608" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C608" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="C608" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="609" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="609" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="26"/>
       <c r="B609" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C609" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C609" s="8" t="s">
+    </row>
+    <row r="610" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A610" s="26"/>
+      <c r="B610" s="8" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="610" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A610" s="26"/>
-      <c r="B610" s="9" t="s">
+      <c r="C610" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C610" s="9" t="s">
+    </row>
+    <row r="611" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A611" s="26"/>
+      <c r="B611" s="11" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="611" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A611" s="26"/>
-      <c r="B611" s="33" t="s">
+      <c r="C611" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="C611" s="33" t="s">
+    </row>
+    <row r="612" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A612" s="26"/>
+      <c r="B612" s="33" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="612" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A612" s="26"/>
-      <c r="B612" s="29" t="s">
+      <c r="C612" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="C612" s="29"/>
-    </row>
-    <row r="613" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="613" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="26"/>
-      <c r="B613" s="33" t="s">
+      <c r="B613" s="29" t="s">
         <v>617</v>
       </c>
-      <c r="C613" s="33" t="s">
+      <c r="C613" s="29" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="26"/>
       <c r="B614" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C614" s="33" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="615" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A616" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="B616" s="11" t="s">
+    </row>
+    <row r="615" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A615" s="26"/>
+      <c r="B615" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="C616" s="11" t="s">
+      <c r="C615" s="33" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A617" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="D616" s="39"/>
-    </row>
-    <row r="617" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A617" s="26"/>
-      <c r="B617" s="11" t="s">
+      <c r="B617" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C617" s="11" t="s">
+      <c r="C617" s="9" t="s">
         <v>624</v>
       </c>
       <c r="D617" s="39"/>
     </row>
-    <row r="618" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="26"/>
       <c r="B618" s="11" t="s">
         <v>625</v>
@@ -6270,7 +6373,7 @@
       </c>
       <c r="D618" s="39"/>
     </row>
-    <row r="619" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="26"/>
       <c r="B619" s="11" t="s">
         <v>627</v>
@@ -6280,7 +6383,7 @@
       </c>
       <c r="D619" s="39"/>
     </row>
-    <row r="620" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="26"/>
       <c r="B620" s="11" t="s">
         <v>629</v>
@@ -6290,7 +6393,7 @@
       </c>
       <c r="D620" s="39"/>
     </row>
-    <row r="621" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="26"/>
       <c r="B621" s="11" t="s">
         <v>631</v>
@@ -6300,55 +6403,55 @@
       </c>
       <c r="D621" s="39"/>
     </row>
-    <row r="622" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="26"/>
-      <c r="B622" s="11" t="s">
+      <c r="B622" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="C622" s="11" t="s">
+      <c r="C622" s="9" t="s">
         <v>634</v>
       </c>
       <c r="D622" s="39"/>
     </row>
-    <row r="623" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="26"/>
-      <c r="B623" s="11" t="s">
+      <c r="B623" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C623" s="11" t="s">
+      <c r="C623" s="9" t="s">
         <v>636</v>
       </c>
       <c r="D623" s="39"/>
     </row>
-    <row r="624" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="26"/>
-      <c r="B624" s="11" t="s">
+      <c r="B624" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="C624" s="11" t="s">
+      <c r="C624" s="9" t="s">
         <v>638</v>
       </c>
       <c r="D624" s="39"/>
     </row>
-    <row r="625" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="26"/>
       <c r="B625" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="C625" s="11"/>
+      <c r="C625" s="11" t="s">
+        <v>640</v>
+      </c>
       <c r="D625" s="39"/>
     </row>
-    <row r="626" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="26"/>
-      <c r="B626" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="C626" s="11" t="s">
+      <c r="B626" s="9" t="s">
         <v>641</v>
       </c>
+      <c r="C626" s="9"/>
       <c r="D626" s="39"/>
     </row>
-    <row r="627" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="26"/>
       <c r="B627" s="11" t="s">
         <v>642</v>
@@ -6358,17 +6461,17 @@
       </c>
       <c r="D627" s="39"/>
     </row>
-    <row r="628" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="26"/>
-      <c r="B628" s="11" t="s">
+      <c r="B628" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C628" s="11" t="s">
+      <c r="C628" s="9" t="s">
         <v>645</v>
       </c>
       <c r="D628" s="39"/>
     </row>
-    <row r="629" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="26"/>
       <c r="B629" s="11" t="s">
         <v>646</v>
@@ -6378,17 +6481,17 @@
       </c>
       <c r="D629" s="39"/>
     </row>
-    <row r="630" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="26"/>
-      <c r="B630" s="11" t="s">
+      <c r="B630" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="C630" s="11" t="s">
+      <c r="C630" s="9" t="s">
         <v>649</v>
       </c>
       <c r="D630" s="39"/>
     </row>
-    <row r="631" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="26"/>
       <c r="B631" s="11" t="s">
         <v>650</v>
@@ -6398,27 +6501,27 @@
       </c>
       <c r="D631" s="39"/>
     </row>
-    <row r="632" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="26"/>
-      <c r="B632" s="11" t="s">
+      <c r="B632" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C632" s="40" t="s">
+      <c r="C632" s="9" t="s">
         <v>653</v>
       </c>
       <c r="D632" s="39"/>
     </row>
-    <row r="633" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="26"/>
-      <c r="B633" s="11" t="s">
+      <c r="B633" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="C633" s="11" t="s">
+      <c r="C633" s="16" t="s">
         <v>655</v>
       </c>
       <c r="D633" s="39"/>
     </row>
-    <row r="634" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="26"/>
       <c r="B634" s="11" t="s">
         <v>656</v>
@@ -6428,7 +6531,7 @@
       </c>
       <c r="D634" s="39"/>
     </row>
-    <row r="635" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="26"/>
       <c r="B635" s="11" t="s">
         <v>658</v>
@@ -6438,7 +6541,7 @@
       </c>
       <c r="D635" s="39"/>
     </row>
-    <row r="636" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="26"/>
       <c r="B636" s="11" t="s">
         <v>660</v>
@@ -6448,37 +6551,37 @@
       </c>
       <c r="D636" s="39"/>
     </row>
-    <row r="637" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="26"/>
       <c r="B637" s="11" t="s">
         <v>662</v>
       </c>
       <c r="C637" s="11" t="s">
-        <v>473</v>
+        <v>663</v>
       </c>
       <c r="D637" s="39"/>
     </row>
-    <row r="638" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="26"/>
-      <c r="B638" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="C638" s="11" t="s">
-        <v>473</v>
+      <c r="B638" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C638" s="9" t="s">
+        <v>474</v>
       </c>
       <c r="D638" s="39"/>
     </row>
-    <row r="639" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="26"/>
-      <c r="B639" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C639" s="11" t="s">
+      <c r="B639" s="9" t="s">
         <v>665</v>
       </c>
+      <c r="C639" s="9" t="s">
+        <v>474</v>
+      </c>
       <c r="D639" s="39"/>
     </row>
-    <row r="640" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="26"/>
       <c r="B640" s="11" t="s">
         <v>666</v>
@@ -6488,38 +6591,191 @@
       </c>
       <c r="D640" s="39"/>
     </row>
-    <row r="641" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="26"/>
-      <c r="B641" s="11" t="s">
+      <c r="B641" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C641" s="11" t="s">
-        <v>473</v>
+      <c r="C641" s="9" t="s">
+        <v>669</v>
       </c>
       <c r="D641" s="39"/>
     </row>
-    <row r="642" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="26"/>
       <c r="B642" s="11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C642" s="11" t="s">
-        <v>670</v>
+        <v>474</v>
       </c>
       <c r="D642" s="39"/>
     </row>
-    <row r="643" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="26"/>
-      <c r="B643" s="11" t="s">
+      <c r="B643" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C643" s="11" t="s">
+      <c r="C643" s="9" t="s">
         <v>672</v>
       </c>
       <c r="D643" s="39"/>
     </row>
+    <row r="644" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A644" s="26"/>
+      <c r="B644" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C644" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="D644" s="39"/>
+    </row>
+    <row r="646" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A646" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A647" s="26"/>
+      <c r="B647" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A648" s="26"/>
+      <c r="B648" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A649" s="26"/>
+      <c r="B649" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A650" s="26"/>
+      <c r="B650" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A651" s="26"/>
+      <c r="B651" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A652" s="26"/>
+      <c r="B652" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A653" s="26"/>
+      <c r="B653" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A654" s="26"/>
+      <c r="B654" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A655" s="26"/>
+      <c r="B655" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A656" s="26"/>
+      <c r="B656" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A657" s="26"/>
+      <c r="B657" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A658" s="26"/>
+      <c r="B658" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A659" s="26"/>
+      <c r="B659" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A660" s="26"/>
+      <c r="B660" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A661" s="26"/>
+      <c r="B661" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A662" s="26"/>
+      <c r="B662" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A663" s="26"/>
+      <c r="B663" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A664" s="26"/>
+      <c r="B664" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A665" s="26"/>
+    </row>
+    <row r="666" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A666" s="26"/>
+    </row>
+    <row r="667" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A667" s="26"/>
+    </row>
+    <row r="668" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A668" s="26"/>
+    </row>
+    <row r="669" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A669" s="26"/>
+    </row>
+    <row r="670" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A670" s="26"/>
+    </row>
+    <row r="671" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A671" s="26"/>
+    </row>
+    <row r="672" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A672" s="26"/>
+    </row>
+    <row r="673" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A673" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="150">
+  <mergeCells count="151">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="B2:B6"/>
@@ -6589,87 +6845,88 @@
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A236:B236"/>
     <mergeCell ref="A237:A240"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:A268"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:A279"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A297:A298"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="A301:A303"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="A338:A340"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A344:A345"/>
-    <mergeCell ref="A348:B348"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="A355:B355"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="A362:B362"/>
-    <mergeCell ref="A365:B365"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A371:B371"/>
-    <mergeCell ref="A372:A373"/>
-    <mergeCell ref="A376:B376"/>
-    <mergeCell ref="A379:B379"/>
-    <mergeCell ref="A380:A382"/>
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="A387:B387"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A393:B393"/>
-    <mergeCell ref="A396:B396"/>
-    <mergeCell ref="A399:B399"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="A403:B403"/>
-    <mergeCell ref="A406:B406"/>
-    <mergeCell ref="A409:B409"/>
-    <mergeCell ref="A412:B412"/>
-    <mergeCell ref="A413:A415"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:A428"/>
-    <mergeCell ref="B418:B422"/>
-    <mergeCell ref="B423:B428"/>
-    <mergeCell ref="A430:B430"/>
-    <mergeCell ref="A431:A438"/>
-    <mergeCell ref="A440:B440"/>
-    <mergeCell ref="A443:B446"/>
-    <mergeCell ref="A474:A477"/>
-    <mergeCell ref="A479:A499"/>
-    <mergeCell ref="C525:C527"/>
-    <mergeCell ref="A528:A549"/>
-    <mergeCell ref="A551:A571"/>
-    <mergeCell ref="B551:B553"/>
-    <mergeCell ref="A573:A589"/>
-    <mergeCell ref="A591:A614"/>
-    <mergeCell ref="A616:A643"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:A280"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A302:A304"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A339:A341"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="A345:A346"/>
+    <mergeCell ref="A349:B349"/>
+    <mergeCell ref="A352:B352"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A360:A361"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="A366:B366"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A372:B372"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A381:A383"/>
+    <mergeCell ref="A385:B385"/>
+    <mergeCell ref="A388:B388"/>
+    <mergeCell ref="A391:B391"/>
+    <mergeCell ref="A394:B394"/>
+    <mergeCell ref="A397:B397"/>
+    <mergeCell ref="A400:B400"/>
+    <mergeCell ref="A401:A402"/>
+    <mergeCell ref="A404:B404"/>
+    <mergeCell ref="A407:B407"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A414:A416"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:A429"/>
+    <mergeCell ref="B419:B423"/>
+    <mergeCell ref="B424:B429"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="A432:A439"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A444:B447"/>
+    <mergeCell ref="A475:A478"/>
+    <mergeCell ref="A480:A500"/>
+    <mergeCell ref="C526:C528"/>
+    <mergeCell ref="A529:A550"/>
+    <mergeCell ref="A552:A572"/>
+    <mergeCell ref="B552:B554"/>
+    <mergeCell ref="A574:A590"/>
+    <mergeCell ref="A592:A615"/>
+    <mergeCell ref="A617:A644"/>
+    <mergeCell ref="A646:A673"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6686,24 +6943,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="35.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="35.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>674</v>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="40" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="40" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="40" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="40" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="40" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="41" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="40" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/Serviços AWS.xlsx
+++ b/Serviços AWS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="724">
   <si>
     <t xml:space="preserve">EC2</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t xml:space="preserve">Can query S3 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL based</t>
   </si>
   <si>
     <t xml:space="preserve">DMS</t>
@@ -2109,6 +2112,42 @@
     <t xml:space="preserve">Q34 – What is Amazon AppStream 2.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Q37 – AWS Resource Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q38 – On elastic beanstalk, we don’t pay for the service itself, only for the resources we use!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q39 – Where WAF can be deployed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q41 – What is used by Detective to identify security issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q42 – Remember CloudTrail Insights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q43 – Get deeper into Control Tower service and SCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q46 – Read explanations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q47 – S3 Glacier Vault Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q48 – Amazon Elastic Transcoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q51 – CloudTrail vs Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q57 – IoT Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q59 – DR Strategies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erros simulado 1</t>
   </si>
   <si>
@@ -2149,6 +2188,12 @@
   </si>
   <si>
     <t xml:space="preserve">Where data is encrypted by default.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read IAM and Organizations best practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All global services besides WAF, IAM, ROUTE53 AND CLOUDFRONT</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2455,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2484,10 +2529,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2567,16 +2608,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2656,10 +2705,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D673"/>
+  <dimension ref="A1:D677"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A648" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B665" activeCellId="0" sqref="B665"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A617" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B630" activeCellId="0" sqref="B630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="35.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3455,7 +3504,7 @@
       <c r="B139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B140" s="8" t="s">
@@ -3463,34 +3512,34 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="15"/>
-      <c r="B141" s="19" t="s">
+      <c r="A141" s="3"/>
+      <c r="B141" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
+    <row r="142" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3"/>
+      <c r="B142" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="8" t="s">
+      <c r="A144" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="18"/>
-      <c r="B145" s="9" t="s">
+      <c r="A145" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="18"/>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3520,26 +3569,26 @@
     </row>
     <row r="151" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="18"/>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
+    <row r="152" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="18"/>
+      <c r="B152" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="8" t="s">
+      <c r="A154" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3"/>
+      <c r="A155" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3564,7 +3613,7 @@
     </row>
     <row r="159" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="8" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3575,33 +3624,33 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="20"/>
-      <c r="B161" s="8" t="s">
+      <c r="A161" s="3"/>
+      <c r="B161" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="20"/>
-      <c r="B162" s="9" t="s">
+      <c r="A162" s="19"/>
+      <c r="B162" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
+    <row r="163" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="19"/>
+      <c r="B163" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="8" t="s">
+      <c r="A165" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3"/>
+      <c r="A166" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B166" s="8" t="s">
         <v>144</v>
       </c>
@@ -3618,41 +3667,41 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
+    <row r="169" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3"/>
+      <c r="B169" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" s="8" t="s">
+      <c r="A171" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="18"/>
+      <c r="A172" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B172" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="18"/>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="18"/>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="18"/>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="8" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3662,55 +3711,55 @@
         <v>153</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
+    <row r="177" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="18"/>
+      <c r="B177" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="8" t="s">
+      <c r="A179" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3"/>
+      <c r="A180" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B180" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
+    <row r="181" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3"/>
+      <c r="B181" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B183" s="8" t="s">
+      <c r="A183" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3"/>
+      <c r="A184" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B184" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="9" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3728,7 +3777,7 @@
     </row>
     <row r="189" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="8" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3738,22 +3787,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
+    <row r="191" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3"/>
+      <c r="B191" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B193" s="8" t="s">
+      <c r="A193" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="18"/>
+      <c r="A194" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B194" s="8" t="s">
         <v>168</v>
       </c>
@@ -3766,112 +3815,112 @@
     </row>
     <row r="196" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="18"/>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
+    <row r="197" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="18"/>
+      <c r="B197" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B199" s="8" t="s">
+      <c r="A199" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="201" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B202" s="9" t="s">
+      <c r="A202" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="204" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B205" s="8" t="s">
+      <c r="A205" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3"/>
+      <c r="A206" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B206" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
+    <row r="210" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="3"/>
+      <c r="B210" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="8" t="s">
+      <c r="A212" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="3"/>
-      <c r="B213" s="11" t="s">
+      <c r="A213" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
+    <row r="214" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="3"/>
+      <c r="B214" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B216" s="8" t="s">
+      <c r="A216" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3"/>
+      <c r="A217" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B217" s="8" t="s">
         <v>186</v>
       </c>
@@ -3888,109 +3937,109 @@
         <v>188</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
+    <row r="220" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="3"/>
+      <c r="B220" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="8" t="s">
+      <c r="A222" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3"/>
-      <c r="B223" s="9" t="s">
+      <c r="A223" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="s">
+    <row r="224" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="3"/>
+      <c r="B224" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B226" s="8" t="s">
+      <c r="A226" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="3"/>
+      <c r="A227" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B227" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
-      <c r="B228" s="11" t="s">
+      <c r="B228" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="s">
+    <row r="229" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="3"/>
+      <c r="B229" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B231" s="8" t="s">
+      <c r="A231" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="233" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="s">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B234" s="8" t="s">
+      <c r="A234" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="236" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="s">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B237" s="8" t="s">
+      <c r="A237" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="B237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="3"/>
+      <c r="A238" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B238" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4000,50 +4049,50 @@
         <v>205</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="s">
+    <row r="242" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A242" s="3"/>
+      <c r="B242" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B244" s="8" t="s">
+      <c r="A244" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="246" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="s">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B247" s="8" t="s">
+      <c r="A247" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="249" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="s">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A248" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B250" s="8" t="s">
+      <c r="A250" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="B250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3"/>
+      <c r="A251" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B251" s="8" t="s">
         <v>212</v>
       </c>
@@ -4054,50 +4103,50 @@
         <v>213</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="s">
+    <row r="253" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="3"/>
+      <c r="B253" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B255" s="9" t="s">
+      <c r="A255" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="257" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="s">
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A256" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B258" s="8" t="s">
+      <c r="A258" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="260" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="s">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A259" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B261" s="8" t="s">
+      <c r="A261" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="B261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="3"/>
+      <c r="A262" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B262" s="8" t="s">
         <v>220</v>
       </c>
@@ -4108,22 +4157,22 @@
         <v>221</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="s">
+    <row r="264" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A264" s="3"/>
+      <c r="B264" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B266" s="8" t="s">
+      <c r="A266" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="B266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="18"/>
+      <c r="A267" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B267" s="8" t="s">
         <v>224</v>
       </c>
@@ -4136,46 +4185,46 @@
     </row>
     <row r="269" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="18"/>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="s">
+    <row r="270" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A270" s="18"/>
+      <c r="B270" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B272" s="8" t="s">
+      <c r="A272" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="B272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="3"/>
+      <c r="A273" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B273" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="s">
+    <row r="274" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="3"/>
+      <c r="B274" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B276" s="8" t="s">
+      <c r="A276" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="B276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="18"/>
+      <c r="A277" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B277" s="8" t="s">
         <v>232</v>
       </c>
@@ -4198,112 +4247,112 @@
         <v>235</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="s">
+    <row r="281" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A281" s="18"/>
+      <c r="B281" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B283" s="8" t="s">
+      <c r="A283" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="285" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="s">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A284" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="s">
+      <c r="A286" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B288" s="2"/>
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A287" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B289" s="8" t="s">
+      <c r="A289" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="s">
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A290" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B290" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B292" s="8" t="s">
+      <c r="A292" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="294" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="s">
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A293" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B293" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B295" s="8" t="s">
+      <c r="A295" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="297" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="s">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A296" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B298" s="8" t="s">
+      <c r="A298" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="B298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="3"/>
+      <c r="A299" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B299" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="s">
+    <row r="300" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A300" s="3"/>
+      <c r="B300" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B302" s="8" t="s">
+      <c r="A302" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="B302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="3"/>
+      <c r="A303" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B303" s="8" t="s">
         <v>250</v>
       </c>
@@ -4314,147 +4363,147 @@
         <v>251</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="s">
+    <row r="305" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A305" s="3"/>
+      <c r="B305" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B307" s="8" t="s">
+      <c r="A307" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="B307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="3"/>
-      <c r="B308" s="11" t="s">
+      <c r="A308" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B308" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="s">
+    <row r="309" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A309" s="3"/>
+      <c r="B309" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B311" s="8" t="s">
+      <c r="A311" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="313" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="s">
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A312" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B312" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B314" s="21" t="s">
+      <c r="A314" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="B314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="3"/>
-      <c r="B315" s="8" t="s">
+      <c r="A315" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="s">
+    <row r="316" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A316" s="3"/>
+      <c r="B316" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B318" s="8" t="s">
+      <c r="A318" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="320" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A319" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B321" s="8" t="s">
+      <c r="A321" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="323" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="s">
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A322" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B324" s="8" t="s">
+      <c r="A324" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="326" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="s">
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A325" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B326" s="2"/>
     </row>
     <row r="327" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B327" s="8" t="s">
+      <c r="A327" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="329" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2" t="s">
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A328" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B328" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B329" s="2"/>
     </row>
     <row r="330" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B330" s="8" t="s">
+      <c r="A330" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="332" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2" t="s">
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A331" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B331" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B332" s="2"/>
     </row>
     <row r="333" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B333" s="8" t="s">
+      <c r="A333" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="B333" s="2"/>
     </row>
     <row r="334" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="3"/>
-      <c r="B334" s="11" t="s">
+      <c r="A334" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B334" s="8" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4470,22 +4519,22 @@
         <v>274</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="s">
+    <row r="337" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A337" s="3"/>
+      <c r="B337" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B338" s="2"/>
     </row>
     <row r="339" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B339" s="8" t="s">
+      <c r="A339" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="B339" s="2"/>
     </row>
     <row r="340" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="3"/>
+      <c r="A340" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B340" s="8" t="s">
         <v>277</v>
       </c>
@@ -4502,22 +4551,22 @@
         <v>279</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2" t="s">
+    <row r="343" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A343" s="3"/>
+      <c r="B343" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B345" s="8" t="s">
+      <c r="A345" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="B345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="3"/>
+      <c r="A346" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B346" s="8" t="s">
         <v>282</v>
       </c>
@@ -4528,132 +4577,132 @@
         <v>283</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="s">
+    <row r="348" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A348" s="3"/>
+      <c r="B348" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B350" s="8" t="s">
+      <c r="A350" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="352" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="s">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A351" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B353" s="8" t="s">
+      <c r="A353" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="B353" s="2"/>
     </row>
     <row r="354" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="18"/>
+      <c r="A354" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B354" s="8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A356" s="2" t="s">
+    <row r="355" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A355" s="18"/>
+      <c r="B355" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A357" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B357" s="11" t="s">
+      <c r="A357" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="359" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="2" t="s">
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B358" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B360" s="8" t="s">
+      <c r="A360" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="B360" s="2"/>
     </row>
     <row r="361" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="3"/>
+      <c r="A361" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B361" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="2" t="s">
+    <row r="362" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A362" s="3"/>
+      <c r="B362" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B364" s="8" t="s">
+      <c r="A364" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="366" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="2" t="s">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B367" s="8" t="s">
+      <c r="A367" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="369" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="2" t="s">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B368" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B369" s="2"/>
     </row>
     <row r="370" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B370" s="11" t="s">
+      <c r="A370" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="372" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="2" t="s">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B371" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B372" s="2"/>
     </row>
     <row r="373" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B373" s="8" t="s">
+      <c r="A373" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="B373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="3"/>
+      <c r="A374" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B374" s="8" t="s">
         <v>302</v>
       </c>
@@ -4664,559 +4713,557 @@
         <v>303</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="2" t="s">
+    <row r="376" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="3"/>
+      <c r="B376" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B378" s="8" t="s">
+      <c r="A378" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="380" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="2" t="s">
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B379" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B381" s="8" t="s">
+      <c r="A381" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="B381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="3"/>
-      <c r="B382" s="9" t="s">
+      <c r="A382" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B382" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="3"/>
-      <c r="B383" s="8" t="s">
+      <c r="B383" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="2" t="s">
+    <row r="384" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="3"/>
+      <c r="B384" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B386" s="8" t="s">
+      <c r="A386" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="388" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="2" t="s">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B387" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B389" s="8" t="s">
+      <c r="A389" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="391" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A391" s="2" t="s">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B390" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A392" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B392" s="8" t="s">
+      <c r="A392" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="394" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A394" s="2" t="s">
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B393" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B395" s="8" t="s">
+      <c r="A395" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="397" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A397" s="2" t="s">
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B396" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B398" s="8" t="s">
+      <c r="A398" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="400" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="2" t="s">
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A399" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B399" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A401" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B401" s="8" t="s">
+      <c r="A401" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="B401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="3"/>
+      <c r="A402" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B402" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="2" t="s">
+    <row r="403" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="3"/>
+      <c r="B403" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B405" s="8" t="s">
+      <c r="A405" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="407" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="2" t="s">
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A406" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B406" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B408" s="8" t="s">
+      <c r="A408" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="410" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="2" t="s">
+      <c r="B408" s="2"/>
+    </row>
+    <row r="409" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B409" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B411" s="5" t="s">
+      <c r="A411" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="413" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="2" t="s">
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B412" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B414" s="9" t="s">
+      <c r="A414" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="B414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="3"/>
-      <c r="B415" s="8" t="s">
+      <c r="A415" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B415" s="9" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="3"/>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="2" t="s">
+    <row r="417" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="3"/>
+      <c r="B417" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A419" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B419" s="22" t="s">
+      <c r="A419" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C419" s="8" t="s">
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+    </row>
+    <row r="420" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B420" s="21" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="420" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="3"/>
-      <c r="B420" s="22"/>
       <c r="C420" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
-      <c r="B421" s="22"/>
+      <c r="B421" s="21"/>
       <c r="C421" s="8" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
-      <c r="B422" s="22"/>
+      <c r="B422" s="21"/>
       <c r="C422" s="8" t="s">
-        <v>163</v>
+        <v>338</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
-      <c r="B423" s="22"/>
+      <c r="B423" s="21"/>
       <c r="C423" s="8" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="3"/>
-      <c r="B424" s="23" t="s">
+      <c r="B424" s="21"/>
+      <c r="C424" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="C424" s="9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="3"/>
-      <c r="B425" s="23"/>
+      <c r="B425" s="22" t="s">
+        <v>340</v>
+      </c>
       <c r="C425" s="9" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="3"/>
-      <c r="B426" s="23"/>
+      <c r="B426" s="22"/>
       <c r="C426" s="9" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="3"/>
-      <c r="B427" s="23"/>
+      <c r="B427" s="22"/>
       <c r="C427" s="9" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="3"/>
-      <c r="B428" s="23"/>
+      <c r="B428" s="22"/>
       <c r="C428" s="9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="3"/>
-      <c r="B429" s="23"/>
+      <c r="B429" s="22"/>
       <c r="C429" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="2" t="s">
+    <row r="430" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A430" s="3"/>
+      <c r="B430" s="22"/>
+      <c r="C430" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B432" s="21" t="s">
-        <v>161</v>
-      </c>
+      <c r="A432" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A433" s="3"/>
-      <c r="B433" s="21" t="s">
-        <v>347</v>
+      <c r="A433" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B433" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
-      <c r="B434" s="21" t="s">
+      <c r="B434" s="20" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="3"/>
-      <c r="B435" s="21" t="s">
-        <v>163</v>
+      <c r="B435" s="20" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="3"/>
-      <c r="B436" s="21" t="s">
-        <v>349</v>
+      <c r="B436" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="3"/>
-      <c r="B437" s="21" t="s">
+      <c r="B437" s="20" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="3"/>
-      <c r="B438" s="21" t="s">
+      <c r="B438" s="20" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="3"/>
-      <c r="B439" s="21" t="s">
+      <c r="B439" s="20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A441" s="2" t="s">
+    <row r="440" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A440" s="3"/>
+      <c r="B440" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="B441" s="2"/>
     </row>
     <row r="442" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B442" s="21" t="s">
+      <c r="A442" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="444" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="24" t="s">
+      <c r="B442" s="2"/>
+    </row>
+    <row r="443" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A443" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B443" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="B444" s="24"/>
     </row>
     <row r="445" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A445" s="24"/>
-      <c r="B445" s="24"/>
+      <c r="A445" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B445" s="23"/>
     </row>
     <row r="446" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A446" s="24"/>
-      <c r="B446" s="24"/>
+      <c r="A446" s="23"/>
+      <c r="B446" s="23"/>
     </row>
     <row r="447" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="24"/>
-      <c r="B447" s="24"/>
+      <c r="A447" s="23"/>
+      <c r="B447" s="23"/>
     </row>
     <row r="448" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B448" s="8" t="s">
+      <c r="A448" s="23"/>
+      <c r="B448" s="23"/>
+    </row>
+    <row r="449" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A449" s="8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="449" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="9" t="s">
+      <c r="B449" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B449" s="9" t="s">
+    </row>
+    <row r="450" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A450" s="9" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="450" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="8" t="s">
+      <c r="B450" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="B450" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B451" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="B451" s="8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B452" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B452" s="8" t="s">
+    </row>
+    <row r="453" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A453" s="8" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="453" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="21" t="s">
+      <c r="B453" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B453" s="8" t="s">
+    </row>
+    <row r="454" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A454" s="20" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="454" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="21" t="s">
+      <c r="B454" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B454" s="8" t="s">
+    </row>
+    <row r="455" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A455" s="20" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="455" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="21" t="s">
+      <c r="B455" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B455" s="25"/>
     </row>
     <row r="456" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="8" t="s">
+      <c r="A456" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="B456" s="8" t="s">
-        <v>372</v>
-      </c>
+      <c r="B456" s="24"/>
     </row>
     <row r="457" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B457" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="B457" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B458" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="B458" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B459" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="B459" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B460" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="B460" s="8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B461" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B461" s="8" t="s">
+    </row>
+    <row r="462" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A462" s="8" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="462" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="9" t="s">
+      <c r="B462" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B462" s="9" t="s">
+    </row>
+    <row r="463" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A463" s="9" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="463" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="8" t="s">
+      <c r="B463" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B463" s="8" t="s">
+    </row>
+    <row r="464" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A464" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="464" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A464" s="5" t="s">
+      <c r="B464" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B464" s="8" t="s">
+    </row>
+    <row r="465" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A465" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="465" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="8" t="s">
+      <c r="B465" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="B465" s="8" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B466" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="B466" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B467" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="B467" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B468" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="B468" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B469" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="B469" s="8" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="8" t="s">
-        <v>196</v>
+        <v>398</v>
       </c>
       <c r="B470" s="8" t="s">
         <v>399</v>
@@ -5224,1555 +5271,1639 @@
     </row>
     <row r="471" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B471" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B471" s="8" t="s">
+    </row>
+    <row r="472" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A472" s="8" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="472" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A472" s="9" t="s">
+      <c r="B472" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="B472" s="9" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B473" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B473" s="9" t="s">
+    </row>
+    <row r="474" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A474" s="9" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="475" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A475" s="26" t="s">
+      <c r="B474" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B475" s="21" t="s">
+    </row>
+    <row r="476" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A476" s="25" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="476" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A476" s="26"/>
-      <c r="B476" s="21" t="s">
+      <c r="B476" s="20" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A477" s="26"/>
-      <c r="B477" s="27" t="s">
+      <c r="A477" s="25"/>
+      <c r="B477" s="20" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="26"/>
-      <c r="B478" s="9" t="s">
+      <c r="A478" s="25"/>
+      <c r="B478" s="26" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A480" s="28" t="s">
+    <row r="479" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A479" s="25"/>
+      <c r="B479" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="B480" s="8" t="s">
+    </row>
+    <row r="481" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A481" s="27" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="481" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A481" s="28"/>
-      <c r="B481" s="11" t="s">
+      <c r="B481" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A482" s="28"/>
-      <c r="B482" s="8" t="s">
+      <c r="A482" s="27"/>
+      <c r="B482" s="11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A483" s="28"/>
+      <c r="A483" s="27"/>
       <c r="B483" s="8" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A484" s="28"/>
+      <c r="A484" s="27"/>
       <c r="B484" s="8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A485" s="28"/>
+      <c r="A485" s="27"/>
       <c r="B485" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A486" s="28"/>
+      <c r="A486" s="27"/>
       <c r="B486" s="8" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A487" s="28"/>
+      <c r="A487" s="27"/>
       <c r="B487" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A488" s="28"/>
+      <c r="A488" s="27"/>
       <c r="B488" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A489" s="28"/>
+      <c r="A489" s="27"/>
       <c r="B489" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A490" s="28"/>
+      <c r="A490" s="27"/>
       <c r="B490" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A491" s="28"/>
+      <c r="A491" s="27"/>
       <c r="B491" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A492" s="28"/>
+      <c r="A492" s="27"/>
       <c r="B492" s="8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A493" s="28"/>
-      <c r="B493" s="29" t="s">
+      <c r="A493" s="27"/>
+      <c r="B493" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A494" s="28"/>
-      <c r="B494" s="21" t="s">
+      <c r="A494" s="27"/>
+      <c r="B494" s="28" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A495" s="28"/>
-      <c r="B495" s="21" t="s">
+      <c r="A495" s="27"/>
+      <c r="B495" s="20" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A496" s="28"/>
-      <c r="B496" s="21" t="s">
+      <c r="A496" s="27"/>
+      <c r="B496" s="20" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A497" s="28"/>
-      <c r="B497" s="21" t="s">
+      <c r="A497" s="27"/>
+      <c r="B497" s="20" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A498" s="28"/>
-      <c r="B498" s="21" t="s">
+      <c r="A498" s="27"/>
+      <c r="B498" s="20" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A499" s="28"/>
-      <c r="B499" s="9" t="s">
+      <c r="A499" s="27"/>
+      <c r="B499" s="20" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A500" s="28"/>
-      <c r="B500" s="21" t="s">
+      <c r="A500" s="27"/>
+      <c r="B500" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A503" s="3" t="s">
+    <row r="501" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A501" s="27"/>
+      <c r="B501" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="B503" s="4" t="s">
+    </row>
+    <row r="504" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A504" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C503" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="D503" s="31" t="s">
+      <c r="B504" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="504" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A504" s="32" t="s">
+      <c r="C504" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D504" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="B504" s="33" t="s">
+    </row>
+    <row r="505" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A505" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="C504" s="33" t="s">
+      <c r="B505" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="D504" s="34" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A505" s="32" t="s">
+      <c r="C505" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="B505" s="33" t="s">
+      <c r="D505" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="C505" s="33" t="s">
+    </row>
+    <row r="506" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A506" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="D505" s="34" t="s">
+      <c r="B506" s="32" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="506" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B506" s="33" t="s">
+      <c r="C506" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="C506" s="33" t="s">
+      <c r="D506" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="D506" s="34" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="507" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B507" s="33" t="s">
+      <c r="B507" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="C507" s="33" t="s">
+      <c r="C507" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="D507" s="34" t="s">
+      <c r="D507" s="33" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B508" s="33" t="s">
+      <c r="B508" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="C508" s="33" t="s">
+      <c r="C508" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="D508" s="33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B509" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="D508" s="34" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B509" s="9" t="s">
+      <c r="C509" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="C509" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="D509" s="34" t="s">
-        <v>446</v>
+      <c r="D509" s="33" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B510" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C510" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="C510" s="9" t="s">
+      <c r="D510" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B511" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="D510" s="34" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C511" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="D511" s="34" t="s">
+      <c r="D511" s="33" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C512" s="9" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="512" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C512" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="D512" s="34" t="s">
-        <v>447</v>
+      <c r="D512" s="33" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C513" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="D513" s="34" t="s">
-        <v>451</v>
+      <c r="C513" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D513" s="33" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C514" s="33" t="s">
+      <c r="C514" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="D514" s="34" t="s">
+      <c r="D514" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C515" s="32" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="515" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C515" s="33" t="s">
+      <c r="D515" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="D515" s="34" t="s">
-        <v>454</v>
-      </c>
     </row>
     <row r="516" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C516" s="33" t="s">
+      <c r="C516" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="D516" s="34" t="s">
+      <c r="D516" s="33" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C517" s="32" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="517" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C517" s="33" t="s">
+      <c r="D517" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="D517" s="35" t="s">
-        <v>457</v>
-      </c>
     </row>
     <row r="518" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D518" s="11" t="s">
+      <c r="C518" s="32" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="519" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D519" s="33" t="s">
-        <v>351</v>
+      <c r="D518" s="34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="70.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D519" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D520" s="33" t="s">
-        <v>459</v>
+      <c r="D520" s="32" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D521" s="33" t="s">
+      <c r="D521" s="32" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C526" s="26" t="s">
+    <row r="522" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D522" s="32" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C527" s="26"/>
+      <c r="C527" s="25" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="528" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C528" s="26"/>
+      <c r="C528" s="25"/>
     </row>
     <row r="529" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A529" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="B529" s="33" t="s">
+      <c r="C529" s="25"/>
+    </row>
+    <row r="530" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A530" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="C529" s="33" t="s">
+      <c r="B530" s="32" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="530" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A530" s="36"/>
-      <c r="B530" s="33" t="s">
+      <c r="C530" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="C530" s="33" t="s">
+    </row>
+    <row r="531" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A531" s="35"/>
+      <c r="B531" s="32" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="531" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A531" s="36"/>
-      <c r="B531" s="33" t="s">
+      <c r="C531" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="C531" s="33" t="s">
+    </row>
+    <row r="532" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A532" s="35"/>
+      <c r="B532" s="32" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="532" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A532" s="36"/>
-      <c r="B532" s="33" t="s">
+      <c r="C532" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="C532" s="33" t="s">
+    </row>
+    <row r="533" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A533" s="35"/>
+      <c r="B533" s="32" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="533" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A533" s="36"/>
-      <c r="B533" s="33" t="s">
+      <c r="C533" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="C533" s="33" t="s">
+    </row>
+    <row r="534" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A534" s="35"/>
+      <c r="B534" s="32" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="534" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A534" s="36"/>
-      <c r="B534" s="33" t="s">
+      <c r="C534" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="C534" s="33" t="s">
+    </row>
+    <row r="535" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A535" s="35"/>
+      <c r="B535" s="32" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="535" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A535" s="36"/>
-      <c r="B535" s="33" t="s">
+      <c r="C535" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="C535" s="33" t="s">
+    </row>
+    <row r="536" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A536" s="35"/>
+      <c r="B536" s="32" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="536" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A536" s="36"/>
-      <c r="B536" s="33" t="s">
+      <c r="C536" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="C536" s="33" t="s">
+    </row>
+    <row r="537" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A537" s="35"/>
+      <c r="B537" s="32" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="537" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A537" s="36"/>
-      <c r="B537" s="33" t="s">
+      <c r="C537" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="C537" s="33" t="s">
+    </row>
+    <row r="538" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A538" s="35"/>
+      <c r="B538" s="32" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="538" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A538" s="36"/>
-      <c r="B538" s="33" t="s">
+      <c r="C538" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="C538" s="33" t="s">
+    </row>
+    <row r="539" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A539" s="35"/>
+      <c r="B539" s="32" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="539" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A539" s="36"/>
-      <c r="B539" s="33" t="s">
+      <c r="C539" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="C539" s="33" t="s">
+    </row>
+    <row r="540" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A540" s="35"/>
+      <c r="B540" s="32" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="540" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A540" s="36"/>
-      <c r="B540" s="33" t="s">
+      <c r="C540" s="32" t="s">
         <v>485</v>
       </c>
-      <c r="C540" s="33" t="s">
+    </row>
+    <row r="541" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A541" s="35"/>
+      <c r="B541" s="32" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="541" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A541" s="36"/>
-      <c r="B541" s="33" t="s">
+      <c r="C541" s="32" t="s">
         <v>487</v>
       </c>
-      <c r="C541" s="33" t="s">
+    </row>
+    <row r="542" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A542" s="35"/>
+      <c r="B542" s="32" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="542" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="36"/>
-      <c r="B542" s="33" t="s">
+      <c r="C542" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="C542" s="33" t="s">
+    </row>
+    <row r="543" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A543" s="35"/>
+      <c r="B543" s="32" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="543" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A543" s="36"/>
-      <c r="B543" s="33" t="s">
+      <c r="C543" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="C543" s="33" t="s">
+    </row>
+    <row r="544" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A544" s="35"/>
+      <c r="B544" s="32" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="544" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="36"/>
-      <c r="B544" s="33" t="s">
+      <c r="C544" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="C544" s="33" t="s">
+    </row>
+    <row r="545" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A545" s="35"/>
+      <c r="B545" s="32" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="545" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="36"/>
-      <c r="B545" s="9" t="s">
+      <c r="C545" s="32" t="s">
         <v>495</v>
       </c>
-      <c r="C545" s="9" t="s">
+    </row>
+    <row r="546" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A546" s="35"/>
+      <c r="B546" s="9" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="546" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="36"/>
-      <c r="B546" s="21" t="s">
+      <c r="C546" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="C546" s="21" t="s">
+    </row>
+    <row r="547" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A547" s="35"/>
+      <c r="B547" s="20" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="547" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="36"/>
-      <c r="B547" s="9" t="s">
+      <c r="C547" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="C547" s="9" t="s">
+    </row>
+    <row r="548" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="35"/>
+      <c r="B548" s="8" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="548" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="36"/>
-      <c r="B548" s="33" t="s">
+      <c r="C548" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="C548" s="33" t="s">
+    </row>
+    <row r="549" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="35"/>
+      <c r="B549" s="32" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="549" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="36"/>
-      <c r="B549" s="33" t="s">
+      <c r="C549" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="C549" s="33" t="s">
+    </row>
+    <row r="550" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="35"/>
+      <c r="B550" s="32" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="550" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="36"/>
-      <c r="B550" s="33" t="s">
+      <c r="C550" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="C550" s="33" t="s">
+    </row>
+    <row r="551" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="35"/>
+      <c r="B551" s="32" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="552" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="26" t="s">
+      <c r="C551" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="B552" s="9" t="s">
+    </row>
+    <row r="553" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A553" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="C552" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="553" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A553" s="26"/>
-      <c r="B553" s="9"/>
+      <c r="B553" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="C553" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A554" s="26"/>
+      <c r="A554" s="25"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A555" s="26"/>
-      <c r="B555" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="C555" s="8" t="s">
-        <v>332</v>
+      <c r="A555" s="25"/>
+      <c r="B555" s="9"/>
+      <c r="C555" s="9" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A556" s="26"/>
+      <c r="A556" s="25"/>
       <c r="B556" s="8" t="s">
         <v>510</v>
       </c>
       <c r="C556" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A557" s="25"/>
+      <c r="B557" s="8" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="557" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A557" s="26"/>
-      <c r="B557" s="8" t="s">
+      <c r="C557" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="C557" s="8" t="s">
+    </row>
+    <row r="558" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A558" s="25"/>
+      <c r="B558" s="8" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="558" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A558" s="26"/>
-      <c r="B558" s="8" t="s">
+      <c r="C558" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="C558" s="8" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="559" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A559" s="26"/>
+      <c r="A559" s="25"/>
       <c r="B559" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C559" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A560" s="25"/>
+      <c r="B560" s="8" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="560" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A560" s="26"/>
-      <c r="B560" s="8" t="s">
+      <c r="C560" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C560" s="8" t="s">
+    </row>
+    <row r="561" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A561" s="25"/>
+      <c r="B561" s="8" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="561" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A561" s="26"/>
-      <c r="B561" s="8" t="s">
+      <c r="C561" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="C561" s="8" t="s">
+    </row>
+    <row r="562" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A562" s="25"/>
+      <c r="B562" s="8" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="562" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="26"/>
-      <c r="B562" s="9" t="s">
+      <c r="C562" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="C562" s="9" t="s">
+    </row>
+    <row r="563" customFormat="false" ht="35.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A563" s="25"/>
+      <c r="B563" s="9" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="5